--- a/YCmatrix.xlsx
+++ b/YCmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9403" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9642" uniqueCount="479">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -494,6 +494,9 @@
     <t>X2021.09.21</t>
   </si>
   <si>
+    <t>X2021.10.09</t>
+  </si>
+  <si>
     <t>Accrington</t>
   </si>
   <si>
@@ -569,6 +572,9 @@
     <t>X2021.08.24</t>
   </si>
   <si>
+    <t>X2021.10.08</t>
+  </si>
+  <si>
     <t>Barrow</t>
   </si>
   <si>
@@ -647,6 +653,12 @@
     <t>X2021.08.31</t>
   </si>
   <si>
+    <t>X2021.10.05</t>
+  </si>
+  <si>
+    <t>X2021.10.12</t>
+  </si>
+  <si>
     <t>Aldershot</t>
   </si>
   <si>
@@ -1323,6 +1335,12 @@
   </si>
   <si>
     <t>X2021.10.04</t>
+  </si>
+  <si>
+    <t>X2021.10.10</t>
+  </si>
+  <si>
+    <t>X2021.10.11</t>
   </si>
   <si>
     <t>Alcorcon</t>
@@ -3552,25 +3570,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="J1" t="s">
         <v>120</v>
@@ -3582,7 +3600,7 @@
         <v>97</v>
       </c>
       <c r="M1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -3617,7 +3635,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -3688,7 +3706,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B3" t="s">
         <v>53</v>
@@ -3759,7 +3777,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
@@ -3830,7 +3848,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
@@ -3901,7 +3919,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
@@ -3972,7 +3990,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -4043,7 +4061,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B8" t="s">
         <v>56</v>
@@ -4114,7 +4132,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
@@ -4185,7 +4203,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B10" t="s">
         <v>53</v>
@@ -4256,7 +4274,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B11" t="s">
         <v>54</v>
@@ -4327,7 +4345,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B12" t="s">
         <v>56</v>
@@ -4398,7 +4416,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
@@ -4469,7 +4487,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>
@@ -4540,7 +4558,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B15" t="s">
         <v>59</v>
@@ -4611,7 +4629,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
@@ -4682,7 +4700,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
@@ -4753,7 +4771,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B18" t="s">
         <v>53</v>
@@ -4824,7 +4842,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -4895,7 +4913,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B20" t="s">
         <v>54</v>
@@ -4966,7 +4984,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B21" t="s">
         <v>53</v>
@@ -5089,7 +5107,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -5130,7 +5148,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -5171,7 +5189,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -5212,7 +5230,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
@@ -5253,7 +5271,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -5294,7 +5312,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -5335,7 +5353,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -5376,7 +5394,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -5417,7 +5435,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -5458,7 +5476,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
@@ -5499,7 +5517,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B12" t="s">
         <v>56</v>
@@ -5540,7 +5558,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B13" t="s">
         <v>54</v>
@@ -5581,7 +5599,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
@@ -5622,7 +5640,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -5713,7 +5731,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="O1" t="s">
         <v>152</v>
@@ -5745,7 +5763,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B2" t="s">
         <v>53</v>
@@ -5816,7 +5834,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -5887,7 +5905,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -5958,7 +5976,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
@@ -6029,7 +6047,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -6100,7 +6118,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
@@ -6171,7 +6189,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B8" t="s">
         <v>54</v>
@@ -6242,7 +6260,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -6313,7 +6331,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B10" t="s">
         <v>54</v>
@@ -6384,7 +6402,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
@@ -6455,7 +6473,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
@@ -6526,7 +6544,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -6597,7 +6615,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
@@ -6668,7 +6686,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -6739,7 +6757,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
@@ -6810,7 +6828,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -6881,7 +6899,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B18" t="s">
         <v>53</v>
@@ -6952,7 +6970,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -7023,7 +7041,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
@@ -7094,7 +7112,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B21" t="s">
         <v>56</v>
@@ -7215,7 +7233,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="O1" t="s">
         <v>152</v>
@@ -7241,7 +7259,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -7306,7 +7324,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -7371,7 +7389,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -7436,7 +7454,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -7501,7 +7519,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -7566,7 +7584,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -7631,7 +7649,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -7696,7 +7714,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -7761,7 +7779,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -7826,7 +7844,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B11" t="s">
         <v>54</v>
@@ -7891,7 +7909,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
@@ -7956,7 +7974,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -8021,7 +8039,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
@@ -8086,7 +8104,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -8151,7 +8169,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -8216,7 +8234,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -8281,7 +8299,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
@@ -8346,7 +8364,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -8411,7 +8429,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
@@ -8476,7 +8494,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
@@ -8623,7 +8641,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -8694,7 +8712,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -8765,7 +8783,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -8836,7 +8854,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -8907,7 +8925,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -8978,7 +8996,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -9049,7 +9067,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -9120,7 +9138,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B9" t="s">
         <v>59</v>
@@ -9191,7 +9209,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -9262,7 +9280,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
@@ -9333,7 +9351,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
@@ -9404,7 +9422,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -9475,7 +9493,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
@@ -9546,7 +9564,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -9617,7 +9635,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -9688,7 +9706,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -9759,7 +9777,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
@@ -9830,7 +9848,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -9924,7 +9942,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -9936,7 +9954,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -9978,7 +9996,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -10004,7 +10022,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -10096,7 +10114,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -10188,7 +10206,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -10280,7 +10298,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -10372,7 +10390,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -10464,7 +10482,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -10556,7 +10574,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -10648,7 +10666,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -10740,7 +10758,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -10832,7 +10850,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
@@ -10924,7 +10942,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
@@ -11016,7 +11034,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -11108,7 +11126,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
@@ -11200,7 +11218,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -11292,7 +11310,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -11384,7 +11402,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
@@ -11476,7 +11494,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
@@ -11568,7 +11586,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B19" t="s">
         <v>56</v>
@@ -11724,7 +11742,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -11777,7 +11795,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -11830,7 +11848,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
@@ -11883,7 +11901,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -11936,7 +11954,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -11989,7 +12007,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -12042,7 +12060,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B8" t="s">
         <v>57</v>
@@ -12095,7 +12113,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -12148,7 +12166,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
@@ -12201,7 +12219,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -12254,7 +12272,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B12" t="s">
         <v>54</v>
@@ -12307,7 +12325,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
@@ -12377,7 +12395,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -12389,7 +12407,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -12415,7 +12433,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B2" t="s">
         <v>53</v>
@@ -12459,7 +12477,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -12503,7 +12521,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
@@ -12547,7 +12565,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -12591,7 +12609,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
@@ -12635,7 +12653,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -12679,7 +12697,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B8" t="s">
         <v>54</v>
@@ -12723,7 +12741,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
@@ -12767,7 +12785,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B10" t="s">
         <v>54</v>
@@ -12811,7 +12829,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
@@ -12904,7 +12922,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
@@ -12942,7 +12960,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B3" t="s">
         <v>53</v>
@@ -12980,7 +12998,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
@@ -13018,7 +13036,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -13056,7 +13074,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -13094,7 +13112,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
@@ -13132,7 +13150,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
@@ -13170,7 +13188,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B9" t="s">
         <v>54</v>
@@ -13208,7 +13226,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B10" t="s">
         <v>54</v>
@@ -13246,7 +13264,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B11" t="s">
         <v>54</v>
@@ -13319,7 +13337,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -13342,7 +13360,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -13389,7 +13407,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B3" t="s">
         <v>53</v>
@@ -13436,7 +13454,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
@@ -13483,7 +13501,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B5" t="s">
         <v>54</v>
@@ -13530,7 +13548,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
@@ -13577,7 +13595,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
@@ -13624,7 +13642,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -13671,7 +13689,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B9" t="s">
         <v>56</v>
@@ -13718,7 +13736,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B10" t="s">
         <v>56</v>
@@ -13765,7 +13783,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
@@ -15081,7 +15099,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -15123,7 +15141,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="T1" t="s">
         <v>152</v>
@@ -15155,7 +15173,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -15241,7 +15259,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -15327,7 +15345,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -15413,7 +15431,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -15499,7 +15517,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -15585,7 +15603,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -15671,7 +15689,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -15757,7 +15775,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -15843,7 +15861,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -15929,7 +15947,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
@@ -16015,7 +16033,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
@@ -16101,7 +16119,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -16187,7 +16205,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
@@ -16273,7 +16291,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -16359,7 +16377,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -16445,7 +16463,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -16531,7 +16549,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
@@ -16617,7 +16635,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -16703,7 +16721,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
@@ -16789,7 +16807,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
@@ -16898,7 +16916,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -16922,16 +16940,16 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="N1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="O1" t="s">
         <v>150</v>
       </c>
       <c r="P1" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="Q1" t="s">
         <v>151</v>
@@ -16958,7 +16976,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -16982,12 +17000,24 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>429</v>
+        <v>433</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>434</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -17085,10 +17115,22 @@
       <c r="AG2" t="s">
         <v>52</v>
       </c>
+      <c r="AH2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -17185,11 +17227,23 @@
       </c>
       <c r="AG3" t="s">
         <v>56</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -17285,12 +17339,24 @@
         <v>52</v>
       </c>
       <c r="AG4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -17386,12 +17452,24 @@
         <v>54</v>
       </c>
       <c r="AG5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -17475,7 +17553,7 @@
         <v>52</v>
       </c>
       <c r="AC6" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="AD6" t="s">
         <v>52</v>
@@ -17487,12 +17565,24 @@
         <v>55</v>
       </c>
       <c r="AG6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
@@ -17590,10 +17680,22 @@
       <c r="AG7" t="s">
         <v>52</v>
       </c>
+      <c r="AH7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -17691,10 +17793,22 @@
       <c r="AG8" t="s">
         <v>52</v>
       </c>
+      <c r="AH8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -17792,10 +17906,22 @@
       <c r="AG9" t="s">
         <v>53</v>
       </c>
+      <c r="AH9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B10" t="s">
         <v>54</v>
@@ -17892,11 +18018,23 @@
       </c>
       <c r="AG10" t="s">
         <v>52</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
@@ -17992,12 +18130,24 @@
         <v>59</v>
       </c>
       <c r="AG11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
@@ -18095,10 +18245,22 @@
       <c r="AG12" t="s">
         <v>52</v>
       </c>
+      <c r="AH12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -18194,12 +18356,24 @@
         <v>53</v>
       </c>
       <c r="AG13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK13" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
@@ -18295,12 +18469,24 @@
         <v>56</v>
       </c>
       <c r="AG14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -18398,10 +18584,22 @@
       <c r="AG15" t="s">
         <v>52</v>
       </c>
+      <c r="AH15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -18497,12 +18695,24 @@
         <v>54</v>
       </c>
       <c r="AG16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -18600,10 +18810,22 @@
       <c r="AG17" t="s">
         <v>52</v>
       </c>
+      <c r="AH17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
@@ -18701,10 +18923,22 @@
       <c r="AG18" t="s">
         <v>52</v>
       </c>
+      <c r="AH18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -18802,10 +19036,22 @@
       <c r="AG19" t="s">
         <v>52</v>
       </c>
+      <c r="AH19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
@@ -18901,12 +19147,24 @@
         <v>52</v>
       </c>
       <c r="AG20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
@@ -19004,10 +19262,22 @@
       <c r="AG21" t="s">
         <v>52</v>
       </c>
+      <c r="AH21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B22" t="s">
         <v>52</v>
@@ -19103,12 +19373,24 @@
         <v>52</v>
       </c>
       <c r="AG22" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK22" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B23" t="s">
         <v>53</v>
@@ -19205,6 +19487,18 @@
       </c>
       <c r="AG23" t="s">
         <v>52</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -19232,7 +19526,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -19306,7 +19600,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -19392,7 +19686,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -19478,7 +19772,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -19564,7 +19858,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -19650,7 +19944,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
@@ -19736,7 +20030,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -19822,7 +20116,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -19908,7 +20202,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -19994,7 +20288,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -20080,7 +20374,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
@@ -20166,7 +20460,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
@@ -20252,7 +20546,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -20338,7 +20632,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
@@ -20424,7 +20718,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -20510,7 +20804,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -20596,7 +20890,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -20682,7 +20976,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="B18" t="s">
         <v>54</v>
@@ -20768,7 +21062,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -20854,7 +21148,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
@@ -20940,7 +21234,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
@@ -25696,10 +25990,13 @@
       <c r="P1" t="s">
         <v>32</v>
       </c>
+      <c r="Q1" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
@@ -25746,10 +26043,13 @@
       <c r="P2" t="s">
         <v>53</v>
       </c>
+      <c r="Q2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
@@ -25795,11 +26095,14 @@
       </c>
       <c r="P3" t="s">
         <v>59</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B4" t="s">
         <v>54</v>
@@ -25845,11 +26148,14 @@
       </c>
       <c r="P4" t="s">
         <v>54</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
@@ -25895,11 +26201,14 @@
       </c>
       <c r="P5" t="s">
         <v>53</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
@@ -25946,10 +26255,13 @@
       <c r="P6" t="s">
         <v>59</v>
       </c>
+      <c r="Q6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
@@ -25996,10 +26308,13 @@
       <c r="P7" t="s">
         <v>53</v>
       </c>
+      <c r="Q7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s">
         <v>54</v>
@@ -26045,11 +26360,14 @@
       </c>
       <c r="P8" t="s">
         <v>59</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s">
         <v>54</v>
@@ -26096,10 +26414,13 @@
       <c r="P9" t="s">
         <v>53</v>
       </c>
+      <c r="Q9" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
@@ -26146,10 +26467,13 @@
       <c r="P10" t="s">
         <v>56</v>
       </c>
+      <c r="Q10" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -26196,10 +26520,13 @@
       <c r="P11" t="s">
         <v>53</v>
       </c>
+      <c r="Q11" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
@@ -26244,12 +26571,15 @@
         <v>56</v>
       </c>
       <c r="P12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q12" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s">
         <v>56</v>
@@ -26295,11 +26625,14 @@
       </c>
       <c r="P13" t="s">
         <v>54</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
@@ -26345,11 +26678,14 @@
       </c>
       <c r="P14" t="s">
         <v>55</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s">
         <v>59</v>
@@ -26395,11 +26731,14 @@
       </c>
       <c r="P15" t="s">
         <v>54</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
@@ -26445,11 +26784,14 @@
       </c>
       <c r="P16" t="s">
         <v>59</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B17" t="s">
         <v>53</v>
@@ -26495,11 +26837,14 @@
       </c>
       <c r="P17" t="s">
         <v>53</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B18" t="s">
         <v>59</v>
@@ -26545,11 +26890,14 @@
       </c>
       <c r="P18" t="s">
         <v>53</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B19" t="s">
         <v>56</v>
@@ -26595,11 +26943,14 @@
       </c>
       <c r="P19" t="s">
         <v>53</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B20" t="s">
         <v>53</v>
@@ -26645,11 +26996,14 @@
       </c>
       <c r="P20" t="s">
         <v>59</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B21" t="s">
         <v>56</v>
@@ -26694,12 +27048,15 @@
         <v>56</v>
       </c>
       <c r="P21" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q21" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B22" t="s">
         <v>54</v>
@@ -26744,12 +27101,15 @@
         <v>56</v>
       </c>
       <c r="P22" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B23" t="s">
         <v>54</v>
@@ -26795,11 +27155,14 @@
       </c>
       <c r="P23" t="s">
         <v>54</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B24" t="s">
         <v>55</v>
@@ -26845,11 +27208,14 @@
       </c>
       <c r="P24" t="s">
         <v>53</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B25" t="s">
         <v>59</v>
@@ -26894,6 +27260,9 @@
         <v>56</v>
       </c>
       <c r="P25" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q25" t="s">
         <v>59</v>
       </c>
     </row>
@@ -26925,7 +27294,7 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -26960,10 +27329,16 @@
       <c r="Q1" t="s">
         <v>32</v>
       </c>
+      <c r="R1" t="s">
+        <v>179</v>
+      </c>
+      <c r="S1" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -27013,10 +27388,16 @@
       <c r="Q2" t="s">
         <v>55</v>
       </c>
+      <c r="R2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -27064,12 +27445,18 @@
         <v>56</v>
       </c>
       <c r="Q3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
@@ -27118,11 +27505,17 @@
       </c>
       <c r="Q4" t="s">
         <v>54</v>
+      </c>
+      <c r="R4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
@@ -27171,11 +27564,17 @@
       </c>
       <c r="Q5" t="s">
         <v>53</v>
+      </c>
+      <c r="R5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -27225,10 +27624,16 @@
       <c r="Q6" t="s">
         <v>54</v>
       </c>
+      <c r="R6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -27278,10 +27683,16 @@
       <c r="Q7" t="s">
         <v>53</v>
       </c>
+      <c r="R7" t="s">
+        <v>52</v>
+      </c>
+      <c r="S7" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
@@ -27330,11 +27741,17 @@
       </c>
       <c r="Q8" t="s">
         <v>54</v>
+      </c>
+      <c r="R8" t="s">
+        <v>52</v>
+      </c>
+      <c r="S8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B9" t="s">
         <v>56</v>
@@ -27383,11 +27800,17 @@
       </c>
       <c r="Q9" t="s">
         <v>54</v>
+      </c>
+      <c r="R9" t="s">
+        <v>52</v>
+      </c>
+      <c r="S9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B10" t="s">
         <v>54</v>
@@ -27436,11 +27859,17 @@
       </c>
       <c r="Q10" t="s">
         <v>54</v>
+      </c>
+      <c r="R10" t="s">
+        <v>52</v>
+      </c>
+      <c r="S10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -27489,11 +27918,17 @@
       </c>
       <c r="Q11" t="s">
         <v>59</v>
+      </c>
+      <c r="R11" t="s">
+        <v>52</v>
+      </c>
+      <c r="S11" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B12" t="s">
         <v>54</v>
@@ -27543,10 +27978,16 @@
       <c r="Q12" t="s">
         <v>55</v>
       </c>
+      <c r="R12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S12" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
@@ -27595,11 +28036,17 @@
       </c>
       <c r="Q13" t="s">
         <v>55</v>
+      </c>
+      <c r="R13" t="s">
+        <v>52</v>
+      </c>
+      <c r="S13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
@@ -27648,11 +28095,17 @@
       </c>
       <c r="Q14" t="s">
         <v>59</v>
+      </c>
+      <c r="R14" t="s">
+        <v>52</v>
+      </c>
+      <c r="S14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -27701,11 +28154,17 @@
       </c>
       <c r="Q15" t="s">
         <v>55</v>
+      </c>
+      <c r="R15" t="s">
+        <v>52</v>
+      </c>
+      <c r="S15" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s">
         <v>56</v>
@@ -27754,11 +28213,17 @@
       </c>
       <c r="Q16" t="s">
         <v>59</v>
+      </c>
+      <c r="R16" t="s">
+        <v>52</v>
+      </c>
+      <c r="S16" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s">
         <v>53</v>
@@ -27807,11 +28272,17 @@
       </c>
       <c r="Q17" t="s">
         <v>53</v>
+      </c>
+      <c r="R17" t="s">
+        <v>52</v>
+      </c>
+      <c r="S17" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s">
         <v>53</v>
@@ -27860,11 +28331,17 @@
       </c>
       <c r="Q18" t="s">
         <v>59</v>
+      </c>
+      <c r="R18" t="s">
+        <v>52</v>
+      </c>
+      <c r="S18" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s">
         <v>54</v>
@@ -27912,12 +28389,18 @@
         <v>53</v>
       </c>
       <c r="Q19" t="s">
+        <v>53</v>
+      </c>
+      <c r="R19" t="s">
+        <v>52</v>
+      </c>
+      <c r="S19" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s">
         <v>59</v>
@@ -27965,12 +28448,18 @@
         <v>54</v>
       </c>
       <c r="Q20" t="s">
+        <v>54</v>
+      </c>
+      <c r="R20" t="s">
+        <v>52</v>
+      </c>
+      <c r="S20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -28018,12 +28507,18 @@
         <v>56</v>
       </c>
       <c r="Q21" t="s">
+        <v>53</v>
+      </c>
+      <c r="R21" t="s">
+        <v>52</v>
+      </c>
+      <c r="S21" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B22" t="s">
         <v>59</v>
@@ -28071,12 +28566,18 @@
         <v>54</v>
       </c>
       <c r="Q22" t="s">
+        <v>54</v>
+      </c>
+      <c r="R22" t="s">
+        <v>52</v>
+      </c>
+      <c r="S22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B23" t="s">
         <v>56</v>
@@ -28125,11 +28626,17 @@
       </c>
       <c r="Q23" t="s">
         <v>59</v>
+      </c>
+      <c r="R23" t="s">
+        <v>52</v>
+      </c>
+      <c r="S23" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B24" t="s">
         <v>56</v>
@@ -28178,11 +28685,17 @@
       </c>
       <c r="Q24" t="s">
         <v>53</v>
+      </c>
+      <c r="R24" t="s">
+        <v>59</v>
+      </c>
+      <c r="S24" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B25" t="s">
         <v>53</v>
@@ -28231,6 +28744,12 @@
       </c>
       <c r="Q25" t="s">
         <v>54</v>
+      </c>
+      <c r="R25" t="s">
+        <v>52</v>
+      </c>
+      <c r="S25" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -28255,10 +28774,10 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F1" t="s">
         <v>150</v>
@@ -28284,10 +28803,19 @@
       <c r="M1" t="s">
         <v>32</v>
       </c>
+      <c r="N1" t="s">
+        <v>206</v>
+      </c>
+      <c r="O1" t="s">
+        <v>153</v>
+      </c>
+      <c r="P1" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
         <v>53</v>
@@ -28325,10 +28853,19 @@
       <c r="M2" t="s">
         <v>52</v>
       </c>
+      <c r="N2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B3" t="s">
         <v>53</v>
@@ -28366,10 +28903,19 @@
       <c r="M3" t="s">
         <v>54</v>
       </c>
+      <c r="N3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
@@ -28406,11 +28952,20 @@
       </c>
       <c r="M4" t="s">
         <v>54</v>
+      </c>
+      <c r="N4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -28447,11 +29002,20 @@
       </c>
       <c r="M5" t="s">
         <v>53</v>
+      </c>
+      <c r="N5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -28487,12 +29051,21 @@
         <v>53</v>
       </c>
       <c r="M6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
@@ -28530,10 +29103,19 @@
       <c r="M7" t="s">
         <v>52</v>
       </c>
+      <c r="N7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B8" t="s">
         <v>56</v>
@@ -28570,11 +29152,20 @@
       </c>
       <c r="M8" t="s">
         <v>59</v>
+      </c>
+      <c r="N8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -28611,11 +29202,20 @@
       </c>
       <c r="M9" t="s">
         <v>56</v>
+      </c>
+      <c r="N9" t="s">
+        <v>59</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -28652,11 +29252,20 @@
       </c>
       <c r="M10" t="s">
         <v>53</v>
+      </c>
+      <c r="N10" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
@@ -28693,11 +29302,20 @@
       </c>
       <c r="M11" t="s">
         <v>59</v>
+      </c>
+      <c r="N11" t="s">
+        <v>54</v>
+      </c>
+      <c r="O11" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B12" t="s">
         <v>54</v>
@@ -28734,11 +29352,20 @@
       </c>
       <c r="M12" t="s">
         <v>59</v>
+      </c>
+      <c r="N12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
@@ -28775,11 +29402,20 @@
       </c>
       <c r="M13" t="s">
         <v>53</v>
+      </c>
+      <c r="N13" t="s">
+        <v>54</v>
+      </c>
+      <c r="O13" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
@@ -28816,11 +29452,20 @@
       </c>
       <c r="M14" t="s">
         <v>54</v>
+      </c>
+      <c r="N14" t="s">
+        <v>56</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
@@ -28857,11 +29502,20 @@
       </c>
       <c r="M15" t="s">
         <v>56</v>
+      </c>
+      <c r="N15" t="s">
+        <v>53</v>
+      </c>
+      <c r="O15" t="s">
+        <v>57</v>
+      </c>
+      <c r="P15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B16" t="s">
         <v>59</v>
@@ -28898,11 +29552,20 @@
       </c>
       <c r="M16" t="s">
         <v>55</v>
+      </c>
+      <c r="N16" t="s">
+        <v>59</v>
+      </c>
+      <c r="O16" t="s">
+        <v>56</v>
+      </c>
+      <c r="P16" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B17" t="s">
         <v>53</v>
@@ -28940,10 +29603,19 @@
       <c r="M17" t="s">
         <v>56</v>
       </c>
+      <c r="N17" t="s">
+        <v>54</v>
+      </c>
+      <c r="O17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B18" t="s">
         <v>53</v>
@@ -28980,11 +29652,20 @@
       </c>
       <c r="M18" t="s">
         <v>53</v>
+      </c>
+      <c r="N18" t="s">
+        <v>52</v>
+      </c>
+      <c r="O18" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B19" t="s">
         <v>57</v>
@@ -29022,10 +29703,19 @@
       <c r="M19" t="s">
         <v>59</v>
       </c>
+      <c r="N19" t="s">
+        <v>59</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B20" t="s">
         <v>54</v>
@@ -29063,10 +29753,19 @@
       <c r="M20" t="s">
         <v>54</v>
       </c>
+      <c r="N20" t="s">
+        <v>54</v>
+      </c>
+      <c r="O20" t="s">
+        <v>54</v>
+      </c>
+      <c r="P20" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B21" t="s">
         <v>54</v>
@@ -29104,10 +29803,19 @@
       <c r="M21" t="s">
         <v>57</v>
       </c>
+      <c r="N21" t="s">
+        <v>59</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B22" t="s">
         <v>53</v>
@@ -29144,11 +29852,20 @@
       </c>
       <c r="M22" t="s">
         <v>59</v>
+      </c>
+      <c r="N22" t="s">
+        <v>54</v>
+      </c>
+      <c r="O22" t="s">
+        <v>54</v>
+      </c>
+      <c r="P22" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B23" t="s">
         <v>54</v>
@@ -29184,12 +29901,21 @@
         <v>52</v>
       </c>
       <c r="M23" t="s">
+        <v>52</v>
+      </c>
+      <c r="N23" t="s">
+        <v>59</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B24" t="s">
         <v>52</v>
@@ -29226,6 +29952,15 @@
       </c>
       <c r="M24" t="s">
         <v>52</v>
+      </c>
+      <c r="N24" t="s">
+        <v>53</v>
+      </c>
+      <c r="O24" t="s">
+        <v>54</v>
+      </c>
+      <c r="P24" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -29318,7 +30053,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -29395,7 +30130,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -29472,7 +30207,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -29549,7 +30284,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -29626,7 +30361,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -29703,7 +30438,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -29780,7 +30515,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -29857,7 +30592,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -29934,7 +30669,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -30011,7 +30746,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
@@ -30088,7 +30823,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
@@ -30165,7 +30900,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -30242,7 +30977,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
@@ -30319,7 +31054,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -30396,7 +31131,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -30473,7 +31208,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -30550,7 +31285,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
@@ -30627,7 +31362,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -30704,7 +31439,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
@@ -30781,7 +31516,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>

--- a/YCmatrix.xlsx
+++ b/YCmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10483" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10749" uniqueCount="485">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -341,6 +341,9 @@
     <t>X2021.09.27</t>
   </si>
   <si>
+    <t>X2021.10.18</t>
+  </si>
+  <si>
     <t>Arsenal</t>
   </si>
   <si>
@@ -417,6 +420,12 @@
   </si>
   <si>
     <t>X2021.09.29</t>
+  </si>
+  <si>
+    <t>X2021.10.19</t>
+  </si>
+  <si>
+    <t>X2021.10.20</t>
   </si>
   <si>
     <t>Barnsley</t>
@@ -3750,28 +3759,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="J1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
@@ -3780,7 +3789,7 @@
         <v>100</v>
       </c>
       <c r="M1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -3792,13 +3801,13 @@
         <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="R1" t="s">
         <v>24</v>
       </c>
       <c r="S1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="T1" t="s">
         <v>28</v>
@@ -3815,10 +3824,13 @@
       <c r="X1" t="s">
         <v>35</v>
       </c>
+      <c r="Y1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B2" t="s">
         <v>61</v>
@@ -3889,10 +3901,13 @@
       <c r="X2" t="s">
         <v>55</v>
       </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
@@ -3962,11 +3977,14 @@
       </c>
       <c r="X3" t="s">
         <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -4036,11 +4054,14 @@
       </c>
       <c r="X4" t="s">
         <v>62</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
@@ -4110,11 +4131,14 @@
       </c>
       <c r="X5" t="s">
         <v>62</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B6" t="s">
         <v>57</v>
@@ -4184,11 +4208,14 @@
       </c>
       <c r="X6" t="s">
         <v>57</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -4258,11 +4285,14 @@
       </c>
       <c r="X7" t="s">
         <v>57</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -4332,11 +4362,14 @@
       </c>
       <c r="X8" t="s">
         <v>58</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B9" t="s">
         <v>56</v>
@@ -4406,11 +4439,14 @@
       </c>
       <c r="X9" t="s">
         <v>56</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B10" t="s">
         <v>56</v>
@@ -4481,10 +4517,13 @@
       <c r="X10" t="s">
         <v>58</v>
       </c>
+      <c r="Y10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
@@ -4554,11 +4593,14 @@
       </c>
       <c r="X11" t="s">
         <v>59</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
@@ -4628,11 +4670,14 @@
       </c>
       <c r="X12" t="s">
         <v>57</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B13" t="s">
         <v>56</v>
@@ -4702,11 +4747,14 @@
       </c>
       <c r="X13" t="s">
         <v>55</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
@@ -4776,11 +4824,14 @@
       </c>
       <c r="X14" t="s">
         <v>59</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B15" t="s">
         <v>62</v>
@@ -4850,11 +4901,14 @@
       </c>
       <c r="X15" t="s">
         <v>62</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B16" t="s">
         <v>56</v>
@@ -4924,11 +4978,14 @@
       </c>
       <c r="X16" t="s">
         <v>62</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B17" t="s">
         <v>57</v>
@@ -4999,10 +5056,13 @@
       <c r="X17" t="s">
         <v>57</v>
       </c>
+      <c r="Y17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B18" t="s">
         <v>56</v>
@@ -5072,11 +5132,14 @@
       </c>
       <c r="X18" t="s">
         <v>59</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -5147,10 +5210,13 @@
       <c r="X19" t="s">
         <v>57</v>
       </c>
+      <c r="Y19" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B20" t="s">
         <v>57</v>
@@ -5220,11 +5286,14 @@
       </c>
       <c r="X20" t="s">
         <v>57</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B21" t="s">
         <v>56</v>
@@ -5294,6 +5363,9 @@
       </c>
       <c r="X21" t="s">
         <v>59</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -5353,10 +5425,13 @@
       <c r="O1" t="s">
         <v>36</v>
       </c>
+      <c r="P1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -5399,11 +5474,14 @@
       </c>
       <c r="O2" t="s">
         <v>56</v>
+      </c>
+      <c r="P2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B3" t="s">
         <v>61</v>
@@ -5447,10 +5525,13 @@
       <c r="O3" t="s">
         <v>55</v>
       </c>
+      <c r="P3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -5494,10 +5575,13 @@
       <c r="O4" t="s">
         <v>55</v>
       </c>
+      <c r="P4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -5539,12 +5623,15 @@
         <v>58</v>
       </c>
       <c r="O5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -5588,10 +5675,13 @@
       <c r="O6" t="s">
         <v>57</v>
       </c>
+      <c r="P6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -5634,11 +5724,14 @@
       </c>
       <c r="O7" t="s">
         <v>59</v>
+      </c>
+      <c r="P7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -5682,10 +5775,13 @@
       <c r="O8" t="s">
         <v>55</v>
       </c>
+      <c r="P8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -5728,11 +5824,14 @@
       </c>
       <c r="O9" t="s">
         <v>55</v>
+      </c>
+      <c r="P9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -5776,10 +5875,13 @@
       <c r="O10" t="s">
         <v>59</v>
       </c>
+      <c r="P10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -5822,11 +5924,14 @@
       </c>
       <c r="O11" t="s">
         <v>58</v>
+      </c>
+      <c r="P11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
@@ -5868,12 +5973,15 @@
         <v>57</v>
       </c>
       <c r="O12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B13" t="s">
         <v>57</v>
@@ -5916,11 +6024,14 @@
       </c>
       <c r="O13" t="s">
         <v>57</v>
+      </c>
+      <c r="P13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -5963,11 +6074,14 @@
       </c>
       <c r="O14" t="s">
         <v>58</v>
+      </c>
+      <c r="P14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -6010,6 +6124,9 @@
       </c>
       <c r="O15" t="s">
         <v>60</v>
+      </c>
+      <c r="P15" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -6064,10 +6181,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="O1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -6099,10 +6216,13 @@
       <c r="Y1" t="s">
         <v>36</v>
       </c>
+      <c r="Z1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -6176,10 +6296,13 @@
       <c r="Y2" t="s">
         <v>56</v>
       </c>
+      <c r="Z2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -6253,10 +6376,13 @@
       <c r="Y3" t="s">
         <v>63</v>
       </c>
+      <c r="Z3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -6330,10 +6456,13 @@
       <c r="Y4" t="s">
         <v>58</v>
       </c>
+      <c r="Z4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
@@ -6406,11 +6535,14 @@
       </c>
       <c r="Y5" t="s">
         <v>59</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -6483,11 +6615,14 @@
       </c>
       <c r="Y6" t="s">
         <v>55</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B7" t="s">
         <v>56</v>
@@ -6560,11 +6695,14 @@
       </c>
       <c r="Y7" t="s">
         <v>56</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B8" t="s">
         <v>57</v>
@@ -6638,10 +6776,13 @@
       <c r="Y8" t="s">
         <v>55</v>
       </c>
+      <c r="Z8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -6714,11 +6855,14 @@
       </c>
       <c r="Y9" t="s">
         <v>59</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
@@ -6792,10 +6936,13 @@
       <c r="Y10" t="s">
         <v>55</v>
       </c>
+      <c r="Z10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -6867,12 +7014,15 @@
         <v>57</v>
       </c>
       <c r="Y11" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -6945,11 +7095,14 @@
       </c>
       <c r="Y12" t="s">
         <v>56</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -7023,10 +7176,13 @@
       <c r="Y13" t="s">
         <v>60</v>
       </c>
+      <c r="Z13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -7098,12 +7254,15 @@
         <v>59</v>
       </c>
       <c r="Y14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -7176,11 +7335,14 @@
       </c>
       <c r="Y15" t="s">
         <v>56</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B16" t="s">
         <v>56</v>
@@ -7253,11 +7415,14 @@
       </c>
       <c r="Y16" t="s">
         <v>58</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -7329,12 +7494,15 @@
         <v>56</v>
       </c>
       <c r="Y17" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z17" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B18" t="s">
         <v>56</v>
@@ -7408,10 +7576,13 @@
       <c r="Y18" t="s">
         <v>58</v>
       </c>
+      <c r="Z18" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -7485,10 +7656,13 @@
       <c r="Y19" t="s">
         <v>59</v>
       </c>
+      <c r="Z19" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -7562,10 +7736,13 @@
       <c r="Y20" t="s">
         <v>55</v>
       </c>
+      <c r="Z20" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B21" t="s">
         <v>59</v>
@@ -7637,6 +7814,9 @@
         <v>58</v>
       </c>
       <c r="Y21" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z21" t="s">
         <v>55</v>
       </c>
     </row>
@@ -7692,10 +7872,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="O1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -7724,7 +7904,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -7795,7 +7975,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -7866,7 +8046,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -7937,7 +8117,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -8008,7 +8188,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -8079,7 +8259,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -8150,7 +8330,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -8221,7 +8401,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -8292,7 +8472,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -8363,7 +8543,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
@@ -8434,7 +8614,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -8505,7 +8685,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -8576,7 +8756,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>
@@ -8647,13 +8827,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D15" t="s">
         <v>55</v>
@@ -8718,7 +8898,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -8789,7 +8969,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -8860,7 +9040,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -8931,7 +9111,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -9002,7 +9182,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -9073,7 +9253,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -9124,7 +9304,7 @@
         <v>55</v>
       </c>
       <c r="R21" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="S21" t="s">
         <v>55</v>
@@ -9200,7 +9380,7 @@
         <v>25</v>
       </c>
       <c r="P1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q1" t="s">
         <v>26</v>
@@ -9232,7 +9412,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -9309,7 +9489,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -9386,7 +9566,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -9463,7 +9643,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -9540,7 +9720,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -9617,7 +9797,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B7" t="s">
         <v>62</v>
@@ -9694,7 +9874,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -9771,7 +9951,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B9" t="s">
         <v>62</v>
@@ -9848,7 +10028,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -9925,7 +10105,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -10002,7 +10182,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -10079,7 +10259,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -10156,7 +10336,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -10233,7 +10413,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -10310,7 +10490,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -10387,7 +10567,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -10464,7 +10644,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -10541,7 +10721,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -10641,7 +10821,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -10653,7 +10833,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -10695,7 +10875,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -10721,7 +10901,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -10813,7 +10993,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -10905,7 +11085,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -10997,7 +11177,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -11089,7 +11269,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -11181,7 +11361,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -11273,7 +11453,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -11365,7 +11545,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -11457,7 +11637,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -11549,7 +11729,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -11641,7 +11821,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -11733,7 +11913,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -11825,7 +12005,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -11917,7 +12097,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -12009,7 +12189,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -12101,7 +12281,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B17" t="s">
         <v>57</v>
@@ -12193,7 +12373,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -12285,7 +12465,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B19" t="s">
         <v>59</v>
@@ -12444,7 +12624,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -12500,7 +12680,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B3" t="s">
         <v>62</v>
@@ -12556,7 +12736,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
@@ -12612,7 +12792,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -12668,7 +12848,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B6" t="s">
         <v>62</v>
@@ -12724,7 +12904,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -12780,7 +12960,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B8" t="s">
         <v>60</v>
@@ -12836,7 +13016,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -12892,7 +13072,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B10" t="s">
         <v>62</v>
@@ -12948,7 +13128,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -13004,7 +13184,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B12" t="s">
         <v>57</v>
@@ -13060,7 +13240,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B13" t="s">
         <v>56</v>
@@ -13133,7 +13313,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -13145,7 +13325,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -13163,7 +13343,7 @@
         <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N1" t="s">
         <v>32</v>
@@ -13177,7 +13357,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -13227,7 +13407,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -13277,7 +13457,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
@@ -13327,7 +13507,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B5" t="s">
         <v>62</v>
@@ -13377,7 +13557,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B6" t="s">
         <v>56</v>
@@ -13427,7 +13607,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -13477,7 +13657,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B8" t="s">
         <v>57</v>
@@ -13527,7 +13707,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B9" t="s">
         <v>56</v>
@@ -13577,7 +13757,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
@@ -13627,7 +13807,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
@@ -13709,7 +13889,7 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
@@ -13729,7 +13909,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
@@ -13770,7 +13950,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
@@ -13811,7 +13991,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
@@ -13852,7 +14032,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B5" t="s">
         <v>62</v>
@@ -13893,7 +14073,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -13934,7 +14114,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
@@ -13975,7 +14155,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B8" t="s">
         <v>56</v>
@@ -14016,7 +14196,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B9" t="s">
         <v>57</v>
@@ -14057,7 +14237,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
@@ -14098,7 +14278,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
@@ -14174,7 +14354,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -14203,7 +14383,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
@@ -14256,7 +14436,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
@@ -14309,7 +14489,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -14362,7 +14542,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B5" t="s">
         <v>57</v>
@@ -14415,7 +14595,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B6" t="s">
         <v>56</v>
@@ -14468,7 +14648,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B7" t="s">
         <v>56</v>
@@ -14521,7 +14701,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B8" t="s">
         <v>62</v>
@@ -14574,7 +14754,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B9" t="s">
         <v>59</v>
@@ -14627,7 +14807,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
@@ -14680,7 +14860,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
@@ -16173,7 +16353,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -16215,10 +16395,10 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="T1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="U1" t="s">
         <v>26</v>
@@ -16250,10 +16430,13 @@
       <c r="AD1" t="s">
         <v>36</v>
       </c>
+      <c r="AE1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -16341,11 +16524,14 @@
       </c>
       <c r="AD2" t="s">
         <v>55</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -16432,12 +16618,15 @@
         <v>55</v>
       </c>
       <c r="AD3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -16526,10 +16715,13 @@
       <c r="AD4" t="s">
         <v>55</v>
       </c>
+      <c r="AE4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -16617,11 +16809,14 @@
       </c>
       <c r="AD5" t="s">
         <v>56</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -16710,10 +16905,13 @@
       <c r="AD6" t="s">
         <v>55</v>
       </c>
+      <c r="AE6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -16801,11 +16999,14 @@
       </c>
       <c r="AD7" t="s">
         <v>55</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -16893,11 +17094,14 @@
       </c>
       <c r="AD8" t="s">
         <v>56</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -16985,11 +17189,14 @@
       </c>
       <c r="AD9" t="s">
         <v>56</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -17077,11 +17284,14 @@
       </c>
       <c r="AD10" t="s">
         <v>55</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -17170,10 +17380,13 @@
       <c r="AD11" t="s">
         <v>55</v>
       </c>
+      <c r="AE11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -17262,10 +17475,13 @@
       <c r="AD12" t="s">
         <v>55</v>
       </c>
+      <c r="AE12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -17354,10 +17570,13 @@
       <c r="AD13" t="s">
         <v>55</v>
       </c>
+      <c r="AE13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -17444,12 +17663,15 @@
         <v>59</v>
       </c>
       <c r="AD14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -17538,10 +17760,13 @@
       <c r="AD15" t="s">
         <v>60</v>
       </c>
+      <c r="AE15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -17630,10 +17855,13 @@
       <c r="AD16" t="s">
         <v>55</v>
       </c>
+      <c r="AE16" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -17722,10 +17950,13 @@
       <c r="AD17" t="s">
         <v>59</v>
       </c>
+      <c r="AE17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -17812,12 +18043,15 @@
         <v>59</v>
       </c>
       <c r="AD18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE18" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B19" t="s">
         <v>61</v>
@@ -17906,10 +18140,13 @@
       <c r="AD19" t="s">
         <v>59</v>
       </c>
+      <c r="AE19" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -17998,10 +18235,13 @@
       <c r="AD20" t="s">
         <v>56</v>
       </c>
+      <c r="AE20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -18089,6 +18329,9 @@
       </c>
       <c r="AD21" t="s">
         <v>57</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -18116,7 +18359,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -18140,19 +18383,19 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="N1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="O1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="Q1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
@@ -18176,7 +18419,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -18200,19 +18443,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AH1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AI1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AJ1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="AK1" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -18223,10 +18466,16 @@
       <c r="AN1" t="s">
         <v>36</v>
       </c>
+      <c r="AO1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -18345,10 +18594,16 @@
       <c r="AN2" t="s">
         <v>55</v>
       </c>
+      <c r="AO2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -18465,12 +18720,18 @@
         <v>55</v>
       </c>
       <c r="AN3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -18588,11 +18849,17 @@
       </c>
       <c r="AN4" t="s">
         <v>55</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -18710,11 +18977,17 @@
       </c>
       <c r="AN5" t="s">
         <v>59</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -18798,7 +19071,7 @@
         <v>55</v>
       </c>
       <c r="AC6" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="AD6" t="s">
         <v>55</v>
@@ -18831,12 +19104,18 @@
         <v>56</v>
       </c>
       <c r="AN6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
@@ -18955,10 +19234,16 @@
       <c r="AN7" t="s">
         <v>55</v>
       </c>
+      <c r="AO7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -19077,10 +19362,16 @@
       <c r="AN8" t="s">
         <v>60</v>
       </c>
+      <c r="AO8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -19199,10 +19490,16 @@
       <c r="AN9" t="s">
         <v>55</v>
       </c>
+      <c r="AO9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
@@ -19319,12 +19616,18 @@
         <v>58</v>
       </c>
       <c r="AN10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
@@ -19442,11 +19745,17 @@
       </c>
       <c r="AN11" t="s">
         <v>56</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -19565,10 +19874,16 @@
       <c r="AN12" t="s">
         <v>55</v>
       </c>
+      <c r="AO12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -19686,11 +20001,17 @@
       </c>
       <c r="AN13" t="s">
         <v>59</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -19808,11 +20129,17 @@
       </c>
       <c r="AN14" t="s">
         <v>59</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -19931,10 +20258,16 @@
       <c r="AN15" t="s">
         <v>55</v>
       </c>
+      <c r="AO15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -20052,11 +20385,17 @@
       </c>
       <c r="AN16" t="s">
         <v>58</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -20175,10 +20514,16 @@
       <c r="AN17" t="s">
         <v>57</v>
       </c>
+      <c r="AO17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -20297,10 +20642,16 @@
       <c r="AN18" t="s">
         <v>62</v>
       </c>
+      <c r="AO18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -20366,7 +20717,7 @@
         <v>55</v>
       </c>
       <c r="W19" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="X19" t="s">
         <v>55</v>
@@ -20418,11 +20769,17 @@
       </c>
       <c r="AN19" t="s">
         <v>56</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -20539,12 +20896,18 @@
         <v>56</v>
       </c>
       <c r="AN20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -20663,10 +21026,16 @@
       <c r="AN21" t="s">
         <v>55</v>
       </c>
+      <c r="AO21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B22" t="s">
         <v>55</v>
@@ -20784,11 +21153,17 @@
       </c>
       <c r="AN22" t="s">
         <v>57</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B23" t="s">
         <v>56</v>
@@ -20905,6 +21280,12 @@
         <v>58</v>
       </c>
       <c r="AN23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP23" t="s">
         <v>55</v>
       </c>
     </row>
@@ -20933,7 +21314,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -20975,7 +21356,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="T1" t="s">
         <v>26</v>
@@ -21013,10 +21394,13 @@
       <c r="AE1" t="s">
         <v>36</v>
       </c>
+      <c r="AF1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -21108,10 +21492,13 @@
       <c r="AE2" t="s">
         <v>55</v>
       </c>
+      <c r="AF2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -21203,10 +21590,13 @@
       <c r="AE3" t="s">
         <v>55</v>
       </c>
+      <c r="AF3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -21297,11 +21687,14 @@
       </c>
       <c r="AE4" t="s">
         <v>59</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -21393,10 +21786,13 @@
       <c r="AE5" t="s">
         <v>55</v>
       </c>
+      <c r="AF5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B6" t="s">
         <v>56</v>
@@ -21486,12 +21882,15 @@
         <v>55</v>
       </c>
       <c r="AE6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -21581,12 +21980,15 @@
         <v>55</v>
       </c>
       <c r="AE7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -21678,10 +22080,13 @@
       <c r="AE8" t="s">
         <v>60</v>
       </c>
+      <c r="AF8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -21772,11 +22177,14 @@
       </c>
       <c r="AE9" t="s">
         <v>59</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -21868,10 +22276,13 @@
       <c r="AE10" t="s">
         <v>55</v>
       </c>
+      <c r="AF10" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -21963,10 +22374,13 @@
       <c r="AE11" t="s">
         <v>55</v>
       </c>
+      <c r="AF11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -22058,10 +22472,13 @@
       <c r="AE12" t="s">
         <v>57</v>
       </c>
+      <c r="AF12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -22153,10 +22570,13 @@
       <c r="AE13" t="s">
         <v>55</v>
       </c>
+      <c r="AF13" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -22247,11 +22667,14 @@
       </c>
       <c r="AE14" t="s">
         <v>58</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -22342,11 +22765,14 @@
       </c>
       <c r="AE15" t="s">
         <v>59</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -22437,11 +22863,14 @@
       </c>
       <c r="AE16" t="s">
         <v>55</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -22532,11 +22961,14 @@
       </c>
       <c r="AE17" t="s">
         <v>56</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B18" t="s">
         <v>57</v>
@@ -22626,12 +23058,15 @@
         <v>62</v>
       </c>
       <c r="AE18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF18" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -22721,12 +23156,15 @@
         <v>56</v>
       </c>
       <c r="AE19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -22817,11 +23255,14 @@
       </c>
       <c r="AE20" t="s">
         <v>56</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -22911,6 +23352,9 @@
         <v>56</v>
       </c>
       <c r="AE21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF21" t="s">
         <v>55</v>
       </c>
     </row>
@@ -24751,10 +25195,13 @@
       <c r="V1" t="s">
         <v>36</v>
       </c>
+      <c r="W1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
@@ -24818,11 +25265,14 @@
       </c>
       <c r="V2" t="s">
         <v>55</v>
+      </c>
+      <c r="W2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -24885,12 +25335,15 @@
         <v>56</v>
       </c>
       <c r="V3" t="s">
+        <v>55</v>
+      </c>
+      <c r="W3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -24953,12 +25406,15 @@
         <v>57</v>
       </c>
       <c r="V4" t="s">
+        <v>55</v>
+      </c>
+      <c r="W4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -25023,10 +25479,13 @@
       <c r="V5" t="s">
         <v>55</v>
       </c>
+      <c r="W5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -25091,10 +25550,13 @@
       <c r="V6" t="s">
         <v>55</v>
       </c>
+      <c r="W6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -25157,12 +25619,15 @@
         <v>57</v>
       </c>
       <c r="V7" t="s">
+        <v>55</v>
+      </c>
+      <c r="W7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -25226,11 +25691,14 @@
       </c>
       <c r="V8" t="s">
         <v>55</v>
+      </c>
+      <c r="W8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -25294,11 +25762,14 @@
       </c>
       <c r="V9" t="s">
         <v>62</v>
+      </c>
+      <c r="W9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -25361,12 +25832,15 @@
         <v>59</v>
       </c>
       <c r="V10" t="s">
+        <v>55</v>
+      </c>
+      <c r="W10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -25429,12 +25903,15 @@
         <v>62</v>
       </c>
       <c r="V11" t="s">
+        <v>55</v>
+      </c>
+      <c r="W11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -25497,12 +25974,15 @@
         <v>62</v>
       </c>
       <c r="V12" t="s">
+        <v>55</v>
+      </c>
+      <c r="W12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -25565,12 +26045,15 @@
         <v>57</v>
       </c>
       <c r="V13" t="s">
+        <v>55</v>
+      </c>
+      <c r="W13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -25633,12 +26116,15 @@
         <v>59</v>
       </c>
       <c r="V14" t="s">
+        <v>55</v>
+      </c>
+      <c r="W14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -25702,11 +26188,14 @@
       </c>
       <c r="V15" t="s">
         <v>58</v>
+      </c>
+      <c r="W15" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -25769,12 +26258,15 @@
         <v>59</v>
       </c>
       <c r="V16" t="s">
+        <v>55</v>
+      </c>
+      <c r="W16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -25837,12 +26329,15 @@
         <v>56</v>
       </c>
       <c r="V17" t="s">
+        <v>55</v>
+      </c>
+      <c r="W17" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -25906,11 +26401,14 @@
       </c>
       <c r="V18" t="s">
         <v>57</v>
+      </c>
+      <c r="W18" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -25973,12 +26471,15 @@
         <v>62</v>
       </c>
       <c r="V19" t="s">
+        <v>55</v>
+      </c>
+      <c r="W19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -26042,11 +26543,14 @@
       </c>
       <c r="V20" t="s">
         <v>56</v>
+      </c>
+      <c r="W20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -26109,6 +26613,9 @@
         <v>59</v>
       </c>
       <c r="V21" t="s">
+        <v>55</v>
+      </c>
+      <c r="W21" t="s">
         <v>55</v>
       </c>
     </row>
@@ -26140,10 +26647,10 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H1" t="s">
         <v>13</v>
@@ -26164,10 +26671,10 @@
         <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P1" t="s">
         <v>24</v>
@@ -26179,10 +26686,10 @@
         <v>29</v>
       </c>
       <c r="S1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -26199,10 +26706,16 @@
       <c r="Y1" t="s">
         <v>36</v>
       </c>
+      <c r="Z1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -26214,7 +26727,7 @@
         <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F2" t="s">
         <v>57</v>
@@ -26276,10 +26789,16 @@
       <c r="Y2" t="s">
         <v>55</v>
       </c>
+      <c r="Z2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -26353,10 +26872,16 @@
       <c r="Y3" t="s">
         <v>55</v>
       </c>
+      <c r="Z3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -26428,12 +26953,18 @@
         <v>56</v>
       </c>
       <c r="Y4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -26506,11 +27037,17 @@
       </c>
       <c r="Y5" t="s">
         <v>55</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s">
         <v>57</v>
@@ -26584,10 +27121,16 @@
       <c r="Y6" t="s">
         <v>55</v>
       </c>
+      <c r="Z6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -26659,12 +27202,18 @@
         <v>62</v>
       </c>
       <c r="Y7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -26737,11 +27286,17 @@
       </c>
       <c r="Y8" t="s">
         <v>56</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -26815,10 +27370,16 @@
       <c r="Y9" t="s">
         <v>55</v>
       </c>
+      <c r="Z9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -26890,12 +27451,18 @@
         <v>62</v>
       </c>
       <c r="Y10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -26968,11 +27535,17 @@
       </c>
       <c r="Y11" t="s">
         <v>55</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -27045,11 +27618,17 @@
       </c>
       <c r="Y12" t="s">
         <v>55</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -27122,11 +27701,17 @@
       </c>
       <c r="Y13" t="s">
         <v>55</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -27200,10 +27785,16 @@
       <c r="Y14" t="s">
         <v>55</v>
       </c>
+      <c r="Z14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -27277,10 +27868,16 @@
       <c r="Y15" t="s">
         <v>55</v>
       </c>
+      <c r="Z15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -27352,12 +27949,18 @@
         <v>57</v>
       </c>
       <c r="Y16" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -27429,12 +28032,18 @@
         <v>56</v>
       </c>
       <c r="Y17" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA17" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -27508,10 +28117,16 @@
       <c r="Y18" t="s">
         <v>55</v>
       </c>
+      <c r="Z18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -27584,11 +28199,17 @@
       </c>
       <c r="Y19" t="s">
         <v>55</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -27660,12 +28281,18 @@
         <v>58</v>
       </c>
       <c r="Y20" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -27738,11 +28365,17 @@
       </c>
       <c r="Y21" t="s">
         <v>55</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B22" t="s">
         <v>55</v>
@@ -27814,12 +28447,18 @@
         <v>62</v>
       </c>
       <c r="Y22" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B23" t="s">
         <v>55</v>
@@ -27891,12 +28530,18 @@
         <v>56</v>
       </c>
       <c r="Y23" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA23" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B24" t="s">
         <v>55</v>
@@ -27970,10 +28615,16 @@
       <c r="Y24" t="s">
         <v>57</v>
       </c>
+      <c r="Z24" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B25" t="s">
         <v>59</v>
@@ -28046,6 +28697,12 @@
       </c>
       <c r="Y25" t="s">
         <v>55</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -28070,7 +28727,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -28082,34 +28739,34 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L1" t="s">
         <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="N1" t="s">
         <v>29</v>
       </c>
       <c r="O1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P1" t="s">
         <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="R1" t="s">
         <v>34</v>
@@ -28117,10 +28774,13 @@
       <c r="S1" t="s">
         <v>35</v>
       </c>
+      <c r="T1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
@@ -28176,10 +28836,13 @@
       <c r="S2" t="s">
         <v>57</v>
       </c>
+      <c r="T2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -28234,11 +28897,14 @@
       </c>
       <c r="S3" t="s">
         <v>62</v>
+      </c>
+      <c r="T3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
@@ -28292,12 +28958,15 @@
         <v>55</v>
       </c>
       <c r="S4" t="s">
+        <v>59</v>
+      </c>
+      <c r="T4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
@@ -28352,11 +29021,14 @@
       </c>
       <c r="S5" t="s">
         <v>55</v>
+      </c>
+      <c r="T5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B6" t="s">
         <v>57</v>
@@ -28412,10 +29084,13 @@
       <c r="S6" t="s">
         <v>62</v>
       </c>
+      <c r="T6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
@@ -28471,10 +29146,13 @@
       <c r="S7" t="s">
         <v>58</v>
       </c>
+      <c r="T7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B8" t="s">
         <v>57</v>
@@ -28529,11 +29207,14 @@
       </c>
       <c r="S8" t="s">
         <v>56</v>
+      </c>
+      <c r="T8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B9" t="s">
         <v>57</v>
@@ -28589,10 +29270,13 @@
       <c r="S9" t="s">
         <v>58</v>
       </c>
+      <c r="T9" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B10" t="s">
         <v>62</v>
@@ -28648,10 +29332,13 @@
       <c r="S10" t="s">
         <v>56</v>
       </c>
+      <c r="T10" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B11" t="s">
         <v>62</v>
@@ -28707,10 +29394,13 @@
       <c r="S11" t="s">
         <v>56</v>
       </c>
+      <c r="T11" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B12" t="s">
         <v>56</v>
@@ -28765,11 +29455,14 @@
       </c>
       <c r="S12" t="s">
         <v>57</v>
+      </c>
+      <c r="T12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B13" t="s">
         <v>59</v>
@@ -28824,11 +29517,14 @@
       </c>
       <c r="S13" t="s">
         <v>57</v>
+      </c>
+      <c r="T13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>
@@ -28883,11 +29579,14 @@
       </c>
       <c r="S14" t="s">
         <v>57</v>
+      </c>
+      <c r="T14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s">
         <v>62</v>
@@ -28942,11 +29641,14 @@
       </c>
       <c r="S15" t="s">
         <v>57</v>
+      </c>
+      <c r="T15" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s">
         <v>56</v>
@@ -29001,11 +29703,14 @@
       </c>
       <c r="S16" t="s">
         <v>55</v>
+      </c>
+      <c r="T16" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s">
         <v>56</v>
@@ -29059,12 +29764,15 @@
         <v>55</v>
       </c>
       <c r="S17" t="s">
+        <v>62</v>
+      </c>
+      <c r="T17" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B18" t="s">
         <v>62</v>
@@ -29118,12 +29826,15 @@
         <v>55</v>
       </c>
       <c r="S18" t="s">
+        <v>57</v>
+      </c>
+      <c r="T18" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s">
         <v>59</v>
@@ -29177,12 +29888,15 @@
         <v>55</v>
       </c>
       <c r="S19" t="s">
+        <v>56</v>
+      </c>
+      <c r="T19" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B20" t="s">
         <v>56</v>
@@ -29236,12 +29950,15 @@
         <v>55</v>
       </c>
       <c r="S20" t="s">
+        <v>56</v>
+      </c>
+      <c r="T20" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B21" t="s">
         <v>59</v>
@@ -29295,12 +30012,15 @@
         <v>55</v>
       </c>
       <c r="S21" t="s">
+        <v>56</v>
+      </c>
+      <c r="T21" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B22" t="s">
         <v>57</v>
@@ -29355,11 +30075,14 @@
       </c>
       <c r="S22" t="s">
         <v>56</v>
+      </c>
+      <c r="T22" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B23" t="s">
         <v>57</v>
@@ -29413,12 +30136,15 @@
         <v>55</v>
       </c>
       <c r="S23" t="s">
+        <v>56</v>
+      </c>
+      <c r="T23" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
@@ -29473,11 +30199,14 @@
       </c>
       <c r="S24" t="s">
         <v>58</v>
+      </c>
+      <c r="T24" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B25" t="s">
         <v>62</v>
@@ -29531,6 +30260,9 @@
         <v>55</v>
       </c>
       <c r="S25" t="s">
+        <v>57</v>
+      </c>
+      <c r="T25" t="s">
         <v>57</v>
       </c>
     </row>
@@ -29556,13 +30288,13 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -29571,7 +30303,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -29580,13 +30312,13 @@
         <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M1" t="s">
         <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O1" t="s">
         <v>28</v>
@@ -29598,18 +30330,21 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="S1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="T1" t="s">
         <v>35</v>
       </c>
+      <c r="U1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
         <v>61</v>
@@ -29668,10 +30403,13 @@
       <c r="T2" t="s">
         <v>57</v>
       </c>
+      <c r="U2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B3" t="s">
         <v>62</v>
@@ -29729,11 +30467,14 @@
       </c>
       <c r="T3" t="s">
         <v>62</v>
+      </c>
+      <c r="U3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
@@ -29791,11 +30532,14 @@
       </c>
       <c r="T4" t="s">
         <v>58</v>
+      </c>
+      <c r="U4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
@@ -29854,10 +30598,13 @@
       <c r="T5" t="s">
         <v>57</v>
       </c>
+      <c r="U5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B6" t="s">
         <v>62</v>
@@ -29916,10 +30663,13 @@
       <c r="T6" t="s">
         <v>57</v>
       </c>
+      <c r="U6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B7" t="s">
         <v>62</v>
@@ -29978,10 +30728,13 @@
       <c r="T7" t="s">
         <v>56</v>
       </c>
+      <c r="U7" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B8" t="s">
         <v>56</v>
@@ -30038,12 +30791,15 @@
         <v>58</v>
       </c>
       <c r="T8" t="s">
+        <v>56</v>
+      </c>
+      <c r="U8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B9" t="s">
         <v>59</v>
@@ -30102,10 +30858,13 @@
       <c r="T9" t="s">
         <v>60</v>
       </c>
+      <c r="U9" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
@@ -30163,11 +30922,14 @@
       </c>
       <c r="T10" t="s">
         <v>56</v>
+      </c>
+      <c r="U10" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B11" t="s">
         <v>62</v>
@@ -30225,11 +30987,14 @@
       </c>
       <c r="T11" t="s">
         <v>56</v>
+      </c>
+      <c r="U11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B12" t="s">
         <v>57</v>
@@ -30288,10 +31053,13 @@
       <c r="T12" t="s">
         <v>56</v>
       </c>
+      <c r="U12" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B13" t="s">
         <v>56</v>
@@ -30348,12 +31116,15 @@
         <v>59</v>
       </c>
       <c r="T13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U13" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>
@@ -30411,11 +31182,14 @@
       </c>
       <c r="T14" t="s">
         <v>57</v>
+      </c>
+      <c r="U14" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -30473,11 +31247,14 @@
       </c>
       <c r="T15" t="s">
         <v>56</v>
+      </c>
+      <c r="U15" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B16" t="s">
         <v>59</v>
@@ -30534,12 +31311,15 @@
         <v>56</v>
       </c>
       <c r="T16" t="s">
+        <v>56</v>
+      </c>
+      <c r="U16" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s">
         <v>56</v>
@@ -30598,10 +31378,13 @@
       <c r="T17" t="s">
         <v>62</v>
       </c>
+      <c r="U17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B18" t="s">
         <v>56</v>
@@ -30658,12 +31441,15 @@
         <v>57</v>
       </c>
       <c r="T18" t="s">
+        <v>56</v>
+      </c>
+      <c r="U18" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s">
         <v>57</v>
@@ -30720,12 +31506,15 @@
         <v>56</v>
       </c>
       <c r="T19" t="s">
+        <v>59</v>
+      </c>
+      <c r="U19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s">
         <v>62</v>
@@ -30784,10 +31573,13 @@
       <c r="T20" t="s">
         <v>60</v>
       </c>
+      <c r="U20" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -30845,11 +31637,14 @@
       </c>
       <c r="T21" t="s">
         <v>62</v>
+      </c>
+      <c r="U21" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B22" t="s">
         <v>62</v>
@@ -30907,11 +31702,14 @@
       </c>
       <c r="T22" t="s">
         <v>58</v>
+      </c>
+      <c r="U22" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B23" t="s">
         <v>59</v>
@@ -30969,11 +31767,14 @@
       </c>
       <c r="T23" t="s">
         <v>57</v>
+      </c>
+      <c r="U23" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B24" t="s">
         <v>59</v>
@@ -31031,11 +31832,14 @@
       </c>
       <c r="T24" t="s">
         <v>56</v>
+      </c>
+      <c r="U24" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B25" t="s">
         <v>56</v>
@@ -31093,6 +31897,9 @@
       </c>
       <c r="T25" t="s">
         <v>62</v>
+      </c>
+      <c r="U25" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -31117,48 +31924,48 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K1" t="s">
         <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M1" t="s">
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="O1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -31208,7 +32015,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
@@ -31258,7 +32065,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
@@ -31308,7 +32115,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B5" t="s">
         <v>62</v>
@@ -31358,7 +32165,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -31408,7 +32215,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
@@ -31458,7 +32265,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -31508,7 +32315,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -31558,7 +32365,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -31608,7 +32415,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -31658,7 +32465,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B12" t="s">
         <v>57</v>
@@ -31708,7 +32515,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B13" t="s">
         <v>56</v>
@@ -31758,7 +32565,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B14" t="s">
         <v>62</v>
@@ -31808,7 +32615,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B15" t="s">
         <v>56</v>
@@ -31858,7 +32665,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B16" t="s">
         <v>62</v>
@@ -31908,7 +32715,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B17" t="s">
         <v>56</v>
@@ -31958,7 +32765,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B18" t="s">
         <v>56</v>
@@ -32008,7 +32815,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B19" t="s">
         <v>60</v>
@@ -32058,7 +32865,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B20" t="s">
         <v>57</v>
@@ -32108,7 +32915,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B21" t="s">
         <v>57</v>
@@ -32158,7 +32965,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s">
         <v>56</v>
@@ -32208,7 +33015,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B23" t="s">
         <v>57</v>
@@ -32258,7 +33065,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B24" t="s">
         <v>55</v>
@@ -32405,7 +33212,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -32491,7 +33298,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -32577,7 +33384,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -32663,7 +33470,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -32749,7 +33556,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -32835,7 +33642,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -32921,7 +33728,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -33007,7 +33814,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -33093,7 +33900,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -33179,7 +33986,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -33265,7 +34072,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B12" t="s">
         <v>62</v>
@@ -33351,7 +34158,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -33437,7 +34244,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B14" t="s">
         <v>62</v>
@@ -33523,7 +34330,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -33609,7 +34416,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -33695,7 +34502,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -33781,7 +34588,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -33867,7 +34674,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -33953,7 +34760,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -34039,7 +34846,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>

--- a/YCmatrix.xlsx
+++ b/YCmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11738" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12067" uniqueCount="492">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -524,6 +524,9 @@
     <t>X2021.10.09</t>
   </si>
   <si>
+    <t>X2021.10.26</t>
+  </si>
+  <si>
     <t>Accrington</t>
   </si>
   <si>
@@ -755,6 +758,9 @@
     <t>Yeovil</t>
   </si>
   <si>
+    <t>X2021.10.27</t>
+  </si>
+  <si>
     <t>Angers</t>
   </si>
   <si>
@@ -828,6 +834,9 @@
   </si>
   <si>
     <t>X2021.08.25</t>
+  </si>
+  <si>
+    <t>X2021.10.25</t>
   </si>
   <si>
     <t>Ajaccio</t>
@@ -3942,25 +3951,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="J1" t="s">
         <v>127</v>
@@ -3972,7 +3981,7 @@
         <v>103</v>
       </c>
       <c r="M1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -4013,10 +4022,13 @@
       <c r="Z1" t="s">
         <v>38</v>
       </c>
+      <c r="AA1" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -4093,10 +4105,13 @@
       <c r="Z2" t="s">
         <v>60</v>
       </c>
+      <c r="AA2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -4172,11 +4187,14 @@
       </c>
       <c r="Z3" t="s">
         <v>62</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -4252,11 +4270,14 @@
       </c>
       <c r="Z4" t="s">
         <v>58</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -4332,11 +4353,14 @@
       </c>
       <c r="Z5" t="s">
         <v>58</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -4412,11 +4436,14 @@
       </c>
       <c r="Z6" t="s">
         <v>65</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -4492,11 +4519,14 @@
       </c>
       <c r="Z7" t="s">
         <v>59</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B8" t="s">
         <v>62</v>
@@ -4572,11 +4602,14 @@
       </c>
       <c r="Z8" t="s">
         <v>65</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B9" t="s">
         <v>59</v>
@@ -4652,11 +4685,14 @@
       </c>
       <c r="Z9" t="s">
         <v>59</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
@@ -4733,10 +4769,13 @@
       <c r="Z10" t="s">
         <v>60</v>
       </c>
+      <c r="AA10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
@@ -4812,11 +4851,14 @@
       </c>
       <c r="Z11" t="s">
         <v>60</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B12" t="s">
         <v>62</v>
@@ -4892,11 +4934,14 @@
       </c>
       <c r="Z12" t="s">
         <v>60</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B13" t="s">
         <v>59</v>
@@ -4972,11 +5017,14 @@
       </c>
       <c r="Z13" t="s">
         <v>61</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B14" t="s">
         <v>62</v>
@@ -5052,11 +5100,14 @@
       </c>
       <c r="Z14" t="s">
         <v>65</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B15" t="s">
         <v>65</v>
@@ -5132,11 +5183,14 @@
       </c>
       <c r="Z15" t="s">
         <v>59</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B16" t="s">
         <v>59</v>
@@ -5212,11 +5266,14 @@
       </c>
       <c r="Z16" t="s">
         <v>59</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B17" t="s">
         <v>60</v>
@@ -5293,10 +5350,13 @@
       <c r="Z17" t="s">
         <v>59</v>
       </c>
+      <c r="AA17" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B18" t="s">
         <v>59</v>
@@ -5372,11 +5432,14 @@
       </c>
       <c r="Z18" t="s">
         <v>59</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -5453,10 +5516,13 @@
       <c r="Z19" t="s">
         <v>59</v>
       </c>
+      <c r="AA19" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B20" t="s">
         <v>60</v>
@@ -5532,11 +5598,14 @@
       </c>
       <c r="Z20" t="s">
         <v>60</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B21" t="s">
         <v>59</v>
@@ -5612,6 +5681,9 @@
       </c>
       <c r="Z21" t="s">
         <v>60</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -5683,7 +5755,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -5739,7 +5811,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -5795,7 +5867,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -5851,7 +5923,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B5" t="s">
         <v>62</v>
@@ -5907,7 +5979,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -5963,7 +6035,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -6019,7 +6091,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -6075,7 +6147,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -6131,7 +6203,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -6187,7 +6259,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -6243,7 +6315,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B12" t="s">
         <v>62</v>
@@ -6299,7 +6371,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B13" t="s">
         <v>60</v>
@@ -6355,7 +6427,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -6411,7 +6483,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -6517,7 +6589,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="O1" t="s">
         <v>161</v>
@@ -6564,10 +6636,16 @@
       <c r="AC1" t="s">
         <v>39</v>
       </c>
+      <c r="AD1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -6653,10 +6731,16 @@
       <c r="AC2" t="s">
         <v>59</v>
       </c>
+      <c r="AD2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -6742,10 +6826,16 @@
       <c r="AC3" t="s">
         <v>58</v>
       </c>
+      <c r="AD3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -6831,10 +6921,16 @@
       <c r="AC4" t="s">
         <v>59</v>
       </c>
+      <c r="AD4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -6919,11 +7015,17 @@
       </c>
       <c r="AC5" t="s">
         <v>58</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -7009,10 +7111,16 @@
       <c r="AC6" t="s">
         <v>65</v>
       </c>
+      <c r="AD6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -7096,12 +7204,18 @@
         <v>58</v>
       </c>
       <c r="AC7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B8" t="s">
         <v>60</v>
@@ -7187,10 +7301,16 @@
       <c r="AC8" t="s">
         <v>59</v>
       </c>
+      <c r="AD8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -7275,11 +7395,17 @@
       </c>
       <c r="AC9" t="s">
         <v>59</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -7365,10 +7491,16 @@
       <c r="AC10" t="s">
         <v>59</v>
       </c>
+      <c r="AD10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -7452,12 +7584,18 @@
         <v>62</v>
       </c>
       <c r="AC11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -7542,11 +7680,17 @@
       </c>
       <c r="AC12" t="s">
         <v>60</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -7632,10 +7776,16 @@
       <c r="AC13" t="s">
         <v>61</v>
       </c>
+      <c r="AD13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -7719,12 +7869,18 @@
         <v>60</v>
       </c>
       <c r="AC14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -7809,11 +7965,17 @@
       </c>
       <c r="AC15" t="s">
         <v>58</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B16" t="s">
         <v>59</v>
@@ -7898,11 +8060,17 @@
       </c>
       <c r="AC16" t="s">
         <v>58</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -7986,12 +8154,18 @@
         <v>58</v>
       </c>
       <c r="AC17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE17" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B18" t="s">
         <v>59</v>
@@ -8077,10 +8251,16 @@
       <c r="AC18" t="s">
         <v>58</v>
       </c>
+      <c r="AD18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -8166,10 +8346,16 @@
       <c r="AC19" t="s">
         <v>59</v>
       </c>
+      <c r="AD19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -8255,10 +8441,16 @@
       <c r="AC20" t="s">
         <v>58</v>
       </c>
+      <c r="AD20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B21" t="s">
         <v>62</v>
@@ -8342,6 +8534,12 @@
         <v>58</v>
       </c>
       <c r="AC21" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE21" t="s">
         <v>59</v>
       </c>
     </row>
@@ -8397,7 +8595,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="O1" t="s">
         <v>161</v>
@@ -8435,10 +8633,13 @@
       <c r="Z1" t="s">
         <v>39</v>
       </c>
+      <c r="AA1" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -8513,12 +8714,15 @@
         <v>58</v>
       </c>
       <c r="Z2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -8595,10 +8799,13 @@
       <c r="Z3" t="s">
         <v>58</v>
       </c>
+      <c r="AA3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -8675,10 +8882,13 @@
       <c r="Z4" t="s">
         <v>58</v>
       </c>
+      <c r="AA4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -8753,12 +8963,15 @@
         <v>60</v>
       </c>
       <c r="Z5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -8835,10 +9048,13 @@
       <c r="Z6" t="s">
         <v>58</v>
       </c>
+      <c r="AA6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -8915,10 +9131,13 @@
       <c r="Z7" t="s">
         <v>61</v>
       </c>
+      <c r="AA7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -8994,11 +9213,14 @@
       </c>
       <c r="Z8" t="s">
         <v>58</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -9073,12 +9295,15 @@
         <v>60</v>
       </c>
       <c r="Z9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -9153,12 +9378,15 @@
         <v>58</v>
       </c>
       <c r="Z10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
@@ -9235,10 +9463,13 @@
       <c r="Z11" t="s">
         <v>58</v>
       </c>
+      <c r="AA11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -9313,12 +9544,15 @@
         <v>62</v>
       </c>
       <c r="Z12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -9395,10 +9629,13 @@
       <c r="Z13" t="s">
         <v>58</v>
       </c>
+      <c r="AA13" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
@@ -9475,10 +9712,13 @@
       <c r="Z14" t="s">
         <v>63</v>
       </c>
+      <c r="AA14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -9555,10 +9795,13 @@
       <c r="Z15" t="s">
         <v>58</v>
       </c>
+      <c r="AA15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -9634,11 +9877,14 @@
       </c>
       <c r="Z16" t="s">
         <v>60</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -9714,11 +9960,14 @@
       </c>
       <c r="Z17" t="s">
         <v>59</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -9795,10 +10044,13 @@
       <c r="Z18" t="s">
         <v>63</v>
       </c>
+      <c r="AA18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -9874,11 +10126,14 @@
       </c>
       <c r="Z19" t="s">
         <v>65</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -9954,11 +10209,14 @@
       </c>
       <c r="Z20" t="s">
         <v>58</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -10034,6 +10292,9 @@
       </c>
       <c r="Z21" t="s">
         <v>58</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -10135,7 +10396,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -10221,7 +10482,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -10307,7 +10568,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -10393,7 +10654,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -10479,7 +10740,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -10565,7 +10826,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
@@ -10651,7 +10912,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -10737,7 +10998,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B9" t="s">
         <v>65</v>
@@ -10823,7 +11084,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -10909,7 +11170,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -10995,7 +11256,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -11081,7 +11342,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -11167,7 +11428,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -11253,7 +11514,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -11339,7 +11600,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -11425,7 +11686,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -11511,7 +11772,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -11597,7 +11858,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -11706,7 +11967,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -11718,7 +11979,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -11760,7 +12021,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -11792,10 +12053,13 @@
       <c r="AG1" t="s">
         <v>39</v>
       </c>
+      <c r="AH1" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -11893,10 +12157,13 @@
       <c r="AG2" t="s">
         <v>59</v>
       </c>
+      <c r="AH2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -11994,10 +12261,13 @@
       <c r="AG3" t="s">
         <v>58</v>
       </c>
+      <c r="AH3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -12094,11 +12364,14 @@
       </c>
       <c r="AG4" t="s">
         <v>62</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -12196,10 +12469,13 @@
       <c r="AG5" t="s">
         <v>58</v>
       </c>
+      <c r="AH5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -12297,10 +12573,13 @@
       <c r="AG6" t="s">
         <v>62</v>
       </c>
+      <c r="AH6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -12398,10 +12677,13 @@
       <c r="AG7" t="s">
         <v>58</v>
       </c>
+      <c r="AH7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -12499,10 +12781,13 @@
       <c r="AG8" t="s">
         <v>58</v>
       </c>
+      <c r="AH8" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -12600,10 +12885,13 @@
       <c r="AG9" t="s">
         <v>58</v>
       </c>
+      <c r="AH9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -12701,10 +12989,13 @@
       <c r="AG10" t="s">
         <v>58</v>
       </c>
+      <c r="AH10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -12802,10 +13093,13 @@
       <c r="AG11" t="s">
         <v>58</v>
       </c>
+      <c r="AH11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -12903,10 +13197,13 @@
       <c r="AG12" t="s">
         <v>66</v>
       </c>
+      <c r="AH12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -13004,10 +13301,13 @@
       <c r="AG13" t="s">
         <v>60</v>
       </c>
+      <c r="AH13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -13105,10 +13405,13 @@
       <c r="AG14" t="s">
         <v>58</v>
       </c>
+      <c r="AH14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -13206,10 +13509,13 @@
       <c r="AG15" t="s">
         <v>58</v>
       </c>
+      <c r="AH15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -13306,11 +13612,14 @@
       </c>
       <c r="AG16" t="s">
         <v>58</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B17" t="s">
         <v>60</v>
@@ -13408,10 +13717,13 @@
       <c r="AG17" t="s">
         <v>58</v>
       </c>
+      <c r="AH17" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -13509,10 +13821,13 @@
       <c r="AG18" t="s">
         <v>58</v>
       </c>
+      <c r="AH18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B19" t="s">
         <v>62</v>
@@ -13609,6 +13924,9 @@
       </c>
       <c r="AG19" t="s">
         <v>62</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -13683,10 +14001,13 @@
       <c r="T1" t="s">
         <v>39</v>
       </c>
+      <c r="U1" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -13744,11 +14065,14 @@
       </c>
       <c r="T2" t="s">
         <v>58</v>
+      </c>
+      <c r="U2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B3" t="s">
         <v>65</v>
@@ -13806,11 +14130,14 @@
       </c>
       <c r="T3" t="s">
         <v>58</v>
+      </c>
+      <c r="U3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -13869,10 +14196,13 @@
       <c r="T4" t="s">
         <v>58</v>
       </c>
+      <c r="U4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -13930,11 +14260,14 @@
       </c>
       <c r="T5" t="s">
         <v>58</v>
+      </c>
+      <c r="U5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
@@ -13992,11 +14325,14 @@
       </c>
       <c r="T6" t="s">
         <v>58</v>
+      </c>
+      <c r="U6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -14054,11 +14390,14 @@
       </c>
       <c r="T7" t="s">
         <v>58</v>
+      </c>
+      <c r="U7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B8" t="s">
         <v>63</v>
@@ -14117,10 +14456,13 @@
       <c r="T8" t="s">
         <v>58</v>
       </c>
+      <c r="U8" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -14179,10 +14521,13 @@
       <c r="T9" t="s">
         <v>58</v>
       </c>
+      <c r="U9" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B10" t="s">
         <v>65</v>
@@ -14240,11 +14585,14 @@
       </c>
       <c r="T10" t="s">
         <v>59</v>
+      </c>
+      <c r="U10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B11" t="s">
         <v>61</v>
@@ -14302,11 +14650,14 @@
       </c>
       <c r="T11" t="s">
         <v>58</v>
+      </c>
+      <c r="U11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B12" t="s">
         <v>60</v>
@@ -14365,10 +14716,13 @@
       <c r="T12" t="s">
         <v>58</v>
       </c>
+      <c r="U12" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B13" t="s">
         <v>59</v>
@@ -14426,6 +14780,9 @@
       </c>
       <c r="T13" t="s">
         <v>60</v>
+      </c>
+      <c r="U13" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -14447,7 +14804,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -14459,7 +14816,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -14491,10 +14848,13 @@
       <c r="Q1" t="s">
         <v>38</v>
       </c>
+      <c r="R1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -14543,11 +14903,14 @@
       </c>
       <c r="Q2" t="s">
         <v>65</v>
+      </c>
+      <c r="R2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -14595,12 +14958,15 @@
         <v>60</v>
       </c>
       <c r="Q3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -14649,11 +15015,14 @@
       </c>
       <c r="Q4" t="s">
         <v>65</v>
+      </c>
+      <c r="R4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
@@ -14702,11 +15071,14 @@
       </c>
       <c r="Q5" t="s">
         <v>65</v>
+      </c>
+      <c r="R5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -14755,11 +15127,14 @@
       </c>
       <c r="Q6" t="s">
         <v>62</v>
+      </c>
+      <c r="R6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -14808,11 +15183,14 @@
       </c>
       <c r="Q7" t="s">
         <v>60</v>
+      </c>
+      <c r="R7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B8" t="s">
         <v>60</v>
@@ -14862,10 +15240,13 @@
       <c r="Q8" t="s">
         <v>60</v>
       </c>
+      <c r="R8" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B9" t="s">
         <v>59</v>
@@ -14913,12 +15294,15 @@
         <v>58</v>
       </c>
       <c r="Q9" t="s">
+        <v>65</v>
+      </c>
+      <c r="R9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -14966,12 +15350,15 @@
         <v>59</v>
       </c>
       <c r="Q10" t="s">
+        <v>60</v>
+      </c>
+      <c r="R10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -15020,6 +15407,9 @@
       </c>
       <c r="Q11" t="s">
         <v>60</v>
+      </c>
+      <c r="R11" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -15082,7 +15472,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
@@ -15129,7 +15519,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -15176,7 +15566,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -15223,7 +15613,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
@@ -15270,7 +15660,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B6" t="s">
         <v>61</v>
@@ -15317,7 +15707,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
@@ -15364,7 +15754,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -15411,7 +15801,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
@@ -15458,7 +15848,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -15505,7 +15895,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
@@ -15587,7 +15977,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -15616,7 +16006,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
@@ -15669,7 +16059,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -15722,7 +16112,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -15775,7 +16165,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
@@ -15828,7 +16218,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -15881,7 +16271,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -15934,7 +16324,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B8" t="s">
         <v>65</v>
@@ -15987,7 +16377,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B9" t="s">
         <v>62</v>
@@ -16040,7 +16430,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B10" t="s">
         <v>62</v>
@@ -16093,7 +16483,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -17757,7 +18147,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -17799,7 +18189,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="T1" t="s">
         <v>161</v>
@@ -17846,10 +18236,19 @@
       <c r="AH1" t="s">
         <v>39</v>
       </c>
+      <c r="AI1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -17948,12 +18347,21 @@
         <v>59</v>
       </c>
       <c r="AH2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -18052,12 +18460,21 @@
         <v>65</v>
       </c>
       <c r="AH3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -18158,10 +18575,19 @@
       <c r="AH4" t="s">
         <v>60</v>
       </c>
+      <c r="AI4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -18261,11 +18687,20 @@
       </c>
       <c r="AH5" t="s">
         <v>60</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -18366,10 +18801,19 @@
       <c r="AH6" t="s">
         <v>60</v>
       </c>
+      <c r="AI6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -18468,12 +18912,21 @@
         <v>65</v>
       </c>
       <c r="AH7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -18572,12 +19025,21 @@
         <v>58</v>
       </c>
       <c r="AH8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -18676,12 +19138,21 @@
         <v>62</v>
       </c>
       <c r="AH9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -18780,12 +19251,21 @@
         <v>60</v>
       </c>
       <c r="AH10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B11" t="s">
         <v>62</v>
@@ -18886,10 +19366,19 @@
       <c r="AH11" t="s">
         <v>58</v>
       </c>
+      <c r="AI11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -18990,10 +19479,19 @@
       <c r="AH12" t="s">
         <v>58</v>
       </c>
+      <c r="AI12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -19094,10 +19592,19 @@
       <c r="AH13" t="s">
         <v>59</v>
       </c>
+      <c r="AI13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -19198,10 +19705,19 @@
       <c r="AH14" t="s">
         <v>58</v>
       </c>
+      <c r="AI14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -19302,10 +19818,19 @@
       <c r="AH15" t="s">
         <v>58</v>
       </c>
+      <c r="AI15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -19406,10 +19931,19 @@
       <c r="AH16" t="s">
         <v>60</v>
       </c>
+      <c r="AI16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -19510,10 +20044,19 @@
       <c r="AH17" t="s">
         <v>60</v>
       </c>
+      <c r="AI17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -19613,11 +20156,20 @@
       </c>
       <c r="AH18" t="s">
         <v>62</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -19718,10 +20270,19 @@
       <c r="AH19" t="s">
         <v>58</v>
       </c>
+      <c r="AI19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -19822,10 +20383,19 @@
       <c r="AH20" t="s">
         <v>59</v>
       </c>
+      <c r="AI20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -19924,6 +20494,15 @@
         <v>62</v>
       </c>
       <c r="AH21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK21" t="s">
         <v>58</v>
       </c>
     </row>
@@ -19952,7 +20531,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -19976,16 +20555,16 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N1" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="O1" t="s">
         <v>159</v>
       </c>
       <c r="P1" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="Q1" t="s">
         <v>160</v>
@@ -20012,7 +20591,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -20036,19 +20615,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="AH1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AI1" t="s">
         <v>162</v>
       </c>
       <c r="AJ1" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="AK1" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -20066,7 +20645,7 @@
         <v>133</v>
       </c>
       <c r="AQ1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -20077,10 +20656,13 @@
       <c r="AT1" t="s">
         <v>39</v>
       </c>
+      <c r="AU1" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -20217,10 +20799,13 @@
       <c r="AT2" t="s">
         <v>60</v>
       </c>
+      <c r="AU2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -20356,11 +20941,14 @@
       </c>
       <c r="AT3" t="s">
         <v>62</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -20496,11 +21084,14 @@
       </c>
       <c r="AT4" t="s">
         <v>60</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -20636,11 +21227,14 @@
       </c>
       <c r="AT5" t="s">
         <v>59</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -20724,7 +21318,7 @@
         <v>58</v>
       </c>
       <c r="AC6" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="AD6" t="s">
         <v>58</v>
@@ -20775,12 +21369,15 @@
         <v>58</v>
       </c>
       <c r="AT6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
@@ -20917,10 +21514,13 @@
       <c r="AT7" t="s">
         <v>58</v>
       </c>
+      <c r="AU7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -21057,10 +21657,13 @@
       <c r="AT8" t="s">
         <v>58</v>
       </c>
+      <c r="AU8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -21197,10 +21800,13 @@
       <c r="AT9" t="s">
         <v>58</v>
       </c>
+      <c r="AU9" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -21337,10 +21943,13 @@
       <c r="AT10" t="s">
         <v>59</v>
       </c>
+      <c r="AU10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -21475,12 +22084,15 @@
         <v>61</v>
       </c>
       <c r="AT11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -21617,10 +22229,13 @@
       <c r="AT12" t="s">
         <v>65</v>
       </c>
+      <c r="AU12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -21755,12 +22370,15 @@
         <v>65</v>
       </c>
       <c r="AT13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU13" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -21897,10 +22515,13 @@
       <c r="AT14" t="s">
         <v>58</v>
       </c>
+      <c r="AU14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -22037,10 +22658,13 @@
       <c r="AT15" t="s">
         <v>58</v>
       </c>
+      <c r="AU15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -22176,11 +22800,14 @@
       </c>
       <c r="AT16" t="s">
         <v>59</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -22317,10 +22944,13 @@
       <c r="AT17" t="s">
         <v>65</v>
       </c>
+      <c r="AU17" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -22457,10 +23087,13 @@
       <c r="AT18" t="s">
         <v>59</v>
       </c>
+      <c r="AU18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -22597,10 +23230,13 @@
       <c r="AT19" t="s">
         <v>59</v>
       </c>
+      <c r="AU19" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -22735,12 +23371,15 @@
         <v>59</v>
       </c>
       <c r="AT20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU20" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -22877,10 +23516,13 @@
       <c r="AT21" t="s">
         <v>58</v>
       </c>
+      <c r="AU21" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B22" t="s">
         <v>58</v>
@@ -23015,12 +23657,15 @@
         <v>61</v>
       </c>
       <c r="AT22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B23" t="s">
         <v>59</v>
@@ -23156,6 +23801,9 @@
       </c>
       <c r="AT23" t="s">
         <v>58</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -23183,7 +23831,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -23275,10 +23923,13 @@
       <c r="AI1" t="s">
         <v>39</v>
       </c>
+      <c r="AJ1" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -23382,10 +24033,13 @@
       <c r="AI2" t="s">
         <v>59</v>
       </c>
+      <c r="AJ2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -23489,10 +24143,13 @@
       <c r="AI3" t="s">
         <v>60</v>
       </c>
+      <c r="AJ3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -23594,12 +24251,15 @@
         <v>58</v>
       </c>
       <c r="AI4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -23703,10 +24363,13 @@
       <c r="AI5" t="s">
         <v>65</v>
       </c>
+      <c r="AJ5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -23809,11 +24472,14 @@
       </c>
       <c r="AI6" t="s">
         <v>58</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -23916,11 +24582,14 @@
       </c>
       <c r="AI7" t="s">
         <v>60</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -24024,10 +24693,13 @@
       <c r="AI8" t="s">
         <v>59</v>
       </c>
+      <c r="AJ8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -24130,11 +24802,14 @@
       </c>
       <c r="AI9" t="s">
         <v>58</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -24238,10 +24913,13 @@
       <c r="AI10" t="s">
         <v>58</v>
       </c>
+      <c r="AJ10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -24345,10 +25023,13 @@
       <c r="AI11" t="s">
         <v>58</v>
       </c>
+      <c r="AJ11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -24452,10 +25133,13 @@
       <c r="AI12" t="s">
         <v>58</v>
       </c>
+      <c r="AJ12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -24559,10 +25243,13 @@
       <c r="AI13" t="s">
         <v>62</v>
       </c>
+      <c r="AJ13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -24666,10 +25353,13 @@
       <c r="AI14" t="s">
         <v>63</v>
       </c>
+      <c r="AJ14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -24771,12 +25461,15 @@
         <v>61</v>
       </c>
       <c r="AI15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -24878,12 +25571,15 @@
         <v>62</v>
       </c>
       <c r="AI16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ16" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -24985,12 +25681,15 @@
         <v>59</v>
       </c>
       <c r="AI17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ17" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B18" t="s">
         <v>60</v>
@@ -25092,12 +25791,15 @@
         <v>62</v>
       </c>
       <c r="AI18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -25201,10 +25903,13 @@
       <c r="AI19" t="s">
         <v>64</v>
       </c>
+      <c r="AJ19" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -25306,12 +26011,15 @@
         <v>61</v>
       </c>
       <c r="AI20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ20" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -25413,6 +26121,9 @@
         <v>58</v>
       </c>
       <c r="AI21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ21" t="s">
         <v>58</v>
       </c>
     </row>
@@ -31348,10 +32059,13 @@
       <c r="U1" t="s">
         <v>38</v>
       </c>
+      <c r="V1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
@@ -31413,10 +32127,13 @@
       <c r="U2" t="s">
         <v>59</v>
       </c>
+      <c r="V2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B3" t="s">
         <v>62</v>
@@ -31477,11 +32194,14 @@
       </c>
       <c r="U3" t="s">
         <v>65</v>
+      </c>
+      <c r="V3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
@@ -31542,11 +32262,14 @@
       </c>
       <c r="U4" t="s">
         <v>60</v>
+      </c>
+      <c r="V4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -31607,11 +32330,14 @@
       </c>
       <c r="U5" t="s">
         <v>62</v>
+      </c>
+      <c r="V5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -31673,10 +32399,13 @@
       <c r="U6" t="s">
         <v>63</v>
       </c>
+      <c r="V6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
@@ -31738,10 +32467,13 @@
       <c r="U7" t="s">
         <v>59</v>
       </c>
+      <c r="V7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s">
         <v>60</v>
@@ -31802,11 +32534,14 @@
       </c>
       <c r="U8" t="s">
         <v>65</v>
+      </c>
+      <c r="V8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
@@ -31868,10 +32603,13 @@
       <c r="U9" t="s">
         <v>60</v>
       </c>
+      <c r="V9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B10" t="s">
         <v>65</v>
@@ -31933,10 +32671,13 @@
       <c r="U10" t="s">
         <v>60</v>
       </c>
+      <c r="V10" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
@@ -31998,10 +32739,13 @@
       <c r="U11" t="s">
         <v>62</v>
       </c>
+      <c r="V11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
@@ -32062,11 +32806,14 @@
       </c>
       <c r="U12" t="s">
         <v>62</v>
+      </c>
+      <c r="V12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
@@ -32127,11 +32874,14 @@
       </c>
       <c r="U13" t="s">
         <v>59</v>
+      </c>
+      <c r="V13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
@@ -32192,11 +32942,14 @@
       </c>
       <c r="U14" t="s">
         <v>60</v>
+      </c>
+      <c r="V14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s">
         <v>65</v>
@@ -32257,11 +33010,14 @@
       </c>
       <c r="U15" t="s">
         <v>60</v>
+      </c>
+      <c r="V15" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s">
         <v>59</v>
@@ -32322,11 +33078,14 @@
       </c>
       <c r="U16" t="s">
         <v>60</v>
+      </c>
+      <c r="V16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s">
         <v>59</v>
@@ -32387,11 +33146,14 @@
       </c>
       <c r="U17" t="s">
         <v>60</v>
+      </c>
+      <c r="V17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s">
         <v>65</v>
@@ -32452,11 +33214,14 @@
       </c>
       <c r="U18" t="s">
         <v>59</v>
+      </c>
+      <c r="V18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s">
         <v>62</v>
@@ -32517,11 +33282,14 @@
       </c>
       <c r="U19" t="s">
         <v>59</v>
+      </c>
+      <c r="V19" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B20" t="s">
         <v>59</v>
@@ -32582,11 +33350,14 @@
       </c>
       <c r="U20" t="s">
         <v>60</v>
+      </c>
+      <c r="V20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s">
         <v>62</v>
@@ -32647,11 +33418,14 @@
       </c>
       <c r="U21" t="s">
         <v>65</v>
+      </c>
+      <c r="V21" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B22" t="s">
         <v>60</v>
@@ -32712,11 +33486,14 @@
       </c>
       <c r="U22" t="s">
         <v>60</v>
+      </c>
+      <c r="V22" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s">
         <v>60</v>
@@ -32777,11 +33554,14 @@
       </c>
       <c r="U23" t="s">
         <v>59</v>
+      </c>
+      <c r="V23" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B24" t="s">
         <v>61</v>
@@ -32841,12 +33621,15 @@
         <v>60</v>
       </c>
       <c r="U24" t="s">
+        <v>62</v>
+      </c>
+      <c r="V24" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B25" t="s">
         <v>65</v>
@@ -32907,6 +33690,9 @@
       </c>
       <c r="U25" t="s">
         <v>65</v>
+      </c>
+      <c r="V25" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -32937,7 +33723,7 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -32973,7 +33759,7 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="S1" t="s">
         <v>162</v>
@@ -32987,10 +33773,13 @@
       <c r="V1" t="s">
         <v>38</v>
       </c>
+      <c r="W1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -33055,10 +33844,13 @@
       <c r="V2" t="s">
         <v>63</v>
       </c>
+      <c r="W2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B3" t="s">
         <v>65</v>
@@ -33122,11 +33914,14 @@
       </c>
       <c r="V3" t="s">
         <v>62</v>
+      </c>
+      <c r="W3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -33190,11 +33985,14 @@
       </c>
       <c r="V4" t="s">
         <v>60</v>
+      </c>
+      <c r="W4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -33259,10 +34057,13 @@
       <c r="V5" t="s">
         <v>65</v>
       </c>
+      <c r="W5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
@@ -33327,10 +34128,13 @@
       <c r="V6" t="s">
         <v>59</v>
       </c>
+      <c r="W6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
@@ -33395,10 +34199,13 @@
       <c r="V7" t="s">
         <v>60</v>
       </c>
+      <c r="W7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -33462,11 +34269,14 @@
       </c>
       <c r="V8" t="s">
         <v>65</v>
+      </c>
+      <c r="W8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B9" t="s">
         <v>62</v>
@@ -33531,10 +34341,13 @@
       <c r="V9" t="s">
         <v>60</v>
       </c>
+      <c r="W9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -33598,11 +34411,14 @@
       </c>
       <c r="V10" t="s">
         <v>60</v>
+      </c>
+      <c r="W10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
@@ -33666,11 +34482,14 @@
       </c>
       <c r="V11" t="s">
         <v>59</v>
+      </c>
+      <c r="W11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B12" t="s">
         <v>60</v>
@@ -33735,10 +34554,13 @@
       <c r="V12" t="s">
         <v>60</v>
       </c>
+      <c r="W12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B13" t="s">
         <v>59</v>
@@ -33802,11 +34624,14 @@
       </c>
       <c r="V13" t="s">
         <v>59</v>
+      </c>
+      <c r="W13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
@@ -33870,11 +34695,14 @@
       </c>
       <c r="V14" t="s">
         <v>61</v>
+      </c>
+      <c r="W14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B15" t="s">
         <v>61</v>
@@ -33938,11 +34766,14 @@
       </c>
       <c r="V15" t="s">
         <v>62</v>
+      </c>
+      <c r="W15" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B16" t="s">
         <v>62</v>
@@ -34006,11 +34837,14 @@
       </c>
       <c r="V16" t="s">
         <v>60</v>
+      </c>
+      <c r="W16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B17" t="s">
         <v>59</v>
@@ -34075,10 +34909,13 @@
       <c r="V17" t="s">
         <v>60</v>
       </c>
+      <c r="W17" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B18" t="s">
         <v>59</v>
@@ -34142,11 +34979,14 @@
       </c>
       <c r="V18" t="s">
         <v>65</v>
+      </c>
+      <c r="W18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s">
         <v>60</v>
@@ -34210,11 +35050,14 @@
       </c>
       <c r="V19" t="s">
         <v>62</v>
+      </c>
+      <c r="W19" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s">
         <v>65</v>
@@ -34279,10 +35122,13 @@
       <c r="V20" t="s">
         <v>60</v>
       </c>
+      <c r="W20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s">
         <v>61</v>
@@ -34346,11 +35192,14 @@
       </c>
       <c r="V21" t="s">
         <v>65</v>
+      </c>
+      <c r="W21" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B22" t="s">
         <v>65</v>
@@ -34414,11 +35263,14 @@
       </c>
       <c r="V22" t="s">
         <v>65</v>
+      </c>
+      <c r="W22" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B23" t="s">
         <v>62</v>
@@ -34482,11 +35334,14 @@
       </c>
       <c r="V23" t="s">
         <v>62</v>
+      </c>
+      <c r="W23" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B24" t="s">
         <v>62</v>
@@ -34550,11 +35405,14 @@
       </c>
       <c r="V24" t="s">
         <v>60</v>
+      </c>
+      <c r="W24" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B25" t="s">
         <v>59</v>
@@ -34618,6 +35476,9 @@
       </c>
       <c r="V25" t="s">
         <v>59</v>
+      </c>
+      <c r="W25" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -34642,10 +35503,10 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F1" t="s">
         <v>159</v>
@@ -34672,21 +35533,24 @@
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O1" t="s">
         <v>162</v>
       </c>
       <c r="P1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
       </c>
+      <c r="R1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -34736,10 +35600,13 @@
       <c r="Q2" t="s">
         <v>61</v>
       </c>
+      <c r="R2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -34789,10 +35656,13 @@
       <c r="Q3" t="s">
         <v>60</v>
       </c>
+      <c r="R3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -34841,11 +35711,14 @@
       </c>
       <c r="Q4" t="s">
         <v>65</v>
+      </c>
+      <c r="R4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
@@ -34894,11 +35767,14 @@
       </c>
       <c r="Q5" t="s">
         <v>59</v>
+      </c>
+      <c r="R5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -34947,11 +35823,14 @@
       </c>
       <c r="Q6" t="s">
         <v>62</v>
+      </c>
+      <c r="R6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B7" t="s">
         <v>63</v>
@@ -35001,10 +35880,13 @@
       <c r="Q7" t="s">
         <v>65</v>
       </c>
+      <c r="R7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B8" t="s">
         <v>62</v>
@@ -35052,12 +35934,15 @@
         <v>58</v>
       </c>
       <c r="Q8" t="s">
+        <v>60</v>
+      </c>
+      <c r="R8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -35105,12 +35990,15 @@
         <v>58</v>
       </c>
       <c r="Q9" t="s">
+        <v>58</v>
+      </c>
+      <c r="R9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -35159,11 +36047,14 @@
       </c>
       <c r="Q10" t="s">
         <v>65</v>
+      </c>
+      <c r="R10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -35212,11 +36103,14 @@
       </c>
       <c r="Q11" t="s">
         <v>65</v>
+      </c>
+      <c r="R11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B12" t="s">
         <v>60</v>
@@ -35265,11 +36159,14 @@
       </c>
       <c r="Q12" t="s">
         <v>60</v>
+      </c>
+      <c r="R12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B13" t="s">
         <v>59</v>
@@ -35318,11 +36215,14 @@
       </c>
       <c r="Q13" t="s">
         <v>60</v>
+      </c>
+      <c r="R13" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B14" t="s">
         <v>65</v>
@@ -35371,11 +36271,14 @@
       </c>
       <c r="Q14" t="s">
         <v>61</v>
+      </c>
+      <c r="R14" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B15" t="s">
         <v>59</v>
@@ -35425,10 +36328,13 @@
       <c r="Q15" t="s">
         <v>59</v>
       </c>
+      <c r="R15" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B16" t="s">
         <v>65</v>
@@ -35476,12 +36382,15 @@
         <v>58</v>
       </c>
       <c r="Q16" t="s">
+        <v>59</v>
+      </c>
+      <c r="R16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B17" t="s">
         <v>59</v>
@@ -35531,10 +36440,13 @@
       <c r="Q17" t="s">
         <v>59</v>
       </c>
+      <c r="R17" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B18" t="s">
         <v>59</v>
@@ -35583,11 +36495,14 @@
       </c>
       <c r="Q18" t="s">
         <v>62</v>
+      </c>
+      <c r="R18" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B19" t="s">
         <v>63</v>
@@ -35637,10 +36552,13 @@
       <c r="Q19" t="s">
         <v>65</v>
       </c>
+      <c r="R19" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B20" t="s">
         <v>60</v>
@@ -35690,10 +36608,13 @@
       <c r="Q20" t="s">
         <v>65</v>
       </c>
+      <c r="R20" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B21" t="s">
         <v>60</v>
@@ -35743,10 +36664,13 @@
       <c r="Q21" t="s">
         <v>65</v>
       </c>
+      <c r="R21" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B22" t="s">
         <v>59</v>
@@ -35795,11 +36719,14 @@
       </c>
       <c r="Q22" t="s">
         <v>59</v>
+      </c>
+      <c r="R22" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s">
         <v>60</v>
@@ -35847,12 +36774,15 @@
         <v>58</v>
       </c>
       <c r="Q23" t="s">
+        <v>60</v>
+      </c>
+      <c r="R23" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
@@ -35901,6 +36831,9 @@
       </c>
       <c r="Q24" t="s">
         <v>60</v>
+      </c>
+      <c r="R24" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -36008,10 +36941,13 @@
       <c r="AE1" t="s">
         <v>39</v>
       </c>
+      <c r="AF1" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -36101,12 +37037,15 @@
         <v>58</v>
       </c>
       <c r="AE2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -36197,11 +37136,14 @@
       </c>
       <c r="AE3" t="s">
         <v>59</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -36291,12 +37233,15 @@
         <v>59</v>
       </c>
       <c r="AE4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -36386,12 +37331,15 @@
         <v>65</v>
       </c>
       <c r="AE5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -36482,11 +37430,14 @@
       </c>
       <c r="AE6" t="s">
         <v>59</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -36576,12 +37527,15 @@
         <v>60</v>
       </c>
       <c r="AE7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -36673,10 +37627,13 @@
       <c r="AE8" t="s">
         <v>61</v>
       </c>
+      <c r="AF8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -36768,10 +37725,13 @@
       <c r="AE9" t="s">
         <v>65</v>
       </c>
+      <c r="AF9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -36862,11 +37822,14 @@
       </c>
       <c r="AE10" t="s">
         <v>60</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -36958,10 +37921,13 @@
       <c r="AE11" t="s">
         <v>62</v>
       </c>
+      <c r="AF11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
@@ -37052,11 +38018,14 @@
       </c>
       <c r="AE12" t="s">
         <v>60</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -37148,10 +38117,13 @@
       <c r="AE13" t="s">
         <v>61</v>
       </c>
+      <c r="AF13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B14" t="s">
         <v>65</v>
@@ -37241,12 +38213,15 @@
         <v>60</v>
       </c>
       <c r="AE14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -37337,11 +38312,14 @@
       </c>
       <c r="AE15" t="s">
         <v>60</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -37432,11 +38410,14 @@
       </c>
       <c r="AE16" t="s">
         <v>59</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -37527,11 +38508,14 @@
       </c>
       <c r="AE17" t="s">
         <v>61</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -37622,11 +38606,14 @@
       </c>
       <c r="AE18" t="s">
         <v>60</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -37718,10 +38705,13 @@
       <c r="AE19" t="s">
         <v>58</v>
       </c>
+      <c r="AF19" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -37812,11 +38802,14 @@
       </c>
       <c r="AE20" t="s">
         <v>59</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -37907,6 +38900,9 @@
       </c>
       <c r="AE21" t="s">
         <v>59</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/YCmatrix.xlsx
+++ b/YCmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12067" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12130" uniqueCount="493">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -942,6 +942,9 @@
   </si>
   <si>
     <t>X2021.09.20</t>
+  </si>
+  <si>
+    <t>X2021.10.28</t>
   </si>
   <si>
     <t>Atalanta</t>
@@ -6642,10 +6645,13 @@
       <c r="AE1" t="s">
         <v>241</v>
       </c>
+      <c r="AF1" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -6737,10 +6743,13 @@
       <c r="AE2" t="s">
         <v>62</v>
       </c>
+      <c r="AF2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -6832,10 +6841,13 @@
       <c r="AE3" t="s">
         <v>58</v>
       </c>
+      <c r="AF3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -6927,10 +6939,13 @@
       <c r="AE4" t="s">
         <v>62</v>
       </c>
+      <c r="AF4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -7021,11 +7036,14 @@
       </c>
       <c r="AE5" t="s">
         <v>60</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -7117,10 +7135,13 @@
       <c r="AE6" t="s">
         <v>62</v>
       </c>
+      <c r="AF6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -7210,12 +7231,15 @@
         <v>61</v>
       </c>
       <c r="AE7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B8" t="s">
         <v>60</v>
@@ -7307,10 +7331,13 @@
       <c r="AE8" t="s">
         <v>62</v>
       </c>
+      <c r="AF8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -7401,11 +7428,14 @@
       </c>
       <c r="AE9" t="s">
         <v>60</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -7497,10 +7527,13 @@
       <c r="AE10" t="s">
         <v>62</v>
       </c>
+      <c r="AF10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -7590,12 +7623,15 @@
         <v>62</v>
       </c>
       <c r="AE11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -7686,11 +7722,14 @@
       </c>
       <c r="AE12" t="s">
         <v>58</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -7782,10 +7821,13 @@
       <c r="AE13" t="s">
         <v>61</v>
       </c>
+      <c r="AF13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -7875,12 +7917,15 @@
         <v>62</v>
       </c>
       <c r="AE14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -7971,11 +8016,14 @@
       </c>
       <c r="AE15" t="s">
         <v>61</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B16" t="s">
         <v>59</v>
@@ -8067,10 +8115,13 @@
       <c r="AE16" t="s">
         <v>63</v>
       </c>
+      <c r="AF16" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -8160,12 +8211,15 @@
         <v>59</v>
       </c>
       <c r="AE17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF17" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B18" t="s">
         <v>59</v>
@@ -8257,10 +8311,13 @@
       <c r="AE18" t="s">
         <v>58</v>
       </c>
+      <c r="AF18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -8352,10 +8409,13 @@
       <c r="AE19" t="s">
         <v>60</v>
       </c>
+      <c r="AF19" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -8447,10 +8507,13 @@
       <c r="AE20" t="s">
         <v>58</v>
       </c>
+      <c r="AF20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B21" t="s">
         <v>62</v>
@@ -8541,6 +8604,9 @@
       </c>
       <c r="AE21" t="s">
         <v>59</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -8636,10 +8702,13 @@
       <c r="AA1" t="s">
         <v>241</v>
       </c>
+      <c r="AB1" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -8718,11 +8787,14 @@
       </c>
       <c r="AA2" t="s">
         <v>58</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -8802,10 +8874,13 @@
       <c r="AA3" t="s">
         <v>58</v>
       </c>
+      <c r="AB3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -8885,10 +8960,13 @@
       <c r="AA4" t="s">
         <v>58</v>
       </c>
+      <c r="AB4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -8967,11 +9045,14 @@
       </c>
       <c r="AA5" t="s">
         <v>58</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -9051,10 +9132,13 @@
       <c r="AA6" t="s">
         <v>58</v>
       </c>
+      <c r="AB6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -9134,10 +9218,13 @@
       <c r="AA7" t="s">
         <v>58</v>
       </c>
+      <c r="AB7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -9216,11 +9303,14 @@
       </c>
       <c r="AA8" t="s">
         <v>60</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -9299,11 +9389,14 @@
       </c>
       <c r="AA9" t="s">
         <v>58</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -9382,11 +9475,14 @@
       </c>
       <c r="AA10" t="s">
         <v>58</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
@@ -9466,10 +9562,13 @@
       <c r="AA11" t="s">
         <v>58</v>
       </c>
+      <c r="AB11" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -9548,11 +9647,14 @@
       </c>
       <c r="AA12" t="s">
         <v>58</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -9632,10 +9734,13 @@
       <c r="AA13" t="s">
         <v>60</v>
       </c>
+      <c r="AB13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
@@ -9715,10 +9820,13 @@
       <c r="AA14" t="s">
         <v>58</v>
       </c>
+      <c r="AB14" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -9798,10 +9906,13 @@
       <c r="AA15" t="s">
         <v>58</v>
       </c>
+      <c r="AB15" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -9880,11 +9991,14 @@
       </c>
       <c r="AA16" t="s">
         <v>58</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -9963,11 +10077,14 @@
       </c>
       <c r="AA17" t="s">
         <v>58</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -10047,10 +10164,13 @@
       <c r="AA18" t="s">
         <v>58</v>
       </c>
+      <c r="AB18" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -10129,11 +10249,14 @@
       </c>
       <c r="AA19" t="s">
         <v>58</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -10212,11 +10335,14 @@
       </c>
       <c r="AA20" t="s">
         <v>65</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -10295,6 +10421,9 @@
       </c>
       <c r="AA21" t="s">
         <v>62</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -10396,7 +10525,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -10482,7 +10611,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -10568,7 +10697,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -10654,7 +10783,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -10740,7 +10869,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -10826,7 +10955,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
@@ -10912,7 +11041,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -10998,7 +11127,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B9" t="s">
         <v>65</v>
@@ -11084,7 +11213,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -11170,7 +11299,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -11256,7 +11385,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -11342,7 +11471,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -11428,7 +11557,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -11514,7 +11643,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -11600,7 +11729,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -11686,7 +11815,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -11772,7 +11901,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -11858,7 +11987,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -11967,7 +12096,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -12059,7 +12188,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -12163,7 +12292,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -12267,7 +12396,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -12371,7 +12500,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -12475,7 +12604,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -12579,7 +12708,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -12683,7 +12812,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -12787,7 +12916,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -12891,7 +13020,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -12995,7 +13124,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -13099,7 +13228,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -13203,7 +13332,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -13307,7 +13436,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -13411,7 +13540,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -13515,7 +13644,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -13619,7 +13748,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B17" t="s">
         <v>60</v>
@@ -13723,7 +13852,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -13827,7 +13956,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B19" t="s">
         <v>62</v>
@@ -14007,7 +14136,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -14072,7 +14201,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B3" t="s">
         <v>65</v>
@@ -14137,7 +14266,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -14202,7 +14331,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -14267,7 +14396,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
@@ -14332,7 +14461,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -14397,7 +14526,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B8" t="s">
         <v>63</v>
@@ -14462,7 +14591,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -14527,7 +14656,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B10" t="s">
         <v>65</v>
@@ -14592,7 +14721,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B11" t="s">
         <v>61</v>
@@ -14657,7 +14786,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B12" t="s">
         <v>60</v>
@@ -14722,7 +14851,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B13" t="s">
         <v>59</v>
@@ -14816,7 +14945,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -14854,7 +14983,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -14910,7 +15039,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -14966,7 +15095,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -15022,7 +15151,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
@@ -15078,7 +15207,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -15134,7 +15263,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -15190,7 +15319,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B8" t="s">
         <v>60</v>
@@ -15246,7 +15375,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B9" t="s">
         <v>59</v>
@@ -15302,7 +15431,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -15358,7 +15487,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -15472,7 +15601,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
@@ -15519,7 +15648,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -15566,7 +15695,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -15613,7 +15742,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
@@ -15660,7 +15789,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B6" t="s">
         <v>61</v>
@@ -15707,7 +15836,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
@@ -15754,7 +15883,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -15801,7 +15930,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
@@ -15848,7 +15977,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -15895,7 +16024,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
@@ -16006,7 +16135,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
@@ -16059,7 +16188,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -16112,7 +16241,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -16165,7 +16294,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
@@ -16218,7 +16347,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -16271,7 +16400,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -16324,7 +16453,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B8" t="s">
         <v>65</v>
@@ -16377,7 +16506,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B9" t="s">
         <v>62</v>
@@ -16430,7 +16559,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B10" t="s">
         <v>62</v>
@@ -16483,7 +16612,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -18245,10 +18374,13 @@
       <c r="AK1" t="s">
         <v>241</v>
       </c>
+      <c r="AL1" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -18356,12 +18488,15 @@
         <v>60</v>
       </c>
       <c r="AK2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -18469,12 +18604,15 @@
         <v>59</v>
       </c>
       <c r="AK3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -18584,10 +18722,13 @@
       <c r="AK4" t="s">
         <v>58</v>
       </c>
+      <c r="AL4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -18696,11 +18837,14 @@
       </c>
       <c r="AK5" t="s">
         <v>59</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -18810,10 +18954,13 @@
       <c r="AK6" t="s">
         <v>59</v>
       </c>
+      <c r="AL6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -18923,10 +19070,13 @@
       <c r="AK7" t="s">
         <v>58</v>
       </c>
+      <c r="AL7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -19035,11 +19185,14 @@
       </c>
       <c r="AK8" t="s">
         <v>58</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -19147,12 +19300,15 @@
         <v>60</v>
       </c>
       <c r="AK9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -19260,12 +19416,15 @@
         <v>60</v>
       </c>
       <c r="AK10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B11" t="s">
         <v>62</v>
@@ -19375,10 +19534,13 @@
       <c r="AK11" t="s">
         <v>58</v>
       </c>
+      <c r="AL11" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -19488,10 +19650,13 @@
       <c r="AK12" t="s">
         <v>58</v>
       </c>
+      <c r="AL12" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -19601,10 +19766,13 @@
       <c r="AK13" t="s">
         <v>58</v>
       </c>
+      <c r="AL13" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -19714,10 +19882,13 @@
       <c r="AK14" t="s">
         <v>62</v>
       </c>
+      <c r="AL14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -19827,10 +19998,13 @@
       <c r="AK15" t="s">
         <v>60</v>
       </c>
+      <c r="AL15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -19940,10 +20114,13 @@
       <c r="AK16" t="s">
         <v>60</v>
       </c>
+      <c r="AL16" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -20053,10 +20230,13 @@
       <c r="AK17" t="s">
         <v>64</v>
       </c>
+      <c r="AL17" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -20165,11 +20345,14 @@
       </c>
       <c r="AK18" t="s">
         <v>58</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -20279,10 +20462,13 @@
       <c r="AK19" t="s">
         <v>63</v>
       </c>
+      <c r="AL19" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -20392,10 +20578,13 @@
       <c r="AK20" t="s">
         <v>59</v>
       </c>
+      <c r="AL20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -20503,6 +20692,9 @@
         <v>62</v>
       </c>
       <c r="AK21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL21" t="s">
         <v>58</v>
       </c>
     </row>
@@ -20558,13 +20750,13 @@
         <v>214</v>
       </c>
       <c r="N1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O1" t="s">
         <v>159</v>
       </c>
       <c r="P1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q1" t="s">
         <v>160</v>
@@ -20615,7 +20807,7 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AH1" t="s">
         <v>189</v>
@@ -20624,10 +20816,10 @@
         <v>162</v>
       </c>
       <c r="AJ1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AK1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -20645,7 +20837,7 @@
         <v>133</v>
       </c>
       <c r="AQ1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -20662,7 +20854,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -20805,7 +20997,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -20948,7 +21140,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -21091,7 +21283,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -21234,7 +21426,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -21318,7 +21510,7 @@
         <v>58</v>
       </c>
       <c r="AC6" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AD6" t="s">
         <v>58</v>
@@ -21377,7 +21569,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
@@ -21520,7 +21712,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -21663,7 +21855,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -21806,7 +21998,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -21949,7 +22141,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -22092,7 +22284,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -22235,7 +22427,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -22378,7 +22570,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -22521,7 +22713,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -22664,7 +22856,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -22807,7 +22999,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -22950,7 +23142,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -23093,7 +23285,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -23236,7 +23428,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -23379,7 +23571,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -23522,7 +23714,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B22" t="s">
         <v>58</v>
@@ -23665,7 +23857,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B23" t="s">
         <v>59</v>
@@ -23929,7 +24121,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -24039,7 +24231,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -24149,7 +24341,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -24259,7 +24451,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -24369,7 +24561,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -24479,7 +24671,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -24589,7 +24781,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -24699,7 +24891,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -24809,7 +25001,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -24919,7 +25111,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -25029,7 +25221,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -25139,7 +25331,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -25249,7 +25441,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -25359,7 +25551,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -25469,7 +25661,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -25579,7 +25771,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -25689,7 +25881,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B18" t="s">
         <v>60</v>
@@ -25799,7 +25991,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -25909,7 +26101,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -26019,7 +26211,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>

--- a/YCmatrix.xlsx
+++ b/YCmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14203" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14406" uniqueCount="507">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -554,6 +554,12 @@
     <t>X2021.10.26</t>
   </si>
   <si>
+    <t>X2021.11.12</t>
+  </si>
+  <si>
+    <t>X2021.11.13</t>
+  </si>
+  <si>
     <t>Accrington</t>
   </si>
   <si>
@@ -714,6 +720,9 @@
   </si>
   <si>
     <t>X2021.10.12</t>
+  </si>
+  <si>
+    <t>X2021.11.09</t>
   </si>
   <si>
     <t>Aldershot</t>
@@ -4329,25 +4338,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="J1" t="s">
         <v>134</v>
@@ -4359,7 +4368,7 @@
         <v>109</v>
       </c>
       <c r="M1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -4401,7 +4410,7 @@
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
@@ -4415,7 +4424,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -4507,7 +4516,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B3" t="s">
         <v>65</v>
@@ -4599,7 +4608,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
@@ -4691,7 +4700,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
@@ -4783,7 +4792,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B6" t="s">
         <v>66</v>
@@ -4875,7 +4884,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -4967,7 +4976,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B8" t="s">
         <v>68</v>
@@ -5059,7 +5068,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B9" t="s">
         <v>65</v>
@@ -5151,7 +5160,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B10" t="s">
         <v>65</v>
@@ -5243,7 +5252,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B11" t="s">
         <v>66</v>
@@ -5335,7 +5344,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B12" t="s">
         <v>68</v>
@@ -5427,7 +5436,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B13" t="s">
         <v>65</v>
@@ -5519,7 +5528,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B14" t="s">
         <v>68</v>
@@ -5611,7 +5620,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
@@ -5703,7 +5712,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B16" t="s">
         <v>65</v>
@@ -5795,7 +5804,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B17" t="s">
         <v>66</v>
@@ -5887,7 +5896,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B18" t="s">
         <v>65</v>
@@ -5979,7 +5988,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -6071,7 +6080,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B20" t="s">
         <v>66</v>
@@ -6163,7 +6172,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B21" t="s">
         <v>65</v>
@@ -6337,7 +6346,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -6408,7 +6417,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -6479,7 +6488,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -6550,7 +6559,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
@@ -6621,7 +6630,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -6692,7 +6701,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -6763,7 +6772,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -6834,7 +6843,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -6905,7 +6914,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -6976,7 +6985,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -7047,7 +7056,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B12" t="s">
         <v>68</v>
@@ -7118,7 +7127,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B13" t="s">
         <v>66</v>
@@ -7189,7 +7198,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -7260,7 +7269,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -7381,7 +7390,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="O1" t="s">
         <v>170</v>
@@ -7432,10 +7441,10 @@
         <v>172</v>
       </c>
       <c r="AE1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AF1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -7458,7 +7467,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
@@ -7574,7 +7583,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -7690,7 +7699,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -7806,7 +7815,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
@@ -7922,7 +7931,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -8038,7 +8047,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
@@ -8154,7 +8163,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B8" t="s">
         <v>66</v>
@@ -8270,7 +8279,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -8386,7 +8395,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B10" t="s">
         <v>66</v>
@@ -8502,7 +8511,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -8618,7 +8627,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -8734,7 +8743,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -8850,7 +8859,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -8966,7 +8975,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -9082,7 +9091,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B16" t="s">
         <v>65</v>
@@ -9198,7 +9207,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -9314,7 +9323,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B18" t="s">
         <v>65</v>
@@ -9430,7 +9439,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -9546,7 +9555,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -9662,7 +9671,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B21" t="s">
         <v>68</v>
@@ -9828,7 +9837,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="O1" t="s">
         <v>170</v>
@@ -9867,10 +9876,10 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AB1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AC1" t="s">
         <v>112</v>
@@ -9887,7 +9896,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -9985,7 +9994,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -10083,7 +10092,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -10181,7 +10190,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -10279,7 +10288,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -10377,7 +10386,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -10475,7 +10484,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -10573,7 +10582,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -10671,7 +10680,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -10769,7 +10778,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B11" t="s">
         <v>66</v>
@@ -10867,7 +10876,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -10965,7 +10974,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -11063,7 +11072,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B14" t="s">
         <v>65</v>
@@ -11161,7 +11170,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -11259,7 +11268,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -11357,7 +11366,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -11455,7 +11464,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
@@ -11553,7 +11562,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -11651,7 +11660,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -11749,7 +11758,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
@@ -11959,7 +11968,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -12060,7 +12069,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -12161,7 +12170,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -12262,7 +12271,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -12363,7 +12372,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -12464,7 +12473,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -12565,7 +12574,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -12666,7 +12675,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -12767,7 +12776,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -12868,7 +12877,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -12969,7 +12978,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -13070,7 +13079,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -13171,7 +13180,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -13272,7 +13281,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -13373,7 +13382,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -13474,7 +13483,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -13575,7 +13584,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
@@ -13676,7 +13685,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -13800,7 +13809,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -13812,7 +13821,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -13854,7 +13863,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -13887,7 +13896,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -13913,7 +13922,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -14038,7 +14047,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -14163,7 +14172,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -14288,7 +14297,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -14413,7 +14422,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -14538,7 +14547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -14663,7 +14672,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -14788,7 +14797,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -14913,7 +14922,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -15038,7 +15047,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -15163,7 +15172,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -15288,7 +15297,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -15413,7 +15422,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -15538,7 +15547,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -15663,7 +15672,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -15788,7 +15797,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B17" t="s">
         <v>66</v>
@@ -15913,7 +15922,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
@@ -16038,7 +16047,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B19" t="s">
         <v>68</v>
@@ -16234,7 +16243,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -16251,7 +16260,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -16328,7 +16337,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -16405,7 +16414,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B4" t="s">
         <v>65</v>
@@ -16482,7 +16491,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -16559,7 +16568,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -16636,7 +16645,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -16713,7 +16722,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B8" t="s">
         <v>69</v>
@@ -16790,7 +16799,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -16867,7 +16876,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -16944,7 +16953,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -17021,7 +17030,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B12" t="s">
         <v>66</v>
@@ -17098,7 +17107,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B13" t="s">
         <v>65</v>
@@ -17192,7 +17201,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -17204,7 +17213,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -17244,11 +17253,14 @@
       </c>
       <c r="T1" t="s">
         <v>44</v>
+      </c>
+      <c r="U1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
@@ -17305,12 +17317,15 @@
         <v>65</v>
       </c>
       <c r="T2" t="s">
+        <v>66</v>
+      </c>
+      <c r="U2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -17367,12 +17382,15 @@
         <v>66</v>
       </c>
       <c r="T3" t="s">
+        <v>65</v>
+      </c>
+      <c r="U3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B4" t="s">
         <v>65</v>
@@ -17430,11 +17448,14 @@
       </c>
       <c r="T4" t="s">
         <v>65</v>
+      </c>
+      <c r="U4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -17492,11 +17513,14 @@
       </c>
       <c r="T5" t="s">
         <v>68</v>
+      </c>
+      <c r="U5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
@@ -17554,11 +17578,14 @@
       </c>
       <c r="T6" t="s">
         <v>66</v>
+      </c>
+      <c r="U6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -17616,11 +17643,14 @@
       </c>
       <c r="T7" t="s">
         <v>65</v>
+      </c>
+      <c r="U7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B8" t="s">
         <v>66</v>
@@ -17678,11 +17708,14 @@
       </c>
       <c r="T8" t="s">
         <v>66</v>
+      </c>
+      <c r="U8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B9" t="s">
         <v>65</v>
@@ -17740,11 +17773,14 @@
       </c>
       <c r="T9" t="s">
         <v>68</v>
+      </c>
+      <c r="U9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B10" t="s">
         <v>66</v>
@@ -17802,11 +17838,14 @@
       </c>
       <c r="T10" t="s">
         <v>66</v>
+      </c>
+      <c r="U10" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
@@ -17864,6 +17903,9 @@
       </c>
       <c r="T11" t="s">
         <v>65</v>
+      </c>
+      <c r="U11" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -17929,10 +17971,13 @@
       <c r="Q1" t="s">
         <v>44</v>
       </c>
+      <c r="R1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B2" t="s">
         <v>66</v>
@@ -17981,11 +18026,14 @@
       </c>
       <c r="Q2" t="s">
         <v>66</v>
+      </c>
+      <c r="R2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B3" t="s">
         <v>65</v>
@@ -18034,11 +18082,14 @@
       </c>
       <c r="Q3" t="s">
         <v>68</v>
+      </c>
+      <c r="R3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B4" t="s">
         <v>65</v>
@@ -18087,11 +18138,14 @@
       </c>
       <c r="Q4" t="s">
         <v>66</v>
+      </c>
+      <c r="R4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -18140,11 +18194,14 @@
       </c>
       <c r="Q5" t="s">
         <v>71</v>
+      </c>
+      <c r="R5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -18192,12 +18249,15 @@
         <v>68</v>
       </c>
       <c r="Q6" t="s">
+        <v>68</v>
+      </c>
+      <c r="R6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
@@ -18246,11 +18306,14 @@
       </c>
       <c r="Q7" t="s">
         <v>68</v>
+      </c>
+      <c r="R7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B8" t="s">
         <v>65</v>
@@ -18298,12 +18361,15 @@
         <v>66</v>
       </c>
       <c r="Q8" t="s">
+        <v>66</v>
+      </c>
+      <c r="R8" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B9" t="s">
         <v>66</v>
@@ -18352,11 +18418,14 @@
       </c>
       <c r="Q9" t="s">
         <v>71</v>
+      </c>
+      <c r="R9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B10" t="s">
         <v>66</v>
@@ -18405,11 +18474,14 @@
       </c>
       <c r="Q10" t="s">
         <v>66</v>
+      </c>
+      <c r="R10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B11" t="s">
         <v>66</v>
@@ -18458,6 +18530,9 @@
       </c>
       <c r="Q11" t="s">
         <v>71</v>
+      </c>
+      <c r="R11" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -18497,7 +18572,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -18531,11 +18606,20 @@
       </c>
       <c r="T1" t="s">
         <v>44</v>
+      </c>
+      <c r="U1" t="s">
+        <v>229</v>
+      </c>
+      <c r="V1" t="s">
+        <v>173</v>
+      </c>
+      <c r="W1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -18593,11 +18677,20 @@
       </c>
       <c r="T2" t="s">
         <v>64</v>
+      </c>
+      <c r="U2" t="s">
+        <v>65</v>
+      </c>
+      <c r="V2" t="s">
+        <v>64</v>
+      </c>
+      <c r="W2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B3" t="s">
         <v>65</v>
@@ -18655,11 +18748,20 @@
       </c>
       <c r="T3" t="s">
         <v>67</v>
+      </c>
+      <c r="U3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
@@ -18717,11 +18819,20 @@
       </c>
       <c r="T4" t="s">
         <v>66</v>
+      </c>
+      <c r="U4" t="s">
+        <v>64</v>
+      </c>
+      <c r="V4" t="s">
+        <v>64</v>
+      </c>
+      <c r="W4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B5" t="s">
         <v>66</v>
@@ -18778,12 +18889,21 @@
         <v>65</v>
       </c>
       <c r="T5" t="s">
+        <v>64</v>
+      </c>
+      <c r="U5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V5" t="s">
+        <v>66</v>
+      </c>
+      <c r="W5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
@@ -18841,11 +18961,20 @@
       </c>
       <c r="T6" t="s">
         <v>68</v>
+      </c>
+      <c r="U6" t="s">
+        <v>64</v>
+      </c>
+      <c r="V6" t="s">
+        <v>64</v>
+      </c>
+      <c r="W6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
@@ -18903,11 +19032,20 @@
       </c>
       <c r="T7" t="s">
         <v>71</v>
+      </c>
+      <c r="U7" t="s">
+        <v>64</v>
+      </c>
+      <c r="V7" t="s">
+        <v>64</v>
+      </c>
+      <c r="W7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -18964,12 +19102,21 @@
         <v>64</v>
       </c>
       <c r="T8" t="s">
+        <v>66</v>
+      </c>
+      <c r="U8" t="s">
+        <v>64</v>
+      </c>
+      <c r="V8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W8" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B9" t="s">
         <v>68</v>
@@ -19027,11 +19174,20 @@
       </c>
       <c r="T9" t="s">
         <v>65</v>
+      </c>
+      <c r="U9" t="s">
+        <v>68</v>
+      </c>
+      <c r="V9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B10" t="s">
         <v>68</v>
@@ -19089,11 +19245,20 @@
       </c>
       <c r="T10" t="s">
         <v>65</v>
+      </c>
+      <c r="U10" t="s">
+        <v>64</v>
+      </c>
+      <c r="V10" t="s">
+        <v>64</v>
+      </c>
+      <c r="W10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
@@ -19151,6 +19316,15 @@
       </c>
       <c r="T11" t="s">
         <v>65</v>
+      </c>
+      <c r="U11" t="s">
+        <v>64</v>
+      </c>
+      <c r="V11" t="s">
+        <v>65</v>
+      </c>
+      <c r="W11" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -21108,7 +21282,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -21150,7 +21324,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="T1" t="s">
         <v>170</v>
@@ -21198,16 +21372,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AJ1" t="s">
         <v>172</v>
       </c>
       <c r="AK1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AL1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -21230,7 +21404,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -21364,7 +21538,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -21498,7 +21672,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -21632,7 +21806,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -21766,7 +21940,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -21900,7 +22074,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -22034,7 +22208,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -22168,7 +22342,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -22302,7 +22476,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -22436,7 +22610,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
@@ -22570,7 +22744,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -22704,7 +22878,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -22838,7 +23012,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -22972,7 +23146,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -23106,7 +23280,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -23240,7 +23414,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -23374,7 +23548,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
@@ -23508,7 +23682,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -23642,7 +23816,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -23776,7 +23950,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
@@ -23933,7 +24107,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -23957,16 +24131,16 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="O1" t="s">
         <v>168</v>
       </c>
       <c r="P1" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="Q1" t="s">
         <v>169</v>
@@ -23993,7 +24167,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -24017,19 +24191,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="AH1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AI1" t="s">
         <v>171</v>
       </c>
       <c r="AJ1" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="AK1" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -24047,7 +24221,7 @@
         <v>140</v>
       </c>
       <c r="AQ1" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -24059,7 +24233,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -24080,7 +24254,7 @@
         <v>142</v>
       </c>
       <c r="BB1" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -24092,12 +24266,12 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -24273,7 +24447,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -24449,7 +24623,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -24625,7 +24799,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -24801,7 +24975,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -24885,7 +25059,7 @@
         <v>64</v>
       </c>
       <c r="AC6" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="AD6" t="s">
         <v>64</v>
@@ -24977,7 +25151,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
@@ -25153,7 +25327,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -25329,7 +25503,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -25505,7 +25679,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B10" t="s">
         <v>66</v>
@@ -25681,7 +25855,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
@@ -25857,7 +26031,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -26033,7 +26207,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -26209,7 +26383,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -26385,7 +26559,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -26561,7 +26735,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -26737,7 +26911,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -26913,7 +27087,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
@@ -27089,7 +27263,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -27265,7 +27439,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -27441,7 +27615,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
@@ -27617,7 +27791,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B22" t="s">
         <v>64</v>
@@ -27793,7 +27967,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B23" t="s">
         <v>65</v>
@@ -27992,7 +28166,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -28085,7 +28259,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -28111,7 +28285,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -28242,7 +28416,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -28373,7 +28547,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -28504,7 +28678,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -28635,7 +28809,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
@@ -28766,7 +28940,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -28897,7 +29071,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -29028,7 +29202,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -29159,7 +29333,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -29290,7 +29464,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -29421,7 +29595,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -29552,7 +29726,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -29683,7 +29857,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -29814,7 +29988,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -29945,7 +30119,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -30076,7 +30250,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -30207,7 +30381,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B18" t="s">
         <v>66</v>
@@ -30338,7 +30512,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -30469,7 +30643,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -30600,7 +30774,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
@@ -37765,10 +37939,16 @@
       <c r="X1" t="s">
         <v>141</v>
       </c>
+      <c r="Y1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
         <v>66</v>
@@ -37838,11 +38018,17 @@
       </c>
       <c r="X2" t="s">
         <v>64</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
@@ -37911,12 +38097,18 @@
         <v>65</v>
       </c>
       <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
@@ -37985,12 +38177,18 @@
         <v>71</v>
       </c>
       <c r="X4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
@@ -38060,11 +38258,17 @@
       </c>
       <c r="X5" t="s">
         <v>64</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B6" t="s">
         <v>66</v>
@@ -38134,11 +38338,17 @@
       </c>
       <c r="X6" t="s">
         <v>66</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
@@ -38207,12 +38417,18 @@
         <v>66</v>
       </c>
       <c r="X7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B8" t="s">
         <v>66</v>
@@ -38282,11 +38498,17 @@
       </c>
       <c r="X8" t="s">
         <v>65</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B9" t="s">
         <v>66</v>
@@ -38356,11 +38578,17 @@
       </c>
       <c r="X9" t="s">
         <v>71</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -38430,11 +38658,17 @@
       </c>
       <c r="X10" t="s">
         <v>69</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -38504,11 +38738,17 @@
       </c>
       <c r="X11" t="s">
         <v>68</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
@@ -38578,11 +38818,17 @@
       </c>
       <c r="X12" t="s">
         <v>64</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B13" t="s">
         <v>68</v>
@@ -38651,12 +38897,18 @@
         <v>67</v>
       </c>
       <c r="X13" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B14" t="s">
         <v>65</v>
@@ -38725,12 +38977,18 @@
         <v>65</v>
       </c>
       <c r="X14" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
@@ -38800,11 +39058,17 @@
       </c>
       <c r="X15" t="s">
         <v>64</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s">
         <v>65</v>
@@ -38874,11 +39138,17 @@
       </c>
       <c r="X16" t="s">
         <v>67</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s">
         <v>65</v>
@@ -38948,11 +39218,17 @@
       </c>
       <c r="X17" t="s">
         <v>64</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -39022,11 +39298,17 @@
       </c>
       <c r="X18" t="s">
         <v>64</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s">
         <v>68</v>
@@ -39096,11 +39378,17 @@
       </c>
       <c r="X19" t="s">
         <v>65</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B20" t="s">
         <v>65</v>
@@ -39170,11 +39458,17 @@
       </c>
       <c r="X20" t="s">
         <v>67</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B21" t="s">
         <v>68</v>
@@ -39244,11 +39538,17 @@
       </c>
       <c r="X21" t="s">
         <v>65</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B22" t="s">
         <v>66</v>
@@ -39317,12 +39617,18 @@
         <v>65</v>
       </c>
       <c r="X22" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z22" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B23" t="s">
         <v>66</v>
@@ -39392,11 +39698,17 @@
       </c>
       <c r="X23" t="s">
         <v>71</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B24" t="s">
         <v>67</v>
@@ -39466,11 +39778,17 @@
       </c>
       <c r="X24" t="s">
         <v>65</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B25" t="s">
         <v>71</v>
@@ -39539,6 +39857,12 @@
         <v>68</v>
       </c>
       <c r="X25" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z25" t="s">
         <v>65</v>
       </c>
     </row>
@@ -39570,7 +39894,7 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -39606,7 +39930,7 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="S1" t="s">
         <v>171</v>
@@ -39625,11 +39949,17 @@
       </c>
       <c r="X1" t="s">
         <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -39698,12 +40028,18 @@
         <v>64</v>
       </c>
       <c r="X2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -39773,11 +40109,17 @@
       </c>
       <c r="X3" t="s">
         <v>68</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B4" t="s">
         <v>65</v>
@@ -39847,11 +40189,17 @@
       </c>
       <c r="X4" t="s">
         <v>67</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
@@ -39921,11 +40269,17 @@
       </c>
       <c r="X5" t="s">
         <v>65</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -39995,11 +40349,17 @@
       </c>
       <c r="X6" t="s">
         <v>65</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -40069,11 +40429,17 @@
       </c>
       <c r="X7" t="s">
         <v>71</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B8" t="s">
         <v>65</v>
@@ -40143,11 +40509,17 @@
       </c>
       <c r="X8" t="s">
         <v>65</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B9" t="s">
         <v>68</v>
@@ -40217,11 +40589,17 @@
       </c>
       <c r="X9" t="s">
         <v>68</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B10" t="s">
         <v>66</v>
@@ -40291,11 +40669,17 @@
       </c>
       <c r="X10" t="s">
         <v>65</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -40365,11 +40749,17 @@
       </c>
       <c r="X11" t="s">
         <v>65</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B12" t="s">
         <v>66</v>
@@ -40439,11 +40829,17 @@
       </c>
       <c r="X12" t="s">
         <v>65</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B13" t="s">
         <v>65</v>
@@ -40513,11 +40909,17 @@
       </c>
       <c r="X13" t="s">
         <v>66</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B14" t="s">
         <v>65</v>
@@ -40587,11 +40989,17 @@
       </c>
       <c r="X14" t="s">
         <v>71</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -40661,11 +41069,17 @@
       </c>
       <c r="X15" t="s">
         <v>71</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B16" t="s">
         <v>68</v>
@@ -40734,12 +41148,18 @@
         <v>64</v>
       </c>
       <c r="X16" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z16" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B17" t="s">
         <v>65</v>
@@ -40809,11 +41229,17 @@
       </c>
       <c r="X17" t="s">
         <v>65</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B18" t="s">
         <v>65</v>
@@ -40883,11 +41309,17 @@
       </c>
       <c r="X18" t="s">
         <v>65</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s">
         <v>66</v>
@@ -40957,11 +41389,17 @@
       </c>
       <c r="X19" t="s">
         <v>71</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s">
         <v>71</v>
@@ -41030,12 +41468,18 @@
         <v>64</v>
       </c>
       <c r="X20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z20" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
@@ -41105,11 +41549,17 @@
       </c>
       <c r="X21" t="s">
         <v>71</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B22" t="s">
         <v>71</v>
@@ -41179,11 +41629,17 @@
       </c>
       <c r="X22" t="s">
         <v>71</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B23" t="s">
         <v>68</v>
@@ -41253,11 +41709,17 @@
       </c>
       <c r="X23" t="s">
         <v>65</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B24" t="s">
         <v>68</v>
@@ -41327,11 +41789,17 @@
       </c>
       <c r="X24" t="s">
         <v>66</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s">
         <v>65</v>
@@ -41401,6 +41869,12 @@
       </c>
       <c r="X25" t="s">
         <v>65</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -41425,10 +41899,10 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F1" t="s">
         <v>168</v>
@@ -41455,13 +41929,13 @@
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O1" t="s">
         <v>171</v>
       </c>
       <c r="P1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
@@ -41474,11 +41948,17 @@
       </c>
       <c r="T1" t="s">
         <v>141</v>
+      </c>
+      <c r="U1" t="s">
+        <v>229</v>
+      </c>
+      <c r="V1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
@@ -41536,11 +42016,17 @@
       </c>
       <c r="T2" t="s">
         <v>64</v>
+      </c>
+      <c r="U2" t="s">
+        <v>68</v>
+      </c>
+      <c r="V2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
         <v>65</v>
@@ -41598,11 +42084,17 @@
       </c>
       <c r="T3" t="s">
         <v>64</v>
+      </c>
+      <c r="U3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B4" t="s">
         <v>65</v>
@@ -41660,11 +42152,17 @@
       </c>
       <c r="T4" t="s">
         <v>64</v>
+      </c>
+      <c r="U4" t="s">
+        <v>64</v>
+      </c>
+      <c r="V4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -41722,11 +42220,17 @@
       </c>
       <c r="T5" t="s">
         <v>64</v>
+      </c>
+      <c r="U5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -41784,11 +42288,17 @@
       </c>
       <c r="T6" t="s">
         <v>66</v>
+      </c>
+      <c r="U6" t="s">
+        <v>64</v>
+      </c>
+      <c r="V6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B7" t="s">
         <v>69</v>
@@ -41846,11 +42356,17 @@
       </c>
       <c r="T7" t="s">
         <v>64</v>
+      </c>
+      <c r="U7" t="s">
+        <v>64</v>
+      </c>
+      <c r="V7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B8" t="s">
         <v>68</v>
@@ -41908,11 +42424,17 @@
       </c>
       <c r="T8" t="s">
         <v>64</v>
+      </c>
+      <c r="U8" t="s">
+        <v>64</v>
+      </c>
+      <c r="V8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -41970,11 +42492,17 @@
       </c>
       <c r="T9" t="s">
         <v>68</v>
+      </c>
+      <c r="U9" t="s">
+        <v>64</v>
+      </c>
+      <c r="V9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -42032,11 +42560,17 @@
       </c>
       <c r="T10" t="s">
         <v>64</v>
+      </c>
+      <c r="U10" t="s">
+        <v>64</v>
+      </c>
+      <c r="V10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -42094,11 +42628,17 @@
       </c>
       <c r="T11" t="s">
         <v>64</v>
+      </c>
+      <c r="U11" t="s">
+        <v>64</v>
+      </c>
+      <c r="V11" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B12" t="s">
         <v>66</v>
@@ -42155,12 +42695,18 @@
         <v>68</v>
       </c>
       <c r="T12" t="s">
+        <v>64</v>
+      </c>
+      <c r="U12" t="s">
+        <v>64</v>
+      </c>
+      <c r="V12" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B13" t="s">
         <v>65</v>
@@ -42218,11 +42764,17 @@
       </c>
       <c r="T13" t="s">
         <v>64</v>
+      </c>
+      <c r="U13" t="s">
+        <v>64</v>
+      </c>
+      <c r="V13" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -42280,11 +42832,17 @@
       </c>
       <c r="T14" t="s">
         <v>64</v>
+      </c>
+      <c r="U14" t="s">
+        <v>64</v>
+      </c>
+      <c r="V14" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B15" t="s">
         <v>65</v>
@@ -42342,11 +42900,17 @@
       </c>
       <c r="T15" t="s">
         <v>64</v>
+      </c>
+      <c r="U15" t="s">
+        <v>64</v>
+      </c>
+      <c r="V15" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
@@ -42404,11 +42968,17 @@
       </c>
       <c r="T16" t="s">
         <v>64</v>
+      </c>
+      <c r="U16" t="s">
+        <v>64</v>
+      </c>
+      <c r="V16" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B17" t="s">
         <v>65</v>
@@ -42466,11 +43036,17 @@
       </c>
       <c r="T17" t="s">
         <v>66</v>
+      </c>
+      <c r="U17" t="s">
+        <v>64</v>
+      </c>
+      <c r="V17" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B18" t="s">
         <v>65</v>
@@ -42528,11 +43104,17 @@
       </c>
       <c r="T18" t="s">
         <v>64</v>
+      </c>
+      <c r="U18" t="s">
+        <v>64</v>
+      </c>
+      <c r="V18" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B19" t="s">
         <v>69</v>
@@ -42590,11 +43172,17 @@
       </c>
       <c r="T19" t="s">
         <v>64</v>
+      </c>
+      <c r="U19" t="s">
+        <v>64</v>
+      </c>
+      <c r="V19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B20" t="s">
         <v>66</v>
@@ -42652,11 +43240,17 @@
       </c>
       <c r="T20" t="s">
         <v>64</v>
+      </c>
+      <c r="U20" t="s">
+        <v>64</v>
+      </c>
+      <c r="V20" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B21" t="s">
         <v>66</v>
@@ -42714,11 +43308,17 @@
       </c>
       <c r="T21" t="s">
         <v>64</v>
+      </c>
+      <c r="U21" t="s">
+        <v>64</v>
+      </c>
+      <c r="V21" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B22" t="s">
         <v>65</v>
@@ -42775,12 +43375,18 @@
         <v>65</v>
       </c>
       <c r="T22" t="s">
+        <v>66</v>
+      </c>
+      <c r="U22" t="s">
+        <v>64</v>
+      </c>
+      <c r="V22" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B23" t="s">
         <v>66</v>
@@ -42838,11 +43444,17 @@
       </c>
       <c r="T23" t="s">
         <v>64</v>
+      </c>
+      <c r="U23" t="s">
+        <v>71</v>
+      </c>
+      <c r="V23" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s">
         <v>64</v>
@@ -42900,6 +43512,12 @@
       </c>
       <c r="T24" t="s">
         <v>64</v>
+      </c>
+      <c r="U24" t="s">
+        <v>64</v>
+      </c>
+      <c r="V24" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -43008,7 +43626,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -43031,7 +43649,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -43147,7 +43765,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -43263,7 +43881,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -43379,7 +43997,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -43495,7 +44113,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -43611,7 +44229,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -43727,7 +44345,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -43843,7 +44461,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -43959,7 +44577,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -44075,7 +44693,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -44191,7 +44809,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -44307,7 +44925,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -44423,7 +45041,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -44539,7 +45157,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -44655,7 +45273,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -44771,7 +45389,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -44887,7 +45505,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
@@ -45003,7 +45621,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -45119,7 +45737,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -45235,7 +45853,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>

--- a/YCmatrix.xlsx
+++ b/YCmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15458" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15625" uniqueCount="515">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -317,6 +317,9 @@
     <t>Wolfsburg</t>
   </si>
   <si>
+    <t>X2021.11.24</t>
+  </si>
+  <si>
     <t>Darmstadt</t>
   </si>
   <si>
@@ -471,6 +474,9 @@
   </si>
   <si>
     <t>X2021.11.03</t>
+  </si>
+  <si>
+    <t>X2021.11.23</t>
   </si>
   <si>
     <t>Barnsley</t>
@@ -4527,37 +4533,37 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -4569,13 +4575,13 @@
         <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R1" t="s">
         <v>24</v>
       </c>
       <c r="S1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="T1" t="s">
         <v>28</v>
@@ -4584,7 +4590,7 @@
         <v>29</v>
       </c>
       <c r="V1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="W1" t="s">
         <v>32</v>
@@ -4593,19 +4599,19 @@
         <v>35</v>
       </c>
       <c r="Y1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Z1" t="s">
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
       </c>
       <c r="AC1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD1" t="s">
         <v>44</v>
@@ -4614,12 +4620,12 @@
         <v>47</v>
       </c>
       <c r="AF1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -4717,7 +4723,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
@@ -4815,7 +4821,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -4913,7 +4919,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
@@ -5011,7 +5017,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B6" t="s">
         <v>69</v>
@@ -5109,7 +5115,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -5207,7 +5213,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -5305,7 +5311,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B9" t="s">
         <v>68</v>
@@ -5403,7 +5409,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B10" t="s">
         <v>68</v>
@@ -5501,7 +5507,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B11" t="s">
         <v>69</v>
@@ -5599,7 +5605,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -5697,7 +5703,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B13" t="s">
         <v>68</v>
@@ -5795,7 +5801,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -5893,7 +5899,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B15" t="s">
         <v>74</v>
@@ -5991,7 +5997,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B16" t="s">
         <v>68</v>
@@ -6089,7 +6095,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B17" t="s">
         <v>69</v>
@@ -6187,7 +6193,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B18" t="s">
         <v>68</v>
@@ -6285,7 +6291,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -6383,7 +6389,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B20" t="s">
         <v>69</v>
@@ -6481,7 +6487,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B21" t="s">
         <v>68</v>
@@ -6620,7 +6626,7 @@
         <v>30</v>
       </c>
       <c r="K1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L1" t="s">
         <v>32</v>
@@ -6635,7 +6641,7 @@
         <v>36</v>
       </c>
       <c r="P1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
@@ -6650,7 +6656,7 @@
         <v>42</v>
       </c>
       <c r="U1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="V1" t="s">
         <v>44</v>
@@ -6667,7 +6673,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -6744,7 +6750,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -6821,7 +6827,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -6898,7 +6904,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -6975,7 +6981,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -7052,7 +7058,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -7129,7 +7135,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -7206,7 +7212,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -7283,7 +7289,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -7360,7 +7366,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -7437,7 +7443,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -7514,7 +7520,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B13" t="s">
         <v>69</v>
@@ -7591,7 +7597,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -7668,7 +7674,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -7765,7 +7771,7 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
@@ -7795,10 +7801,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="O1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -7813,7 +7819,7 @@
         <v>30</v>
       </c>
       <c r="T1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -7831,7 +7837,7 @@
         <v>36</v>
       </c>
       <c r="Z1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA1" t="s">
         <v>37</v>
@@ -7843,13 +7849,13 @@
         <v>39</v>
       </c>
       <c r="AD1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AE1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AF1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -7858,7 +7864,7 @@
         <v>42</v>
       </c>
       <c r="AI1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AJ1" t="s">
         <v>43</v>
@@ -7876,12 +7882,12 @@
         <v>48</v>
       </c>
       <c r="AO1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
@@ -8006,7 +8012,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -8131,7 +8137,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -8256,7 +8262,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
@@ -8381,7 +8387,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -8506,7 +8512,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
@@ -8631,7 +8637,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B8" t="s">
         <v>69</v>
@@ -8756,7 +8762,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -8881,7 +8887,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B10" t="s">
         <v>69</v>
@@ -9006,7 +9012,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -9131,7 +9137,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -9256,7 +9262,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -9381,7 +9387,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -9506,7 +9512,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -9631,7 +9637,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B16" t="s">
         <v>68</v>
@@ -9756,7 +9762,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -9881,7 +9887,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B18" t="s">
         <v>68</v>
@@ -10006,7 +10012,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -10131,7 +10137,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -10256,7 +10262,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B21" t="s">
         <v>71</v>
@@ -10431,10 +10437,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="O1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -10470,13 +10476,13 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AB1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AC1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD1" t="s">
         <v>43</v>
@@ -10496,7 +10502,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -10600,7 +10606,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -10704,7 +10710,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -10808,7 +10814,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -10912,7 +10918,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -11016,7 +11022,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -11120,7 +11126,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -11224,7 +11230,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -11328,7 +11334,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -11432,7 +11438,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B11" t="s">
         <v>69</v>
@@ -11536,7 +11542,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -11640,7 +11646,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -11744,7 +11750,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B14" t="s">
         <v>68</v>
@@ -11848,13 +11854,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D15" t="s">
         <v>67</v>
@@ -11952,7 +11958,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -12056,7 +12062,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -12160,7 +12166,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -12264,7 +12270,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -12368,7 +12374,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -12472,7 +12478,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
@@ -12523,7 +12529,7 @@
         <v>67</v>
       </c>
       <c r="R21" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="S21" t="s">
         <v>67</v>
@@ -12632,7 +12638,7 @@
         <v>25</v>
       </c>
       <c r="P1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q1" t="s">
         <v>26</v>
@@ -12694,7 +12700,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -12801,7 +12807,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -12908,7 +12914,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -13015,7 +13021,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -13122,7 +13128,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -13229,7 +13235,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
@@ -13336,7 +13342,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -13443,7 +13449,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B9" t="s">
         <v>74</v>
@@ -13550,7 +13556,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -13657,7 +13663,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -13764,7 +13770,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -13871,7 +13877,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -13978,7 +13984,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -14085,7 +14091,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -14192,7 +14198,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -14299,7 +14305,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -14406,7 +14412,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -14513,7 +14519,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -14643,7 +14649,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -14655,7 +14661,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -14667,7 +14673,7 @@
         <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N1" t="s">
         <v>16</v>
@@ -14697,7 +14703,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -14709,7 +14715,7 @@
         <v>30</v>
       </c>
       <c r="AA1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AB1" t="s">
         <v>31</v>
@@ -14730,7 +14736,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -14742,7 +14748,7 @@
         <v>42</v>
       </c>
       <c r="AL1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM1" t="s">
         <v>43</v>
@@ -14756,7 +14762,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -14881,7 +14887,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -15006,7 +15012,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -15131,7 +15137,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -15256,7 +15262,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -15381,7 +15387,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -15506,7 +15512,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -15631,7 +15637,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -15756,7 +15762,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -15876,12 +15882,12 @@
         <v>67</v>
       </c>
       <c r="AO10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -16006,7 +16012,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -16131,7 +16137,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -16256,7 +16262,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -16381,7 +16387,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -16506,7 +16512,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -16631,7 +16637,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B17" t="s">
         <v>69</v>
@@ -16756,7 +16762,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -16881,7 +16887,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B19" t="s">
         <v>71</v>
@@ -17077,7 +17083,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -17093,11 +17099,14 @@
       </c>
       <c r="Z1" t="s">
         <v>47</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -17173,11 +17182,14 @@
       </c>
       <c r="Z2" t="s">
         <v>69</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
@@ -17252,12 +17264,15 @@
         <v>68</v>
       </c>
       <c r="Z3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
@@ -17332,12 +17347,15 @@
         <v>72</v>
       </c>
       <c r="Z4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -17413,11 +17431,14 @@
       </c>
       <c r="Z5" t="s">
         <v>69</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
@@ -17493,11 +17514,14 @@
       </c>
       <c r="Z6" t="s">
         <v>74</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -17573,11 +17597,14 @@
       </c>
       <c r="Z7" t="s">
         <v>67</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B8" t="s">
         <v>72</v>
@@ -17653,11 +17680,14 @@
       </c>
       <c r="Z8" t="s">
         <v>74</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -17733,11 +17763,14 @@
       </c>
       <c r="Z9" t="s">
         <v>69</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B10" t="s">
         <v>74</v>
@@ -17812,12 +17845,15 @@
         <v>69</v>
       </c>
       <c r="Z10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA10" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -17893,11 +17929,14 @@
       </c>
       <c r="Z11" t="s">
         <v>67</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B12" t="s">
         <v>69</v>
@@ -17972,12 +18011,15 @@
         <v>67</v>
       </c>
       <c r="Z12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B13" t="s">
         <v>68</v>
@@ -18053,6 +18095,9 @@
       </c>
       <c r="Z13" t="s">
         <v>69</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -18074,7 +18119,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -18086,7 +18131,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -18104,7 +18149,7 @@
         <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N1" t="s">
         <v>32</v>
@@ -18119,7 +18164,7 @@
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
@@ -18128,7 +18173,7 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="V1" t="s">
         <v>46</v>
@@ -18139,7 +18184,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
@@ -18210,7 +18255,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -18281,7 +18326,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
@@ -18352,7 +18397,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
@@ -18423,7 +18468,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B6" t="s">
         <v>68</v>
@@ -18494,7 +18539,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -18565,7 +18610,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B8" t="s">
         <v>69</v>
@@ -18636,7 +18681,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B9" t="s">
         <v>68</v>
@@ -18707,7 +18752,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B10" t="s">
         <v>69</v>
@@ -18778,7 +18823,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
@@ -18881,7 +18926,7 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
@@ -18911,7 +18956,7 @@
         <v>44</v>
       </c>
       <c r="R1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="S1" t="s">
         <v>47</v>
@@ -18919,7 +18964,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
@@ -18978,7 +19023,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
@@ -19037,7 +19082,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
@@ -19096,7 +19141,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
@@ -19155,7 +19200,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -19214,7 +19259,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B7" t="s">
         <v>69</v>
@@ -19273,7 +19318,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B8" t="s">
         <v>68</v>
@@ -19332,7 +19377,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B9" t="s">
         <v>69</v>
@@ -19391,7 +19436,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B10" t="s">
         <v>69</v>
@@ -19450,7 +19495,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B11" t="s">
         <v>69</v>
@@ -19544,7 +19589,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -19580,21 +19625,24 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="V1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="W1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B2" t="s">
         <v>74</v>
@@ -19664,11 +19712,14 @@
       </c>
       <c r="X2" t="s">
         <v>68</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
@@ -19738,11 +19789,14 @@
       </c>
       <c r="X3" t="s">
         <v>70</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -19812,11 +19866,14 @@
       </c>
       <c r="X4" t="s">
         <v>68</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B5" t="s">
         <v>69</v>
@@ -19886,11 +19943,14 @@
       </c>
       <c r="X5" t="s">
         <v>69</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B6" t="s">
         <v>68</v>
@@ -19960,11 +20020,14 @@
       </c>
       <c r="X6" t="s">
         <v>72</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
@@ -20034,11 +20097,14 @@
       </c>
       <c r="X7" t="s">
         <v>74</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B8" t="s">
         <v>74</v>
@@ -20108,11 +20174,14 @@
       </c>
       <c r="X8" t="s">
         <v>68</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -20182,11 +20251,14 @@
       </c>
       <c r="X9" t="s">
         <v>68</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -20256,11 +20328,14 @@
       </c>
       <c r="X10" t="s">
         <v>69</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
@@ -20330,6 +20405,9 @@
       </c>
       <c r="X11" t="s">
         <v>74</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -22458,7 +22536,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -22470,7 +22548,7 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -22500,10 +22578,10 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="T1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="U1" t="s">
         <v>26</v>
@@ -22518,7 +22596,7 @@
         <v>30</v>
       </c>
       <c r="Y1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Z1" t="s">
         <v>31</v>
@@ -22536,7 +22614,7 @@
         <v>36</v>
       </c>
       <c r="AE1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF1" t="s">
         <v>37</v>
@@ -22548,16 +22626,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AJ1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AK1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AL1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -22566,7 +22644,7 @@
         <v>42</v>
       </c>
       <c r="AO1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AP1" t="s">
         <v>43</v>
@@ -22587,12 +22665,12 @@
         <v>48</v>
       </c>
       <c r="AV1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -22738,7 +22816,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -22884,7 +22962,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -23030,7 +23108,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -23176,7 +23254,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -23322,7 +23400,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -23468,7 +23546,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -23614,7 +23692,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -23760,7 +23838,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -23906,7 +23984,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -24052,7 +24130,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -24198,7 +24276,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -24344,7 +24422,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -24490,7 +24568,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -24636,7 +24714,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -24782,7 +24860,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -24928,7 +25006,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -25074,7 +25152,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -25220,7 +25298,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -25366,7 +25444,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
@@ -25535,7 +25613,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -25547,7 +25625,7 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -25559,19 +25637,19 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="O1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="Q1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
@@ -25595,7 +25673,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -25607,7 +25685,7 @@
         <v>30</v>
       </c>
       <c r="AC1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AD1" t="s">
         <v>31</v>
@@ -25619,19 +25697,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AH1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AI1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AJ1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AK1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -25643,13 +25721,13 @@
         <v>36</v>
       </c>
       <c r="AO1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AP1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AQ1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -25661,7 +25739,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -25673,16 +25751,16 @@
         <v>42</v>
       </c>
       <c r="AY1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AZ1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="BA1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="BB1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -25694,19 +25772,19 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="BG1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BH1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BI1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="BJ1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -25718,12 +25796,12 @@
         <v>48</v>
       </c>
       <c r="BN1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -25923,7 +26001,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -26123,7 +26201,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -26323,7 +26401,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -26523,7 +26601,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -26607,7 +26685,7 @@
         <v>67</v>
       </c>
       <c r="AC6" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AD6" t="s">
         <v>67</v>
@@ -26723,7 +26801,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B7" t="s">
         <v>69</v>
@@ -26923,7 +27001,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -27123,7 +27201,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -27323,7 +27401,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B10" t="s">
         <v>69</v>
@@ -27523,7 +27601,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
@@ -27723,7 +27801,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -27923,7 +28001,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -28123,7 +28201,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -28323,7 +28401,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -28523,7 +28601,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -28723,7 +28801,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -28923,7 +29001,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -29123,7 +29201,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -29189,7 +29267,7 @@
         <v>67</v>
       </c>
       <c r="W19" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="X19" t="s">
         <v>67</v>
@@ -29323,7 +29401,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -29523,7 +29601,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
@@ -29723,7 +29801,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B22" t="s">
         <v>67</v>
@@ -29923,7 +30001,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B23" t="s">
         <v>68</v>
@@ -30146,7 +30224,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -30158,7 +30236,7 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -30188,7 +30266,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="T1" t="s">
         <v>26</v>
@@ -30206,7 +30284,7 @@
         <v>30</v>
       </c>
       <c r="Y1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Z1" t="s">
         <v>31</v>
@@ -30227,7 +30305,7 @@
         <v>36</v>
       </c>
       <c r="AF1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG1" t="s">
         <v>37</v>
@@ -30239,7 +30317,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -30251,7 +30329,7 @@
         <v>42</v>
       </c>
       <c r="AN1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AO1" t="s">
         <v>43</v>
@@ -30269,12 +30347,12 @@
         <v>48</v>
       </c>
       <c r="AT1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -30414,7 +30492,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -30554,7 +30632,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -30694,7 +30772,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -30834,7 +30912,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B6" t="s">
         <v>68</v>
@@ -30974,7 +31052,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -31114,7 +31192,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -31254,7 +31332,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -31394,7 +31472,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -31534,7 +31612,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -31674,7 +31752,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -31814,7 +31892,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -31954,7 +32032,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -32094,7 +32172,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -32234,7 +32312,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -32374,7 +32452,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -32514,7 +32592,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B18" t="s">
         <v>69</v>
@@ -32654,7 +32732,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -32794,7 +32872,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -32934,7 +33012,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
@@ -33210,10 +33288,13 @@
       <c r="AP1" t="s">
         <v>48</v>
       </c>
+      <c r="AQ1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -33336,12 +33417,15 @@
         <v>71</v>
       </c>
       <c r="AP2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -33465,11 +33549,14 @@
       </c>
       <c r="AP3" t="s">
         <v>71</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -33592,12 +33679,15 @@
         <v>68</v>
       </c>
       <c r="AP4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -33721,11 +33811,14 @@
       </c>
       <c r="AP5" t="s">
         <v>68</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
         <v>68</v>
@@ -33848,12 +33941,15 @@
         <v>69</v>
       </c>
       <c r="AP6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -33976,12 +34072,15 @@
         <v>67</v>
       </c>
       <c r="AP7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -34104,12 +34203,15 @@
         <v>72</v>
       </c>
       <c r="AP8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -34233,11 +34335,14 @@
       </c>
       <c r="AP9" t="s">
         <v>69</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -34361,11 +34466,14 @@
       </c>
       <c r="AP10" t="s">
         <v>68</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -34489,11 +34597,14 @@
       </c>
       <c r="AP11" t="s">
         <v>74</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -34617,11 +34728,14 @@
       </c>
       <c r="AP12" t="s">
         <v>69</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -34744,12 +34858,15 @@
         <v>67</v>
       </c>
       <c r="AP13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ13" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -34872,12 +34989,15 @@
         <v>67</v>
       </c>
       <c r="AP14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -35000,12 +35120,15 @@
         <v>68</v>
       </c>
       <c r="AP15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ15" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -35129,11 +35252,14 @@
       </c>
       <c r="AP16" t="s">
         <v>67</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B17" t="s">
         <v>68</v>
@@ -35256,12 +35382,15 @@
         <v>70</v>
       </c>
       <c r="AP17" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ17" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -35385,11 +35514,14 @@
       </c>
       <c r="AP18" t="s">
         <v>67</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -35512,6 +35644,9 @@
         <v>69</v>
       </c>
       <c r="AP19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ19" t="s">
         <v>67</v>
       </c>
     </row>
@@ -35546,7 +35681,7 @@
         <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H1" t="s">
         <v>17</v>
@@ -35579,7 +35714,7 @@
         <v>30</v>
       </c>
       <c r="R1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="S1" t="s">
         <v>32</v>
@@ -35594,7 +35729,7 @@
         <v>36</v>
       </c>
       <c r="W1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="X1" t="s">
         <v>37</v>
@@ -35612,7 +35747,7 @@
         <v>42</v>
       </c>
       <c r="AC1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD1" t="s">
         <v>43</v>
@@ -35632,7 +35767,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
         <v>74</v>
@@ -35736,7 +35871,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -35840,7 +35975,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
         <v>74</v>
@@ -35944,7 +36079,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -36048,7 +36183,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -36152,7 +36287,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -36256,7 +36391,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -36360,7 +36495,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -36464,7 +36599,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -36568,7 +36703,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -36672,7 +36807,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -36776,7 +36911,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -36880,7 +37015,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -36984,7 +37119,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -37088,7 +37223,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -37192,7 +37327,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -37296,7 +37431,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -37400,7 +37535,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -37504,7 +37639,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -37608,7 +37743,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
@@ -37738,10 +37873,10 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H1" t="s">
         <v>13</v>
@@ -37762,10 +37897,10 @@
         <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P1" t="s">
         <v>24</v>
@@ -37777,10 +37912,10 @@
         <v>29</v>
       </c>
       <c r="S1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -37798,10 +37933,10 @@
         <v>36</v>
       </c>
       <c r="Z1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AA1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AB1" t="s">
         <v>38</v>
@@ -37816,10 +37951,10 @@
         <v>41</v>
       </c>
       <c r="AF1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AH1" t="s">
         <v>44</v>
@@ -37832,11 +37967,17 @@
       </c>
       <c r="AK1" t="s">
         <v>48</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -37848,7 +37989,7 @@
         <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F2" t="s">
         <v>69</v>
@@ -37945,11 +38086,17 @@
       </c>
       <c r="AK2" t="s">
         <v>67</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -38057,12 +38204,18 @@
         <v>69</v>
       </c>
       <c r="AK3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -38171,11 +38324,17 @@
       </c>
       <c r="AK4" t="s">
         <v>67</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -38283,12 +38442,18 @@
         <v>69</v>
       </c>
       <c r="AK5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s">
         <v>69</v>
@@ -38397,11 +38562,17 @@
       </c>
       <c r="AK6" t="s">
         <v>69</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -38510,11 +38681,17 @@
       </c>
       <c r="AK7" t="s">
         <v>67</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -38623,11 +38800,17 @@
       </c>
       <c r="AK8" t="s">
         <v>67</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -38735,12 +38918,18 @@
         <v>68</v>
       </c>
       <c r="AK9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -38849,11 +39038,17 @@
       </c>
       <c r="AK10" t="s">
         <v>74</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -38962,11 +39157,17 @@
       </c>
       <c r="AK11" t="s">
         <v>67</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -39075,11 +39276,17 @@
       </c>
       <c r="AK12" t="s">
         <v>67</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -39188,11 +39395,17 @@
       </c>
       <c r="AK13" t="s">
         <v>67</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -39300,12 +39513,18 @@
         <v>67</v>
       </c>
       <c r="AK14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -39413,12 +39632,18 @@
         <v>69</v>
       </c>
       <c r="AK15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM15" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -39527,11 +39752,17 @@
       </c>
       <c r="AK16" t="s">
         <v>67</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -39639,12 +39870,18 @@
         <v>69</v>
       </c>
       <c r="AK17" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM17" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -39753,11 +39990,17 @@
       </c>
       <c r="AK18" t="s">
         <v>67</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -39865,12 +40108,18 @@
         <v>68</v>
       </c>
       <c r="AK19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM19" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -39979,11 +40228,17 @@
       </c>
       <c r="AK20" t="s">
         <v>67</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
@@ -40091,12 +40346,18 @@
         <v>70</v>
       </c>
       <c r="AK21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM21" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B22" t="s">
         <v>67</v>
@@ -40204,12 +40465,18 @@
         <v>71</v>
       </c>
       <c r="AK22" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM22" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B23" t="s">
         <v>67</v>
@@ -40318,11 +40585,17 @@
       </c>
       <c r="AK23" t="s">
         <v>67</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B24" t="s">
         <v>67</v>
@@ -40431,11 +40704,17 @@
       </c>
       <c r="AK24" t="s">
         <v>67</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B25" t="s">
         <v>71</v>
@@ -40543,6 +40822,12 @@
         <v>68</v>
       </c>
       <c r="AK25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM25" t="s">
         <v>67</v>
       </c>
     </row>
@@ -40568,7 +40853,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -40580,34 +40865,34 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L1" t="s">
         <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="N1" t="s">
         <v>29</v>
       </c>
       <c r="O1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P1" t="s">
         <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="R1" t="s">
         <v>34</v>
@@ -40616,33 +40901,36 @@
         <v>35</v>
       </c>
       <c r="T1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="U1" t="s">
         <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="W1" t="s">
         <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Y1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Z1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
@@ -40720,12 +41008,15 @@
         <v>68</v>
       </c>
       <c r="AA2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -40803,12 +41094,15 @@
         <v>67</v>
       </c>
       <c r="AA3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
@@ -40887,11 +41181,14 @@
       </c>
       <c r="AA4" t="s">
         <v>74</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
@@ -40970,11 +41267,14 @@
       </c>
       <c r="AA5" t="s">
         <v>71</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B6" t="s">
         <v>69</v>
@@ -41053,11 +41353,14 @@
       </c>
       <c r="AA6" t="s">
         <v>74</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B7" t="s">
         <v>69</v>
@@ -41136,11 +41439,14 @@
       </c>
       <c r="AA7" t="s">
         <v>69</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B8" t="s">
         <v>69</v>
@@ -41219,11 +41525,14 @@
       </c>
       <c r="AA8" t="s">
         <v>74</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B9" t="s">
         <v>69</v>
@@ -41302,11 +41611,14 @@
       </c>
       <c r="AA9" t="s">
         <v>69</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B10" t="s">
         <v>74</v>
@@ -41385,11 +41697,14 @@
       </c>
       <c r="AA10" t="s">
         <v>69</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -41468,11 +41783,14 @@
       </c>
       <c r="AA11" t="s">
         <v>74</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B12" t="s">
         <v>68</v>
@@ -41551,11 +41869,14 @@
       </c>
       <c r="AA12" t="s">
         <v>68</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -41633,12 +41954,15 @@
         <v>68</v>
       </c>
       <c r="AA13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB13" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B14" t="s">
         <v>68</v>
@@ -41716,12 +42040,15 @@
         <v>67</v>
       </c>
       <c r="AA14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB14" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B15" t="s">
         <v>74</v>
@@ -41800,11 +42127,14 @@
       </c>
       <c r="AA15" t="s">
         <v>69</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s">
         <v>68</v>
@@ -41882,12 +42212,15 @@
         <v>67</v>
       </c>
       <c r="AA16" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB16" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s">
         <v>68</v>
@@ -41966,11 +42299,14 @@
       </c>
       <c r="AA17" t="s">
         <v>67</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s">
         <v>74</v>
@@ -42048,12 +42384,15 @@
         <v>68</v>
       </c>
       <c r="AA18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB18" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s">
         <v>71</v>
@@ -42132,11 +42471,14 @@
       </c>
       <c r="AA19" t="s">
         <v>69</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s">
         <v>68</v>
@@ -42215,11 +42557,14 @@
       </c>
       <c r="AA20" t="s">
         <v>68</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B21" t="s">
         <v>71</v>
@@ -42298,11 +42643,14 @@
       </c>
       <c r="AA21" t="s">
         <v>68</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B22" t="s">
         <v>69</v>
@@ -42381,11 +42729,14 @@
       </c>
       <c r="AA22" t="s">
         <v>71</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B23" t="s">
         <v>69</v>
@@ -42464,11 +42815,14 @@
       </c>
       <c r="AA23" t="s">
         <v>70</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B24" t="s">
         <v>70</v>
@@ -42547,11 +42901,14 @@
       </c>
       <c r="AA24" t="s">
         <v>67</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B25" t="s">
         <v>74</v>
@@ -42630,6 +42987,9 @@
       </c>
       <c r="AA25" t="s">
         <v>68</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -42654,13 +43014,13 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -42669,7 +43029,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -42678,13 +43038,13 @@
         <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M1" t="s">
         <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O1" t="s">
         <v>28</v>
@@ -42696,39 +43056,42 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="S1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="T1" t="s">
         <v>35</v>
       </c>
       <c r="U1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="V1" t="s">
         <v>38</v>
       </c>
       <c r="W1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="X1" t="s">
         <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Z1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -42806,12 +43169,15 @@
         <v>71</v>
       </c>
       <c r="AA2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
@@ -42890,11 +43256,14 @@
       </c>
       <c r="AA3" t="s">
         <v>71</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
@@ -42973,11 +43342,14 @@
       </c>
       <c r="AA4" t="s">
         <v>68</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
@@ -43055,12 +43427,15 @@
         <v>69</v>
       </c>
       <c r="AA5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
@@ -43139,11 +43514,14 @@
       </c>
       <c r="AA6" t="s">
         <v>70</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
@@ -43222,11 +43600,14 @@
       </c>
       <c r="AA7" t="s">
         <v>74</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B8" t="s">
         <v>68</v>
@@ -43304,12 +43685,15 @@
         <v>71</v>
       </c>
       <c r="AA8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -43388,11 +43772,14 @@
       </c>
       <c r="AA9" t="s">
         <v>68</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B10" t="s">
         <v>69</v>
@@ -43471,11 +43858,14 @@
       </c>
       <c r="AA10" t="s">
         <v>69</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -43554,11 +43944,14 @@
       </c>
       <c r="AA11" t="s">
         <v>71</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B12" t="s">
         <v>69</v>
@@ -43636,12 +44029,15 @@
         <v>70</v>
       </c>
       <c r="AA12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB12" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B13" t="s">
         <v>68</v>
@@ -43720,11 +44116,14 @@
       </c>
       <c r="AA13" t="s">
         <v>74</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B14" t="s">
         <v>68</v>
@@ -43803,11 +44202,14 @@
       </c>
       <c r="AA14" t="s">
         <v>68</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -43885,12 +44287,15 @@
         <v>68</v>
       </c>
       <c r="AA15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB15" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
@@ -43969,11 +44374,14 @@
       </c>
       <c r="AA16" t="s">
         <v>71</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B17" t="s">
         <v>68</v>
@@ -44052,11 +44460,14 @@
       </c>
       <c r="AA17" t="s">
         <v>69</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B18" t="s">
         <v>68</v>
@@ -44134,12 +44545,15 @@
         <v>71</v>
       </c>
       <c r="AA18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB18" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B19" t="s">
         <v>69</v>
@@ -44218,11 +44632,14 @@
       </c>
       <c r="AA19" t="s">
         <v>68</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B20" t="s">
         <v>74</v>
@@ -44301,11 +44718,14 @@
       </c>
       <c r="AA20" t="s">
         <v>69</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -44384,11 +44804,14 @@
       </c>
       <c r="AA21" t="s">
         <v>68</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s">
         <v>74</v>
@@ -44467,11 +44890,14 @@
       </c>
       <c r="AA22" t="s">
         <v>68</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B23" t="s">
         <v>71</v>
@@ -44550,11 +44976,14 @@
       </c>
       <c r="AA23" t="s">
         <v>68</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B24" t="s">
         <v>71</v>
@@ -44633,11 +45062,14 @@
       </c>
       <c r="AA24" t="s">
         <v>71</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B25" t="s">
         <v>68</v>
@@ -44716,6 +45148,9 @@
       </c>
       <c r="AA25" t="s">
         <v>69</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -44740,72 +45175,75 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K1" t="s">
         <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M1" t="s">
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
       </c>
       <c r="T1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="U1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="V1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="W1" t="s">
         <v>46</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
@@ -44875,11 +45313,14 @@
       </c>
       <c r="X2" t="s">
         <v>67</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
@@ -44948,12 +45389,15 @@
         <v>67</v>
       </c>
       <c r="X3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
@@ -45023,11 +45467,14 @@
       </c>
       <c r="X4" t="s">
         <v>70</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
@@ -45097,11 +45544,14 @@
       </c>
       <c r="X5" t="s">
         <v>69</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -45171,11 +45621,14 @@
       </c>
       <c r="X6" t="s">
         <v>68</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
@@ -45244,12 +45697,15 @@
         <v>67</v>
       </c>
       <c r="X7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -45318,12 +45774,15 @@
         <v>67</v>
       </c>
       <c r="X8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -45393,11 +45852,14 @@
       </c>
       <c r="X9" t="s">
         <v>69</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -45466,12 +45928,15 @@
         <v>67</v>
       </c>
       <c r="X10" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -45541,11 +46006,14 @@
       </c>
       <c r="X11" t="s">
         <v>67</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B12" t="s">
         <v>69</v>
@@ -45615,11 +46083,14 @@
       </c>
       <c r="X12" t="s">
         <v>69</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B13" t="s">
         <v>68</v>
@@ -45689,11 +46160,14 @@
       </c>
       <c r="X13" t="s">
         <v>68</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B14" t="s">
         <v>74</v>
@@ -45763,11 +46237,14 @@
       </c>
       <c r="X14" t="s">
         <v>69</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B15" t="s">
         <v>68</v>
@@ -45836,12 +46313,15 @@
         <v>67</v>
       </c>
       <c r="X15" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y15" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B16" t="s">
         <v>74</v>
@@ -45910,12 +46390,15 @@
         <v>67</v>
       </c>
       <c r="X16" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y16" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B17" t="s">
         <v>68</v>
@@ -45984,12 +46467,15 @@
         <v>68</v>
       </c>
       <c r="X17" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y17" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B18" t="s">
         <v>68</v>
@@ -46059,11 +46545,14 @@
       </c>
       <c r="X18" t="s">
         <v>68</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B19" t="s">
         <v>72</v>
@@ -46133,11 +46622,14 @@
       </c>
       <c r="X19" t="s">
         <v>68</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B20" t="s">
         <v>69</v>
@@ -46207,11 +46699,14 @@
       </c>
       <c r="X20" t="s">
         <v>72</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B21" t="s">
         <v>69</v>
@@ -46281,11 +46776,14 @@
       </c>
       <c r="X21" t="s">
         <v>69</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B22" t="s">
         <v>68</v>
@@ -46354,12 +46852,15 @@
         <v>67</v>
       </c>
       <c r="X22" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y22" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B23" t="s">
         <v>69</v>
@@ -46429,11 +46930,14 @@
       </c>
       <c r="X23" t="s">
         <v>68</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B24" t="s">
         <v>67</v>
@@ -46503,6 +47007,9 @@
       </c>
       <c r="X24" t="s">
         <v>71</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -46611,7 +47118,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -46643,7 +47150,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -46768,7 +47275,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -46893,7 +47400,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -47018,7 +47525,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -47143,7 +47650,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -47268,7 +47775,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -47393,7 +47900,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -47518,7 +48025,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -47643,7 +48150,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -47768,7 +48275,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -47893,7 +48400,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B12" t="s">
         <v>74</v>
@@ -48018,7 +48525,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -48143,7 +48650,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B14" t="s">
         <v>74</v>
@@ -48268,7 +48775,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -48393,7 +48900,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -48518,7 +49025,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -48643,7 +49150,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -48768,7 +49275,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -48893,7 +49400,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -49018,7 +49525,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>

--- a/YCmatrix.xlsx
+++ b/YCmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16736" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17066" uniqueCount="522">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -393,6 +393,15 @@
   </si>
   <si>
     <t>X2021.11.01</t>
+  </si>
+  <si>
+    <t>X2021.11.30</t>
+  </si>
+  <si>
+    <t>X2021.12.01</t>
+  </si>
+  <si>
+    <t>X2021.12.02</t>
   </si>
   <si>
     <t>Arsenal</t>
@@ -4716,28 +4725,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="J1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
@@ -4746,7 +4755,7 @@
         <v>116</v>
       </c>
       <c r="M1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -4758,13 +4767,13 @@
         <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="R1" t="s">
         <v>24</v>
       </c>
       <c r="S1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="T1" t="s">
         <v>28</v>
@@ -4788,7 +4797,7 @@
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
@@ -4803,12 +4812,12 @@
         <v>47</v>
       </c>
       <c r="AF1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -4906,7 +4915,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -5004,7 +5013,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B4" t="s">
         <v>74</v>
@@ -5102,7 +5111,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -5200,7 +5209,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
@@ -5298,7 +5307,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -5396,7 +5405,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B8" t="s">
         <v>74</v>
@@ -5494,7 +5503,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -5592,7 +5601,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -5690,7 +5699,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B11" t="s">
         <v>72</v>
@@ -5788,7 +5797,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B12" t="s">
         <v>74</v>
@@ -5886,7 +5895,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -5984,7 +5993,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B14" t="s">
         <v>74</v>
@@ -6082,7 +6091,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B15" t="s">
         <v>77</v>
@@ -6180,7 +6189,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
@@ -6278,7 +6287,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B17" t="s">
         <v>72</v>
@@ -6376,7 +6385,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -6474,7 +6483,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -6572,7 +6581,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B20" t="s">
         <v>72</v>
@@ -6670,7 +6679,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B21" t="s">
         <v>71</v>
@@ -6854,7 +6863,7 @@
         <v>48</v>
       </c>
       <c r="Z1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AA1" t="s">
         <v>50</v>
@@ -6865,7 +6874,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -6951,7 +6960,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -7037,7 +7046,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -7123,7 +7132,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
@@ -7209,7 +7218,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -7295,7 +7304,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -7381,7 +7390,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -7467,7 +7476,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -7553,7 +7562,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -7639,7 +7648,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -7725,7 +7734,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B12" t="s">
         <v>74</v>
@@ -7811,7 +7820,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B13" t="s">
         <v>72</v>
@@ -7897,7 +7906,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -7983,7 +7992,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -8119,10 +8128,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="O1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -8167,13 +8176,13 @@
         <v>39</v>
       </c>
       <c r="AD1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AE1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AF1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -8200,7 +8209,7 @@
         <v>48</v>
       </c>
       <c r="AO1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AP1" t="s">
         <v>49</v>
@@ -8210,11 +8219,20 @@
       </c>
       <c r="AR1" t="s">
         <v>51</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -8343,12 +8361,21 @@
         <v>75</v>
       </c>
       <c r="AR2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -8478,11 +8505,20 @@
       </c>
       <c r="AR3" t="s">
         <v>72</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -8611,12 +8647,21 @@
         <v>70</v>
       </c>
       <c r="AR4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -8746,11 +8791,20 @@
       </c>
       <c r="AR5" t="s">
         <v>70</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -8879,12 +8933,21 @@
         <v>72</v>
       </c>
       <c r="AR6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -9014,11 +9077,20 @@
       </c>
       <c r="AR7" t="s">
         <v>73</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B8" t="s">
         <v>72</v>
@@ -9147,12 +9219,21 @@
         <v>77</v>
       </c>
       <c r="AR8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -9281,12 +9362,21 @@
         <v>73</v>
       </c>
       <c r="AR9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
@@ -9416,11 +9506,20 @@
       </c>
       <c r="AR10" t="s">
         <v>73</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -9550,11 +9649,20 @@
       </c>
       <c r="AR11" t="s">
         <v>73</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -9684,11 +9792,20 @@
       </c>
       <c r="AR12" t="s">
         <v>71</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -9818,11 +9935,20 @@
       </c>
       <c r="AR13" t="s">
         <v>71</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -9951,12 +10077,21 @@
         <v>70</v>
       </c>
       <c r="AR14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -10085,12 +10220,21 @@
         <v>73</v>
       </c>
       <c r="AR15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
@@ -10220,11 +10364,20 @@
       </c>
       <c r="AR16" t="s">
         <v>71</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -10354,11 +10507,20 @@
       </c>
       <c r="AR17" t="s">
         <v>74</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -10487,12 +10649,21 @@
         <v>70</v>
       </c>
       <c r="AR18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU18" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -10622,11 +10793,20 @@
       </c>
       <c r="AR19" t="s">
         <v>74</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -10755,12 +10935,21 @@
         <v>71</v>
       </c>
       <c r="AR20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU20" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B21" t="s">
         <v>74</v>
@@ -10889,6 +11078,15 @@
         <v>72</v>
       </c>
       <c r="AR21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU21" t="s">
         <v>70</v>
       </c>
     </row>
@@ -10944,10 +11142,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="O1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -10983,10 +11181,10 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AB1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AC1" t="s">
         <v>119</v>
@@ -11016,12 +11214,18 @@
         <v>51</v>
       </c>
       <c r="AL1" t="s">
-        <v>151</v>
+        <v>154</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -11132,12 +11336,18 @@
         <v>70</v>
       </c>
       <c r="AL2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -11248,12 +11458,18 @@
         <v>70</v>
       </c>
       <c r="AL3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -11364,12 +11580,18 @@
         <v>70</v>
       </c>
       <c r="AL4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -11481,11 +11703,17 @@
       </c>
       <c r="AL5" t="s">
         <v>70</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -11597,11 +11825,17 @@
       </c>
       <c r="AL6" t="s">
         <v>70</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -11713,11 +11947,17 @@
       </c>
       <c r="AL7" t="s">
         <v>70</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -11828,12 +12068,18 @@
         <v>70</v>
       </c>
       <c r="AL8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -11944,12 +12190,18 @@
         <v>70</v>
       </c>
       <c r="AL9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -12061,11 +12313,17 @@
       </c>
       <c r="AL10" t="s">
         <v>74</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B11" t="s">
         <v>72</v>
@@ -12176,12 +12434,18 @@
         <v>70</v>
       </c>
       <c r="AL11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -12292,12 +12556,18 @@
         <v>70</v>
       </c>
       <c r="AL12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -12408,12 +12678,18 @@
         <v>70</v>
       </c>
       <c r="AL13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -12525,17 +12801,23 @@
       </c>
       <c r="AL14" t="s">
         <v>70</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D15" t="s">
         <v>70</v>
@@ -12640,12 +12922,18 @@
         <v>70</v>
       </c>
       <c r="AL15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -12756,12 +13044,18 @@
         <v>70</v>
       </c>
       <c r="AL16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -12872,12 +13166,18 @@
         <v>70</v>
       </c>
       <c r="AL17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -12988,12 +13288,18 @@
         <v>70</v>
       </c>
       <c r="AL18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -13104,12 +13410,18 @@
         <v>70</v>
       </c>
       <c r="AL19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN19" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -13221,11 +13533,17 @@
       </c>
       <c r="AL20" t="s">
         <v>71</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -13276,7 +13594,7 @@
         <v>70</v>
       </c>
       <c r="R21" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="S21" t="s">
         <v>70</v>
@@ -13336,6 +13654,12 @@
         <v>70</v>
       </c>
       <c r="AL21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN21" t="s">
         <v>70</v>
       </c>
     </row>
@@ -13397,7 +13721,7 @@
         <v>25</v>
       </c>
       <c r="P1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q1" t="s">
         <v>26</v>
@@ -13464,11 +13788,17 @@
       </c>
       <c r="AL1" t="s">
         <v>51</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -13580,11 +13910,17 @@
       </c>
       <c r="AL2" t="s">
         <v>71</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -13695,12 +14031,18 @@
         <v>70</v>
       </c>
       <c r="AL3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -13811,12 +14153,18 @@
         <v>70</v>
       </c>
       <c r="AL4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -13928,11 +14276,17 @@
       </c>
       <c r="AL5" t="s">
         <v>72</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -14044,11 +14398,17 @@
       </c>
       <c r="AL6" t="s">
         <v>70</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
@@ -14159,12 +14519,18 @@
         <v>72</v>
       </c>
       <c r="AL7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -14275,12 +14641,18 @@
         <v>72</v>
       </c>
       <c r="AL8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
@@ -14392,11 +14764,17 @@
       </c>
       <c r="AL9" t="s">
         <v>72</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -14508,11 +14886,17 @@
       </c>
       <c r="AL10" t="s">
         <v>72</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -14623,12 +15007,18 @@
         <v>70</v>
       </c>
       <c r="AL11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -14740,11 +15130,17 @@
       </c>
       <c r="AL12" t="s">
         <v>72</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -14856,11 +15252,17 @@
       </c>
       <c r="AL13" t="s">
         <v>71</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -14972,11 +15374,17 @@
       </c>
       <c r="AL14" t="s">
         <v>72</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -15088,11 +15496,17 @@
       </c>
       <c r="AL15" t="s">
         <v>72</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -15204,11 +15618,17 @@
       </c>
       <c r="AL16" t="s">
         <v>72</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -15319,12 +15739,18 @@
         <v>71</v>
       </c>
       <c r="AL17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -15436,11 +15862,17 @@
       </c>
       <c r="AL18" t="s">
         <v>70</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -15551,6 +15983,12 @@
         <v>72</v>
       </c>
       <c r="AL19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN19" t="s">
         <v>70</v>
       </c>
     </row>
@@ -15579,7 +16017,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -15591,7 +16029,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -15633,7 +16071,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -15666,7 +16104,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -15699,12 +16137,15 @@
         <v>51</v>
       </c>
       <c r="AS1" t="s">
-        <v>151</v>
+        <v>154</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -15836,12 +16277,15 @@
         <v>70</v>
       </c>
       <c r="AS2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -15973,12 +16417,15 @@
         <v>70</v>
       </c>
       <c r="AS3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -16110,12 +16557,15 @@
         <v>70</v>
       </c>
       <c r="AS4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -16247,12 +16697,15 @@
         <v>70</v>
       </c>
       <c r="AS5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -16385,11 +16838,14 @@
       </c>
       <c r="AS6" t="s">
         <v>71</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -16521,12 +16977,15 @@
         <v>70</v>
       </c>
       <c r="AS7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -16658,12 +17117,15 @@
         <v>70</v>
       </c>
       <c r="AS8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -16795,12 +17257,15 @@
         <v>76</v>
       </c>
       <c r="AS9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -16920,7 +17385,7 @@
         <v>70</v>
       </c>
       <c r="AO10" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AP10" t="s">
         <v>70</v>
@@ -16932,12 +17397,15 @@
         <v>71</v>
       </c>
       <c r="AS10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -17069,12 +17537,15 @@
         <v>70</v>
       </c>
       <c r="AS11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -17206,12 +17677,15 @@
         <v>74</v>
       </c>
       <c r="AS12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -17343,12 +17817,15 @@
         <v>70</v>
       </c>
       <c r="AS13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -17480,12 +17957,15 @@
         <v>74</v>
       </c>
       <c r="AS14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -17618,11 +18098,14 @@
       </c>
       <c r="AS15" t="s">
         <v>71</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -17755,11 +18238,14 @@
       </c>
       <c r="AS16" t="s">
         <v>70</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B17" t="s">
         <v>72</v>
@@ -17891,12 +18377,15 @@
         <v>74</v>
       </c>
       <c r="AS17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -18028,12 +18517,15 @@
         <v>74</v>
       </c>
       <c r="AS18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B19" t="s">
         <v>74</v>
@@ -18166,6 +18658,9 @@
       </c>
       <c r="AS19" t="s">
         <v>70</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -18241,7 +18736,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -18266,11 +18761,20 @@
       </c>
       <c r="AC1" t="s">
         <v>51</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -18355,11 +18859,20 @@
       </c>
       <c r="AC2" t="s">
         <v>72</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
@@ -18444,11 +18957,20 @@
       </c>
       <c r="AC3" t="s">
         <v>71</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -18532,12 +19054,21 @@
         <v>74</v>
       </c>
       <c r="AC4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -18621,12 +19152,21 @@
         <v>71</v>
       </c>
       <c r="AC5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
@@ -18711,11 +19251,20 @@
       </c>
       <c r="AC6" t="s">
         <v>70</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -18799,12 +19348,21 @@
         <v>72</v>
       </c>
       <c r="AC7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
@@ -18889,11 +19447,20 @@
       </c>
       <c r="AC8" t="s">
         <v>74</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -18977,12 +19544,21 @@
         <v>74</v>
       </c>
       <c r="AC9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
@@ -19067,11 +19643,20 @@
       </c>
       <c r="AC10" t="s">
         <v>72</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -19155,12 +19740,21 @@
         <v>72</v>
       </c>
       <c r="AC11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B12" t="s">
         <v>72</v>
@@ -19244,12 +19838,21 @@
         <v>71</v>
       </c>
       <c r="AC12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -19333,6 +19936,15 @@
         <v>71</v>
       </c>
       <c r="AC13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF13" t="s">
         <v>70</v>
       </c>
     </row>
@@ -19355,7 +19967,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -19367,7 +19979,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -19385,7 +19997,7 @@
         <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="N1" t="s">
         <v>32</v>
@@ -19400,7 +20012,7 @@
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
@@ -19409,7 +20021,7 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="V1" t="s">
         <v>46</v>
@@ -19420,7 +20032,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -19491,7 +20103,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -19562,7 +20174,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -19633,7 +20245,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
@@ -19704,7 +20316,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -19775,7 +20387,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -19846,7 +20458,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B8" t="s">
         <v>72</v>
@@ -19917,7 +20529,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -19988,7 +20600,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
@@ -20059,7 +20671,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -20162,7 +20774,7 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
@@ -20192,7 +20804,7 @@
         <v>44</v>
       </c>
       <c r="R1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="S1" t="s">
         <v>47</v>
@@ -20200,7 +20812,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B2" t="s">
         <v>72</v>
@@ -20259,7 +20871,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -20318,7 +20930,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -20377,7 +20989,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
@@ -20436,7 +21048,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -20495,7 +21107,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
@@ -20554,7 +21166,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -20613,7 +21225,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
@@ -20672,7 +21284,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
@@ -20731,7 +21343,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B11" t="s">
         <v>72</v>
@@ -20825,7 +21437,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -20861,24 +21473,24 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="W1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
@@ -20955,7 +21567,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -21032,7 +21644,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B4" t="s">
         <v>74</v>
@@ -21109,7 +21721,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B5" t="s">
         <v>72</v>
@@ -21186,7 +21798,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -21263,7 +21875,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -21340,7 +21952,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
@@ -21417,7 +22029,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B9" t="s">
         <v>74</v>
@@ -21494,7 +22106,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B10" t="s">
         <v>74</v>
@@ -21571,7 +22183,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -23943,7 +24555,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -23985,10 +24597,10 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="T1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="U1" t="s">
         <v>26</v>
@@ -24033,16 +24645,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AJ1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AK1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AL1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -24072,7 +24684,7 @@
         <v>48</v>
       </c>
       <c r="AV1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AW1" t="s">
         <v>49</v>
@@ -24084,12 +24696,15 @@
         <v>51</v>
       </c>
       <c r="AZ1" t="s">
-        <v>151</v>
+        <v>154</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -24242,12 +24857,15 @@
         <v>70</v>
       </c>
       <c r="AZ2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -24401,11 +25019,14 @@
       </c>
       <c r="AZ3" t="s">
         <v>70</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -24558,12 +25179,15 @@
         <v>77</v>
       </c>
       <c r="AZ4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -24716,12 +25340,15 @@
         <v>70</v>
       </c>
       <c r="AZ5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -24874,12 +25501,15 @@
         <v>71</v>
       </c>
       <c r="AZ6" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -25032,12 +25662,15 @@
         <v>71</v>
       </c>
       <c r="AZ7" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -25190,12 +25823,15 @@
         <v>70</v>
       </c>
       <c r="AZ8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -25349,11 +25985,14 @@
       </c>
       <c r="AZ9" t="s">
         <v>74</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -25506,12 +26145,15 @@
         <v>72</v>
       </c>
       <c r="AZ10" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -25664,12 +26306,15 @@
         <v>70</v>
       </c>
       <c r="AZ11" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -25822,12 +26467,15 @@
         <v>70</v>
       </c>
       <c r="AZ12" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -25980,12 +26628,15 @@
         <v>74</v>
       </c>
       <c r="AZ13" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -26138,12 +26789,15 @@
         <v>70</v>
       </c>
       <c r="AZ14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -26297,11 +26951,14 @@
       </c>
       <c r="AZ15" t="s">
         <v>72</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -26455,11 +27112,14 @@
       </c>
       <c r="AZ16" t="s">
         <v>70</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -26612,12 +27272,15 @@
         <v>74</v>
       </c>
       <c r="AZ17" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -26770,12 +27433,15 @@
         <v>72</v>
       </c>
       <c r="AZ18" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -26928,12 +27594,15 @@
         <v>70</v>
       </c>
       <c r="AZ19" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA19" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -27086,12 +27755,15 @@
         <v>70</v>
       </c>
       <c r="AZ20" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA20" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -27244,6 +27916,9 @@
         <v>70</v>
       </c>
       <c r="AZ21" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA21" t="s">
         <v>70</v>
       </c>
     </row>
@@ -27272,7 +27947,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -27296,19 +27971,19 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="N1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="O1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="P1" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="Q1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
@@ -27332,7 +28007,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -27356,19 +28031,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="AH1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AI1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AJ1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="AK1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -27380,13 +28055,13 @@
         <v>36</v>
       </c>
       <c r="AO1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AP1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AQ1" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -27398,7 +28073,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -27413,13 +28088,13 @@
         <v>119</v>
       </c>
       <c r="AZ1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="BA1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="BB1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -27431,19 +28106,19 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="BG1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="BH1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BI1" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="BJ1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -27455,7 +28130,7 @@
         <v>48</v>
       </c>
       <c r="BN1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="BO1" t="s">
         <v>49</v>
@@ -27467,12 +28142,12 @@
         <v>51</v>
       </c>
       <c r="BR1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -27684,7 +28359,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -27896,7 +28571,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -28108,7 +28783,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -28320,7 +28995,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -28404,7 +29079,7 @@
         <v>70</v>
       </c>
       <c r="AC6" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="AD6" t="s">
         <v>70</v>
@@ -28532,7 +29207,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
@@ -28744,7 +29419,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -28956,7 +29631,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -29168,7 +29843,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
@@ -29380,7 +30055,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -29592,7 +30267,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -29804,7 +30479,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -30016,7 +30691,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -30228,7 +30903,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -30440,7 +31115,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -30652,7 +31327,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -30864,7 +31539,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -31076,7 +31751,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -31142,7 +31817,7 @@
         <v>70</v>
       </c>
       <c r="W19" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="X19" t="s">
         <v>70</v>
@@ -31288,7 +31963,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -31500,7 +32175,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -31712,7 +32387,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B22" t="s">
         <v>70</v>
@@ -31924,7 +32599,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B23" t="s">
         <v>71</v>
@@ -32159,7 +32834,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -32201,7 +32876,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="T1" t="s">
         <v>26</v>
@@ -32252,7 +32927,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -32282,7 +32957,7 @@
         <v>48</v>
       </c>
       <c r="AT1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AU1" t="s">
         <v>49</v>
@@ -32294,12 +32969,12 @@
         <v>51</v>
       </c>
       <c r="AX1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -32451,7 +33126,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -32603,7 +33278,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -32755,7 +33430,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -32907,7 +33582,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -33059,7 +33734,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -33211,7 +33886,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -33363,7 +34038,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -33515,7 +34190,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -33667,7 +34342,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -33819,7 +34494,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -33971,7 +34646,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -34123,7 +34798,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -34275,7 +34950,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -34427,7 +35102,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -34579,7 +35254,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -34731,7 +35406,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B18" t="s">
         <v>72</v>
@@ -34883,7 +35558,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -35035,7 +35710,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -35187,7 +35862,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -38128,10 +38803,19 @@
       <c r="AJ1" t="s">
         <v>51</v>
       </c>
+      <c r="AK1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
@@ -38237,11 +38921,20 @@
       </c>
       <c r="AJ2" t="s">
         <v>70</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -38346,12 +39039,21 @@
         <v>74</v>
       </c>
       <c r="AJ3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
@@ -38457,11 +39159,20 @@
       </c>
       <c r="AJ4" t="s">
         <v>73</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -38566,12 +39277,21 @@
         <v>72</v>
       </c>
       <c r="AJ5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -38676,12 +39396,21 @@
         <v>70</v>
       </c>
       <c r="AJ6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -38787,11 +39516,20 @@
       </c>
       <c r="AJ7" t="s">
         <v>71</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -38896,12 +39634,21 @@
         <v>74</v>
       </c>
       <c r="AJ8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -39007,11 +39754,20 @@
       </c>
       <c r="AJ9" t="s">
         <v>74</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -39116,12 +39872,21 @@
         <v>74</v>
       </c>
       <c r="AJ10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -39227,11 +39992,20 @@
       </c>
       <c r="AJ11" t="s">
         <v>77</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -39336,12 +40110,21 @@
         <v>77</v>
       </c>
       <c r="AJ12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -39447,11 +40230,20 @@
       </c>
       <c r="AJ13" t="s">
         <v>71</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -39557,11 +40349,20 @@
       </c>
       <c r="AJ14" t="s">
         <v>75</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -39666,12 +40467,21 @@
         <v>74</v>
       </c>
       <c r="AJ15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -39776,12 +40586,21 @@
         <v>71</v>
       </c>
       <c r="AJ16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -39886,12 +40705,21 @@
         <v>72</v>
       </c>
       <c r="AJ17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -39997,11 +40825,20 @@
       </c>
       <c r="AJ18" t="s">
         <v>70</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -40107,11 +40944,20 @@
       </c>
       <c r="AJ19" t="s">
         <v>77</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -40217,11 +41063,20 @@
       </c>
       <c r="AJ20" t="s">
         <v>77</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -40326,6 +41181,15 @@
         <v>71</v>
       </c>
       <c r="AJ21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM21" t="s">
         <v>70</v>
       </c>
     </row>
@@ -40357,10 +41221,10 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H1" t="s">
         <v>13</v>
@@ -40381,10 +41245,10 @@
         <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P1" t="s">
         <v>24</v>
@@ -40396,10 +41260,10 @@
         <v>29</v>
       </c>
       <c r="S1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="T1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -40417,10 +41281,10 @@
         <v>36</v>
       </c>
       <c r="Z1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AA1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AB1" t="s">
         <v>38</v>
@@ -40435,10 +41299,10 @@
         <v>41</v>
       </c>
       <c r="AF1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AG1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AH1" t="s">
         <v>44</v>
@@ -40453,7 +41317,7 @@
         <v>48</v>
       </c>
       <c r="AL1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AM1" t="s">
         <v>97</v>
@@ -40468,12 +41332,12 @@
         <v>51</v>
       </c>
       <c r="AQ1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -40485,7 +41349,7 @@
         <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F2" t="s">
         <v>72</v>
@@ -40604,7 +41468,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -40735,7 +41599,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -40866,7 +41730,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -40997,7 +41861,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
@@ -41128,7 +41992,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -41259,7 +42123,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -41390,7 +42254,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -41521,7 +42385,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -41652,7 +42516,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -41783,7 +42647,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -41914,7 +42778,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -42045,7 +42909,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -42176,7 +43040,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -42307,7 +43171,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -42438,7 +43302,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -42569,7 +43433,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -42700,7 +43564,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -42831,7 +43695,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -42962,7 +43826,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -43093,7 +43957,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B22" t="s">
         <v>70</v>
@@ -43224,7 +44088,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B23" t="s">
         <v>70</v>
@@ -43355,7 +44219,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B24" t="s">
         <v>70</v>
@@ -43486,7 +44350,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B25" t="s">
         <v>74</v>
@@ -43637,7 +44501,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -43649,34 +44513,34 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L1" t="s">
         <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="N1" t="s">
         <v>29</v>
       </c>
       <c r="O1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P1" t="s">
         <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="R1" t="s">
         <v>34</v>
@@ -43685,31 +44549,31 @@
         <v>35</v>
       </c>
       <c r="T1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="U1" t="s">
         <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="W1" t="s">
         <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Y1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Z1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AC1" t="s">
         <v>50</v>
@@ -43720,7 +44584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B2" t="s">
         <v>72</v>
@@ -43812,7 +44676,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
@@ -43904,7 +44768,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B4" t="s">
         <v>72</v>
@@ -43996,7 +44860,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -44088,7 +44952,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
@@ -44180,7 +45044,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
@@ -44272,7 +45136,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B8" t="s">
         <v>72</v>
@@ -44364,7 +45228,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
@@ -44456,7 +45320,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
@@ -44548,7 +45412,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -44640,7 +45504,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -44732,7 +45596,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B13" t="s">
         <v>74</v>
@@ -44824,7 +45688,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -44916,7 +45780,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B15" t="s">
         <v>77</v>
@@ -45008,7 +45872,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
@@ -45100,7 +45964,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
@@ -45192,7 +46056,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B18" t="s">
         <v>77</v>
@@ -45284,7 +46148,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s">
         <v>74</v>
@@ -45376,7 +46240,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s">
         <v>71</v>
@@ -45468,7 +46332,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s">
         <v>74</v>
@@ -45560,7 +46424,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s">
         <v>72</v>
@@ -45652,7 +46516,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B23" t="s">
         <v>72</v>
@@ -45744,7 +46608,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B24" t="s">
         <v>73</v>
@@ -45836,7 +46700,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B25" t="s">
         <v>77</v>
@@ -45948,13 +46812,13 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -45963,7 +46827,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -45972,13 +46836,13 @@
         <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M1" t="s">
         <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="O1" t="s">
         <v>28</v>
@@ -45990,37 +46854,37 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="S1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="T1" t="s">
         <v>35</v>
       </c>
       <c r="U1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="V1" t="s">
         <v>38</v>
       </c>
       <c r="W1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="X1" t="s">
         <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Z1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AC1" t="s">
         <v>49</v>
@@ -46031,7 +46895,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -46123,7 +46987,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
@@ -46215,7 +47079,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -46307,7 +47171,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -46399,7 +47263,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
@@ -46491,7 +47355,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
@@ -46583,7 +47447,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -46675,7 +47539,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B9" t="s">
         <v>74</v>
@@ -46767,7 +47631,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
@@ -46859,7 +47723,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -46951,7 +47815,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B12" t="s">
         <v>72</v>
@@ -47043,7 +47907,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -47135,7 +47999,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -47227,7 +48091,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -47319,7 +48183,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B16" t="s">
         <v>74</v>
@@ -47411,7 +48275,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
@@ -47503,7 +48367,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -47595,7 +48459,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B19" t="s">
         <v>72</v>
@@ -47687,7 +48551,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B20" t="s">
         <v>77</v>
@@ -47779,7 +48643,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B21" t="s">
         <v>73</v>
@@ -47871,7 +48735,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B22" t="s">
         <v>77</v>
@@ -47963,7 +48827,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s">
         <v>74</v>
@@ -48055,7 +48919,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s">
         <v>74</v>
@@ -48147,7 +49011,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s">
         <v>71</v>
@@ -48259,61 +49123,61 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K1" t="s">
         <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M1" t="s">
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="O1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
       </c>
       <c r="T1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="U1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="W1" t="s">
         <v>46</v>
@@ -48322,15 +49186,18 @@
         <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Z1" t="s">
         <v>50</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -48406,11 +49273,14 @@
       </c>
       <c r="Z2" t="s">
         <v>72</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -48486,11 +49356,14 @@
       </c>
       <c r="Z3" t="s">
         <v>77</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -48566,11 +49439,14 @@
       </c>
       <c r="Z4" t="s">
         <v>71</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
@@ -48645,12 +49521,15 @@
         <v>71</v>
       </c>
       <c r="Z5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -48726,11 +49605,14 @@
       </c>
       <c r="Z6" t="s">
         <v>77</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
@@ -48805,12 +49687,15 @@
         <v>71</v>
       </c>
       <c r="Z7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B8" t="s">
         <v>74</v>
@@ -48886,11 +49771,14 @@
       </c>
       <c r="Z8" t="s">
         <v>71</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -48966,11 +49854,14 @@
       </c>
       <c r="Z9" t="s">
         <v>73</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -49045,12 +49936,15 @@
         <v>72</v>
       </c>
       <c r="Z10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -49125,12 +50019,15 @@
         <v>75</v>
       </c>
       <c r="Z11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B12" t="s">
         <v>72</v>
@@ -49206,11 +50103,14 @@
       </c>
       <c r="Z12" t="s">
         <v>77</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -49286,11 +50186,14 @@
       </c>
       <c r="Z13" t="s">
         <v>71</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B14" t="s">
         <v>77</v>
@@ -49365,12 +50268,15 @@
         <v>70</v>
       </c>
       <c r="Z14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
@@ -49446,11 +50352,14 @@
       </c>
       <c r="Z15" t="s">
         <v>77</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B16" t="s">
         <v>77</v>
@@ -49525,12 +50434,15 @@
         <v>71</v>
       </c>
       <c r="Z16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
@@ -49606,11 +50518,14 @@
       </c>
       <c r="Z17" t="s">
         <v>74</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -49686,11 +50601,14 @@
       </c>
       <c r="Z18" t="s">
         <v>77</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B19" t="s">
         <v>75</v>
@@ -49766,11 +50684,14 @@
       </c>
       <c r="Z19" t="s">
         <v>72</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B20" t="s">
         <v>72</v>
@@ -49846,11 +50767,14 @@
       </c>
       <c r="Z20" t="s">
         <v>77</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B21" t="s">
         <v>72</v>
@@ -49925,12 +50849,15 @@
         <v>77</v>
       </c>
       <c r="Z21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA21" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B22" t="s">
         <v>71</v>
@@ -50006,11 +50933,14 @@
       </c>
       <c r="Z22" t="s">
         <v>71</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B23" t="s">
         <v>72</v>
@@ -50086,11 +51016,14 @@
       </c>
       <c r="Z23" t="s">
         <v>77</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B24" t="s">
         <v>70</v>
@@ -50165,6 +51098,9 @@
         <v>71</v>
       </c>
       <c r="Z24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA24" t="s">
         <v>72</v>
       </c>
     </row>
@@ -50274,7 +51210,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -50311,11 +51247,14 @@
       </c>
       <c r="AR1" t="s">
         <v>51</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -50445,11 +51384,14 @@
       </c>
       <c r="AR2" t="s">
         <v>70</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -50578,12 +51520,15 @@
         <v>70</v>
       </c>
       <c r="AR3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -50713,11 +51658,14 @@
       </c>
       <c r="AR4" t="s">
         <v>72</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -50847,11 +51795,14 @@
       </c>
       <c r="AR5" t="s">
         <v>71</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -50981,11 +51932,14 @@
       </c>
       <c r="AR6" t="s">
         <v>70</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -51115,11 +52069,14 @@
       </c>
       <c r="AR7" t="s">
         <v>70</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -51249,11 +52206,14 @@
       </c>
       <c r="AR8" t="s">
         <v>77</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -51383,11 +52343,14 @@
       </c>
       <c r="AR9" t="s">
         <v>73</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -51517,11 +52480,14 @@
       </c>
       <c r="AR10" t="s">
         <v>72</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -51651,11 +52617,14 @@
       </c>
       <c r="AR11" t="s">
         <v>70</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B12" t="s">
         <v>77</v>
@@ -51784,12 +52753,15 @@
         <v>70</v>
       </c>
       <c r="AR12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -51919,11 +52891,14 @@
       </c>
       <c r="AR13" t="s">
         <v>72</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B14" t="s">
         <v>77</v>
@@ -52053,11 +53028,14 @@
       </c>
       <c r="AR14" t="s">
         <v>70</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -52187,11 +53165,14 @@
       </c>
       <c r="AR15" t="s">
         <v>70</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -52321,11 +53302,14 @@
       </c>
       <c r="AR16" t="s">
         <v>72</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -52454,12 +53438,15 @@
         <v>70</v>
       </c>
       <c r="AR17" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS17" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -52588,12 +53575,15 @@
         <v>70</v>
       </c>
       <c r="AR18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS18" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -52722,12 +53712,15 @@
         <v>70</v>
       </c>
       <c r="AR19" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS19" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -52857,11 +53850,14 @@
       </c>
       <c r="AR20" t="s">
         <v>72</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -52991,6 +53987,9 @@
       </c>
       <c r="AR21" t="s">
         <v>73</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/YCmatrix.xlsx
+++ b/YCmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18155" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18303" uniqueCount="528">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -606,6 +606,12 @@
   </si>
   <si>
     <t>X2021.11.13</t>
+  </si>
+  <si>
+    <t>X2021.12.07</t>
+  </si>
+  <si>
+    <t>X2021.12.08</t>
   </si>
   <si>
     <t>Accrington</t>
@@ -4908,25 +4914,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="J1" t="s">
         <v>148</v>
@@ -4938,7 +4944,7 @@
         <v>119</v>
       </c>
       <c r="M1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -4980,7 +4986,7 @@
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
@@ -4995,7 +5001,7 @@
         <v>47</v>
       </c>
       <c r="AF1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AG1" t="s">
         <v>52</v>
@@ -5009,7 +5015,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B2" t="s">
         <v>79</v>
@@ -5116,7 +5122,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
@@ -5223,7 +5229,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
@@ -5330,7 +5336,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
@@ -5437,7 +5443,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
@@ -5544,7 +5550,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -5651,7 +5657,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
@@ -5758,7 +5764,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B9" t="s">
         <v>74</v>
@@ -5865,7 +5871,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B10" t="s">
         <v>74</v>
@@ -5972,7 +5978,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B11" t="s">
         <v>75</v>
@@ -6079,7 +6085,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B12" t="s">
         <v>77</v>
@@ -6186,7 +6192,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B13" t="s">
         <v>74</v>
@@ -6293,7 +6299,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B14" t="s">
         <v>77</v>
@@ -6400,7 +6406,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B15" t="s">
         <v>80</v>
@@ -6507,7 +6513,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B16" t="s">
         <v>74</v>
@@ -6614,7 +6620,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B17" t="s">
         <v>75</v>
@@ -6721,7 +6727,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B18" t="s">
         <v>74</v>
@@ -6828,7 +6834,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -6935,7 +6941,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B20" t="s">
         <v>75</v>
@@ -7042,7 +7048,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B21" t="s">
         <v>74</v>
@@ -7235,7 +7241,7 @@
         <v>48</v>
       </c>
       <c r="Z1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AA1" t="s">
         <v>50</v>
@@ -7255,7 +7261,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -7350,7 +7356,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B3" t="s">
         <v>79</v>
@@ -7445,7 +7451,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -7540,7 +7546,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
@@ -7635,7 +7641,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -7730,7 +7736,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -7825,7 +7831,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -7920,7 +7926,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -8015,7 +8021,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -8110,7 +8116,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -8205,7 +8211,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B12" t="s">
         <v>77</v>
@@ -8300,7 +8306,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B13" t="s">
         <v>75</v>
@@ -8395,7 +8401,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -8490,7 +8496,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -8635,7 +8641,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="O1" t="s">
         <v>186</v>
@@ -8686,10 +8692,10 @@
         <v>188</v>
       </c>
       <c r="AE1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AF1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -8716,7 +8722,7 @@
         <v>48</v>
       </c>
       <c r="AO1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AP1" t="s">
         <v>49</v>
@@ -8748,7 +8754,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B2" t="s">
         <v>74</v>
@@ -8900,7 +8906,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -9052,7 +9058,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -9204,7 +9210,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
@@ -9356,7 +9362,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -9508,7 +9514,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
@@ -9660,7 +9666,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
@@ -9812,7 +9818,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -9964,7 +9970,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B10" t="s">
         <v>75</v>
@@ -10116,7 +10122,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -10268,7 +10274,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -10420,7 +10426,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -10572,7 +10578,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -10724,7 +10730,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -10876,7 +10882,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B16" t="s">
         <v>74</v>
@@ -11028,7 +11034,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
@@ -11180,7 +11186,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B18" t="s">
         <v>74</v>
@@ -11332,7 +11338,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -11484,7 +11490,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -11636,7 +11642,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B21" t="s">
         <v>77</v>
@@ -11838,7 +11844,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="O1" t="s">
         <v>186</v>
@@ -11877,10 +11883,10 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AB1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AC1" t="s">
         <v>122</v>
@@ -11930,7 +11936,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -12061,7 +12067,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -12192,7 +12198,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -12323,7 +12329,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -12454,7 +12460,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -12585,7 +12591,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -12716,7 +12722,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -12847,7 +12853,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -12978,7 +12984,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -13109,7 +13115,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B11" t="s">
         <v>75</v>
@@ -13240,7 +13246,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -13371,7 +13377,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -13502,7 +13508,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B14" t="s">
         <v>74</v>
@@ -13633,7 +13639,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -13764,7 +13770,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -13895,7 +13901,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
@@ -14026,7 +14032,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -14157,7 +14163,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -14288,7 +14294,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -14419,7 +14425,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B21" t="s">
         <v>73</v>
@@ -14692,7 +14698,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -14823,7 +14829,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -14954,7 +14960,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -15085,7 +15091,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -15216,7 +15222,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -15347,7 +15353,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B7" t="s">
         <v>80</v>
@@ -15478,7 +15484,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -15609,7 +15615,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B9" t="s">
         <v>80</v>
@@ -15740,7 +15746,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -15871,7 +15877,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -16002,7 +16008,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -16133,7 +16139,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -16264,7 +16270,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -16395,7 +16401,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -16526,7 +16532,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -16657,7 +16663,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
@@ -16788,7 +16794,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -16919,7 +16925,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -17073,7 +17079,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -17085,7 +17091,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -17127,7 +17133,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -17160,7 +17166,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -17210,7 +17216,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -17359,7 +17365,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -17508,7 +17514,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -17657,7 +17663,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -17806,7 +17812,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -17955,7 +17961,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -18104,7 +18110,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -18253,7 +18259,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -18402,7 +18408,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -18551,7 +18557,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -18700,7 +18706,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -18849,7 +18855,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -18998,7 +19004,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -19147,7 +19153,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -19296,7 +19302,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -19445,7 +19451,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B17" t="s">
         <v>75</v>
@@ -19594,7 +19600,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -19743,7 +19749,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B19" t="s">
         <v>77</v>
@@ -19963,7 +19969,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -20003,11 +20009,14 @@
       </c>
       <c r="AH1" t="s">
         <v>54</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -20106,12 +20115,15 @@
         <v>80</v>
       </c>
       <c r="AH2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B3" t="s">
         <v>80</v>
@@ -20211,11 +20223,14 @@
       </c>
       <c r="AH3" t="s">
         <v>75</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B4" t="s">
         <v>74</v>
@@ -20314,12 +20329,15 @@
         <v>77</v>
       </c>
       <c r="AH4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -20419,11 +20437,14 @@
       </c>
       <c r="AH5" t="s">
         <v>75</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B6" t="s">
         <v>80</v>
@@ -20523,11 +20544,14 @@
       </c>
       <c r="AH6" t="s">
         <v>76</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -20627,11 +20651,14 @@
       </c>
       <c r="AH7" t="s">
         <v>73</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B8" t="s">
         <v>78</v>
@@ -20730,12 +20757,15 @@
         <v>73</v>
       </c>
       <c r="AH8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -20834,12 +20864,15 @@
         <v>77</v>
       </c>
       <c r="AH9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B10" t="s">
         <v>80</v>
@@ -20938,12 +20971,15 @@
         <v>75</v>
       </c>
       <c r="AH10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B11" t="s">
         <v>76</v>
@@ -21042,12 +21078,15 @@
         <v>73</v>
       </c>
       <c r="AH11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B12" t="s">
         <v>75</v>
@@ -21146,12 +21185,15 @@
         <v>73</v>
       </c>
       <c r="AH12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B13" t="s">
         <v>74</v>
@@ -21250,6 +21292,9 @@
         <v>75</v>
       </c>
       <c r="AH13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI13" t="s">
         <v>73</v>
       </c>
     </row>
@@ -21272,7 +21317,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -21284,7 +21329,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -21343,7 +21388,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B2" t="s">
         <v>74</v>
@@ -21420,7 +21465,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -21497,7 +21542,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B4" t="s">
         <v>74</v>
@@ -21574,7 +21619,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B5" t="s">
         <v>80</v>
@@ -21651,7 +21696,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
@@ -21728,7 +21773,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -21805,7 +21850,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
@@ -21882,7 +21927,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B9" t="s">
         <v>74</v>
@@ -21959,7 +22004,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B10" t="s">
         <v>75</v>
@@ -22036,7 +22081,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -22183,10 +22228,13 @@
       <c r="T1" t="s">
         <v>53</v>
       </c>
+      <c r="U1" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
@@ -22244,11 +22292,14 @@
       </c>
       <c r="T2" t="s">
         <v>73</v>
+      </c>
+      <c r="U2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
@@ -22306,11 +22357,14 @@
       </c>
       <c r="T3" t="s">
         <v>75</v>
+      </c>
+      <c r="U3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B4" t="s">
         <v>74</v>
@@ -22368,11 +22422,14 @@
       </c>
       <c r="T4" t="s">
         <v>76</v>
+      </c>
+      <c r="U4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B5" t="s">
         <v>80</v>
@@ -22430,11 +22487,14 @@
       </c>
       <c r="T5" t="s">
         <v>80</v>
+      </c>
+      <c r="U5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
@@ -22492,11 +22552,14 @@
       </c>
       <c r="T6" t="s">
         <v>80</v>
+      </c>
+      <c r="U6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
@@ -22554,11 +22617,14 @@
       </c>
       <c r="T7" t="s">
         <v>80</v>
+      </c>
+      <c r="U7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B8" t="s">
         <v>74</v>
@@ -22616,11 +22682,14 @@
       </c>
       <c r="T8" t="s">
         <v>77</v>
+      </c>
+      <c r="U8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
@@ -22678,11 +22747,14 @@
       </c>
       <c r="T9" t="s">
         <v>73</v>
+      </c>
+      <c r="U9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B10" t="s">
         <v>75</v>
@@ -22740,11 +22812,14 @@
       </c>
       <c r="T10" t="s">
         <v>80</v>
+      </c>
+      <c r="U10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B11" t="s">
         <v>75</v>
@@ -22802,6 +22877,9 @@
       </c>
       <c r="T11" t="s">
         <v>77</v>
+      </c>
+      <c r="U11" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -22841,7 +22919,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -22877,7 +22955,7 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="V1" t="s">
         <v>189</v>
@@ -22900,7 +22978,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B2" t="s">
         <v>80</v>
@@ -22983,7 +23061,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
@@ -23066,7 +23144,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
@@ -23149,7 +23227,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
@@ -23232,7 +23310,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
@@ -23315,7 +23393,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
@@ -23398,7 +23476,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B8" t="s">
         <v>80</v>
@@ -23481,7 +23559,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
@@ -23564,7 +23642,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
@@ -23647,7 +23725,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -26196,7 +26274,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -26238,7 +26316,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="T1" t="s">
         <v>186</v>
@@ -26286,16 +26364,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AJ1" t="s">
         <v>188</v>
       </c>
       <c r="AK1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AL1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -26325,7 +26403,7 @@
         <v>48</v>
       </c>
       <c r="AV1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AW1" t="s">
         <v>49</v>
@@ -26357,7 +26435,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -26530,7 +26608,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -26703,7 +26781,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -26876,7 +26954,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -27049,7 +27127,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -27222,7 +27300,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -27395,7 +27473,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -27568,7 +27646,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -27741,7 +27819,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -27914,7 +27992,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -28087,7 +28165,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -28260,7 +28338,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -28433,7 +28511,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -28606,7 +28684,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -28779,7 +28857,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -28952,7 +29030,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
@@ -29125,7 +29203,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -29298,7 +29376,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B19" t="s">
         <v>79</v>
@@ -29471,7 +29549,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -29644,7 +29722,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B21" t="s">
         <v>73</v>
@@ -29840,7 +29918,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -29864,16 +29942,16 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="O1" t="s">
         <v>184</v>
       </c>
       <c r="P1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q1" t="s">
         <v>185</v>
@@ -29900,7 +29978,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -29924,19 +30002,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AH1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AI1" t="s">
         <v>187</v>
       </c>
       <c r="AJ1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AK1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -29954,7 +30032,7 @@
         <v>154</v>
       </c>
       <c r="AQ1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -29966,7 +30044,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -29987,7 +30065,7 @@
         <v>156</v>
       </c>
       <c r="BB1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -29999,7 +30077,7 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="BG1" t="s">
         <v>189</v>
@@ -30008,10 +30086,10 @@
         <v>190</v>
       </c>
       <c r="BI1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="BJ1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -30023,7 +30101,7 @@
         <v>48</v>
       </c>
       <c r="BN1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="BO1" t="s">
         <v>49</v>
@@ -30052,7 +30130,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -30276,7 +30354,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -30500,7 +30578,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -30724,7 +30802,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -30948,7 +31026,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -31032,7 +31110,7 @@
         <v>73</v>
       </c>
       <c r="AC6" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="AD6" t="s">
         <v>73</v>
@@ -31172,7 +31250,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
@@ -31396,7 +31474,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -31620,7 +31698,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -31844,7 +31922,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B10" t="s">
         <v>75</v>
@@ -32068,7 +32146,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -32292,7 +32370,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -32516,7 +32594,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -32740,7 +32818,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -32964,7 +33042,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -33188,7 +33266,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -33412,7 +33490,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
@@ -33636,7 +33714,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -33860,7 +33938,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -34084,7 +34162,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -34308,7 +34386,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B21" t="s">
         <v>73</v>
@@ -34532,7 +34610,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B22" t="s">
         <v>73</v>
@@ -34756,7 +34834,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B23" t="s">
         <v>74</v>
@@ -35003,7 +35081,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -35096,7 +35174,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -35126,7 +35204,7 @@
         <v>48</v>
       </c>
       <c r="AT1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AU1" t="s">
         <v>49</v>
@@ -35155,7 +35233,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -35319,7 +35397,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -35483,7 +35561,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -35647,7 +35725,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -35811,7 +35889,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
@@ -35975,7 +36053,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -36139,7 +36217,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -36303,7 +36381,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -36467,7 +36545,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -36631,7 +36709,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -36795,7 +36873,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -36959,7 +37037,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -37123,7 +37201,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -37287,7 +37365,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -37451,7 +37529,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -37615,7 +37693,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
@@ -37779,7 +37857,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B18" t="s">
         <v>75</v>
@@ -37943,7 +38021,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -38107,7 +38185,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -38271,7 +38349,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B21" t="s">
         <v>73</v>
@@ -47590,10 +47668,16 @@
       <c r="AE1" t="s">
         <v>53</v>
       </c>
+      <c r="AF1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
@@ -47684,11 +47768,17 @@
       </c>
       <c r="AE2" t="s">
         <v>75</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
@@ -47778,12 +47868,18 @@
         <v>73</v>
       </c>
       <c r="AE3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
@@ -47873,12 +47969,18 @@
         <v>73</v>
       </c>
       <c r="AE4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
@@ -47968,12 +48070,18 @@
         <v>73</v>
       </c>
       <c r="AE5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
@@ -48063,12 +48171,18 @@
         <v>73</v>
       </c>
       <c r="AE6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
@@ -48158,12 +48272,18 @@
         <v>73</v>
       </c>
       <c r="AE7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
@@ -48253,12 +48373,18 @@
         <v>73</v>
       </c>
       <c r="AE8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
@@ -48348,12 +48474,18 @@
         <v>75</v>
       </c>
       <c r="AE9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B10" t="s">
         <v>80</v>
@@ -48443,12 +48575,18 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B11" t="s">
         <v>80</v>
@@ -48539,11 +48677,17 @@
       </c>
       <c r="AE11" t="s">
         <v>74</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B12" t="s">
         <v>74</v>
@@ -48633,12 +48777,18 @@
         <v>73</v>
       </c>
       <c r="AE12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B13" t="s">
         <v>77</v>
@@ -48728,12 +48878,18 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B14" t="s">
         <v>74</v>
@@ -48823,12 +48979,18 @@
         <v>73</v>
       </c>
       <c r="AE14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG14" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B15" t="s">
         <v>80</v>
@@ -48919,11 +49081,17 @@
       </c>
       <c r="AE15" t="s">
         <v>73</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B16" t="s">
         <v>74</v>
@@ -49013,12 +49181,18 @@
         <v>73</v>
       </c>
       <c r="AE16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B17" t="s">
         <v>74</v>
@@ -49109,11 +49283,17 @@
       </c>
       <c r="AE17" t="s">
         <v>74</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B18" t="s">
         <v>80</v>
@@ -49204,11 +49384,17 @@
       </c>
       <c r="AE18" t="s">
         <v>73</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B19" t="s">
         <v>77</v>
@@ -49298,12 +49484,18 @@
         <v>73</v>
       </c>
       <c r="AE19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG19" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s">
         <v>74</v>
@@ -49393,12 +49585,18 @@
         <v>73</v>
       </c>
       <c r="AE20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG20" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s">
         <v>77</v>
@@ -49488,12 +49686,18 @@
         <v>73</v>
       </c>
       <c r="AE21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG21" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B22" t="s">
         <v>75</v>
@@ -49584,11 +49788,17 @@
       </c>
       <c r="AE22" t="s">
         <v>73</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s">
         <v>75</v>
@@ -49679,11 +49889,17 @@
       </c>
       <c r="AE23" t="s">
         <v>74</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B24" t="s">
         <v>76</v>
@@ -49774,11 +49990,17 @@
       </c>
       <c r="AE24" t="s">
         <v>73</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s">
         <v>80</v>
@@ -49868,6 +50090,12 @@
         <v>73</v>
       </c>
       <c r="AE25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG25" t="s">
         <v>73</v>
       </c>
     </row>
@@ -49899,7 +50127,7 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -49935,7 +50163,7 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="S1" t="s">
         <v>187</v>
@@ -49972,11 +50200,17 @@
       </c>
       <c r="AD1" t="s">
         <v>50</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
         <v>79</v>
@@ -50064,11 +50298,17 @@
       </c>
       <c r="AD2" t="s">
         <v>74</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B3" t="s">
         <v>80</v>
@@ -50156,11 +50396,17 @@
       </c>
       <c r="AD3" t="s">
         <v>80</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B4" t="s">
         <v>74</v>
@@ -50248,11 +50494,17 @@
       </c>
       <c r="AD4" t="s">
         <v>77</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
@@ -50340,11 +50592,17 @@
       </c>
       <c r="AD5" t="s">
         <v>74</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B6" t="s">
         <v>80</v>
@@ -50432,11 +50690,17 @@
       </c>
       <c r="AD6" t="s">
         <v>73</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B7" t="s">
         <v>80</v>
@@ -50524,11 +50788,17 @@
       </c>
       <c r="AD7" t="s">
         <v>80</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B8" t="s">
         <v>74</v>
@@ -50616,11 +50886,17 @@
       </c>
       <c r="AD8" t="s">
         <v>80</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
@@ -50708,11 +50984,17 @@
       </c>
       <c r="AD9" t="s">
         <v>75</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B10" t="s">
         <v>75</v>
@@ -50800,11 +51082,17 @@
       </c>
       <c r="AD10" t="s">
         <v>77</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B11" t="s">
         <v>80</v>
@@ -50891,12 +51179,18 @@
         <v>73</v>
       </c>
       <c r="AD11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B12" t="s">
         <v>75</v>
@@ -50984,11 +51278,17 @@
       </c>
       <c r="AD12" t="s">
         <v>74</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B13" t="s">
         <v>74</v>
@@ -51076,11 +51376,17 @@
       </c>
       <c r="AD13" t="s">
         <v>74</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B14" t="s">
         <v>74</v>
@@ -51167,12 +51473,18 @@
         <v>74</v>
       </c>
       <c r="AD14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF14" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -51260,11 +51572,17 @@
       </c>
       <c r="AD15" t="s">
         <v>80</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B16" t="s">
         <v>77</v>
@@ -51352,11 +51670,17 @@
       </c>
       <c r="AD16" t="s">
         <v>77</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B17" t="s">
         <v>74</v>
@@ -51444,11 +51768,17 @@
       </c>
       <c r="AD17" t="s">
         <v>77</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B18" t="s">
         <v>74</v>
@@ -51536,11 +51866,17 @@
       </c>
       <c r="AD18" t="s">
         <v>80</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B19" t="s">
         <v>75</v>
@@ -51628,11 +51964,17 @@
       </c>
       <c r="AD19" t="s">
         <v>77</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B20" t="s">
         <v>80</v>
@@ -51720,11 +52062,17 @@
       </c>
       <c r="AD20" t="s">
         <v>77</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B21" t="s">
         <v>76</v>
@@ -51811,12 +52159,18 @@
         <v>73</v>
       </c>
       <c r="AD21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF21" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B22" t="s">
         <v>80</v>
@@ -51904,11 +52258,17 @@
       </c>
       <c r="AD22" t="s">
         <v>76</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s">
         <v>77</v>
@@ -51996,11 +52356,17 @@
       </c>
       <c r="AD23" t="s">
         <v>74</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B24" t="s">
         <v>77</v>
@@ -52087,12 +52453,18 @@
         <v>73</v>
       </c>
       <c r="AD24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF24" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s">
         <v>74</v>
@@ -52180,6 +52552,12 @@
       </c>
       <c r="AD25" t="s">
         <v>75</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -52204,10 +52582,10 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F1" t="s">
         <v>184</v>
@@ -52234,13 +52612,13 @@
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O1" t="s">
         <v>187</v>
       </c>
       <c r="P1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
@@ -52255,7 +52633,7 @@
         <v>155</v>
       </c>
       <c r="U1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="V1" t="s">
         <v>190</v>
@@ -52277,11 +52655,14 @@
       </c>
       <c r="AB1" t="s">
         <v>53</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s">
         <v>74</v>
@@ -52363,11 +52744,14 @@
       </c>
       <c r="AB2" t="s">
         <v>74</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
@@ -52449,11 +52833,14 @@
       </c>
       <c r="AB3" t="s">
         <v>77</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B4" t="s">
         <v>74</v>
@@ -52535,11 +52922,14 @@
       </c>
       <c r="AB4" t="s">
         <v>75</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B5" t="s">
         <v>80</v>
@@ -52620,12 +53010,15 @@
         <v>73</v>
       </c>
       <c r="AB5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -52707,11 +53100,14 @@
       </c>
       <c r="AB6" t="s">
         <v>74</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
@@ -52792,12 +53188,15 @@
         <v>73</v>
       </c>
       <c r="AB7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
@@ -52879,11 +53278,14 @@
       </c>
       <c r="AB8" t="s">
         <v>75</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -52965,11 +53367,14 @@
       </c>
       <c r="AB9" t="s">
         <v>74</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -53050,12 +53455,15 @@
         <v>73</v>
       </c>
       <c r="AB10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -53137,11 +53545,14 @@
       </c>
       <c r="AB11" t="s">
         <v>74</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B12" t="s">
         <v>75</v>
@@ -53222,12 +53633,15 @@
         <v>73</v>
       </c>
       <c r="AB12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B13" t="s">
         <v>74</v>
@@ -53308,12 +53722,15 @@
         <v>73</v>
       </c>
       <c r="AB13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B14" t="s">
         <v>80</v>
@@ -53395,11 +53812,14 @@
       </c>
       <c r="AB14" t="s">
         <v>74</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B15" t="s">
         <v>74</v>
@@ -53480,12 +53900,15 @@
         <v>73</v>
       </c>
       <c r="AB15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC15" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B16" t="s">
         <v>80</v>
@@ -53567,11 +53990,14 @@
       </c>
       <c r="AB16" t="s">
         <v>77</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B17" t="s">
         <v>74</v>
@@ -53653,11 +54079,14 @@
       </c>
       <c r="AB17" t="s">
         <v>73</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B18" t="s">
         <v>74</v>
@@ -53738,12 +54167,15 @@
         <v>73</v>
       </c>
       <c r="AB18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC18" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B19" t="s">
         <v>78</v>
@@ -53825,11 +54257,14 @@
       </c>
       <c r="AB19" t="s">
         <v>80</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B20" t="s">
         <v>75</v>
@@ -53911,11 +54346,14 @@
       </c>
       <c r="AB20" t="s">
         <v>75</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B21" t="s">
         <v>75</v>
@@ -53997,11 +54435,14 @@
       </c>
       <c r="AB21" t="s">
         <v>80</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B22" t="s">
         <v>74</v>
@@ -54083,11 +54524,14 @@
       </c>
       <c r="AB22" t="s">
         <v>75</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B23" t="s">
         <v>75</v>
@@ -54169,11 +54613,14 @@
       </c>
       <c r="AB23" t="s">
         <v>74</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B24" t="s">
         <v>73</v>
@@ -54254,6 +54701,9 @@
         <v>75</v>
       </c>
       <c r="AB24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC24" t="s">
         <v>73</v>
       </c>
     </row>
@@ -54363,7 +54813,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -54413,7 +54863,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -54556,7 +55006,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -54699,7 +55149,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -54842,7 +55292,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -54985,7 +55435,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -55128,7 +55578,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -55271,7 +55721,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -55414,7 +55864,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -55557,7 +56007,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -55700,7 +56150,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -55843,7 +56293,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B12" t="s">
         <v>80</v>
@@ -55986,7 +56436,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -56129,7 +56579,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B14" t="s">
         <v>80</v>
@@ -56272,7 +56722,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -56415,7 +56865,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -56558,7 +57008,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
@@ -56701,7 +57151,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -56844,7 +57294,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -56987,7 +57437,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -57130,7 +57580,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B21" t="s">
         <v>73</v>

--- a/YCmatrix.xlsx
+++ b/YCmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19255" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19381" uniqueCount="532">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -941,6 +941,9 @@
     <t>X2021.11.22</t>
   </si>
   <si>
+    <t>X2021.12.13</t>
+  </si>
+  <si>
     <t>Ajaccio</t>
   </si>
   <si>
@@ -5195,10 +5198,13 @@
       <c r="AJ1" t="s">
         <v>56</v>
       </c>
+      <c r="AK1" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -5304,11 +5310,14 @@
       </c>
       <c r="AJ2" t="s">
         <v>83</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
@@ -5414,11 +5423,14 @@
       </c>
       <c r="AJ3" t="s">
         <v>83</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B4" t="s">
         <v>80</v>
@@ -5524,11 +5536,14 @@
       </c>
       <c r="AJ4" t="s">
         <v>83</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
@@ -5634,11 +5649,14 @@
       </c>
       <c r="AJ5" t="s">
         <v>77</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
@@ -5744,11 +5762,14 @@
       </c>
       <c r="AJ6" t="s">
         <v>78</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -5854,11 +5875,14 @@
       </c>
       <c r="AJ7" t="s">
         <v>79</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B8" t="s">
         <v>80</v>
@@ -5964,11 +5988,14 @@
       </c>
       <c r="AJ8" t="s">
         <v>78</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
@@ -6074,11 +6101,14 @@
       </c>
       <c r="AJ9" t="s">
         <v>77</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
@@ -6184,11 +6214,14 @@
       </c>
       <c r="AJ10" t="s">
         <v>81</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B11" t="s">
         <v>78</v>
@@ -6294,11 +6327,14 @@
       </c>
       <c r="AJ11" t="s">
         <v>78</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B12" t="s">
         <v>80</v>
@@ -6404,11 +6440,14 @@
       </c>
       <c r="AJ12" t="s">
         <v>80</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B13" t="s">
         <v>77</v>
@@ -6514,11 +6553,14 @@
       </c>
       <c r="AJ13" t="s">
         <v>80</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B14" t="s">
         <v>80</v>
@@ -6624,11 +6666,14 @@
       </c>
       <c r="AJ14" t="s">
         <v>80</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B15" t="s">
         <v>83</v>
@@ -6734,11 +6779,14 @@
       </c>
       <c r="AJ15" t="s">
         <v>77</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B16" t="s">
         <v>77</v>
@@ -6844,11 +6892,14 @@
       </c>
       <c r="AJ16" t="s">
         <v>78</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B17" t="s">
         <v>78</v>
@@ -6954,11 +7005,14 @@
       </c>
       <c r="AJ17" t="s">
         <v>78</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B18" t="s">
         <v>77</v>
@@ -7064,11 +7118,14 @@
       </c>
       <c r="AJ18" t="s">
         <v>76</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -7174,11 +7231,14 @@
       </c>
       <c r="AJ19" t="s">
         <v>78</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B20" t="s">
         <v>78</v>
@@ -7284,11 +7344,14 @@
       </c>
       <c r="AJ20" t="s">
         <v>76</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B21" t="s">
         <v>77</v>
@@ -7394,6 +7457,9 @@
       </c>
       <c r="AJ21" t="s">
         <v>79</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -7510,7 +7576,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -7611,7 +7677,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -7712,7 +7778,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -7813,7 +7879,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B5" t="s">
         <v>80</v>
@@ -7914,7 +7980,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
@@ -8015,7 +8081,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -8116,7 +8182,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -8217,7 +8283,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -8318,7 +8384,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -8419,7 +8485,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B11" t="s">
         <v>76</v>
@@ -8520,7 +8586,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B12" t="s">
         <v>80</v>
@@ -8621,7 +8687,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B13" t="s">
         <v>78</v>
@@ -8722,7 +8788,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -8823,7 +8889,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -8974,7 +9040,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O1" t="s">
         <v>189</v>
@@ -9028,7 +9094,7 @@
         <v>274</v>
       </c>
       <c r="AF1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -9092,11 +9158,14 @@
       </c>
       <c r="BA1" t="s">
         <v>57</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
@@ -9253,11 +9322,14 @@
       </c>
       <c r="BA2" t="s">
         <v>78</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -9414,11 +9486,14 @@
       </c>
       <c r="BA3" t="s">
         <v>79</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -9575,11 +9650,14 @@
       </c>
       <c r="BA4" t="s">
         <v>77</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
@@ -9736,11 +9814,14 @@
       </c>
       <c r="BA5" t="s">
         <v>78</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
@@ -9896,12 +9977,15 @@
         <v>78</v>
       </c>
       <c r="BA6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
@@ -10057,12 +10141,15 @@
         <v>76</v>
       </c>
       <c r="BA7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B8" t="s">
         <v>78</v>
@@ -10219,11 +10306,14 @@
       </c>
       <c r="BA8" t="s">
         <v>78</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -10379,12 +10469,15 @@
         <v>77</v>
       </c>
       <c r="BA9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B10" t="s">
         <v>78</v>
@@ -10541,11 +10634,14 @@
       </c>
       <c r="BA10" t="s">
         <v>77</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B11" t="s">
         <v>76</v>
@@ -10701,12 +10797,15 @@
         <v>77</v>
       </c>
       <c r="BA11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -10863,11 +10962,14 @@
       </c>
       <c r="BA12" t="s">
         <v>83</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -11024,11 +11126,14 @@
       </c>
       <c r="BA13" t="s">
         <v>76</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -11184,12 +11289,15 @@
         <v>78</v>
       </c>
       <c r="BA14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -11345,12 +11453,15 @@
         <v>76</v>
       </c>
       <c r="BA15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B16" t="s">
         <v>77</v>
@@ -11507,11 +11618,14 @@
       </c>
       <c r="BA16" t="s">
         <v>78</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -11668,11 +11782,14 @@
       </c>
       <c r="BA17" t="s">
         <v>76</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B18" t="s">
         <v>77</v>
@@ -11829,11 +11946,14 @@
       </c>
       <c r="BA18" t="s">
         <v>77</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -11989,12 +12109,15 @@
         <v>77</v>
       </c>
       <c r="BA19" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB19" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
@@ -12150,12 +12273,15 @@
         <v>79</v>
       </c>
       <c r="BA20" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB20" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B21" t="s">
         <v>80</v>
@@ -12312,6 +12438,9 @@
       </c>
       <c r="BA21" t="s">
         <v>77</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -12366,7 +12495,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O1" t="s">
         <v>189</v>
@@ -12408,7 +12537,7 @@
         <v>274</v>
       </c>
       <c r="AB1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AC1" t="s">
         <v>125</v>
@@ -12467,7 +12596,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -12607,7 +12736,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -12747,7 +12876,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -12887,7 +13016,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -13027,7 +13156,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
@@ -13167,7 +13296,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -13307,7 +13436,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -13447,7 +13576,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -13587,7 +13716,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -13727,7 +13856,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B11" t="s">
         <v>78</v>
@@ -13867,7 +13996,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -14007,7 +14136,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -14147,7 +14276,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B14" t="s">
         <v>77</v>
@@ -14287,7 +14416,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -14427,7 +14556,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -14567,7 +14696,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -14707,7 +14836,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B18" t="s">
         <v>76</v>
@@ -14847,7 +14976,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -14987,7 +15116,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
@@ -15127,7 +15256,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B21" t="s">
         <v>76</v>
@@ -15418,7 +15547,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -15558,7 +15687,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -15698,7 +15827,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -15838,7 +15967,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -15978,7 +16107,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
@@ -16118,7 +16247,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B7" t="s">
         <v>83</v>
@@ -16258,7 +16387,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -16398,7 +16527,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B9" t="s">
         <v>83</v>
@@ -16538,7 +16667,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -16678,7 +16807,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B11" t="s">
         <v>76</v>
@@ -16818,7 +16947,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -16958,7 +17087,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -17098,7 +17227,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -17238,7 +17367,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -17378,7 +17507,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -17518,7 +17647,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -17658,7 +17787,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B18" t="s">
         <v>76</v>
@@ -17798,7 +17927,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -17961,7 +18090,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -18015,7 +18144,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -18103,11 +18232,14 @@
       </c>
       <c r="AZ1" t="s">
         <v>57</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -18261,11 +18393,14 @@
       </c>
       <c r="AZ2" t="s">
         <v>76</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -18419,11 +18554,14 @@
       </c>
       <c r="AZ3" t="s">
         <v>77</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -18577,11 +18715,14 @@
       </c>
       <c r="AZ4" t="s">
         <v>77</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -18734,12 +18875,15 @@
         <v>78</v>
       </c>
       <c r="AZ5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
@@ -18893,11 +19037,14 @@
       </c>
       <c r="AZ6" t="s">
         <v>78</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -19051,11 +19198,14 @@
       </c>
       <c r="AZ7" t="s">
         <v>77</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -19208,12 +19358,15 @@
         <v>76</v>
       </c>
       <c r="AZ8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -19366,12 +19519,15 @@
         <v>80</v>
       </c>
       <c r="AZ9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -19524,12 +19680,15 @@
         <v>78</v>
       </c>
       <c r="AZ10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B11" t="s">
         <v>76</v>
@@ -19683,11 +19842,14 @@
       </c>
       <c r="AZ11" t="s">
         <v>77</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -19840,12 +20002,15 @@
         <v>76</v>
       </c>
       <c r="AZ12" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -19999,11 +20164,14 @@
       </c>
       <c r="AZ13" t="s">
         <v>77</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -20157,11 +20325,14 @@
       </c>
       <c r="AZ14" t="s">
         <v>80</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -20314,12 +20485,15 @@
         <v>80</v>
       </c>
       <c r="AZ15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -20473,11 +20647,14 @@
       </c>
       <c r="AZ16" t="s">
         <v>81</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B17" t="s">
         <v>78</v>
@@ -20630,12 +20807,15 @@
         <v>83</v>
       </c>
       <c r="AZ17" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA17" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B18" t="s">
         <v>76</v>
@@ -20788,12 +20968,15 @@
         <v>79</v>
       </c>
       <c r="AZ18" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B19" t="s">
         <v>80</v>
@@ -20947,6 +21130,9 @@
       </c>
       <c r="AZ19" t="s">
         <v>76</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -21075,7 +21261,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -21188,7 +21374,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B3" t="s">
         <v>83</v>
@@ -21301,7 +21487,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
@@ -21414,7 +21600,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -21527,7 +21713,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B6" t="s">
         <v>83</v>
@@ -21640,7 +21826,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -21753,7 +21939,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B8" t="s">
         <v>81</v>
@@ -21866,7 +22052,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -21979,7 +22165,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B10" t="s">
         <v>83</v>
@@ -22092,7 +22278,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B11" t="s">
         <v>79</v>
@@ -22205,7 +22391,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B12" t="s">
         <v>78</v>
@@ -22318,7 +22504,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B13" t="s">
         <v>77</v>
@@ -22460,7 +22646,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -22525,7 +22711,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
@@ -22608,7 +22794,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -22691,7 +22877,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
@@ -22774,7 +22960,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B5" t="s">
         <v>83</v>
@@ -22857,7 +23043,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
@@ -22940,7 +23126,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -23023,7 +23209,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B8" t="s">
         <v>78</v>
@@ -23106,7 +23292,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
@@ -23189,7 +23375,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B10" t="s">
         <v>78</v>
@@ -23272,7 +23458,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -23434,7 +23620,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B2" t="s">
         <v>78</v>
@@ -23502,7 +23688,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
@@ -23570,7 +23756,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
@@ -23638,7 +23824,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B5" t="s">
         <v>83</v>
@@ -23706,7 +23892,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B6" t="s">
         <v>79</v>
@@ -23774,7 +23960,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
@@ -23842,7 +24028,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
@@ -23910,7 +24096,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B9" t="s">
         <v>78</v>
@@ -23978,7 +24164,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B10" t="s">
         <v>78</v>
@@ -24046,7 +24232,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B11" t="s">
         <v>78</v>
@@ -24211,7 +24397,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B2" t="s">
         <v>83</v>
@@ -24297,7 +24483,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
@@ -24383,7 +24569,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B4" t="s">
         <v>80</v>
@@ -24469,7 +24655,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B5" t="s">
         <v>78</v>
@@ -24555,7 +24741,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
@@ -24641,7 +24827,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
@@ -24727,7 +24913,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B8" t="s">
         <v>83</v>
@@ -24813,7 +24999,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B9" t="s">
         <v>80</v>
@@ -24899,7 +25085,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B10" t="s">
         <v>80</v>
@@ -24985,7 +25171,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -27750,7 +27936,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T1" t="s">
         <v>189</v>
@@ -27807,7 +27993,7 @@
         <v>274</v>
       </c>
       <c r="AL1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -27874,11 +28060,14 @@
       </c>
       <c r="BH1" t="s">
         <v>57</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -28055,12 +28244,15 @@
         <v>79</v>
       </c>
       <c r="BH2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -28237,12 +28429,15 @@
         <v>79</v>
       </c>
       <c r="BH3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -28420,11 +28615,14 @@
       </c>
       <c r="BH4" t="s">
         <v>80</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -28602,11 +28800,14 @@
       </c>
       <c r="BH5" t="s">
         <v>79</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
@@ -28784,11 +28985,14 @@
       </c>
       <c r="BH6" t="s">
         <v>80</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -28966,11 +29170,14 @@
       </c>
       <c r="BH7" t="s">
         <v>76</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -29147,12 +29354,15 @@
         <v>76</v>
       </c>
       <c r="BH8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -29329,12 +29539,15 @@
         <v>77</v>
       </c>
       <c r="BH9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -29511,12 +29724,15 @@
         <v>79</v>
       </c>
       <c r="BH10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B11" t="s">
         <v>80</v>
@@ -29693,12 +29909,15 @@
         <v>79</v>
       </c>
       <c r="BH11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -29876,11 +30095,14 @@
       </c>
       <c r="BH12" t="s">
         <v>76</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -30057,12 +30279,15 @@
         <v>79</v>
       </c>
       <c r="BH13" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -30239,12 +30464,15 @@
         <v>76</v>
       </c>
       <c r="BH14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -30422,11 +30650,14 @@
       </c>
       <c r="BH15" t="s">
         <v>81</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -30604,11 +30835,14 @@
       </c>
       <c r="BH16" t="s">
         <v>77</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -30785,12 +31019,15 @@
         <v>80</v>
       </c>
       <c r="BH17" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI17" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B18" t="s">
         <v>76</v>
@@ -30968,11 +31205,14 @@
       </c>
       <c r="BH18" t="s">
         <v>78</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -31149,12 +31389,15 @@
         <v>80</v>
       </c>
       <c r="BH19" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI19" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
@@ -31332,11 +31575,14 @@
       </c>
       <c r="BH20" t="s">
         <v>80</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B21" t="s">
         <v>76</v>
@@ -31514,6 +31760,9 @@
       </c>
       <c r="BH21" t="s">
         <v>78</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -31568,13 +31817,13 @@
         <v>246</v>
       </c>
       <c r="N1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O1" t="s">
         <v>187</v>
       </c>
       <c r="P1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q1" t="s">
         <v>188</v>
@@ -31601,7 +31850,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -31625,7 +31874,7 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AH1" t="s">
         <v>221</v>
@@ -31634,10 +31883,10 @@
         <v>190</v>
       </c>
       <c r="AJ1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AK1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -31655,7 +31904,7 @@
         <v>157</v>
       </c>
       <c r="AQ1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -31688,7 +31937,7 @@
         <v>159</v>
       </c>
       <c r="BB1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -31700,7 +31949,7 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="BG1" t="s">
         <v>192</v>
@@ -31709,10 +31958,10 @@
         <v>193</v>
       </c>
       <c r="BI1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="BJ1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -31758,11 +32007,14 @@
       </c>
       <c r="BY1" t="s">
         <v>57</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -31991,11 +32243,14 @@
       </c>
       <c r="BY2" t="s">
         <v>80</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -32223,12 +32478,15 @@
         <v>77</v>
       </c>
       <c r="BY3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -32457,11 +32715,14 @@
       </c>
       <c r="BY4" t="s">
         <v>77</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -32689,12 +32950,15 @@
         <v>81</v>
       </c>
       <c r="BY5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
@@ -32778,7 +33042,7 @@
         <v>76</v>
       </c>
       <c r="AC6" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AD6" t="s">
         <v>76</v>
@@ -32923,11 +33187,14 @@
       </c>
       <c r="BY6" t="s">
         <v>77</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
@@ -33155,12 +33422,15 @@
         <v>77</v>
       </c>
       <c r="BY7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -33388,12 +33658,15 @@
         <v>81</v>
       </c>
       <c r="BY8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -33621,12 +33894,15 @@
         <v>79</v>
       </c>
       <c r="BY9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B10" t="s">
         <v>78</v>
@@ -33854,12 +34130,15 @@
         <v>76</v>
       </c>
       <c r="BY10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -34087,12 +34366,15 @@
         <v>77</v>
       </c>
       <c r="BY11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -34321,11 +34603,14 @@
       </c>
       <c r="BY12" t="s">
         <v>83</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -34554,11 +34839,14 @@
       </c>
       <c r="BY13" t="s">
         <v>77</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -34786,12 +35074,15 @@
         <v>80</v>
       </c>
       <c r="BY14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -35019,12 +35310,15 @@
         <v>78</v>
       </c>
       <c r="BY15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -35253,11 +35547,14 @@
       </c>
       <c r="BY16" t="s">
         <v>76</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -35486,11 +35783,14 @@
       </c>
       <c r="BY17" t="s">
         <v>78</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B18" t="s">
         <v>76</v>
@@ -35719,11 +36019,14 @@
       </c>
       <c r="BY18" t="s">
         <v>79</v>
+      </c>
+      <c r="BZ18" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -35952,11 +36255,14 @@
       </c>
       <c r="BY19" t="s">
         <v>76</v>
+      </c>
+      <c r="BZ19" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
@@ -36184,12 +36490,15 @@
         <v>76</v>
       </c>
       <c r="BY20" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ20" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B21" t="s">
         <v>76</v>
@@ -36417,12 +36726,15 @@
         <v>79</v>
       </c>
       <c r="BY21" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ21" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B22" t="s">
         <v>76</v>
@@ -36651,11 +36963,14 @@
       </c>
       <c r="BY22" t="s">
         <v>82</v>
+      </c>
+      <c r="BZ22" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B23" t="s">
         <v>77</v>
@@ -36883,6 +37198,9 @@
         <v>83</v>
       </c>
       <c r="BY23" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ23" t="s">
         <v>76</v>
       </c>
     </row>
@@ -37069,10 +37387,13 @@
       <c r="BE1" t="s">
         <v>57</v>
       </c>
+      <c r="BF1" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -37241,11 +37562,14 @@
       </c>
       <c r="BE2" t="s">
         <v>77</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -37414,11 +37738,14 @@
       </c>
       <c r="BE3" t="s">
         <v>80</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -37586,12 +37913,15 @@
         <v>76</v>
       </c>
       <c r="BE4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -37759,12 +38089,15 @@
         <v>78</v>
       </c>
       <c r="BE5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
@@ -37933,11 +38266,14 @@
       </c>
       <c r="BE6" t="s">
         <v>80</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -38105,12 +38441,15 @@
         <v>77</v>
       </c>
       <c r="BE7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -38279,11 +38618,14 @@
       </c>
       <c r="BE8" t="s">
         <v>76</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -38452,11 +38794,14 @@
       </c>
       <c r="BE9" t="s">
         <v>76</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -38625,11 +38970,14 @@
       </c>
       <c r="BE10" t="s">
         <v>76</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B11" t="s">
         <v>76</v>
@@ -38798,11 +39146,14 @@
       </c>
       <c r="BE11" t="s">
         <v>77</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -38970,12 +39321,15 @@
         <v>83</v>
       </c>
       <c r="BE12" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -39143,12 +39497,15 @@
         <v>76</v>
       </c>
       <c r="BE13" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -39316,12 +39673,15 @@
         <v>83</v>
       </c>
       <c r="BE14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -39489,12 +39849,15 @@
         <v>80</v>
       </c>
       <c r="BE15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -39663,11 +40026,14 @@
       </c>
       <c r="BE16" t="s">
         <v>80</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -39835,12 +40201,15 @@
         <v>83</v>
       </c>
       <c r="BE17" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF17" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B18" t="s">
         <v>78</v>
@@ -40008,12 +40377,15 @@
         <v>77</v>
       </c>
       <c r="BE18" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -40182,11 +40554,14 @@
       </c>
       <c r="BE19" t="s">
         <v>76</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
@@ -40354,12 +40729,15 @@
         <v>79</v>
       </c>
       <c r="BE20" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF20" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B21" t="s">
         <v>76</v>
@@ -40528,6 +40906,9 @@
       </c>
       <c r="BE21" t="s">
         <v>79</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/YCmatrix.xlsx
+++ b/YCmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20429" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20490" uniqueCount="539">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -537,6 +537,9 @@
   </si>
   <si>
     <t>X2021.11.29</t>
+  </si>
+  <si>
+    <t>X2021.12.20</t>
   </si>
   <si>
     <t>Barnsley</t>
@@ -5457,25 +5460,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J1" t="s">
         <v>157</v>
@@ -5487,7 +5490,7 @@
         <v>128</v>
       </c>
       <c r="M1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -5505,7 +5508,7 @@
         <v>24</v>
       </c>
       <c r="S1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="T1" t="s">
         <v>28</v>
@@ -5529,7 +5532,7 @@
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
@@ -5544,7 +5547,7 @@
         <v>47</v>
       </c>
       <c r="AF1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG1" t="s">
         <v>52</v>
@@ -5559,12 +5562,12 @@
         <v>56</v>
       </c>
       <c r="AK1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B2" t="s">
         <v>88</v>
@@ -5677,7 +5680,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B3" t="s">
         <v>83</v>
@@ -5790,7 +5793,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -5903,7 +5906,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B5" t="s">
         <v>83</v>
@@ -6016,7 +6019,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -6129,7 +6132,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -6242,7 +6245,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B8" t="s">
         <v>86</v>
@@ -6355,7 +6358,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B9" t="s">
         <v>83</v>
@@ -6468,7 +6471,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B10" t="s">
         <v>83</v>
@@ -6581,7 +6584,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -6694,7 +6697,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B12" t="s">
         <v>86</v>
@@ -6807,7 +6810,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B13" t="s">
         <v>83</v>
@@ -6920,7 +6923,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B14" t="s">
         <v>86</v>
@@ -7033,7 +7036,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B15" t="s">
         <v>89</v>
@@ -7146,7 +7149,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B16" t="s">
         <v>83</v>
@@ -7259,7 +7262,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -7372,7 +7375,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B18" t="s">
         <v>83</v>
@@ -7485,7 +7488,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -7598,7 +7601,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -7711,7 +7714,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B21" t="s">
         <v>83</v>
@@ -7910,7 +7913,7 @@
         <v>48</v>
       </c>
       <c r="Z1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AA1" t="s">
         <v>50</v>
@@ -7947,11 +7950,14 @@
       </c>
       <c r="AL1" t="s">
         <v>63</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -8063,11 +8069,14 @@
       </c>
       <c r="AL2" t="s">
         <v>82</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B3" t="s">
         <v>88</v>
@@ -8178,12 +8187,15 @@
         <v>82</v>
       </c>
       <c r="AL3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -8295,11 +8307,14 @@
       </c>
       <c r="AL4" t="s">
         <v>82</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B5" t="s">
         <v>86</v>
@@ -8411,11 +8426,14 @@
       </c>
       <c r="AL5" t="s">
         <v>85</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -8526,12 +8544,15 @@
         <v>86</v>
       </c>
       <c r="AL6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -8643,11 +8664,14 @@
       </c>
       <c r="AL7" t="s">
         <v>86</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -8759,11 +8783,14 @@
       </c>
       <c r="AL8" t="s">
         <v>82</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -8875,11 +8902,14 @@
       </c>
       <c r="AL9" t="s">
         <v>83</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -8991,11 +9021,14 @@
       </c>
       <c r="AL10" t="s">
         <v>82</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
@@ -9107,11 +9140,14 @@
       </c>
       <c r="AL11" t="s">
         <v>84</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B12" t="s">
         <v>86</v>
@@ -9223,11 +9259,14 @@
       </c>
       <c r="AL12" t="s">
         <v>89</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -9338,12 +9377,15 @@
         <v>83</v>
       </c>
       <c r="AL13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM13" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -9455,11 +9497,14 @@
       </c>
       <c r="AL14" t="s">
         <v>84</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -9570,6 +9615,9 @@
         <v>82</v>
       </c>
       <c r="AL15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM15" t="s">
         <v>82</v>
       </c>
     </row>
@@ -9625,10 +9673,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -9673,13 +9721,13 @@
         <v>39</v>
       </c>
       <c r="AD1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AE1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -9706,7 +9754,7 @@
         <v>48</v>
       </c>
       <c r="AO1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AP1" t="s">
         <v>49</v>
@@ -9745,7 +9793,7 @@
         <v>57</v>
       </c>
       <c r="BB1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="BC1" t="s">
         <v>61</v>
@@ -9759,7 +9807,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B2" t="s">
         <v>83</v>
@@ -9932,7 +9980,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -10105,7 +10153,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -10278,7 +10326,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B5" t="s">
         <v>83</v>
@@ -10451,7 +10499,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -10624,7 +10672,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B7" t="s">
         <v>83</v>
@@ -10797,7 +10845,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -10970,7 +11018,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -11143,7 +11191,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -11316,7 +11364,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
@@ -11489,7 +11537,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -11662,7 +11710,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -11835,7 +11883,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -12008,7 +12056,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -12181,7 +12229,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B16" t="s">
         <v>83</v>
@@ -12354,7 +12402,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
@@ -12527,7 +12575,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B18" t="s">
         <v>83</v>
@@ -12700,7 +12748,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -12873,7 +12921,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
@@ -13046,7 +13094,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B21" t="s">
         <v>86</v>
@@ -13269,10 +13317,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -13308,10 +13356,10 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AB1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AC1" t="s">
         <v>131</v>
@@ -13376,7 +13424,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -13522,7 +13570,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -13668,7 +13716,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -13814,7 +13862,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -13960,7 +14008,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -14106,7 +14154,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -14252,7 +14300,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -14398,7 +14446,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -14544,7 +14592,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -14690,7 +14738,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -14836,7 +14884,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -14982,7 +15030,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -15128,7 +15176,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B14" t="s">
         <v>83</v>
@@ -15274,13 +15322,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D15" t="s">
         <v>82</v>
@@ -15420,7 +15468,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -15566,7 +15614,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
@@ -15712,7 +15760,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
@@ -15858,7 +15906,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -16004,7 +16052,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
@@ -16150,7 +16198,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B21" t="s">
         <v>82</v>
@@ -16201,7 +16249,7 @@
         <v>82</v>
       </c>
       <c r="R21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S21" t="s">
         <v>82</v>
@@ -16352,7 +16400,7 @@
         <v>25</v>
       </c>
       <c r="P1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q1" t="s">
         <v>26</v>
@@ -16453,7 +16501,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -16599,7 +16647,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -16745,7 +16793,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -16891,7 +16939,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -17037,7 +17085,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -17183,7 +17231,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B7" t="s">
         <v>89</v>
@@ -17329,7 +17377,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -17475,7 +17523,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B9" t="s">
         <v>89</v>
@@ -17621,7 +17669,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -17767,7 +17815,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
@@ -17913,7 +17961,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -18059,7 +18107,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -18205,7 +18253,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -18351,7 +18399,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -18497,7 +18545,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -18643,7 +18691,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
@@ -18789,7 +18837,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
@@ -18935,7 +18983,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -19104,7 +19152,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -19116,7 +19164,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -19158,7 +19206,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -19191,7 +19239,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -19248,7 +19296,7 @@
         <v>57</v>
       </c>
       <c r="BA1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="BB1" t="s">
         <v>61</v>
@@ -19262,7 +19310,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -19432,7 +19480,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -19602,7 +19650,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -19772,7 +19820,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -19942,7 +19990,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -20112,7 +20160,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -20282,7 +20330,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -20452,7 +20500,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -20622,7 +20670,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -20742,7 +20790,7 @@
         <v>82</v>
       </c>
       <c r="AO10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AP10" t="s">
         <v>82</v>
@@ -20792,7 +20840,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
@@ -20962,7 +21010,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -21132,7 +21180,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -21302,7 +21350,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -21472,7 +21520,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -21642,7 +21690,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -21812,7 +21860,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -21982,7 +22030,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
@@ -22152,7 +22200,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B19" t="s">
         <v>86</v>
@@ -22393,7 +22441,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -22435,7 +22483,7 @@
         <v>54</v>
       </c>
       <c r="AI1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AJ1" t="s">
         <v>56</v>
@@ -22455,7 +22503,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -22577,7 +22625,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B3" t="s">
         <v>89</v>
@@ -22699,7 +22747,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B4" t="s">
         <v>83</v>
@@ -22821,7 +22869,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -22943,7 +22991,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B6" t="s">
         <v>89</v>
@@ -23065,7 +23113,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -23187,7 +23235,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B8" t="s">
         <v>87</v>
@@ -23309,7 +23357,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -23431,7 +23479,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B10" t="s">
         <v>89</v>
@@ -23553,7 +23601,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -23675,7 +23723,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -23797,7 +23845,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B13" t="s">
         <v>83</v>
@@ -23936,7 +23984,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -23948,7 +23996,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -23981,7 +24029,7 @@
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
@@ -23990,7 +24038,7 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="V1" t="s">
         <v>46</v>
@@ -24016,7 +24064,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B2" t="s">
         <v>83</v>
@@ -24102,7 +24150,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -24188,7 +24236,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B4" t="s">
         <v>83</v>
@@ -24274,7 +24322,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B5" t="s">
         <v>89</v>
@@ -24360,7 +24408,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B6" t="s">
         <v>83</v>
@@ -24446,7 +24494,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -24532,7 +24580,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -24618,7 +24666,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B9" t="s">
         <v>83</v>
@@ -24704,7 +24752,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -24790,7 +24838,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
@@ -24938,7 +24986,7 @@
         <v>44</v>
       </c>
       <c r="R1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="S1" t="s">
         <v>47</v>
@@ -24947,7 +24995,7 @@
         <v>53</v>
       </c>
       <c r="U1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V1" t="s">
         <v>56</v>
@@ -24958,7 +25006,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -25029,7 +25077,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B3" t="s">
         <v>83</v>
@@ -25100,7 +25148,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B4" t="s">
         <v>83</v>
@@ -25171,7 +25219,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B5" t="s">
         <v>89</v>
@@ -25242,7 +25290,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -25313,7 +25361,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -25384,7 +25432,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B8" t="s">
         <v>83</v>
@@ -25455,7 +25503,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -25526,7 +25574,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -25597,7 +25645,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -25703,7 +25751,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -25739,13 +25787,13 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="V1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="W1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
@@ -25771,7 +25819,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B2" t="s">
         <v>89</v>
@@ -25863,7 +25911,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B3" t="s">
         <v>83</v>
@@ -25955,7 +26003,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -26047,7 +26095,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -26139,7 +26187,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B6" t="s">
         <v>83</v>
@@ -26231,7 +26279,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B7" t="s">
         <v>83</v>
@@ -26323,7 +26371,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B8" t="s">
         <v>89</v>
@@ -26415,7 +26463,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
@@ -26507,7 +26555,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -26599,7 +26647,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
@@ -29613,7 +29661,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -29655,10 +29703,10 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="T1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="U1" t="s">
         <v>26</v>
@@ -29703,16 +29751,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AJ1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AK1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -29742,7 +29790,7 @@
         <v>48</v>
       </c>
       <c r="AV1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AW1" t="s">
         <v>49</v>
@@ -29781,7 +29829,7 @@
         <v>57</v>
       </c>
       <c r="BI1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="BJ1" t="s">
         <v>61</v>
@@ -29791,11 +29839,14 @@
       </c>
       <c r="BL1" t="s">
         <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -29984,12 +30035,15 @@
         <v>83</v>
       </c>
       <c r="BL2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -30179,11 +30233,14 @@
       </c>
       <c r="BL3" t="s">
         <v>84</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -30372,12 +30429,15 @@
         <v>84</v>
       </c>
       <c r="BL4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -30566,12 +30626,15 @@
         <v>84</v>
       </c>
       <c r="BL5" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -30761,11 +30824,14 @@
       </c>
       <c r="BL6" t="s">
         <v>86</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -30955,11 +31021,14 @@
       </c>
       <c r="BL7" t="s">
         <v>84</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -31148,12 +31217,15 @@
         <v>82</v>
       </c>
       <c r="BL8" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -31342,12 +31414,15 @@
         <v>86</v>
       </c>
       <c r="BL9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -31536,12 +31611,15 @@
         <v>82</v>
       </c>
       <c r="BL10" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B11" t="s">
         <v>86</v>
@@ -31731,11 +31809,14 @@
       </c>
       <c r="BL11" t="s">
         <v>86</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -31925,11 +32006,14 @@
       </c>
       <c r="BL12" t="s">
         <v>86</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -32119,11 +32203,14 @@
       </c>
       <c r="BL13" t="s">
         <v>82</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -32313,11 +32400,14 @@
       </c>
       <c r="BL14" t="s">
         <v>83</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -32507,11 +32597,14 @@
       </c>
       <c r="BL15" t="s">
         <v>84</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -32701,11 +32794,14 @@
       </c>
       <c r="BL16" t="s">
         <v>84</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
@@ -32894,12 +32990,15 @@
         <v>83</v>
       </c>
       <c r="BL17" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM17" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
@@ -33088,12 +33187,15 @@
         <v>83</v>
       </c>
       <c r="BL18" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM18" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B19" t="s">
         <v>88</v>
@@ -33283,11 +33385,14 @@
       </c>
       <c r="BL19" t="s">
         <v>82</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
@@ -33476,12 +33581,15 @@
         <v>84</v>
       </c>
       <c r="BL20" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM20" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B21" t="s">
         <v>82</v>
@@ -33670,6 +33778,9 @@
         <v>86</v>
       </c>
       <c r="BL21" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM21" t="s">
         <v>82</v>
       </c>
     </row>
@@ -33698,7 +33809,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -33722,19 +33833,19 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Q1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
@@ -33758,7 +33869,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -33782,19 +33893,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AH1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AI1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AJ1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AK1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -33812,7 +33923,7 @@
         <v>163</v>
       </c>
       <c r="AQ1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -33824,7 +33935,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -33845,7 +33956,7 @@
         <v>165</v>
       </c>
       <c r="BB1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -33857,19 +33968,19 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="BG1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="BH1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BI1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="BJ1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -33881,7 +33992,7 @@
         <v>48</v>
       </c>
       <c r="BN1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="BO1" t="s">
         <v>49</v>
@@ -33917,7 +34028,7 @@
         <v>57</v>
       </c>
       <c r="BZ1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="CA1" t="s">
         <v>61</v>
@@ -33931,7 +34042,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -34176,7 +34287,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -34421,7 +34532,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -34666,7 +34777,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -34911,7 +35022,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -34995,7 +35106,7 @@
         <v>82</v>
       </c>
       <c r="AC6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AD6" t="s">
         <v>82</v>
@@ -35156,7 +35267,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -35401,7 +35512,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -35646,7 +35757,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -35891,7 +36002,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -36136,7 +36247,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
@@ -36381,7 +36492,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -36626,7 +36737,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -36871,7 +36982,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -37116,7 +37227,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -37361,7 +37472,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -37606,7 +37717,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
@@ -37851,7 +37962,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
@@ -38096,7 +38207,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -38162,7 +38273,7 @@
         <v>82</v>
       </c>
       <c r="W19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="X19" t="s">
         <v>82</v>
@@ -38341,7 +38452,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
@@ -38586,7 +38697,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B21" t="s">
         <v>82</v>
@@ -38831,7 +38942,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B22" t="s">
         <v>82</v>
@@ -39076,7 +39187,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B23" t="s">
         <v>83</v>
@@ -39344,7 +39455,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -39386,7 +39497,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="T1" t="s">
         <v>26</v>
@@ -39437,7 +39548,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -39467,7 +39578,7 @@
         <v>48</v>
       </c>
       <c r="AT1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AU1" t="s">
         <v>49</v>
@@ -39503,7 +39614,7 @@
         <v>57</v>
       </c>
       <c r="BF1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="BG1" t="s">
         <v>61</v>
@@ -39517,7 +39628,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -39702,7 +39813,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -39887,7 +39998,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -40072,7 +40183,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -40257,7 +40368,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B6" t="s">
         <v>83</v>
@@ -40442,7 +40553,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -40627,7 +40738,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -40812,7 +40923,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -40997,7 +41108,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -41182,7 +41293,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
@@ -41367,7 +41478,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -41552,7 +41663,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -41737,7 +41848,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -41922,7 +42033,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -42107,7 +42218,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -42292,7 +42403,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
@@ -42477,7 +42588,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -42662,7 +42773,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -42847,7 +42958,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
@@ -43032,7 +43143,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B21" t="s">
         <v>82</v>
@@ -49761,10 +49872,13 @@
       <c r="AW1" t="s">
         <v>62</v>
       </c>
+      <c r="AX1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -49776,7 +49890,7 @@
         <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F2" t="s">
         <v>84</v>
@@ -49908,12 +50022,15 @@
         <v>84</v>
       </c>
       <c r="AW2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -50058,11 +50175,14 @@
       </c>
       <c r="AW3" t="s">
         <v>84</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -50207,11 +50327,14 @@
       </c>
       <c r="AW4" t="s">
         <v>84</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -50356,11 +50479,14 @@
       </c>
       <c r="AW5" t="s">
         <v>89</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -50505,11 +50631,14 @@
       </c>
       <c r="AW6" t="s">
         <v>83</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -50654,11 +50783,14 @@
       </c>
       <c r="AW7" t="s">
         <v>89</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -50802,12 +50934,15 @@
         <v>82</v>
       </c>
       <c r="AW8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -50951,12 +51086,15 @@
         <v>82</v>
       </c>
       <c r="AW9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -51100,12 +51238,15 @@
         <v>82</v>
       </c>
       <c r="AW10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
@@ -51250,11 +51391,14 @@
       </c>
       <c r="AW11" t="s">
         <v>82</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -51399,11 +51543,14 @@
       </c>
       <c r="AW12" t="s">
         <v>83</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -51548,11 +51695,14 @@
       </c>
       <c r="AW13" t="s">
         <v>87</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -51696,12 +51846,15 @@
         <v>82</v>
       </c>
       <c r="AW14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX14" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -51846,11 +51999,14 @@
       </c>
       <c r="AW15" t="s">
         <v>85</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -51994,12 +52150,15 @@
         <v>82</v>
       </c>
       <c r="AW16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
@@ -52144,11 +52303,14 @@
       </c>
       <c r="AW17" t="s">
         <v>83</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
@@ -52293,11 +52455,14 @@
       </c>
       <c r="AW18" t="s">
         <v>89</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -52441,12 +52606,15 @@
         <v>82</v>
       </c>
       <c r="AW19" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX19" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
@@ -52590,12 +52758,15 @@
         <v>82</v>
       </c>
       <c r="AW20" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX20" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B21" t="s">
         <v>82</v>
@@ -52739,12 +52910,15 @@
         <v>82</v>
       </c>
       <c r="AW21" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX21" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B22" t="s">
         <v>82</v>
@@ -52889,11 +53063,14 @@
       </c>
       <c r="AW22" t="s">
         <v>82</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B23" t="s">
         <v>82</v>
@@ -53037,12 +53214,15 @@
         <v>82</v>
       </c>
       <c r="AW23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX23" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s">
         <v>82</v>
@@ -53186,12 +53366,15 @@
         <v>82</v>
       </c>
       <c r="AW24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX24" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B25" t="s">
         <v>86</v>
@@ -53335,6 +53518,9 @@
         <v>86</v>
       </c>
       <c r="AW25" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX25" t="s">
         <v>82</v>
       </c>
     </row>
@@ -53372,10 +53558,10 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -53387,7 +53573,7 @@
         <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N1" t="s">
         <v>29</v>
@@ -53399,7 +53585,7 @@
         <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="R1" t="s">
         <v>34</v>
@@ -53414,7 +53600,7 @@
         <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="W1" t="s">
         <v>41</v>
@@ -53423,10 +53609,10 @@
         <v>164</v>
       </c>
       <c r="Y1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Z1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
@@ -53444,10 +53630,10 @@
         <v>53</v>
       </c>
       <c r="AF1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AH1" t="s">
         <v>56</v>
@@ -53458,7 +53644,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -53565,7 +53751,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
@@ -53672,7 +53858,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -53779,7 +53965,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B5" t="s">
         <v>83</v>
@@ -53886,7 +54072,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -53993,7 +54179,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -54100,7 +54286,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -54207,7 +54393,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -54314,7 +54500,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B10" t="s">
         <v>89</v>
@@ -54421,7 +54607,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B11" t="s">
         <v>89</v>
@@ -54528,7 +54714,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B12" t="s">
         <v>83</v>
@@ -54635,7 +54821,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B13" t="s">
         <v>86</v>
@@ -54742,7 +54928,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B14" t="s">
         <v>83</v>
@@ -54849,7 +55035,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B15" t="s">
         <v>89</v>
@@ -54956,7 +55142,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B16" t="s">
         <v>83</v>
@@ -55063,7 +55249,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B17" t="s">
         <v>83</v>
@@ -55170,7 +55356,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B18" t="s">
         <v>89</v>
@@ -55277,7 +55463,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B19" t="s">
         <v>86</v>
@@ -55384,7 +55570,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B20" t="s">
         <v>83</v>
@@ -55491,7 +55677,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B21" t="s">
         <v>86</v>
@@ -55598,7 +55784,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -55705,7 +55891,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s">
         <v>84</v>
@@ -55812,7 +55998,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B24" t="s">
         <v>85</v>
@@ -55919,7 +56105,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B25" t="s">
         <v>89</v>
@@ -56052,7 +56238,7 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -56061,7 +56247,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -56076,7 +56262,7 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O1" t="s">
         <v>28</v>
@@ -56088,10 +56274,10 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="S1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="T1" t="s">
         <v>35</v>
@@ -56103,16 +56289,16 @@
         <v>38</v>
       </c>
       <c r="W1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="X1" t="s">
         <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Z1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
@@ -56127,10 +56313,10 @@
         <v>50</v>
       </c>
       <c r="AE1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG1" t="s">
         <v>56</v>
@@ -56141,7 +56327,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B2" t="s">
         <v>88</v>
@@ -56245,7 +56431,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B3" t="s">
         <v>89</v>
@@ -56349,7 +56535,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B4" t="s">
         <v>83</v>
@@ -56453,7 +56639,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B5" t="s">
         <v>83</v>
@@ -56557,7 +56743,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B6" t="s">
         <v>89</v>
@@ -56661,7 +56847,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B7" t="s">
         <v>89</v>
@@ -56765,7 +56951,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B8" t="s">
         <v>83</v>
@@ -56869,7 +57055,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
@@ -56973,7 +57159,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -57077,7 +57263,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B11" t="s">
         <v>89</v>
@@ -57181,7 +57367,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -57285,7 +57471,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B13" t="s">
         <v>83</v>
@@ -57389,7 +57575,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B14" t="s">
         <v>83</v>
@@ -57493,7 +57679,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B15" t="s">
         <v>85</v>
@@ -57597,7 +57783,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B16" t="s">
         <v>86</v>
@@ -57701,7 +57887,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B17" t="s">
         <v>83</v>
@@ -57805,7 +57991,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B18" t="s">
         <v>83</v>
@@ -57909,7 +58095,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -58013,7 +58199,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B20" t="s">
         <v>89</v>
@@ -58117,7 +58303,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B21" t="s">
         <v>85</v>
@@ -58221,7 +58407,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B22" t="s">
         <v>89</v>
@@ -58325,7 +58511,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B23" t="s">
         <v>86</v>
@@ -58429,7 +58615,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s">
         <v>86</v>
@@ -58533,7 +58719,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s">
         <v>83</v>
@@ -58657,13 +58843,13 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
@@ -58675,7 +58861,7 @@
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K1" t="s">
         <v>29</v>
@@ -58687,19 +58873,19 @@
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
@@ -58708,10 +58894,10 @@
         <v>164</v>
       </c>
       <c r="U1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="V1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="W1" t="s">
         <v>46</v>
@@ -58732,7 +58918,7 @@
         <v>53</v>
       </c>
       <c r="AC1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AD1" t="s">
         <v>56</v>
@@ -58743,7 +58929,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B2" t="s">
         <v>83</v>
@@ -58838,7 +59024,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B3" t="s">
         <v>83</v>
@@ -58933,7 +59119,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B4" t="s">
         <v>83</v>
@@ -59028,7 +59214,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B5" t="s">
         <v>89</v>
@@ -59123,7 +59309,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -59218,7 +59404,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B7" t="s">
         <v>87</v>
@@ -59313,7 +59499,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B8" t="s">
         <v>86</v>
@@ -59408,7 +59594,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -59503,7 +59689,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -59598,7 +59784,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
@@ -59693,7 +59879,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -59788,7 +59974,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B13" t="s">
         <v>83</v>
@@ -59883,7 +60069,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B14" t="s">
         <v>89</v>
@@ -59978,7 +60164,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B15" t="s">
         <v>83</v>
@@ -60073,7 +60259,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B16" t="s">
         <v>89</v>
@@ -60168,7 +60354,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B17" t="s">
         <v>83</v>
@@ -60263,7 +60449,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B18" t="s">
         <v>83</v>
@@ -60358,7 +60544,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B19" t="s">
         <v>87</v>
@@ -60453,7 +60639,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -60548,7 +60734,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -60643,7 +60829,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B22" t="s">
         <v>83</v>
@@ -60738,7 +60924,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B23" t="s">
         <v>84</v>
@@ -60833,7 +61019,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B24" t="s">
         <v>82</v>
@@ -61032,7 +61218,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -61091,7 +61277,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -61243,7 +61429,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -61395,7 +61581,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -61547,7 +61733,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -61699,7 +61885,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -61851,7 +62037,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -62003,7 +62189,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -62155,7 +62341,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -62307,7 +62493,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -62459,7 +62645,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
@@ -62611,7 +62797,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B12" t="s">
         <v>89</v>
@@ -62763,7 +62949,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -62915,7 +63101,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B14" t="s">
         <v>89</v>
@@ -63067,7 +63253,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -63219,7 +63405,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -63371,7 +63557,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
@@ -63523,7 +63709,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
@@ -63675,7 +63861,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -63827,7 +64013,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
@@ -63979,7 +64165,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B21" t="s">
         <v>82</v>

--- a/YCmatrix.xlsx
+++ b/YCmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21120" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21411" uniqueCount="548">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -447,6 +447,15 @@
   </si>
   <si>
     <t>X2021.12.06</t>
+  </si>
+  <si>
+    <t>X2021.12.28</t>
+  </si>
+  <si>
+    <t>X2021.12.29</t>
+  </si>
+  <si>
+    <t>X2021.12.30</t>
   </si>
   <si>
     <t>Arsenal</t>
@@ -5592,28 +5601,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="J1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
@@ -5622,7 +5631,7 @@
         <v>130</v>
       </c>
       <c r="M1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -5634,13 +5643,13 @@
         <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="R1" t="s">
         <v>24</v>
       </c>
       <c r="S1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="T1" t="s">
         <v>28</v>
@@ -5664,7 +5673,7 @@
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
@@ -5679,7 +5688,7 @@
         <v>47</v>
       </c>
       <c r="AF1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AG1" t="s">
         <v>52</v>
@@ -5694,15 +5703,15 @@
         <v>56</v>
       </c>
       <c r="AK1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AL1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B2" t="s">
         <v>90</v>
@@ -5818,7 +5827,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -5934,7 +5943,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B4" t="s">
         <v>88</v>
@@ -6050,7 +6059,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -6166,7 +6175,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -6282,7 +6291,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -6398,7 +6407,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B8" t="s">
         <v>88</v>
@@ -6514,7 +6523,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -6630,7 +6639,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -6746,7 +6755,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B11" t="s">
         <v>86</v>
@@ -6862,7 +6871,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B12" t="s">
         <v>88</v>
@@ -6978,7 +6987,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -7094,7 +7103,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B14" t="s">
         <v>88</v>
@@ -7210,7 +7219,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B15" t="s">
         <v>91</v>
@@ -7326,7 +7335,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -7442,7 +7451,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B17" t="s">
         <v>86</v>
@@ -7558,7 +7567,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -7674,7 +7683,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -7790,7 +7799,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B20" t="s">
         <v>86</v>
@@ -7906,7 +7915,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B21" t="s">
         <v>85</v>
@@ -8108,7 +8117,7 @@
         <v>48</v>
       </c>
       <c r="Z1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AA1" t="s">
         <v>50</v>
@@ -8147,12 +8156,12 @@
         <v>63</v>
       </c>
       <c r="AM1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -8271,7 +8280,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B3" t="s">
         <v>90</v>
@@ -8390,7 +8399,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -8509,7 +8518,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B5" t="s">
         <v>88</v>
@@ -8628,7 +8637,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -8747,7 +8756,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -8866,7 +8875,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -8985,7 +8994,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -9104,7 +9113,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -9223,7 +9232,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -9342,7 +9351,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B12" t="s">
         <v>88</v>
@@ -9461,7 +9470,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B13" t="s">
         <v>86</v>
@@ -9580,7 +9589,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -9699,7 +9708,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -9868,10 +9877,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="O1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -9916,13 +9925,13 @@
         <v>39</v>
       </c>
       <c r="AD1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AE1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AF1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -9949,7 +9958,7 @@
         <v>48</v>
       </c>
       <c r="AO1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AP1" t="s">
         <v>49</v>
@@ -9988,7 +9997,7 @@
         <v>57</v>
       </c>
       <c r="BB1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="BC1" t="s">
         <v>61</v>
@@ -10000,15 +10009,15 @@
         <v>63</v>
       </c>
       <c r="BF1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="BG1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -10187,7 +10196,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -10366,7 +10375,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -10545,7 +10554,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -10724,7 +10733,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -10903,7 +10912,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -11082,7 +11091,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B8" t="s">
         <v>86</v>
@@ -11261,7 +11270,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -11440,7 +11449,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -11619,7 +11628,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -11798,7 +11807,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -11977,7 +11986,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -12156,7 +12165,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -12335,7 +12344,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -12514,7 +12523,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -12693,7 +12702,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -12872,7 +12881,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -13051,7 +13060,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -13230,7 +13239,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -13409,7 +13418,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B21" t="s">
         <v>88</v>
@@ -13638,10 +13647,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="O1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -13677,10 +13686,10 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AB1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AC1" t="s">
         <v>133</v>
@@ -13710,7 +13719,7 @@
         <v>51</v>
       </c>
       <c r="AL1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AM1" t="s">
         <v>134</v>
@@ -13745,7 +13754,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -13891,7 +13900,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -14037,7 +14046,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -14183,7 +14192,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -14329,7 +14338,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -14475,7 +14484,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -14621,7 +14630,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -14767,7 +14776,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -14913,7 +14922,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -15059,7 +15068,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B11" t="s">
         <v>86</v>
@@ -15205,7 +15214,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -15351,7 +15360,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -15497,7 +15506,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -15643,13 +15652,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D15" t="s">
         <v>84</v>
@@ -15789,7 +15798,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -15935,7 +15944,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -16081,7 +16090,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -16227,7 +16236,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -16373,7 +16382,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -16519,7 +16528,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -16570,7 +16579,7 @@
         <v>84</v>
       </c>
       <c r="R21" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="S21" t="s">
         <v>84</v>
@@ -16721,7 +16730,7 @@
         <v>25</v>
       </c>
       <c r="P1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q1" t="s">
         <v>26</v>
@@ -16820,18 +16829,18 @@
         <v>63</v>
       </c>
       <c r="AW1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AX1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AY1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -16986,7 +16995,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -17141,7 +17150,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -17296,7 +17305,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -17451,7 +17460,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -17606,7 +17615,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B7" t="s">
         <v>91</v>
@@ -17761,7 +17770,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -17916,7 +17925,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B9" t="s">
         <v>91</v>
@@ -18071,7 +18080,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -18226,7 +18235,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -18381,7 +18390,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -18536,7 +18545,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -18691,7 +18700,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -18846,7 +18855,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -19001,7 +19010,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -19156,7 +19165,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -19311,7 +19320,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -19466,7 +19475,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -19644,7 +19653,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -19656,7 +19665,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -19698,7 +19707,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -19731,7 +19740,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -19764,7 +19773,7 @@
         <v>51</v>
       </c>
       <c r="AS1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AT1" t="s">
         <v>134</v>
@@ -19788,7 +19797,7 @@
         <v>57</v>
       </c>
       <c r="BA1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="BB1" t="s">
         <v>61</v>
@@ -19798,11 +19807,20 @@
       </c>
       <c r="BD1" t="s">
         <v>63</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -19968,11 +19986,20 @@
       </c>
       <c r="BD2" t="s">
         <v>84</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -20138,11 +20165,20 @@
       </c>
       <c r="BD3" t="s">
         <v>87</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -20308,11 +20344,20 @@
       </c>
       <c r="BD4" t="s">
         <v>86</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -20478,11 +20523,20 @@
       </c>
       <c r="BD5" t="s">
         <v>85</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -20647,12 +20701,21 @@
         <v>84</v>
       </c>
       <c r="BD6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -20817,12 +20880,21 @@
         <v>84</v>
       </c>
       <c r="BD7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -20987,12 +21059,21 @@
         <v>86</v>
       </c>
       <c r="BD8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -21157,12 +21238,21 @@
         <v>84</v>
       </c>
       <c r="BD9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>90</v>
+      </c>
+      <c r="BG9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -21282,7 +21372,7 @@
         <v>84</v>
       </c>
       <c r="AO10" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AP10" t="s">
         <v>84</v>
@@ -21328,11 +21418,20 @@
       </c>
       <c r="BD10" t="s">
         <v>85</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -21498,11 +21597,20 @@
       </c>
       <c r="BD11" t="s">
         <v>85</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -21668,11 +21776,20 @@
       </c>
       <c r="BD12" t="s">
         <v>84</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -21837,12 +21954,21 @@
         <v>88</v>
       </c>
       <c r="BD13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>88</v>
+      </c>
+      <c r="BG13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -22008,11 +22134,20 @@
       </c>
       <c r="BD14" t="s">
         <v>86</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -22178,11 +22313,20 @@
       </c>
       <c r="BD15" t="s">
         <v>84</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -22348,11 +22492,20 @@
       </c>
       <c r="BD16" t="s">
         <v>87</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B17" t="s">
         <v>86</v>
@@ -22517,12 +22670,21 @@
         <v>89</v>
       </c>
       <c r="BD17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -22687,12 +22849,21 @@
         <v>85</v>
       </c>
       <c r="BD18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B19" t="s">
         <v>88</v>
@@ -22858,6 +23029,15 @@
       </c>
       <c r="BD19" t="s">
         <v>86</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -22933,7 +23113,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -22975,7 +23155,7 @@
         <v>54</v>
       </c>
       <c r="AI1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AJ1" t="s">
         <v>56</v>
@@ -22993,7 +23173,7 @@
         <v>62</v>
       </c>
       <c r="AO1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AP1" t="s">
         <v>64</v>
@@ -23001,7 +23181,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -23129,7 +23309,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B3" t="s">
         <v>91</v>
@@ -23257,7 +23437,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -23385,7 +23565,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -23513,7 +23693,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B6" t="s">
         <v>91</v>
@@ -23641,7 +23821,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -23769,7 +23949,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B8" t="s">
         <v>89</v>
@@ -23897,7 +24077,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -24025,7 +24205,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B10" t="s">
         <v>91</v>
@@ -24153,7 +24333,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B11" t="s">
         <v>87</v>
@@ -24281,7 +24461,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B12" t="s">
         <v>86</v>
@@ -24409,7 +24589,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -24554,7 +24734,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -24566,7 +24746,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -24584,7 +24764,7 @@
         <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="N1" t="s">
         <v>32</v>
@@ -24599,7 +24779,7 @@
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
@@ -24608,7 +24788,7 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="V1" t="s">
         <v>46</v>
@@ -24633,11 +24813,14 @@
       </c>
       <c r="AC1" t="s">
         <v>64</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -24722,11 +24905,14 @@
       </c>
       <c r="AC2" t="s">
         <v>86</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -24811,11 +24997,14 @@
       </c>
       <c r="AC3" t="s">
         <v>85</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -24900,11 +25089,14 @@
       </c>
       <c r="AC4" t="s">
         <v>88</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B5" t="s">
         <v>91</v>
@@ -24989,11 +25181,14 @@
       </c>
       <c r="AC5" t="s">
         <v>86</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -25077,12 +25272,15 @@
         <v>91</v>
       </c>
       <c r="AC6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -25166,12 +25364,15 @@
         <v>84</v>
       </c>
       <c r="AC7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B8" t="s">
         <v>86</v>
@@ -25256,11 +25457,14 @@
       </c>
       <c r="AC8" t="s">
         <v>84</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -25344,12 +25548,15 @@
         <v>86</v>
       </c>
       <c r="AC9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -25433,12 +25640,15 @@
         <v>85</v>
       </c>
       <c r="AC10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -25523,6 +25733,9 @@
       </c>
       <c r="AC11" t="s">
         <v>85</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -25559,7 +25772,7 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
@@ -25589,7 +25802,7 @@
         <v>44</v>
       </c>
       <c r="R1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="S1" t="s">
         <v>47</v>
@@ -25598,7 +25811,7 @@
         <v>53</v>
       </c>
       <c r="U1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="V1" t="s">
         <v>56</v>
@@ -25607,15 +25820,18 @@
         <v>62</v>
       </c>
       <c r="X1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Y1" t="s">
         <v>64</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
@@ -25688,11 +25904,14 @@
       </c>
       <c r="Y2" t="s">
         <v>88</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -25765,11 +25984,14 @@
       </c>
       <c r="Y3" t="s">
         <v>86</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -25842,11 +26064,14 @@
       </c>
       <c r="Y4" t="s">
         <v>87</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B5" t="s">
         <v>91</v>
@@ -25919,11 +26144,14 @@
       </c>
       <c r="Y5" t="s">
         <v>85</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B6" t="s">
         <v>87</v>
@@ -25995,12 +26223,15 @@
         <v>84</v>
       </c>
       <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
@@ -26073,11 +26304,14 @@
       </c>
       <c r="Y7" t="s">
         <v>86</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -26150,11 +26384,14 @@
       </c>
       <c r="Y8" t="s">
         <v>88</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
@@ -26226,12 +26463,15 @@
         <v>85</v>
       </c>
       <c r="Y9" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -26303,12 +26543,15 @@
         <v>88</v>
       </c>
       <c r="Y10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B11" t="s">
         <v>86</v>
@@ -26381,6 +26624,9 @@
       </c>
       <c r="Y11" t="s">
         <v>84</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -26420,7 +26666,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -26456,19 +26702,19 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="V1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="W1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Z1" t="s">
         <v>52</v>
@@ -26486,10 +26732,10 @@
         <v>62</v>
       </c>
       <c r="AE1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AF1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AG1" t="s">
         <v>64</v>
@@ -26497,7 +26743,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B2" t="s">
         <v>91</v>
@@ -26598,7 +26844,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -26699,7 +26945,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B4" t="s">
         <v>88</v>
@@ -26800,7 +27046,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B5" t="s">
         <v>86</v>
@@ -26901,7 +27147,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -27002,7 +27248,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -27103,7 +27349,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B8" t="s">
         <v>91</v>
@@ -27204,7 +27450,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B9" t="s">
         <v>88</v>
@@ -27305,7 +27551,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B10" t="s">
         <v>88</v>
@@ -27406,7 +27652,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -30429,7 +30675,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -30471,10 +30717,10 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="T1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="U1" t="s">
         <v>26</v>
@@ -30519,16 +30765,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AJ1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AK1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AL1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -30558,7 +30804,7 @@
         <v>48</v>
       </c>
       <c r="AV1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AW1" t="s">
         <v>49</v>
@@ -30570,7 +30816,7 @@
         <v>51</v>
       </c>
       <c r="AZ1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BA1" t="s">
         <v>135</v>
@@ -30597,7 +30843,7 @@
         <v>57</v>
       </c>
       <c r="BI1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="BJ1" t="s">
         <v>61</v>
@@ -30609,18 +30855,18 @@
         <v>63</v>
       </c>
       <c r="BM1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="BN1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="BO1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -30823,7 +31069,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -31026,7 +31272,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -31229,7 +31475,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -31432,7 +31678,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -31635,7 +31881,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -31838,7 +32084,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -32041,7 +32287,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -32244,7 +32490,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -32447,7 +32693,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B11" t="s">
         <v>88</v>
@@ -32650,7 +32896,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -32853,7 +33099,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -33056,7 +33302,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -33259,7 +33505,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -33462,7 +33708,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -33665,7 +33911,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -33868,7 +34114,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -34071,7 +34317,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B19" t="s">
         <v>90</v>
@@ -34274,7 +34520,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -34477,7 +34723,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -34703,7 +34949,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -34727,19 +34973,19 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="N1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="O1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="P1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="Q1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
@@ -34763,7 +35009,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -34787,19 +35033,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="AH1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AI1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AJ1" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="AK1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -34811,13 +35057,13 @@
         <v>36</v>
       </c>
       <c r="AO1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AP1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AQ1" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -34829,7 +35075,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -34844,13 +35090,13 @@
         <v>133</v>
       </c>
       <c r="AZ1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BA1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BB1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -34862,19 +35108,19 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="BG1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BH1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="BI1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="BJ1" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -34886,7 +35132,7 @@
         <v>48</v>
       </c>
       <c r="BN1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="BO1" t="s">
         <v>49</v>
@@ -34898,7 +35144,7 @@
         <v>51</v>
       </c>
       <c r="BR1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS1" t="s">
         <v>52</v>
@@ -34922,7 +35168,7 @@
         <v>57</v>
       </c>
       <c r="BZ1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="CA1" t="s">
         <v>61</v>
@@ -34936,7 +35182,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -35181,7 +35427,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -35426,7 +35672,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -35671,7 +35917,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -35916,7 +36162,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -36000,7 +36246,7 @@
         <v>84</v>
       </c>
       <c r="AC6" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="AD6" t="s">
         <v>84</v>
@@ -36161,7 +36407,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
@@ -36406,7 +36652,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -36651,7 +36897,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -36896,7 +37142,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -37141,7 +37387,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -37386,7 +37632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -37631,7 +37877,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -37876,7 +38122,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -38121,7 +38367,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -38366,7 +38612,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -38611,7 +38857,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -38856,7 +39102,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -39101,7 +39347,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -39167,7 +39413,7 @@
         <v>84</v>
       </c>
       <c r="W19" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="X19" t="s">
         <v>84</v>
@@ -39346,7 +39592,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -39591,7 +39837,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -39836,7 +40082,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -40081,7 +40327,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B23" t="s">
         <v>85</v>
@@ -40349,7 +40595,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -40391,7 +40637,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="T1" t="s">
         <v>26</v>
@@ -40442,7 +40688,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -40472,7 +40718,7 @@
         <v>48</v>
       </c>
       <c r="AT1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AU1" t="s">
         <v>49</v>
@@ -40484,7 +40730,7 @@
         <v>51</v>
       </c>
       <c r="AX1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AY1" t="s">
         <v>52</v>
@@ -40508,7 +40754,7 @@
         <v>57</v>
       </c>
       <c r="BF1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="BG1" t="s">
         <v>61</v>
@@ -40520,16 +40766,16 @@
         <v>63</v>
       </c>
       <c r="BJ1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="BK1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="BL1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="BM1" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="BN1" t="s">
         <v>64</v>
@@ -40540,7 +40786,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -40743,7 +40989,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -40946,7 +41192,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -41149,7 +41395,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -41352,7 +41598,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -41555,7 +41801,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -41758,7 +42004,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -41961,7 +42207,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -42164,7 +42410,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -42367,7 +42613,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -42570,7 +42816,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -42773,7 +43019,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -42976,7 +43222,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -43179,7 +43425,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -43382,7 +43628,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -43585,7 +43831,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -43788,7 +44034,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="B18" t="s">
         <v>86</v>
@@ -43991,7 +44237,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -44194,7 +44440,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -44397,7 +44643,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -47950,10 +48196,19 @@
       <c r="AZ1" t="s">
         <v>65</v>
       </c>
+      <c r="BA1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
         <v>91</v>
@@ -48106,12 +48361,21 @@
         <v>85</v>
       </c>
       <c r="AZ2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -48264,12 +48528,21 @@
         <v>88</v>
       </c>
       <c r="AZ3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
         <v>91</v>
@@ -48422,12 +48695,21 @@
         <v>88</v>
       </c>
       <c r="AZ4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>91</v>
+      </c>
+      <c r="BC4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -48580,12 +48862,21 @@
         <v>86</v>
       </c>
       <c r="AZ5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -48739,11 +49030,20 @@
       </c>
       <c r="AZ6" t="s">
         <v>84</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -48896,12 +49196,21 @@
         <v>86</v>
       </c>
       <c r="AZ7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -49054,12 +49363,21 @@
         <v>86</v>
       </c>
       <c r="AZ8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -49212,12 +49530,21 @@
         <v>84</v>
       </c>
       <c r="AZ9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -49370,12 +49697,21 @@
         <v>84</v>
       </c>
       <c r="AZ10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -49528,12 +49864,21 @@
         <v>85</v>
       </c>
       <c r="AZ11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -49686,12 +50031,21 @@
         <v>84</v>
       </c>
       <c r="AZ12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -49844,12 +50198,21 @@
         <v>86</v>
       </c>
       <c r="AZ13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>91</v>
+      </c>
+      <c r="BC13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -50003,11 +50366,20 @@
       </c>
       <c r="AZ14" t="s">
         <v>88</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -50161,11 +50533,20 @@
       </c>
       <c r="AZ15" t="s">
         <v>88</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -50318,12 +50699,21 @@
         <v>86</v>
       </c>
       <c r="AZ16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -50476,12 +50866,21 @@
         <v>88</v>
       </c>
       <c r="AZ17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -50634,12 +51033,21 @@
         <v>86</v>
       </c>
       <c r="AZ18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -50792,12 +51200,21 @@
         <v>84</v>
       </c>
       <c r="AZ19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -50950,12 +51367,21 @@
         <v>85</v>
       </c>
       <c r="AZ20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -51108,6 +51534,15 @@
         <v>84</v>
       </c>
       <c r="AZ21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC21" t="s">
         <v>84</v>
       </c>
     </row>
@@ -51139,10 +51574,10 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H1" t="s">
         <v>13</v>
@@ -51163,10 +51598,10 @@
         <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="P1" t="s">
         <v>24</v>
@@ -51178,10 +51613,10 @@
         <v>29</v>
       </c>
       <c r="S1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="T1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -51199,10 +51634,10 @@
         <v>36</v>
       </c>
       <c r="Z1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AA1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AB1" t="s">
         <v>38</v>
@@ -51217,10 +51652,10 @@
         <v>41</v>
       </c>
       <c r="AF1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AG1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AH1" t="s">
         <v>44</v>
@@ -51235,7 +51670,7 @@
         <v>48</v>
       </c>
       <c r="AL1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AM1" t="s">
         <v>111</v>
@@ -51250,7 +51685,7 @@
         <v>51</v>
       </c>
       <c r="AQ1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AR1" t="s">
         <v>52</v>
@@ -51271,18 +51706,24 @@
         <v>62</v>
       </c>
       <c r="AX1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AY1" t="s">
         <v>64</v>
       </c>
       <c r="AZ1" t="s">
         <v>65</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -51294,7 +51735,7 @@
         <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F2" t="s">
         <v>86</v>
@@ -51435,12 +51876,18 @@
         <v>84</v>
       </c>
       <c r="AZ2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -51593,12 +52040,18 @@
         <v>84</v>
       </c>
       <c r="AZ3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -51751,12 +52204,18 @@
         <v>84</v>
       </c>
       <c r="AZ4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -51909,12 +52368,18 @@
         <v>91</v>
       </c>
       <c r="AZ5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -52068,11 +52533,17 @@
       </c>
       <c r="AZ6" t="s">
         <v>87</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -52226,11 +52697,17 @@
       </c>
       <c r="AZ7" t="s">
         <v>84</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -52384,11 +52861,17 @@
       </c>
       <c r="AZ8" t="s">
         <v>84</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -52541,12 +53024,18 @@
         <v>84</v>
       </c>
       <c r="AZ9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -52700,11 +53189,17 @@
       </c>
       <c r="AZ10" t="s">
         <v>87</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -52857,12 +53352,18 @@
         <v>84</v>
       </c>
       <c r="AZ11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -53016,11 +53517,17 @@
       </c>
       <c r="AZ12" t="s">
         <v>84</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -53173,12 +53680,18 @@
         <v>84</v>
       </c>
       <c r="AZ13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -53331,12 +53844,18 @@
         <v>84</v>
       </c>
       <c r="AZ14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -53489,12 +54008,18 @@
         <v>86</v>
       </c>
       <c r="AZ15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -53647,12 +54172,18 @@
         <v>84</v>
       </c>
       <c r="AZ16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -53806,11 +54337,17 @@
       </c>
       <c r="AZ17" t="s">
         <v>84</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -53963,12 +54500,18 @@
         <v>84</v>
       </c>
       <c r="AZ18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -54121,12 +54664,18 @@
         <v>84</v>
       </c>
       <c r="AZ19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -54280,11 +54829,17 @@
       </c>
       <c r="AZ20" t="s">
         <v>85</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -54437,12 +54992,18 @@
         <v>84</v>
       </c>
       <c r="AZ21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB21" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -54595,12 +55156,18 @@
         <v>84</v>
       </c>
       <c r="AZ22" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B23" t="s">
         <v>84</v>
@@ -54754,11 +55321,17 @@
       </c>
       <c r="AZ23" t="s">
         <v>84</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B24" t="s">
         <v>84</v>
@@ -54911,12 +55484,18 @@
         <v>84</v>
       </c>
       <c r="AZ24" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B25" t="s">
         <v>88</v>
@@ -55070,6 +55649,12 @@
       </c>
       <c r="AZ25" t="s">
         <v>86</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -55094,7 +55679,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -55106,34 +55691,34 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L1" t="s">
         <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="N1" t="s">
         <v>29</v>
       </c>
       <c r="O1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="P1" t="s">
         <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="R1" t="s">
         <v>34</v>
@@ -55142,31 +55727,31 @@
         <v>35</v>
       </c>
       <c r="T1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="U1" t="s">
         <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="W1" t="s">
         <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Y1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Z1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AC1" t="s">
         <v>50</v>
@@ -55178,10 +55763,10 @@
         <v>53</v>
       </c>
       <c r="AF1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AG1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AH1" t="s">
         <v>56</v>
@@ -55194,11 +55779,17 @@
       </c>
       <c r="AK1" t="s">
         <v>65</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
@@ -55306,12 +55897,18 @@
         <v>86</v>
       </c>
       <c r="AK2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B3" t="s">
         <v>88</v>
@@ -55419,12 +56016,18 @@
         <v>84</v>
       </c>
       <c r="AK3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -55532,12 +56135,18 @@
         <v>84</v>
       </c>
       <c r="AK4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -55645,12 +56254,18 @@
         <v>84</v>
       </c>
       <c r="AK5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -55758,12 +56373,18 @@
         <v>84</v>
       </c>
       <c r="AK6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
@@ -55871,12 +56492,18 @@
         <v>84</v>
       </c>
       <c r="AK7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B8" t="s">
         <v>86</v>
@@ -55984,12 +56611,18 @@
         <v>86</v>
       </c>
       <c r="AK8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
@@ -56097,12 +56730,18 @@
         <v>84</v>
       </c>
       <c r="AK9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B10" t="s">
         <v>91</v>
@@ -56211,11 +56850,17 @@
       </c>
       <c r="AK10" t="s">
         <v>86</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B11" t="s">
         <v>91</v>
@@ -56323,12 +56968,18 @@
         <v>91</v>
       </c>
       <c r="AK11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -56436,12 +57087,18 @@
         <v>84</v>
       </c>
       <c r="AK12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B13" t="s">
         <v>88</v>
@@ -56549,12 +57206,18 @@
         <v>84</v>
       </c>
       <c r="AK13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -56662,12 +57325,18 @@
         <v>87</v>
       </c>
       <c r="AK14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B15" t="s">
         <v>91</v>
@@ -56775,12 +57444,18 @@
         <v>85</v>
       </c>
       <c r="AK15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -56888,12 +57563,18 @@
         <v>84</v>
       </c>
       <c r="AK16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -57001,12 +57682,18 @@
         <v>84</v>
       </c>
       <c r="AK17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B18" t="s">
         <v>91</v>
@@ -57114,12 +57801,18 @@
         <v>91</v>
       </c>
       <c r="AK18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B19" t="s">
         <v>88</v>
@@ -57227,12 +57920,18 @@
         <v>84</v>
       </c>
       <c r="AK19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B20" t="s">
         <v>85</v>
@@ -57340,12 +58039,18 @@
         <v>86</v>
       </c>
       <c r="AK20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B21" t="s">
         <v>88</v>
@@ -57454,11 +58159,17 @@
       </c>
       <c r="AK21" t="s">
         <v>84</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B22" t="s">
         <v>86</v>
@@ -57566,12 +58277,18 @@
         <v>85</v>
       </c>
       <c r="AK22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B23" t="s">
         <v>86</v>
@@ -57680,11 +58397,17 @@
       </c>
       <c r="AK23" t="s">
         <v>86</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B24" t="s">
         <v>87</v>
@@ -57792,12 +58515,18 @@
         <v>84</v>
       </c>
       <c r="AK24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s">
         <v>91</v>
@@ -57905,6 +58634,12 @@
         <v>84</v>
       </c>
       <c r="AK25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM25" t="s">
         <v>84</v>
       </c>
     </row>
@@ -57930,13 +58665,13 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -57945,7 +58680,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -57954,13 +58689,13 @@
         <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M1" t="s">
         <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="O1" t="s">
         <v>28</v>
@@ -57972,37 +58707,37 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="S1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="T1" t="s">
         <v>35</v>
       </c>
       <c r="U1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="V1" t="s">
         <v>38</v>
       </c>
       <c r="W1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="X1" t="s">
         <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Z1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AC1" t="s">
         <v>49</v>
@@ -58011,10 +58746,10 @@
         <v>50</v>
       </c>
       <c r="AE1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AF1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AG1" t="s">
         <v>56</v>
@@ -58024,11 +58759,14 @@
       </c>
       <c r="AI1" t="s">
         <v>64</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B2" t="s">
         <v>90</v>
@@ -58131,11 +58869,14 @@
       </c>
       <c r="AI2" t="s">
         <v>87</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B3" t="s">
         <v>91</v>
@@ -58237,12 +58978,15 @@
         <v>84</v>
       </c>
       <c r="AI3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -58344,12 +59088,15 @@
         <v>84</v>
       </c>
       <c r="AI4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -58451,12 +59198,15 @@
         <v>84</v>
       </c>
       <c r="AI5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B6" t="s">
         <v>91</v>
@@ -58558,12 +59308,15 @@
         <v>84</v>
       </c>
       <c r="AI6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B7" t="s">
         <v>91</v>
@@ -58665,12 +59418,15 @@
         <v>84</v>
       </c>
       <c r="AI7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -58772,12 +59528,15 @@
         <v>84</v>
       </c>
       <c r="AI8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B9" t="s">
         <v>88</v>
@@ -58879,12 +59638,15 @@
         <v>84</v>
       </c>
       <c r="AI9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -58986,12 +59748,15 @@
         <v>91</v>
       </c>
       <c r="AI10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B11" t="s">
         <v>91</v>
@@ -59094,11 +59859,14 @@
       </c>
       <c r="AI11" t="s">
         <v>88</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B12" t="s">
         <v>86</v>
@@ -59200,12 +59968,15 @@
         <v>88</v>
       </c>
       <c r="AI12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -59308,11 +60079,14 @@
       </c>
       <c r="AI13" t="s">
         <v>86</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -59414,12 +60188,15 @@
         <v>85</v>
       </c>
       <c r="AI14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B15" t="s">
         <v>87</v>
@@ -59521,12 +60298,15 @@
         <v>84</v>
       </c>
       <c r="AI15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B16" t="s">
         <v>88</v>
@@ -59629,11 +60409,14 @@
       </c>
       <c r="AI16" t="s">
         <v>91</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -59735,12 +60518,15 @@
         <v>84</v>
       </c>
       <c r="AI17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -59842,12 +60628,15 @@
         <v>85</v>
       </c>
       <c r="AI18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B19" t="s">
         <v>86</v>
@@ -59949,12 +60738,15 @@
         <v>86</v>
       </c>
       <c r="AI19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B20" t="s">
         <v>91</v>
@@ -60057,11 +60849,14 @@
       </c>
       <c r="AI20" t="s">
         <v>85</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B21" t="s">
         <v>87</v>
@@ -60164,11 +60959,14 @@
       </c>
       <c r="AI21" t="s">
         <v>84</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B22" t="s">
         <v>91</v>
@@ -60270,12 +61068,15 @@
         <v>85</v>
       </c>
       <c r="AI22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B23" t="s">
         <v>88</v>
@@ -60378,11 +61179,14 @@
       </c>
       <c r="AI23" t="s">
         <v>84</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B24" t="s">
         <v>88</v>
@@ -60485,11 +61289,14 @@
       </c>
       <c r="AI24" t="s">
         <v>88</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B25" t="s">
         <v>85</v>
@@ -60591,6 +61398,9 @@
         <v>84</v>
       </c>
       <c r="AI25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ25" t="s">
         <v>84</v>
       </c>
     </row>
@@ -60616,61 +61426,61 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K1" t="s">
         <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M1" t="s">
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="O1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
       </c>
       <c r="T1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="U1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="V1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="W1" t="s">
         <v>46</v>
@@ -60679,7 +61489,7 @@
         <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Z1" t="s">
         <v>50</v>
@@ -60691,7 +61501,7 @@
         <v>53</v>
       </c>
       <c r="AC1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AD1" t="s">
         <v>56</v>
@@ -60701,11 +61511,14 @@
       </c>
       <c r="AF1" t="s">
         <v>64</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -60799,11 +61612,14 @@
       </c>
       <c r="AF2" t="s">
         <v>86</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -60897,11 +61713,14 @@
       </c>
       <c r="AF3" t="s">
         <v>85</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -60994,12 +61813,15 @@
         <v>84</v>
       </c>
       <c r="AF4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B5" t="s">
         <v>91</v>
@@ -61092,12 +61914,15 @@
         <v>84</v>
       </c>
       <c r="AF5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -61191,11 +62016,14 @@
       </c>
       <c r="AF6" t="s">
         <v>86</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B7" t="s">
         <v>89</v>
@@ -61289,11 +62117,14 @@
       </c>
       <c r="AF7" t="s">
         <v>84</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B8" t="s">
         <v>88</v>
@@ -61386,12 +62217,15 @@
         <v>84</v>
       </c>
       <c r="AF8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -61485,11 +62319,14 @@
       </c>
       <c r="AF9" t="s">
         <v>86</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -61583,11 +62420,14 @@
       </c>
       <c r="AF10" t="s">
         <v>84</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -61680,12 +62520,15 @@
         <v>84</v>
       </c>
       <c r="AF11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B12" t="s">
         <v>86</v>
@@ -61779,11 +62622,14 @@
       </c>
       <c r="AF12" t="s">
         <v>84</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -61876,12 +62722,15 @@
         <v>91</v>
       </c>
       <c r="AF13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B14" t="s">
         <v>91</v>
@@ -61975,11 +62824,14 @@
       </c>
       <c r="AF14" t="s">
         <v>84</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B15" t="s">
         <v>85</v>
@@ -62072,12 +62924,15 @@
         <v>84</v>
       </c>
       <c r="AF15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B16" t="s">
         <v>91</v>
@@ -62171,11 +63026,14 @@
       </c>
       <c r="AF16" t="s">
         <v>84</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -62269,11 +63127,14 @@
       </c>
       <c r="AF17" t="s">
         <v>86</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -62366,12 +63227,15 @@
         <v>84</v>
       </c>
       <c r="AF18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B19" t="s">
         <v>89</v>
@@ -62465,11 +63329,14 @@
       </c>
       <c r="AF19" t="s">
         <v>91</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B20" t="s">
         <v>86</v>
@@ -62562,12 +63429,15 @@
         <v>84</v>
       </c>
       <c r="AF20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B21" t="s">
         <v>86</v>
@@ -62660,12 +63530,15 @@
         <v>84</v>
       </c>
       <c r="AF21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG21" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B22" t="s">
         <v>85</v>
@@ -62759,11 +63632,14 @@
       </c>
       <c r="AF22" t="s">
         <v>87</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B23" t="s">
         <v>86</v>
@@ -62857,11 +63733,14 @@
       </c>
       <c r="AF23" t="s">
         <v>84</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B24" t="s">
         <v>84</v>
@@ -62955,6 +63834,9 @@
       </c>
       <c r="AF24" t="s">
         <v>88</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -63063,7 +63945,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -63120,12 +64002,12 @@
         <v>57</v>
       </c>
       <c r="AY1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -63280,7 +64162,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -63435,7 +64317,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -63590,7 +64472,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -63745,7 +64627,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -63900,7 +64782,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -64055,7 +64937,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -64210,7 +65092,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -64365,7 +65247,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -64520,7 +65402,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -64675,7 +65557,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B12" t="s">
         <v>91</v>
@@ -64830,7 +65712,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -64985,7 +65867,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B14" t="s">
         <v>91</v>
@@ -65140,7 +66022,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -65295,7 +66177,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -65450,7 +66332,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -65605,7 +66487,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -65760,7 +66642,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -65915,7 +66797,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -66070,7 +66952,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>

--- a/YCmatrix.xlsx
+++ b/YCmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21411" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21924" uniqueCount="552">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -456,6 +456,15 @@
   </si>
   <si>
     <t>X2021.12.30</t>
+  </si>
+  <si>
+    <t>X2022.01.01</t>
+  </si>
+  <si>
+    <t>X2022.01.02</t>
+  </si>
+  <si>
+    <t>X2022.01.03</t>
   </si>
   <si>
     <t>Arsenal</t>
@@ -1457,6 +1466,9 @@
     <t>Stranraer</t>
   </si>
   <si>
+    <t>X2021.12.31</t>
+  </si>
+  <si>
     <t>Alaves</t>
   </si>
   <si>
@@ -5601,28 +5613,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="J1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
@@ -5631,7 +5643,7 @@
         <v>130</v>
       </c>
       <c r="M1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -5643,13 +5655,13 @@
         <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="R1" t="s">
         <v>24</v>
       </c>
       <c r="S1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="T1" t="s">
         <v>28</v>
@@ -5673,7 +5685,7 @@
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
@@ -5688,7 +5700,7 @@
         <v>47</v>
       </c>
       <c r="AF1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AG1" t="s">
         <v>52</v>
@@ -5703,15 +5715,15 @@
         <v>56</v>
       </c>
       <c r="AK1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AL1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B2" t="s">
         <v>90</v>
@@ -5827,7 +5839,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -5943,7 +5955,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B4" t="s">
         <v>88</v>
@@ -6059,7 +6071,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -6175,7 +6187,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -6291,7 +6303,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -6407,7 +6419,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B8" t="s">
         <v>88</v>
@@ -6523,7 +6535,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -6639,7 +6651,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -6755,7 +6767,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B11" t="s">
         <v>86</v>
@@ -6871,7 +6883,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B12" t="s">
         <v>88</v>
@@ -6987,7 +6999,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -7103,7 +7115,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B14" t="s">
         <v>88</v>
@@ -7219,7 +7231,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B15" t="s">
         <v>91</v>
@@ -7335,7 +7347,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -7451,7 +7463,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B17" t="s">
         <v>86</v>
@@ -7567,7 +7579,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -7683,7 +7695,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -7799,7 +7811,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B20" t="s">
         <v>86</v>
@@ -7915,7 +7927,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B21" t="s">
         <v>85</v>
@@ -8117,7 +8129,7 @@
         <v>48</v>
       </c>
       <c r="Z1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AA1" t="s">
         <v>50</v>
@@ -8156,12 +8168,12 @@
         <v>63</v>
       </c>
       <c r="AM1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -8280,7 +8292,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B3" t="s">
         <v>90</v>
@@ -8399,7 +8411,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -8518,7 +8530,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B5" t="s">
         <v>88</v>
@@ -8637,7 +8649,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -8756,7 +8768,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -8875,7 +8887,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -8994,7 +9006,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -9113,7 +9125,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -9232,7 +9244,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -9351,7 +9363,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B12" t="s">
         <v>88</v>
@@ -9470,7 +9482,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B13" t="s">
         <v>86</v>
@@ -9589,7 +9601,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -9708,7 +9720,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -9877,10 +9889,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="O1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -9925,13 +9937,13 @@
         <v>39</v>
       </c>
       <c r="AD1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AE1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AF1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -9958,7 +9970,7 @@
         <v>48</v>
       </c>
       <c r="AO1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AP1" t="s">
         <v>49</v>
@@ -9997,7 +10009,7 @@
         <v>57</v>
       </c>
       <c r="BB1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="BC1" t="s">
         <v>61</v>
@@ -10009,15 +10021,15 @@
         <v>63</v>
       </c>
       <c r="BF1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="BG1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -10196,7 +10208,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -10375,7 +10387,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -10554,7 +10566,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -10733,7 +10745,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -10912,7 +10924,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -11091,7 +11103,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B8" t="s">
         <v>86</v>
@@ -11270,7 +11282,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -11449,7 +11461,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -11628,7 +11640,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -11807,7 +11819,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -11986,7 +11998,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -12165,7 +12177,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -12344,7 +12356,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -12523,7 +12535,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -12702,7 +12714,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -12881,7 +12893,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -13060,7 +13072,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -13239,7 +13251,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -13418,7 +13430,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B21" t="s">
         <v>88</v>
@@ -13647,10 +13659,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="O1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -13686,10 +13698,10 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AB1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AC1" t="s">
         <v>133</v>
@@ -13719,7 +13731,7 @@
         <v>51</v>
       </c>
       <c r="AL1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AM1" t="s">
         <v>134</v>
@@ -13754,7 +13766,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -13900,7 +13912,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -14046,7 +14058,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -14192,7 +14204,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -14338,7 +14350,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -14484,7 +14496,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -14630,7 +14642,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -14776,7 +14788,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -14922,7 +14934,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -15068,7 +15080,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B11" t="s">
         <v>86</v>
@@ -15214,7 +15226,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -15360,7 +15372,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -15506,7 +15518,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -15652,13 +15664,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D15" t="s">
         <v>84</v>
@@ -15798,7 +15810,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -15944,7 +15956,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -16090,7 +16102,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -16236,7 +16248,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -16382,7 +16394,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -16528,7 +16540,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -16579,7 +16591,7 @@
         <v>84</v>
       </c>
       <c r="R21" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="S21" t="s">
         <v>84</v>
@@ -16730,7 +16742,7 @@
         <v>25</v>
       </c>
       <c r="P1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q1" t="s">
         <v>26</v>
@@ -16829,18 +16841,18 @@
         <v>63</v>
       </c>
       <c r="AW1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AX1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AY1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -16995,7 +17007,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -17150,7 +17162,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -17305,7 +17317,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -17460,7 +17472,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -17615,7 +17627,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B7" t="s">
         <v>91</v>
@@ -17770,7 +17782,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -17925,7 +17937,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B9" t="s">
         <v>91</v>
@@ -18080,7 +18092,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -18235,7 +18247,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -18390,7 +18402,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -18545,7 +18557,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -18700,7 +18712,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -18855,7 +18867,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -19010,7 +19022,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -19165,7 +19177,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -19320,7 +19332,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -19475,7 +19487,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -19653,7 +19665,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -19665,7 +19677,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -19707,7 +19719,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -19740,7 +19752,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -19773,7 +19785,7 @@
         <v>51</v>
       </c>
       <c r="AS1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AT1" t="s">
         <v>134</v>
@@ -19797,7 +19809,7 @@
         <v>57</v>
       </c>
       <c r="BA1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="BB1" t="s">
         <v>61</v>
@@ -19816,11 +19828,17 @@
       </c>
       <c r="BG1" t="s">
         <v>140</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -19995,11 +20013,17 @@
       </c>
       <c r="BG2" t="s">
         <v>86</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -20173,12 +20197,18 @@
         <v>84</v>
       </c>
       <c r="BG3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -20353,11 +20383,17 @@
       </c>
       <c r="BG4" t="s">
         <v>89</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -20531,12 +20567,18 @@
         <v>85</v>
       </c>
       <c r="BG5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -20710,12 +20752,18 @@
         <v>84</v>
       </c>
       <c r="BG6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -20889,12 +20937,18 @@
         <v>84</v>
       </c>
       <c r="BG7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -21068,12 +21122,18 @@
         <v>84</v>
       </c>
       <c r="BG8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -21247,12 +21307,18 @@
         <v>90</v>
       </c>
       <c r="BG9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -21372,7 +21438,7 @@
         <v>84</v>
       </c>
       <c r="AO10" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AP10" t="s">
         <v>84</v>
@@ -21426,12 +21492,18 @@
         <v>84</v>
       </c>
       <c r="BG10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -21606,11 +21678,17 @@
       </c>
       <c r="BG11" t="s">
         <v>84</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -21785,11 +21863,17 @@
       </c>
       <c r="BG12" t="s">
         <v>87</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -21963,12 +22047,18 @@
         <v>88</v>
       </c>
       <c r="BG13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -22143,11 +22233,17 @@
       </c>
       <c r="BG14" t="s">
         <v>88</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -22322,11 +22418,17 @@
       </c>
       <c r="BG15" t="s">
         <v>87</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -22501,11 +22603,17 @@
       </c>
       <c r="BG16" t="s">
         <v>85</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B17" t="s">
         <v>86</v>
@@ -22679,12 +22787,18 @@
         <v>87</v>
       </c>
       <c r="BG17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -22859,11 +22973,17 @@
       </c>
       <c r="BG18" t="s">
         <v>84</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B19" t="s">
         <v>88</v>
@@ -23037,6 +23157,12 @@
         <v>84</v>
       </c>
       <c r="BG19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI19" t="s">
         <v>84</v>
       </c>
     </row>
@@ -23113,7 +23239,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -23155,7 +23281,7 @@
         <v>54</v>
       </c>
       <c r="AI1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AJ1" t="s">
         <v>56</v>
@@ -23173,7 +23299,7 @@
         <v>62</v>
       </c>
       <c r="AO1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AP1" t="s">
         <v>64</v>
@@ -23181,7 +23307,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -23309,7 +23435,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B3" t="s">
         <v>91</v>
@@ -23437,7 +23563,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -23565,7 +23691,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -23693,7 +23819,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B6" t="s">
         <v>91</v>
@@ -23821,7 +23947,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -23949,7 +24075,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B8" t="s">
         <v>89</v>
@@ -24077,7 +24203,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -24205,7 +24331,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B10" t="s">
         <v>91</v>
@@ -24333,7 +24459,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B11" t="s">
         <v>87</v>
@@ -24461,7 +24587,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B12" t="s">
         <v>86</v>
@@ -24589,7 +24715,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -24734,7 +24860,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -24746,7 +24872,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -24764,7 +24890,7 @@
         <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="N1" t="s">
         <v>32</v>
@@ -24779,7 +24905,7 @@
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
@@ -24788,7 +24914,7 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="V1" t="s">
         <v>46</v>
@@ -24816,11 +24942,14 @@
       </c>
       <c r="AD1" t="s">
         <v>139</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -24908,11 +25037,14 @@
       </c>
       <c r="AD2" t="s">
         <v>84</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -24999,12 +25131,15 @@
         <v>85</v>
       </c>
       <c r="AD3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -25092,11 +25227,14 @@
       </c>
       <c r="AD4" t="s">
         <v>84</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B5" t="s">
         <v>91</v>
@@ -25184,11 +25322,14 @@
       </c>
       <c r="AD5" t="s">
         <v>84</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -25276,11 +25417,14 @@
       </c>
       <c r="AD6" t="s">
         <v>84</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -25368,11 +25512,14 @@
       </c>
       <c r="AD7" t="s">
         <v>86</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B8" t="s">
         <v>86</v>
@@ -25460,11 +25607,14 @@
       </c>
       <c r="AD8" t="s">
         <v>87</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -25551,12 +25701,15 @@
         <v>84</v>
       </c>
       <c r="AD9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -25644,11 +25797,14 @@
       </c>
       <c r="AD10" t="s">
         <v>84</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -25736,6 +25892,9 @@
       </c>
       <c r="AD11" t="s">
         <v>84</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -25772,7 +25931,7 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
@@ -25802,7 +25961,7 @@
         <v>44</v>
       </c>
       <c r="R1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="S1" t="s">
         <v>47</v>
@@ -25811,7 +25970,7 @@
         <v>53</v>
       </c>
       <c r="U1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="V1" t="s">
         <v>56</v>
@@ -25820,18 +25979,21 @@
         <v>62</v>
       </c>
       <c r="X1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Y1" t="s">
         <v>64</v>
       </c>
       <c r="Z1" t="s">
         <v>139</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
@@ -25906,12 +26068,15 @@
         <v>88</v>
       </c>
       <c r="Z2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -25986,12 +26151,15 @@
         <v>86</v>
       </c>
       <c r="Z3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -26066,12 +26234,15 @@
         <v>87</v>
       </c>
       <c r="Z4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B5" t="s">
         <v>91</v>
@@ -26147,11 +26318,14 @@
       </c>
       <c r="Z5" t="s">
         <v>84</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B6" t="s">
         <v>87</v>
@@ -26227,11 +26401,14 @@
       </c>
       <c r="Z6" t="s">
         <v>84</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
@@ -26307,11 +26484,14 @@
       </c>
       <c r="Z7" t="s">
         <v>84</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -26386,12 +26566,15 @@
         <v>88</v>
       </c>
       <c r="Z8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
@@ -26467,11 +26650,14 @@
       </c>
       <c r="Z9" t="s">
         <v>84</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -26547,11 +26733,14 @@
       </c>
       <c r="Z10" t="s">
         <v>84</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B11" t="s">
         <v>86</v>
@@ -26627,6 +26816,9 @@
       </c>
       <c r="Z11" t="s">
         <v>88</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -26666,7 +26858,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -26702,19 +26894,19 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="V1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="W1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Z1" t="s">
         <v>52</v>
@@ -26732,18 +26924,21 @@
         <v>62</v>
       </c>
       <c r="AE1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AF1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AG1" t="s">
         <v>64</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B2" t="s">
         <v>91</v>
@@ -26840,11 +27035,14 @@
       </c>
       <c r="AG2" t="s">
         <v>89</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -26941,11 +27139,14 @@
       </c>
       <c r="AG3" t="s">
         <v>91</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B4" t="s">
         <v>88</v>
@@ -27041,12 +27242,15 @@
         <v>91</v>
       </c>
       <c r="AG4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B5" t="s">
         <v>86</v>
@@ -27142,12 +27346,15 @@
         <v>86</v>
       </c>
       <c r="AG5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -27244,11 +27451,14 @@
       </c>
       <c r="AG6" t="s">
         <v>84</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -27345,11 +27555,14 @@
       </c>
       <c r="AG7" t="s">
         <v>85</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B8" t="s">
         <v>91</v>
@@ -27446,11 +27659,14 @@
       </c>
       <c r="AG8" t="s">
         <v>91</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B9" t="s">
         <v>88</v>
@@ -27547,11 +27763,14 @@
       </c>
       <c r="AG9" t="s">
         <v>88</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B10" t="s">
         <v>88</v>
@@ -27648,11 +27867,14 @@
       </c>
       <c r="AG10" t="s">
         <v>84</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -27749,6 +27971,9 @@
       </c>
       <c r="AG11" t="s">
         <v>86</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -30675,7 +30900,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -30717,10 +30942,10 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="T1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="U1" t="s">
         <v>26</v>
@@ -30765,16 +30990,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AJ1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AK1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AL1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -30804,7 +31029,7 @@
         <v>48</v>
       </c>
       <c r="AV1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AW1" t="s">
         <v>49</v>
@@ -30816,7 +31041,7 @@
         <v>51</v>
       </c>
       <c r="AZ1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="BA1" t="s">
         <v>135</v>
@@ -30843,7 +31068,7 @@
         <v>57</v>
       </c>
       <c r="BI1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="BJ1" t="s">
         <v>61</v>
@@ -30855,18 +31080,27 @@
         <v>63</v>
       </c>
       <c r="BM1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="BN1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="BO1" t="s">
-        <v>287</v>
+        <v>290</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>477</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -31064,12 +31298,21 @@
         <v>85</v>
       </c>
       <c r="BO2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BR2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -31267,12 +31510,21 @@
         <v>84</v>
       </c>
       <c r="BO3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -31471,11 +31723,20 @@
       </c>
       <c r="BO4" t="s">
         <v>86</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>88</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -31673,12 +31934,21 @@
         <v>88</v>
       </c>
       <c r="BO5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -31876,12 +32146,21 @@
         <v>84</v>
       </c>
       <c r="BO6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -32080,11 +32359,20 @@
       </c>
       <c r="BO7" t="s">
         <v>84</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -32282,12 +32570,21 @@
         <v>84</v>
       </c>
       <c r="BO8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -32485,12 +32782,21 @@
         <v>84</v>
       </c>
       <c r="BO9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>88</v>
+      </c>
+      <c r="BR9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -32688,12 +32994,21 @@
         <v>84</v>
       </c>
       <c r="BO10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>88</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B11" t="s">
         <v>88</v>
@@ -32891,12 +33206,21 @@
         <v>84</v>
       </c>
       <c r="BO11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>88</v>
+      </c>
+      <c r="BR11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -33095,11 +33419,20 @@
       </c>
       <c r="BO12" t="s">
         <v>87</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>88</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -33298,11 +33631,20 @@
       </c>
       <c r="BO13" t="s">
         <v>84</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -33500,12 +33842,21 @@
         <v>84</v>
       </c>
       <c r="BO14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>89</v>
+      </c>
+      <c r="BR14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -33704,11 +34055,20 @@
       </c>
       <c r="BO15" t="s">
         <v>84</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -33907,11 +34267,20 @@
       </c>
       <c r="BO16" t="s">
         <v>85</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -34110,11 +34479,20 @@
       </c>
       <c r="BO17" t="s">
         <v>84</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -34312,12 +34690,21 @@
         <v>84</v>
       </c>
       <c r="BO18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>88</v>
+      </c>
+      <c r="BR18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B19" t="s">
         <v>90</v>
@@ -34515,12 +34902,21 @@
         <v>84</v>
       </c>
       <c r="BO19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -34718,12 +35114,21 @@
         <v>84</v>
       </c>
       <c r="BO20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -34922,6 +35327,15 @@
       </c>
       <c r="BO21" t="s">
         <v>84</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR21" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -34949,7 +35363,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -34973,19 +35387,19 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="N1" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="O1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P1" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="Q1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
@@ -35009,7 +35423,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -35033,19 +35447,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="AH1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AI1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AJ1" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="AK1" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -35057,13 +35471,13 @@
         <v>36</v>
       </c>
       <c r="AO1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AP1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AQ1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -35075,7 +35489,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -35090,13 +35504,13 @@
         <v>133</v>
       </c>
       <c r="AZ1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BA1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="BB1" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -35108,19 +35522,19 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="BG1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="BH1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="BI1" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="BJ1" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -35132,7 +35546,7 @@
         <v>48</v>
       </c>
       <c r="BN1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="BO1" t="s">
         <v>49</v>
@@ -35144,7 +35558,7 @@
         <v>51</v>
       </c>
       <c r="BR1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="BS1" t="s">
         <v>52</v>
@@ -35168,7 +35582,7 @@
         <v>57</v>
       </c>
       <c r="BZ1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="CA1" t="s">
         <v>61</v>
@@ -35178,11 +35592,20 @@
       </c>
       <c r="CC1" t="s">
         <v>63</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>477</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>142</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -35423,11 +35846,20 @@
       </c>
       <c r="CC2" t="s">
         <v>86</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -35667,12 +36099,21 @@
         <v>84</v>
       </c>
       <c r="CC3" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -35913,11 +36354,20 @@
       </c>
       <c r="CC4" t="s">
         <v>87</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -36157,12 +36607,21 @@
         <v>84</v>
       </c>
       <c r="CC5" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -36246,7 +36705,7 @@
         <v>84</v>
       </c>
       <c r="AC6" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="AD6" t="s">
         <v>84</v>
@@ -36403,11 +36862,20 @@
       </c>
       <c r="CC6" t="s">
         <v>86</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>89</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
@@ -36647,12 +37115,21 @@
         <v>90</v>
       </c>
       <c r="CC7" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -36893,11 +37370,20 @@
       </c>
       <c r="CC8" t="s">
         <v>89</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -37137,12 +37623,21 @@
         <v>84</v>
       </c>
       <c r="CC9" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -37383,11 +37878,20 @@
       </c>
       <c r="CC10" t="s">
         <v>86</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -37627,12 +38131,21 @@
         <v>87</v>
       </c>
       <c r="CC11" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>86</v>
+      </c>
+      <c r="CF11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -37872,12 +38385,21 @@
         <v>89</v>
       </c>
       <c r="CC12" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE12" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -38117,12 +38639,21 @@
         <v>85</v>
       </c>
       <c r="CC13" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -38362,12 +38893,21 @@
         <v>84</v>
       </c>
       <c r="CC14" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>88</v>
+      </c>
+      <c r="CF14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -38608,11 +39148,20 @@
       </c>
       <c r="CC15" t="s">
         <v>84</v>
+      </c>
+      <c r="CD15" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE15" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF15" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -38853,11 +39402,20 @@
       </c>
       <c r="CC16" t="s">
         <v>91</v>
+      </c>
+      <c r="CD16" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CF16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -39098,11 +39656,20 @@
       </c>
       <c r="CC17" t="s">
         <v>88</v>
+      </c>
+      <c r="CD17" t="s">
+        <v>86</v>
+      </c>
+      <c r="CE17" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -39343,11 +39910,20 @@
       </c>
       <c r="CC18" t="s">
         <v>86</v>
+      </c>
+      <c r="CD18" t="s">
+        <v>89</v>
+      </c>
+      <c r="CE18" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -39413,7 +39989,7 @@
         <v>84</v>
       </c>
       <c r="W19" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="X19" t="s">
         <v>84</v>
@@ -39588,11 +40164,20 @@
       </c>
       <c r="CC19" t="s">
         <v>85</v>
+      </c>
+      <c r="CD19" t="s">
+        <v>86</v>
+      </c>
+      <c r="CE19" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF19" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -39832,12 +40417,21 @@
         <v>86</v>
       </c>
       <c r="CC20" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD20" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE20" t="s">
+        <v>86</v>
+      </c>
+      <c r="CF20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -40078,11 +40672,20 @@
       </c>
       <c r="CC21" t="s">
         <v>88</v>
+      </c>
+      <c r="CD21" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE21" t="s">
+        <v>86</v>
+      </c>
+      <c r="CF21" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -40323,11 +40926,20 @@
       </c>
       <c r="CC22" t="s">
         <v>86</v>
+      </c>
+      <c r="CD22" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE22" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF22" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B23" t="s">
         <v>85</v>
@@ -40568,6 +41180,15 @@
       </c>
       <c r="CC23" t="s">
         <v>85</v>
+      </c>
+      <c r="CD23" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE23" t="s">
+        <v>88</v>
+      </c>
+      <c r="CF23" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -40595,7 +41216,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -40637,7 +41258,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="T1" t="s">
         <v>26</v>
@@ -40688,7 +41309,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -40718,7 +41339,7 @@
         <v>48</v>
       </c>
       <c r="AT1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AU1" t="s">
         <v>49</v>
@@ -40730,7 +41351,7 @@
         <v>51</v>
       </c>
       <c r="AX1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AY1" t="s">
         <v>52</v>
@@ -40754,7 +41375,7 @@
         <v>57</v>
       </c>
       <c r="BF1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="BG1" t="s">
         <v>61</v>
@@ -40766,16 +41387,16 @@
         <v>63</v>
       </c>
       <c r="BJ1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="BK1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="BL1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="BM1" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="BN1" t="s">
         <v>64</v>
@@ -40786,7 +41407,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -40989,7 +41610,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -41192,7 +41813,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -41395,7 +42016,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -41598,7 +42219,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -41801,7 +42422,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -42004,7 +42625,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -42207,7 +42828,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -42410,7 +43031,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -42613,7 +43234,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -42816,7 +43437,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -43019,7 +43640,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -43222,7 +43843,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -43425,7 +44046,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -43628,7 +44249,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -43831,7 +44452,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -44034,7 +44655,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B18" t="s">
         <v>86</v>
@@ -44237,7 +44858,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -44440,7 +45061,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -44643,7 +45264,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -48205,10 +48826,19 @@
       <c r="BC1" t="s">
         <v>140</v>
       </c>
+      <c r="BD1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
         <v>91</v>
@@ -48370,12 +49000,21 @@
         <v>84</v>
       </c>
       <c r="BC2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -48537,12 +49176,21 @@
         <v>84</v>
       </c>
       <c r="BC3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
         <v>91</v>
@@ -48704,12 +49352,21 @@
         <v>91</v>
       </c>
       <c r="BC4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -48871,12 +49528,21 @@
         <v>86</v>
       </c>
       <c r="BC5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -49039,11 +49705,20 @@
       </c>
       <c r="BC6" t="s">
         <v>91</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -49205,12 +49880,21 @@
         <v>87</v>
       </c>
       <c r="BC7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -49372,12 +50056,21 @@
         <v>84</v>
       </c>
       <c r="BC8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>91</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -49539,12 +50232,21 @@
         <v>84</v>
       </c>
       <c r="BC9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -49706,12 +50408,21 @@
         <v>84</v>
       </c>
       <c r="BC10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -49873,12 +50584,21 @@
         <v>84</v>
       </c>
       <c r="BC11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -50040,12 +50760,21 @@
         <v>84</v>
       </c>
       <c r="BC12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -50207,12 +50936,21 @@
         <v>91</v>
       </c>
       <c r="BC13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -50375,11 +51113,20 @@
       </c>
       <c r="BC14" t="s">
         <v>91</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -50541,12 +51288,21 @@
         <v>84</v>
       </c>
       <c r="BC15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -50708,12 +51464,21 @@
         <v>84</v>
       </c>
       <c r="BC16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -50875,12 +51640,21 @@
         <v>84</v>
       </c>
       <c r="BC17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -51042,12 +51816,21 @@
         <v>84</v>
       </c>
       <c r="BC18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -51209,12 +51992,21 @@
         <v>84</v>
       </c>
       <c r="BC19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>91</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -51376,12 +52168,21 @@
         <v>84</v>
       </c>
       <c r="BC20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -51544,6 +52345,15 @@
       </c>
       <c r="BC21" t="s">
         <v>84</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -51574,10 +52384,10 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H1" t="s">
         <v>13</v>
@@ -51598,10 +52408,10 @@
         <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="O1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P1" t="s">
         <v>24</v>
@@ -51613,10 +52423,10 @@
         <v>29</v>
       </c>
       <c r="S1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="T1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -51634,10 +52444,10 @@
         <v>36</v>
       </c>
       <c r="Z1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AA1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AB1" t="s">
         <v>38</v>
@@ -51652,10 +52462,10 @@
         <v>41</v>
       </c>
       <c r="AF1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AG1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AH1" t="s">
         <v>44</v>
@@ -51670,7 +52480,7 @@
         <v>48</v>
       </c>
       <c r="AL1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AM1" t="s">
         <v>111</v>
@@ -51685,7 +52495,7 @@
         <v>51</v>
       </c>
       <c r="AQ1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AR1" t="s">
         <v>52</v>
@@ -51706,7 +52516,7 @@
         <v>62</v>
       </c>
       <c r="AX1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AY1" t="s">
         <v>64</v>
@@ -51719,11 +52529,20 @@
       </c>
       <c r="BB1" t="s">
         <v>140</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -51735,7 +52554,7 @@
         <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F2" t="s">
         <v>86</v>
@@ -51882,12 +52701,21 @@
         <v>86</v>
       </c>
       <c r="BB2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -52046,12 +52874,21 @@
         <v>84</v>
       </c>
       <c r="BB3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -52210,12 +53047,21 @@
         <v>88</v>
       </c>
       <c r="BB4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -52374,12 +53220,21 @@
         <v>85</v>
       </c>
       <c r="BB5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>91</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -52539,11 +53394,20 @@
       </c>
       <c r="BB6" t="s">
         <v>86</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -52703,11 +53567,20 @@
       </c>
       <c r="BB7" t="s">
         <v>86</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -52867,11 +53740,20 @@
       </c>
       <c r="BB8" t="s">
         <v>85</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -53030,12 +53912,21 @@
         <v>86</v>
       </c>
       <c r="BB9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -53195,11 +54086,20 @@
       </c>
       <c r="BB10" t="s">
         <v>86</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -53358,12 +54258,21 @@
         <v>84</v>
       </c>
       <c r="BB11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -53523,11 +54432,20 @@
       </c>
       <c r="BB12" t="s">
         <v>85</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -53686,12 +54604,21 @@
         <v>84</v>
       </c>
       <c r="BB13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -53850,12 +54777,21 @@
         <v>84</v>
       </c>
       <c r="BB14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -54014,12 +54950,21 @@
         <v>87</v>
       </c>
       <c r="BB15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -54178,12 +55123,21 @@
         <v>86</v>
       </c>
       <c r="BB16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -54343,11 +55297,20 @@
       </c>
       <c r="BB17" t="s">
         <v>86</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -54506,12 +55469,21 @@
         <v>84</v>
       </c>
       <c r="BB18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -54671,11 +55643,20 @@
       </c>
       <c r="BB19" t="s">
         <v>84</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -54835,11 +55816,20 @@
       </c>
       <c r="BB20" t="s">
         <v>88</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -54999,11 +55989,20 @@
       </c>
       <c r="BB21" t="s">
         <v>84</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -55162,12 +56161,21 @@
         <v>84</v>
       </c>
       <c r="BB22" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B23" t="s">
         <v>84</v>
@@ -55326,12 +56334,21 @@
         <v>84</v>
       </c>
       <c r="BB23" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE23" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B24" t="s">
         <v>84</v>
@@ -55490,12 +56507,21 @@
         <v>84</v>
       </c>
       <c r="BB24" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B25" t="s">
         <v>88</v>
@@ -55654,6 +56680,15 @@
         <v>84</v>
       </c>
       <c r="BB25" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC25" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE25" t="s">
         <v>84</v>
       </c>
     </row>
@@ -55679,7 +56714,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -55691,34 +56726,34 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L1" t="s">
         <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="N1" t="s">
         <v>29</v>
       </c>
       <c r="O1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P1" t="s">
         <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="R1" t="s">
         <v>34</v>
@@ -55727,31 +56762,31 @@
         <v>35</v>
       </c>
       <c r="T1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="U1" t="s">
         <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="W1" t="s">
         <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Y1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Z1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AC1" t="s">
         <v>50</v>
@@ -55763,10 +56798,10 @@
         <v>53</v>
       </c>
       <c r="AF1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AG1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AH1" t="s">
         <v>56</v>
@@ -55785,11 +56820,20 @@
       </c>
       <c r="AM1" t="s">
         <v>140</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
@@ -55903,12 +56947,21 @@
         <v>85</v>
       </c>
       <c r="AM2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
         <v>88</v>
@@ -56022,12 +57075,21 @@
         <v>88</v>
       </c>
       <c r="AM3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -56141,12 +57203,21 @@
         <v>84</v>
       </c>
       <c r="AM4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -56260,12 +57331,21 @@
         <v>84</v>
       </c>
       <c r="AM5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -56380,11 +57460,20 @@
       </c>
       <c r="AM6" t="s">
         <v>84</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
@@ -56498,12 +57587,21 @@
         <v>84</v>
       </c>
       <c r="AM7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B8" t="s">
         <v>86</v>
@@ -56617,12 +57715,21 @@
         <v>84</v>
       </c>
       <c r="AM8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
@@ -56736,12 +57843,21 @@
         <v>85</v>
       </c>
       <c r="AM9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B10" t="s">
         <v>91</v>
@@ -56855,12 +57971,21 @@
         <v>84</v>
       </c>
       <c r="AM10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B11" t="s">
         <v>91</v>
@@ -56974,12 +58099,21 @@
         <v>84</v>
       </c>
       <c r="AM11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -57093,12 +58227,21 @@
         <v>84</v>
       </c>
       <c r="AM12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B13" t="s">
         <v>88</v>
@@ -57212,12 +58355,21 @@
         <v>88</v>
       </c>
       <c r="AM13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -57331,12 +58483,21 @@
         <v>84</v>
       </c>
       <c r="AM14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B15" t="s">
         <v>91</v>
@@ -57450,12 +58611,21 @@
         <v>84</v>
       </c>
       <c r="AM15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -57569,12 +58739,21 @@
         <v>91</v>
       </c>
       <c r="AM16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -57688,12 +58867,21 @@
         <v>85</v>
       </c>
       <c r="AM17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B18" t="s">
         <v>91</v>
@@ -57807,12 +58995,21 @@
         <v>84</v>
       </c>
       <c r="AM18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B19" t="s">
         <v>88</v>
@@ -57927,11 +59124,20 @@
       </c>
       <c r="AM19" t="s">
         <v>84</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B20" t="s">
         <v>85</v>
@@ -58045,12 +59251,21 @@
         <v>84</v>
       </c>
       <c r="AM20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B21" t="s">
         <v>88</v>
@@ -58165,11 +59380,20 @@
       </c>
       <c r="AM21" t="s">
         <v>86</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s">
         <v>86</v>
@@ -58283,12 +59507,21 @@
         <v>85</v>
       </c>
       <c r="AM22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s">
         <v>86</v>
@@ -58403,11 +59636,20 @@
       </c>
       <c r="AM23" t="s">
         <v>85</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s">
         <v>87</v>
@@ -58521,12 +59763,21 @@
         <v>84</v>
       </c>
       <c r="AM24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B25" t="s">
         <v>91</v>
@@ -58640,6 +59891,15 @@
         <v>86</v>
       </c>
       <c r="AM25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP25" t="s">
         <v>84</v>
       </c>
     </row>
@@ -58665,13 +59925,13 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -58680,7 +59940,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -58689,13 +59949,13 @@
         <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M1" t="s">
         <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="O1" t="s">
         <v>28</v>
@@ -58707,37 +59967,37 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="S1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="T1" t="s">
         <v>35</v>
       </c>
       <c r="U1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="V1" t="s">
         <v>38</v>
       </c>
       <c r="W1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="X1" t="s">
         <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Z1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AC1" t="s">
         <v>49</v>
@@ -58746,10 +60006,10 @@
         <v>50</v>
       </c>
       <c r="AE1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AF1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AG1" t="s">
         <v>56</v>
@@ -58762,11 +60022,14 @@
       </c>
       <c r="AJ1" t="s">
         <v>139</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B2" t="s">
         <v>90</v>
@@ -58872,11 +60135,14 @@
       </c>
       <c r="AJ2" t="s">
         <v>86</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B3" t="s">
         <v>91</v>
@@ -58982,11 +60248,14 @@
       </c>
       <c r="AJ3" t="s">
         <v>84</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -59091,12 +60360,15 @@
         <v>84</v>
       </c>
       <c r="AJ4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -59202,11 +60474,14 @@
       </c>
       <c r="AJ5" t="s">
         <v>84</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B6" t="s">
         <v>91</v>
@@ -59312,11 +60587,14 @@
       </c>
       <c r="AJ6" t="s">
         <v>84</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B7" t="s">
         <v>91</v>
@@ -59422,11 +60700,14 @@
       </c>
       <c r="AJ7" t="s">
         <v>84</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -59532,11 +60813,14 @@
       </c>
       <c r="AJ8" t="s">
         <v>84</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B9" t="s">
         <v>88</v>
@@ -59642,11 +60926,14 @@
       </c>
       <c r="AJ9" t="s">
         <v>84</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -59751,12 +61038,15 @@
         <v>84</v>
       </c>
       <c r="AJ10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B11" t="s">
         <v>91</v>
@@ -59862,11 +61152,14 @@
       </c>
       <c r="AJ11" t="s">
         <v>84</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B12" t="s">
         <v>86</v>
@@ -59971,12 +61264,15 @@
         <v>84</v>
       </c>
       <c r="AJ12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -60081,12 +61377,15 @@
         <v>86</v>
       </c>
       <c r="AJ13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -60192,11 +61491,14 @@
       </c>
       <c r="AJ14" t="s">
         <v>84</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B15" t="s">
         <v>87</v>
@@ -60302,11 +61604,14 @@
       </c>
       <c r="AJ15" t="s">
         <v>84</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B16" t="s">
         <v>88</v>
@@ -60412,11 +61717,14 @@
       </c>
       <c r="AJ16" t="s">
         <v>85</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -60521,12 +61829,15 @@
         <v>84</v>
       </c>
       <c r="AJ17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -60631,12 +61942,15 @@
         <v>84</v>
       </c>
       <c r="AJ18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B19" t="s">
         <v>86</v>
@@ -60741,12 +62055,15 @@
         <v>84</v>
       </c>
       <c r="AJ19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B20" t="s">
         <v>91</v>
@@ -60852,11 +62169,14 @@
       </c>
       <c r="AJ20" t="s">
         <v>84</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B21" t="s">
         <v>87</v>
@@ -60961,12 +62281,15 @@
         <v>84</v>
       </c>
       <c r="AJ21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK21" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B22" t="s">
         <v>91</v>
@@ -61072,11 +62395,14 @@
       </c>
       <c r="AJ22" t="s">
         <v>84</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B23" t="s">
         <v>88</v>
@@ -61181,12 +62507,15 @@
         <v>84</v>
       </c>
       <c r="AJ23" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK23" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B24" t="s">
         <v>88</v>
@@ -61291,12 +62620,15 @@
         <v>88</v>
       </c>
       <c r="AJ24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B25" t="s">
         <v>85</v>
@@ -61402,6 +62734,9 @@
       </c>
       <c r="AJ25" t="s">
         <v>84</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -61426,61 +62761,61 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K1" t="s">
         <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M1" t="s">
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="O1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
       </c>
       <c r="T1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="U1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="V1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="W1" t="s">
         <v>46</v>
@@ -61489,7 +62824,7 @@
         <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Z1" t="s">
         <v>50</v>
@@ -61501,7 +62836,7 @@
         <v>53</v>
       </c>
       <c r="AC1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AD1" t="s">
         <v>56</v>
@@ -61514,11 +62849,20 @@
       </c>
       <c r="AG1" t="s">
         <v>138</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -61615,11 +62959,20 @@
       </c>
       <c r="AG2" t="s">
         <v>91</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -61716,11 +63069,20 @@
       </c>
       <c r="AG3" t="s">
         <v>86</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -61816,12 +63178,21 @@
         <v>84</v>
       </c>
       <c r="AG4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B5" t="s">
         <v>91</v>
@@ -61917,12 +63288,21 @@
         <v>84</v>
       </c>
       <c r="AG5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -62019,11 +63399,20 @@
       </c>
       <c r="AG6" t="s">
         <v>91</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B7" t="s">
         <v>89</v>
@@ -62120,11 +63509,20 @@
       </c>
       <c r="AG7" t="s">
         <v>85</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B8" t="s">
         <v>88</v>
@@ -62221,11 +63619,20 @@
       </c>
       <c r="AG8" t="s">
         <v>86</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -62322,11 +63729,20 @@
       </c>
       <c r="AG9" t="s">
         <v>87</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -62423,11 +63839,20 @@
       </c>
       <c r="AG10" t="s">
         <v>88</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -62524,11 +63949,20 @@
       </c>
       <c r="AG11" t="s">
         <v>84</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B12" t="s">
         <v>86</v>
@@ -62625,11 +64059,20 @@
       </c>
       <c r="AG12" t="s">
         <v>85</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -62725,12 +64168,21 @@
         <v>84</v>
       </c>
       <c r="AG13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B14" t="s">
         <v>91</v>
@@ -62827,11 +64279,20 @@
       </c>
       <c r="AG14" t="s">
         <v>85</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B15" t="s">
         <v>85</v>
@@ -62927,12 +64388,21 @@
         <v>84</v>
       </c>
       <c r="AG15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B16" t="s">
         <v>91</v>
@@ -63029,11 +64499,20 @@
       </c>
       <c r="AG16" t="s">
         <v>85</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -63129,12 +64608,21 @@
         <v>86</v>
       </c>
       <c r="AG17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -63231,11 +64719,20 @@
       </c>
       <c r="AG18" t="s">
         <v>91</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B19" t="s">
         <v>89</v>
@@ -63332,11 +64829,20 @@
       </c>
       <c r="AG19" t="s">
         <v>88</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B20" t="s">
         <v>86</v>
@@ -63432,12 +64938,21 @@
         <v>84</v>
       </c>
       <c r="AG20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B21" t="s">
         <v>86</v>
@@ -63533,12 +65048,21 @@
         <v>84</v>
       </c>
       <c r="AG21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ21" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B22" t="s">
         <v>85</v>
@@ -63635,11 +65159,20 @@
       </c>
       <c r="AG22" t="s">
         <v>86</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B23" t="s">
         <v>86</v>
@@ -63736,11 +65269,20 @@
       </c>
       <c r="AG23" t="s">
         <v>85</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B24" t="s">
         <v>84</v>
@@ -63836,6 +65378,15 @@
         <v>88</v>
       </c>
       <c r="AG24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ24" t="s">
         <v>84</v>
       </c>
     </row>
@@ -63945,7 +65496,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -64002,12 +65553,12 @@
         <v>57</v>
       </c>
       <c r="AY1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -64162,7 +65713,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -64317,7 +65868,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -64472,7 +66023,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -64627,7 +66178,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -64782,7 +66333,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -64937,7 +66488,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -65092,7 +66643,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -65247,7 +66798,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -65402,7 +66953,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -65557,7 +67108,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B12" t="s">
         <v>91</v>
@@ -65712,7 +67263,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -65867,7 +67418,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B14" t="s">
         <v>91</v>
@@ -66022,7 +67573,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -66177,7 +67728,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -66332,7 +67883,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -66487,7 +68038,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -66642,7 +68193,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -66797,7 +68348,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -66952,7 +68503,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>

--- a/YCmatrix.xlsx
+++ b/YCmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21924" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22541" uniqueCount="558">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -312,6 +312,15 @@
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>X2022.01.07</t>
+  </si>
+  <si>
+    <t>X2022.01.08</t>
+  </si>
+  <si>
+    <t>X2022.01.09</t>
   </si>
   <si>
     <t>Augsburg</t>
@@ -746,6 +755,9 @@
     <t>X2021.10.08</t>
   </si>
   <si>
+    <t>X2022.01.04</t>
+  </si>
+  <si>
     <t>Barrow</t>
   </si>
   <si>
@@ -1055,6 +1067,9 @@
     <t>Valenciennes</t>
   </si>
   <si>
+    <t>X2022.01.05</t>
+  </si>
+  <si>
     <t>AEK</t>
   </si>
   <si>
@@ -1101,6 +1116,9 @@
   </si>
   <si>
     <t>X2021.10.28</t>
+  </si>
+  <si>
+    <t>X2022.01.06</t>
   </si>
   <si>
     <t>Atalanta</t>
@@ -5613,37 +5631,37 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="J1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -5655,13 +5673,13 @@
         <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="R1" t="s">
         <v>24</v>
       </c>
       <c r="S1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="T1" t="s">
         <v>28</v>
@@ -5670,7 +5688,7 @@
         <v>29</v>
       </c>
       <c r="V1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="W1" t="s">
         <v>32</v>
@@ -5679,19 +5697,19 @@
         <v>35</v>
       </c>
       <c r="Y1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Z1" t="s">
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
       </c>
       <c r="AC1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AD1" t="s">
         <v>44</v>
@@ -5700,7 +5718,7 @@
         <v>47</v>
       </c>
       <c r="AF1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AG1" t="s">
         <v>52</v>
@@ -5709,21 +5727,24 @@
         <v>53</v>
       </c>
       <c r="AI1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AJ1" t="s">
         <v>56</v>
       </c>
       <c r="AK1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AL1" t="s">
-        <v>319</v>
+        <v>323</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B2" t="s">
         <v>90</v>
@@ -5835,11 +5856,14 @@
       </c>
       <c r="AL2" t="s">
         <v>86</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -5951,11 +5975,14 @@
       </c>
       <c r="AL3" t="s">
         <v>86</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B4" t="s">
         <v>88</v>
@@ -6067,11 +6094,14 @@
       </c>
       <c r="AL4" t="s">
         <v>89</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -6183,11 +6213,14 @@
       </c>
       <c r="AL5" t="s">
         <v>88</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -6299,11 +6332,14 @@
       </c>
       <c r="AL6" t="s">
         <v>86</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -6415,11 +6451,14 @@
       </c>
       <c r="AL7" t="s">
         <v>85</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B8" t="s">
         <v>88</v>
@@ -6531,11 +6570,14 @@
       </c>
       <c r="AL8" t="s">
         <v>88</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -6647,11 +6689,14 @@
       </c>
       <c r="AL9" t="s">
         <v>87</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -6763,11 +6808,14 @@
       </c>
       <c r="AL10" t="s">
         <v>85</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B11" t="s">
         <v>86</v>
@@ -6879,11 +6927,14 @@
       </c>
       <c r="AL11" t="s">
         <v>87</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B12" t="s">
         <v>88</v>
@@ -6995,11 +7046,14 @@
       </c>
       <c r="AL12" t="s">
         <v>86</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -7111,11 +7165,14 @@
       </c>
       <c r="AL13" t="s">
         <v>87</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B14" t="s">
         <v>88</v>
@@ -7227,11 +7284,14 @@
       </c>
       <c r="AL14" t="s">
         <v>91</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B15" t="s">
         <v>91</v>
@@ -7343,11 +7403,14 @@
       </c>
       <c r="AL15" t="s">
         <v>86</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -7458,12 +7521,15 @@
         <v>84</v>
       </c>
       <c r="AL16" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B17" t="s">
         <v>86</v>
@@ -7574,12 +7640,15 @@
         <v>84</v>
       </c>
       <c r="AL17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM17" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -7690,12 +7759,15 @@
         <v>88</v>
       </c>
       <c r="AL18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM18" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -7806,12 +7878,15 @@
         <v>84</v>
       </c>
       <c r="AL19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM19" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B20" t="s">
         <v>86</v>
@@ -7923,11 +7998,14 @@
       </c>
       <c r="AL20" t="s">
         <v>88</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B21" t="s">
         <v>85</v>
@@ -8039,6 +8117,9 @@
       </c>
       <c r="AL21" t="s">
         <v>88</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -8084,7 +8165,7 @@
         <v>30</v>
       </c>
       <c r="K1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L1" t="s">
         <v>32</v>
@@ -8099,7 +8180,7 @@
         <v>36</v>
       </c>
       <c r="P1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
@@ -8114,7 +8195,7 @@
         <v>42</v>
       </c>
       <c r="U1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="V1" t="s">
         <v>44</v>
@@ -8129,7 +8210,7 @@
         <v>48</v>
       </c>
       <c r="Z1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AA1" t="s">
         <v>50</v>
@@ -8144,7 +8225,7 @@
         <v>54</v>
       </c>
       <c r="AE1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AF1" t="s">
         <v>56</v>
@@ -8168,12 +8249,24 @@
         <v>63</v>
       </c>
       <c r="AM1" t="s">
-        <v>176</v>
+        <v>179</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -8288,11 +8381,23 @@
       </c>
       <c r="AM2" t="s">
         <v>88</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B3" t="s">
         <v>90</v>
@@ -8406,12 +8511,24 @@
         <v>84</v>
       </c>
       <c r="AM3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -8526,11 +8643,23 @@
       </c>
       <c r="AM4" t="s">
         <v>85</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B5" t="s">
         <v>88</v>
@@ -8644,12 +8773,24 @@
         <v>87</v>
       </c>
       <c r="AM5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -8763,12 +8904,24 @@
         <v>84</v>
       </c>
       <c r="AM6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -8882,12 +9035,24 @@
         <v>88</v>
       </c>
       <c r="AM7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -9002,11 +9167,23 @@
       </c>
       <c r="AM8" t="s">
         <v>86</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -9120,12 +9297,24 @@
         <v>85</v>
       </c>
       <c r="AM9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -9240,11 +9429,23 @@
       </c>
       <c r="AM10" t="s">
         <v>89</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -9358,12 +9559,24 @@
         <v>86</v>
       </c>
       <c r="AM11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B12" t="s">
         <v>88</v>
@@ -9478,11 +9691,23 @@
       </c>
       <c r="AM12" t="s">
         <v>84</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B13" t="s">
         <v>86</v>
@@ -9596,12 +9821,24 @@
         <v>84</v>
       </c>
       <c r="AM13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -9715,12 +9952,24 @@
         <v>86</v>
       </c>
       <c r="AM14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -9835,6 +10084,18 @@
       </c>
       <c r="AM15" t="s">
         <v>84</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -9859,7 +10120,7 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
@@ -9889,10 +10150,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="O1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -9907,7 +10168,7 @@
         <v>30</v>
       </c>
       <c r="T1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -9925,7 +10186,7 @@
         <v>36</v>
       </c>
       <c r="Z1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AA1" t="s">
         <v>37</v>
@@ -9937,13 +10198,13 @@
         <v>39</v>
       </c>
       <c r="AD1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AE1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AF1" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -9952,7 +10213,7 @@
         <v>42</v>
       </c>
       <c r="AI1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AJ1" t="s">
         <v>43</v>
@@ -9970,7 +10231,7 @@
         <v>48</v>
       </c>
       <c r="AO1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AP1" t="s">
         <v>49</v>
@@ -9982,13 +10243,13 @@
         <v>51</v>
       </c>
       <c r="AS1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AT1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AU1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AV1" t="s">
         <v>53</v>
@@ -9997,7 +10258,7 @@
         <v>54</v>
       </c>
       <c r="AX1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AY1" t="s">
         <v>55</v>
@@ -10009,7 +10270,7 @@
         <v>57</v>
       </c>
       <c r="BB1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="BC1" t="s">
         <v>61</v>
@@ -10021,15 +10282,21 @@
         <v>63</v>
       </c>
       <c r="BF1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="BG1" t="s">
-        <v>290</v>
+        <v>294</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>361</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -10204,11 +10471,17 @@
       </c>
       <c r="BG2" t="s">
         <v>84</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -10383,11 +10656,17 @@
       </c>
       <c r="BG3" t="s">
         <v>88</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -10561,12 +10840,18 @@
         <v>88</v>
       </c>
       <c r="BG4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -10741,11 +11026,17 @@
       </c>
       <c r="BG5" t="s">
         <v>86</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -10920,11 +11211,17 @@
       </c>
       <c r="BG6" t="s">
         <v>86</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -11099,11 +11396,17 @@
       </c>
       <c r="BG7" t="s">
         <v>84</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B8" t="s">
         <v>86</v>
@@ -11277,12 +11580,18 @@
         <v>84</v>
       </c>
       <c r="BG8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -11457,11 +11766,17 @@
       </c>
       <c r="BG9" t="s">
         <v>84</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -11636,11 +11951,17 @@
       </c>
       <c r="BG10" t="s">
         <v>88</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -11815,11 +12136,17 @@
       </c>
       <c r="BG11" t="s">
         <v>85</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -11994,11 +12321,17 @@
       </c>
       <c r="BG12" t="s">
         <v>85</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -12173,11 +12506,17 @@
       </c>
       <c r="BG13" t="s">
         <v>91</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>90</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -12352,11 +12691,17 @@
       </c>
       <c r="BG14" t="s">
         <v>84</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -12531,11 +12876,17 @@
       </c>
       <c r="BG15" t="s">
         <v>88</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -12710,11 +13061,17 @@
       </c>
       <c r="BG16" t="s">
         <v>86</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -12888,12 +13245,18 @@
         <v>84</v>
       </c>
       <c r="BG17" t="s">
+        <v>88</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI17" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -13068,11 +13431,17 @@
       </c>
       <c r="BG18" t="s">
         <v>91</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -13247,11 +13616,17 @@
       </c>
       <c r="BG19" t="s">
         <v>84</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -13426,11 +13801,17 @@
       </c>
       <c r="BG20" t="s">
         <v>88</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B21" t="s">
         <v>88</v>
@@ -13605,6 +13986,12 @@
       </c>
       <c r="BG21" t="s">
         <v>85</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -13659,10 +14046,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="O1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -13698,13 +14085,13 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AB1" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="AC1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AD1" t="s">
         <v>43</v>
@@ -13731,13 +14118,13 @@
         <v>51</v>
       </c>
       <c r="AL1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AM1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AN1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AO1" t="s">
         <v>52</v>
@@ -13766,7 +14153,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -13912,7 +14299,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -14058,7 +14445,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -14204,7 +14591,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -14350,7 +14737,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -14496,7 +14883,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -14642,7 +15029,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -14788,7 +15175,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -14934,7 +15321,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -15080,7 +15467,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B11" t="s">
         <v>86</v>
@@ -15226,7 +15613,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -15372,7 +15759,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -15518,7 +15905,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -15664,13 +16051,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D15" t="s">
         <v>84</v>
@@ -15810,7 +16197,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -15956,7 +16343,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -16102,7 +16489,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -16248,7 +16635,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -16394,7 +16781,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -16540,7 +16927,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -16591,7 +16978,7 @@
         <v>84</v>
       </c>
       <c r="R21" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="S21" t="s">
         <v>84</v>
@@ -16742,7 +17129,7 @@
         <v>25</v>
       </c>
       <c r="P1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q1" t="s">
         <v>26</v>
@@ -16811,10 +17198,10 @@
         <v>51</v>
       </c>
       <c r="AM1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AN1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AO1" t="s">
         <v>52</v>
@@ -16841,18 +17228,18 @@
         <v>63</v>
       </c>
       <c r="AW1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AX1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AY1" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -17007,7 +17394,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -17162,7 +17549,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -17317,7 +17704,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -17472,7 +17859,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -17627,7 +18014,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B7" t="s">
         <v>91</v>
@@ -17782,7 +18169,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -17937,7 +18324,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B9" t="s">
         <v>91</v>
@@ -18092,7 +18479,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -18247,7 +18634,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -18402,7 +18789,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -18557,7 +18944,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -18712,7 +19099,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -18867,7 +19254,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -19022,7 +19409,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -19177,7 +19564,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -19332,7 +19719,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -19487,7 +19874,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -19665,7 +20052,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -19677,7 +20064,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -19689,7 +20076,7 @@
         <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N1" t="s">
         <v>16</v>
@@ -19719,7 +20106,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -19731,7 +20118,7 @@
         <v>30</v>
       </c>
       <c r="AA1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AB1" t="s">
         <v>31</v>
@@ -19752,7 +20139,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -19764,7 +20151,7 @@
         <v>42</v>
       </c>
       <c r="AL1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AM1" t="s">
         <v>43</v>
@@ -19785,10 +20172,10 @@
         <v>51</v>
       </c>
       <c r="AS1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AT1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AU1" t="s">
         <v>52</v>
@@ -19809,7 +20196,7 @@
         <v>57</v>
       </c>
       <c r="BA1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="BB1" t="s">
         <v>61</v>
@@ -19821,24 +20208,33 @@
         <v>63</v>
       </c>
       <c r="BE1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="BF1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="BG1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="BH1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="BI1" t="s">
-        <v>143</v>
+        <v>146</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -20019,11 +20415,20 @@
       </c>
       <c r="BI2" t="s">
         <v>84</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -20204,11 +20609,20 @@
       </c>
       <c r="BI3" t="s">
         <v>84</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -20389,11 +20803,20 @@
       </c>
       <c r="BI4" t="s">
         <v>84</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -20573,12 +20996,21 @@
         <v>84</v>
       </c>
       <c r="BI5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>88</v>
+      </c>
+      <c r="BL5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -20758,12 +21190,21 @@
         <v>84</v>
       </c>
       <c r="BI6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>87</v>
+      </c>
+      <c r="BL6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -20944,11 +21385,20 @@
       </c>
       <c r="BI7" t="s">
         <v>84</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -21128,12 +21578,21 @@
         <v>84</v>
       </c>
       <c r="BI8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -21313,12 +21772,21 @@
         <v>84</v>
       </c>
       <c r="BI9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -21438,7 +21906,7 @@
         <v>84</v>
       </c>
       <c r="AO10" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AP10" t="s">
         <v>84</v>
@@ -21499,11 +21967,20 @@
       </c>
       <c r="BI10" t="s">
         <v>84</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -21684,11 +22161,20 @@
       </c>
       <c r="BI11" t="s">
         <v>85</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>90</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -21869,11 +22355,20 @@
       </c>
       <c r="BI12" t="s">
         <v>84</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -22054,11 +22549,20 @@
       </c>
       <c r="BI13" t="s">
         <v>84</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -22238,12 +22742,21 @@
         <v>84</v>
       </c>
       <c r="BI14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -22423,12 +22936,21 @@
         <v>84</v>
       </c>
       <c r="BI15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>90</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -22609,11 +23131,20 @@
       </c>
       <c r="BI16" t="s">
         <v>84</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B17" t="s">
         <v>86</v>
@@ -22793,12 +23324,21 @@
         <v>84</v>
       </c>
       <c r="BI17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>88</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -22979,11 +23519,20 @@
       </c>
       <c r="BI18" t="s">
         <v>85</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B19" t="s">
         <v>88</v>
@@ -23163,6 +23712,15 @@
         <v>85</v>
       </c>
       <c r="BI19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>91</v>
+      </c>
+      <c r="BL19" t="s">
         <v>84</v>
       </c>
     </row>
@@ -23239,7 +23797,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -23257,7 +23815,7 @@
         <v>47</v>
       </c>
       <c r="AA1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AB1" t="s">
         <v>50</v>
@@ -23266,13 +23824,13 @@
         <v>51</v>
       </c>
       <c r="AD1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AE1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AF1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AG1" t="s">
         <v>53</v>
@@ -23281,7 +23839,7 @@
         <v>54</v>
       </c>
       <c r="AI1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AJ1" t="s">
         <v>56</v>
@@ -23299,7 +23857,7 @@
         <v>62</v>
       </c>
       <c r="AO1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AP1" t="s">
         <v>64</v>
@@ -23307,7 +23865,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -23435,7 +23993,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B3" t="s">
         <v>91</v>
@@ -23563,7 +24121,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -23691,7 +24249,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -23819,7 +24377,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B6" t="s">
         <v>91</v>
@@ -23947,7 +24505,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -24075,7 +24633,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B8" t="s">
         <v>89</v>
@@ -24203,7 +24761,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -24331,7 +24889,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B10" t="s">
         <v>91</v>
@@ -24459,7 +25017,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B11" t="s">
         <v>87</v>
@@ -24587,7 +25145,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B12" t="s">
         <v>86</v>
@@ -24715,7 +25273,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -24860,7 +25418,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -24872,7 +25430,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -24890,7 +25448,7 @@
         <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="N1" t="s">
         <v>32</v>
@@ -24905,7 +25463,7 @@
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
@@ -24914,7 +25472,7 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="V1" t="s">
         <v>46</v>
@@ -24941,15 +25499,18 @@
         <v>64</v>
       </c>
       <c r="AD1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AE1" t="s">
-        <v>142</v>
+        <v>145</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -25039,12 +25600,15 @@
         <v>84</v>
       </c>
       <c r="AE2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -25135,11 +25699,14 @@
       </c>
       <c r="AE3" t="s">
         <v>84</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -25230,11 +25797,14 @@
       </c>
       <c r="AE4" t="s">
         <v>85</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B5" t="s">
         <v>91</v>
@@ -25325,11 +25895,14 @@
       </c>
       <c r="AE5" t="s">
         <v>91</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -25420,11 +25993,14 @@
       </c>
       <c r="AE6" t="s">
         <v>88</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -25515,11 +26091,14 @@
       </c>
       <c r="AE7" t="s">
         <v>84</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B8" t="s">
         <v>86</v>
@@ -25610,11 +26189,14 @@
       </c>
       <c r="AE8" t="s">
         <v>84</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -25705,11 +26287,14 @@
       </c>
       <c r="AE9" t="s">
         <v>84</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -25800,11 +26385,14 @@
       </c>
       <c r="AE10" t="s">
         <v>91</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -25895,6 +26483,9 @@
       </c>
       <c r="AE11" t="s">
         <v>86</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -25931,7 +26522,7 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
@@ -25961,7 +26552,7 @@
         <v>44</v>
       </c>
       <c r="R1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="S1" t="s">
         <v>47</v>
@@ -25970,7 +26561,7 @@
         <v>53</v>
       </c>
       <c r="U1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="V1" t="s">
         <v>56</v>
@@ -25979,21 +26570,24 @@
         <v>62</v>
       </c>
       <c r="X1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Y1" t="s">
         <v>64</v>
       </c>
       <c r="Z1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AA1" t="s">
-        <v>142</v>
+        <v>145</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
@@ -26072,11 +26666,14 @@
       </c>
       <c r="AA2" t="s">
         <v>86</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -26155,11 +26752,14 @@
       </c>
       <c r="AA3" t="s">
         <v>84</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -26238,11 +26838,14 @@
       </c>
       <c r="AA4" t="s">
         <v>84</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B5" t="s">
         <v>91</v>
@@ -26321,11 +26924,14 @@
       </c>
       <c r="AA5" t="s">
         <v>86</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B6" t="s">
         <v>87</v>
@@ -26404,11 +27010,14 @@
       </c>
       <c r="AA6" t="s">
         <v>86</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
@@ -26487,11 +27096,14 @@
       </c>
       <c r="AA7" t="s">
         <v>91</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -26570,11 +27182,14 @@
       </c>
       <c r="AA8" t="s">
         <v>84</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
@@ -26652,12 +27267,15 @@
         <v>84</v>
       </c>
       <c r="AA9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB9" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -26736,11 +27354,14 @@
       </c>
       <c r="AA10" t="s">
         <v>87</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B11" t="s">
         <v>86</v>
@@ -26818,6 +27439,9 @@
         <v>88</v>
       </c>
       <c r="AA11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB11" t="s">
         <v>84</v>
       </c>
     </row>
@@ -26858,7 +27482,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -26894,19 +27518,19 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="V1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="W1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Z1" t="s">
         <v>52</v>
@@ -26924,21 +27548,27 @@
         <v>62</v>
       </c>
       <c r="AE1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AF1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AG1" t="s">
         <v>64</v>
       </c>
       <c r="AH1" t="s">
-        <v>142</v>
+        <v>145</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B2" t="s">
         <v>91</v>
@@ -27038,11 +27668,17 @@
       </c>
       <c r="AH2" t="s">
         <v>84</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -27142,11 +27778,17 @@
       </c>
       <c r="AH3" t="s">
         <v>89</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="B4" t="s">
         <v>88</v>
@@ -27246,11 +27888,17 @@
       </c>
       <c r="AH4" t="s">
         <v>84</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="B5" t="s">
         <v>86</v>
@@ -27349,12 +27997,18 @@
         <v>84</v>
       </c>
       <c r="AH5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -27454,11 +28108,17 @@
       </c>
       <c r="AH6" t="s">
         <v>88</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -27558,11 +28218,17 @@
       </c>
       <c r="AH7" t="s">
         <v>89</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="B8" t="s">
         <v>91</v>
@@ -27662,11 +28328,17 @@
       </c>
       <c r="AH8" t="s">
         <v>84</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="B9" t="s">
         <v>88</v>
@@ -27766,11 +28438,17 @@
       </c>
       <c r="AH9" t="s">
         <v>87</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="B10" t="s">
         <v>88</v>
@@ -27870,11 +28548,17 @@
       </c>
       <c r="AH10" t="s">
         <v>88</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -27974,6 +28658,12 @@
       </c>
       <c r="AH11" t="s">
         <v>88</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -28138,10 +28828,19 @@
       <c r="AX1" t="s">
         <v>63</v>
       </c>
+      <c r="AY1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -28288,12 +28987,21 @@
         <v>88</v>
       </c>
       <c r="AX2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
         <v>91</v>
@@ -28440,12 +29148,21 @@
         <v>84</v>
       </c>
       <c r="AX3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -28592,12 +29309,21 @@
         <v>85</v>
       </c>
       <c r="AX4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -28745,11 +29471,20 @@
       </c>
       <c r="AX5" t="s">
         <v>84</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -28896,12 +29631,21 @@
         <v>86</v>
       </c>
       <c r="AX6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -29048,12 +29792,21 @@
         <v>91</v>
       </c>
       <c r="AX7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -29201,11 +29954,20 @@
       </c>
       <c r="AX8" t="s">
         <v>88</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -29353,11 +30115,20 @@
       </c>
       <c r="AX9" t="s">
         <v>85</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -29504,12 +30275,21 @@
         <v>85</v>
       </c>
       <c r="AX10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -29657,11 +30437,20 @@
       </c>
       <c r="AX11" t="s">
         <v>84</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -29808,12 +30597,21 @@
         <v>85</v>
       </c>
       <c r="AX12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -29961,11 +30759,20 @@
       </c>
       <c r="AX13" t="s">
         <v>88</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -30112,12 +30919,21 @@
         <v>86</v>
       </c>
       <c r="AX14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s">
         <v>85</v>
@@ -30264,12 +31080,21 @@
         <v>85</v>
       </c>
       <c r="AX15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -30416,12 +31241,21 @@
         <v>91</v>
       </c>
       <c r="AX16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -30569,11 +31403,20 @@
       </c>
       <c r="AX17" t="s">
         <v>86</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -30720,12 +31563,21 @@
         <v>91</v>
       </c>
       <c r="AX18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -30873,6 +31725,15 @@
       </c>
       <c r="AX19" t="s">
         <v>84</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -30900,7 +31761,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -30912,7 +31773,7 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -30942,10 +31803,10 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="T1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="U1" t="s">
         <v>26</v>
@@ -30960,7 +31821,7 @@
         <v>30</v>
       </c>
       <c r="Y1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Z1" t="s">
         <v>31</v>
@@ -30978,7 +31839,7 @@
         <v>36</v>
       </c>
       <c r="AE1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AF1" t="s">
         <v>37</v>
@@ -30990,16 +31851,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AJ1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AK1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AL1" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -31008,7 +31869,7 @@
         <v>42</v>
       </c>
       <c r="AO1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AP1" t="s">
         <v>43</v>
@@ -31029,7 +31890,7 @@
         <v>48</v>
       </c>
       <c r="AV1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AW1" t="s">
         <v>49</v>
@@ -31041,10 +31902,10 @@
         <v>51</v>
       </c>
       <c r="AZ1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="BA1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="BB1" t="s">
         <v>52</v>
@@ -31056,7 +31917,7 @@
         <v>54</v>
       </c>
       <c r="BE1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="BF1" t="s">
         <v>55</v>
@@ -31068,7 +31929,7 @@
         <v>57</v>
       </c>
       <c r="BI1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="BJ1" t="s">
         <v>61</v>
@@ -31080,27 +31941,33 @@
         <v>63</v>
       </c>
       <c r="BM1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="BN1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="BO1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="BP1" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="BQ1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="BR1" t="s">
-        <v>143</v>
+        <v>146</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -31308,11 +32175,17 @@
       </c>
       <c r="BR2" t="s">
         <v>84</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -31520,11 +32393,17 @@
       </c>
       <c r="BR3" t="s">
         <v>85</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -31732,11 +32611,17 @@
       </c>
       <c r="BR4" t="s">
         <v>84</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -31943,12 +32828,18 @@
         <v>85</v>
       </c>
       <c r="BR5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>89</v>
+      </c>
+      <c r="BT5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -32156,11 +33047,17 @@
       </c>
       <c r="BR6" t="s">
         <v>84</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -32368,11 +33265,17 @@
       </c>
       <c r="BR7" t="s">
         <v>91</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -32579,12 +33482,18 @@
         <v>85</v>
       </c>
       <c r="BR8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>88</v>
+      </c>
+      <c r="BT8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -32791,12 +33700,18 @@
         <v>88</v>
       </c>
       <c r="BR9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -33003,12 +33918,18 @@
         <v>84</v>
       </c>
       <c r="BR10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="B11" t="s">
         <v>88</v>
@@ -33216,11 +34137,17 @@
       </c>
       <c r="BR11" t="s">
         <v>84</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -33427,12 +34354,18 @@
         <v>88</v>
       </c>
       <c r="BR12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -33640,11 +34573,17 @@
       </c>
       <c r="BR13" t="s">
         <v>85</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>88</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -33851,12 +34790,18 @@
         <v>89</v>
       </c>
       <c r="BR14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>86</v>
+      </c>
+      <c r="BT14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -34064,11 +35009,17 @@
       </c>
       <c r="BR15" t="s">
         <v>89</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -34275,12 +35226,18 @@
         <v>85</v>
       </c>
       <c r="BR16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>88</v>
+      </c>
+      <c r="BT16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -34487,12 +35444,18 @@
         <v>84</v>
       </c>
       <c r="BR17" t="s">
+        <v>86</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT17" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -34699,12 +35662,18 @@
         <v>88</v>
       </c>
       <c r="BR18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>88</v>
+      </c>
+      <c r="BT18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="B19" t="s">
         <v>90</v>
@@ -34911,12 +35880,18 @@
         <v>84</v>
       </c>
       <c r="BR19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS19" t="s">
+        <v>88</v>
+      </c>
+      <c r="BT19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -35124,11 +36099,17 @@
       </c>
       <c r="BR20" t="s">
         <v>84</v>
+      </c>
+      <c r="BS20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT20" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -35336,6 +36317,12 @@
       </c>
       <c r="BR21" t="s">
         <v>88</v>
+      </c>
+      <c r="BS21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -35363,7 +36350,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -35375,7 +36362,7 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -35387,19 +36374,19 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="N1" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="O1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P1" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="Q1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
@@ -35423,7 +36410,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -35435,7 +36422,7 @@
         <v>30</v>
       </c>
       <c r="AC1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AD1" t="s">
         <v>31</v>
@@ -35447,19 +36434,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="AH1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AI1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AJ1" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="AK1" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -35471,13 +36458,13 @@
         <v>36</v>
       </c>
       <c r="AO1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AP1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AQ1" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -35489,7 +36476,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -35501,16 +36488,16 @@
         <v>42</v>
       </c>
       <c r="AY1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AZ1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="BA1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="BB1" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -35522,19 +36509,19 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="BG1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="BH1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="BI1" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="BJ1" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -35546,7 +36533,7 @@
         <v>48</v>
       </c>
       <c r="BN1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="BO1" t="s">
         <v>49</v>
@@ -35558,7 +36545,7 @@
         <v>51</v>
       </c>
       <c r="BR1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="BS1" t="s">
         <v>52</v>
@@ -35570,7 +36557,7 @@
         <v>54</v>
       </c>
       <c r="BV1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="BW1" t="s">
         <v>55</v>
@@ -35582,7 +36569,7 @@
         <v>57</v>
       </c>
       <c r="BZ1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="CA1" t="s">
         <v>61</v>
@@ -35594,18 +36581,27 @@
         <v>63</v>
       </c>
       <c r="CD1" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="CE1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="CF1" t="s">
-        <v>143</v>
+        <v>146</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -35855,11 +36851,20 @@
       </c>
       <c r="CF2" t="s">
         <v>87</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -36109,11 +37114,20 @@
       </c>
       <c r="CF3" t="s">
         <v>84</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -36362,12 +37376,21 @@
         <v>84</v>
       </c>
       <c r="CF4" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -36616,12 +37639,21 @@
         <v>84</v>
       </c>
       <c r="CF5" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -36705,7 +37737,7 @@
         <v>84</v>
       </c>
       <c r="AC6" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="AD6" t="s">
         <v>84</v>
@@ -36870,12 +37902,21 @@
         <v>89</v>
       </c>
       <c r="CF6" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>88</v>
+      </c>
+      <c r="CI6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
@@ -37124,12 +38165,21 @@
         <v>84</v>
       </c>
       <c r="CF7" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -37379,11 +38429,20 @@
       </c>
       <c r="CF8" t="s">
         <v>84</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH8" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -37633,11 +38692,20 @@
       </c>
       <c r="CF9" t="s">
         <v>84</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH9" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -37886,12 +38954,21 @@
         <v>85</v>
       </c>
       <c r="CF10" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH10" t="s">
+        <v>88</v>
+      </c>
+      <c r="CI10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -38140,12 +39217,21 @@
         <v>86</v>
       </c>
       <c r="CF11" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -38395,11 +39481,20 @@
       </c>
       <c r="CF12" t="s">
         <v>84</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH12" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI12" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -38648,12 +39743,21 @@
         <v>91</v>
       </c>
       <c r="CF13" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -38903,11 +40007,20 @@
       </c>
       <c r="CF14" t="s">
         <v>84</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH14" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -39157,11 +40270,20 @@
       </c>
       <c r="CF15" t="s">
         <v>87</v>
+      </c>
+      <c r="CG15" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH15" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI15" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -39411,11 +40533,20 @@
       </c>
       <c r="CF16" t="s">
         <v>84</v>
+      </c>
+      <c r="CG16" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH16" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI16" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -39664,12 +40795,21 @@
         <v>84</v>
       </c>
       <c r="CF17" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG17" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH17" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -39919,11 +41059,20 @@
       </c>
       <c r="CF18" t="s">
         <v>84</v>
+      </c>
+      <c r="CG18" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH18" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI18" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -39989,7 +41138,7 @@
         <v>84</v>
       </c>
       <c r="W19" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="X19" t="s">
         <v>84</v>
@@ -40172,12 +41321,21 @@
         <v>84</v>
       </c>
       <c r="CF19" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG19" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH19" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -40427,11 +41585,20 @@
       </c>
       <c r="CF20" t="s">
         <v>84</v>
+      </c>
+      <c r="CG20" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH20" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI20" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -40680,12 +41847,21 @@
         <v>86</v>
       </c>
       <c r="CF21" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG21" t="s">
+        <v>86</v>
+      </c>
+      <c r="CH21" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI21" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -40934,12 +42110,21 @@
         <v>91</v>
       </c>
       <c r="CF22" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG22" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH22" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="B23" t="s">
         <v>85</v>
@@ -41189,6 +42374,15 @@
       </c>
       <c r="CF23" t="s">
         <v>84</v>
+      </c>
+      <c r="CG23" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH23" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI23" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -41216,7 +42410,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -41228,7 +42422,7 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -41258,7 +42452,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="T1" t="s">
         <v>26</v>
@@ -41276,7 +42470,7 @@
         <v>30</v>
       </c>
       <c r="Y1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Z1" t="s">
         <v>31</v>
@@ -41297,7 +42491,7 @@
         <v>36</v>
       </c>
       <c r="AF1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AG1" t="s">
         <v>37</v>
@@ -41309,7 +42503,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -41321,7 +42515,7 @@
         <v>42</v>
       </c>
       <c r="AN1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AO1" t="s">
         <v>43</v>
@@ -41339,7 +42533,7 @@
         <v>48</v>
       </c>
       <c r="AT1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AU1" t="s">
         <v>49</v>
@@ -41351,7 +42545,7 @@
         <v>51</v>
       </c>
       <c r="AX1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AY1" t="s">
         <v>52</v>
@@ -41363,7 +42557,7 @@
         <v>54</v>
       </c>
       <c r="BB1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="BC1" t="s">
         <v>55</v>
@@ -41375,7 +42569,7 @@
         <v>57</v>
       </c>
       <c r="BF1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="BG1" t="s">
         <v>61</v>
@@ -41387,27 +42581,36 @@
         <v>63</v>
       </c>
       <c r="BJ1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="BK1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="BL1" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="BM1" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="BN1" t="s">
         <v>64</v>
       </c>
       <c r="BO1" t="s">
         <v>65</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -41605,12 +42808,21 @@
         <v>86</v>
       </c>
       <c r="BO2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -41808,12 +43020,21 @@
         <v>86</v>
       </c>
       <c r="BO3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -42012,11 +43233,20 @@
       </c>
       <c r="BO4" t="s">
         <v>84</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -42215,11 +43445,20 @@
       </c>
       <c r="BO5" t="s">
         <v>84</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -42418,11 +43657,20 @@
       </c>
       <c r="BO6" t="s">
         <v>87</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -42620,12 +43868,21 @@
         <v>84</v>
       </c>
       <c r="BO7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>87</v>
+      </c>
+      <c r="BR7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -42823,12 +44080,21 @@
         <v>86</v>
       </c>
       <c r="BO8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -43026,12 +44292,21 @@
         <v>84</v>
       </c>
       <c r="BO9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -43229,12 +44504,21 @@
         <v>91</v>
       </c>
       <c r="BO10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -43432,12 +44716,21 @@
         <v>84</v>
       </c>
       <c r="BO11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -43636,11 +44929,20 @@
       </c>
       <c r="BO12" t="s">
         <v>84</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -43838,12 +45140,21 @@
         <v>84</v>
       </c>
       <c r="BO13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -44041,12 +45352,21 @@
         <v>85</v>
       </c>
       <c r="BO14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>88</v>
+      </c>
+      <c r="BR14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -44244,12 +45564,21 @@
         <v>84</v>
       </c>
       <c r="BO15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -44448,11 +45777,20 @@
       </c>
       <c r="BO16" t="s">
         <v>88</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -44650,12 +45988,21 @@
         <v>84</v>
       </c>
       <c r="BO17" t="s">
+        <v>88</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR17" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B18" t="s">
         <v>86</v>
@@ -44854,11 +46201,20 @@
       </c>
       <c r="BO18" t="s">
         <v>84</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -45057,11 +46413,20 @@
       </c>
       <c r="BO19" t="s">
         <v>91</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -45259,12 +46624,21 @@
         <v>84</v>
       </c>
       <c r="BO20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -45462,6 +46836,15 @@
         <v>86</v>
       </c>
       <c r="BO21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR21" t="s">
         <v>84</v>
       </c>
     </row>
@@ -45604,7 +46987,7 @@
         <v>48</v>
       </c>
       <c r="AQ1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AR1" t="s">
         <v>49</v>
@@ -45645,7 +47028,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -45812,7 +47195,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -45979,7 +47362,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -46146,7 +47529,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -46313,7 +47696,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -46480,7 +47863,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -46647,7 +48030,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -46814,7 +48197,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -46981,7 +48364,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -47148,7 +48531,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -47315,7 +48698,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -47482,7 +48865,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -47649,7 +49032,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -47816,7 +49199,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -47983,7 +49366,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -48150,7 +49533,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -48317,7 +49700,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -48484,7 +49867,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -48680,7 +50063,7 @@
         <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H1" t="s">
         <v>17</v>
@@ -48713,7 +50096,7 @@
         <v>30</v>
       </c>
       <c r="R1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="S1" t="s">
         <v>32</v>
@@ -48728,7 +50111,7 @@
         <v>36</v>
       </c>
       <c r="W1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="X1" t="s">
         <v>37</v>
@@ -48746,7 +50129,7 @@
         <v>42</v>
       </c>
       <c r="AC1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AD1" t="s">
         <v>43</v>
@@ -48770,13 +50153,13 @@
         <v>51</v>
       </c>
       <c r="AK1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AL1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AM1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AN1" t="s">
         <v>53</v>
@@ -48785,7 +50168,7 @@
         <v>54</v>
       </c>
       <c r="AP1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AQ1" t="s">
         <v>55</v>
@@ -48818,27 +50201,27 @@
         <v>65</v>
       </c>
       <c r="BA1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="BB1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="BC1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="BD1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="BE1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="BF1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
         <v>91</v>
@@ -49014,7 +50397,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -49190,7 +50573,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s">
         <v>91</v>
@@ -49366,7 +50749,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -49542,7 +50925,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -49718,7 +51101,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -49894,7 +51277,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -50070,7 +51453,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -50246,7 +51629,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -50422,7 +51805,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -50598,7 +51981,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -50774,7 +52157,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -50950,7 +52333,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -51126,7 +52509,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -51302,7 +52685,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -51478,7 +52861,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -51654,7 +53037,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -51830,7 +53213,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -52006,7 +53389,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -52182,7 +53565,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -52384,10 +53767,10 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H1" t="s">
         <v>13</v>
@@ -52408,10 +53791,10 @@
         <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P1" t="s">
         <v>24</v>
@@ -52423,10 +53806,10 @@
         <v>29</v>
       </c>
       <c r="S1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="T1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -52444,10 +53827,10 @@
         <v>36</v>
       </c>
       <c r="Z1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AA1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AB1" t="s">
         <v>38</v>
@@ -52462,10 +53845,10 @@
         <v>41</v>
       </c>
       <c r="AF1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AG1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AH1" t="s">
         <v>44</v>
@@ -52480,10 +53863,10 @@
         <v>48</v>
       </c>
       <c r="AL1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AM1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AN1" t="s">
         <v>49</v>
@@ -52495,7 +53878,7 @@
         <v>51</v>
       </c>
       <c r="AQ1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AR1" t="s">
         <v>52</v>
@@ -52516,7 +53899,7 @@
         <v>62</v>
       </c>
       <c r="AX1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AY1" t="s">
         <v>64</v>
@@ -52525,24 +53908,24 @@
         <v>65</v>
       </c>
       <c r="BA1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="BB1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="BC1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="BD1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="BE1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -52554,7 +53937,7 @@
         <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F2" t="s">
         <v>86</v>
@@ -52715,7 +54098,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -52888,7 +54271,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -53061,7 +54444,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -53234,7 +54617,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -53407,7 +54790,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -53580,7 +54963,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -53753,7 +55136,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -53926,7 +55309,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -54099,7 +55482,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -54272,7 +55655,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -54445,7 +55828,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -54618,7 +56001,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -54791,7 +56174,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -54964,7 +56347,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -55137,7 +56520,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -55310,7 +56693,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -55483,7 +56866,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -55656,7 +57039,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -55829,7 +57212,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -56002,7 +57385,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -56175,7 +57558,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B23" t="s">
         <v>84</v>
@@ -56348,7 +57731,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B24" t="s">
         <v>84</v>
@@ -56521,7 +57904,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B25" t="s">
         <v>88</v>
@@ -56714,7 +58097,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -56726,34 +58109,34 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L1" t="s">
         <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="N1" t="s">
         <v>29</v>
       </c>
       <c r="O1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P1" t="s">
         <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="R1" t="s">
         <v>34</v>
@@ -56762,31 +58145,31 @@
         <v>35</v>
       </c>
       <c r="T1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="U1" t="s">
         <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="W1" t="s">
         <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Y1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Z1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AC1" t="s">
         <v>50</v>
@@ -56798,10 +58181,10 @@
         <v>53</v>
       </c>
       <c r="AF1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AG1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AH1" t="s">
         <v>56</v>
@@ -56816,24 +58199,27 @@
         <v>65</v>
       </c>
       <c r="AL1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AM1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AN1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AO1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AP1" t="s">
-        <v>143</v>
+        <v>146</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
@@ -56957,11 +58343,14 @@
       </c>
       <c r="AP2" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B3" t="s">
         <v>88</v>
@@ -57084,12 +58473,15 @@
         <v>84</v>
       </c>
       <c r="AP3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -57212,12 +58604,15 @@
         <v>84</v>
       </c>
       <c r="AP4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -57341,11 +58736,14 @@
       </c>
       <c r="AP5" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -57469,11 +58867,14 @@
       </c>
       <c r="AP6" t="s">
         <v>85</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
@@ -57596,12 +58997,15 @@
         <v>84</v>
       </c>
       <c r="AP7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B8" t="s">
         <v>86</v>
@@ -57725,11 +59129,14 @@
       </c>
       <c r="AP8" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
@@ -57852,12 +59259,15 @@
         <v>84</v>
       </c>
       <c r="AP9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B10" t="s">
         <v>91</v>
@@ -57981,11 +59391,14 @@
       </c>
       <c r="AP10" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B11" t="s">
         <v>91</v>
@@ -58109,11 +59522,14 @@
       </c>
       <c r="AP11" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -58237,11 +59653,14 @@
       </c>
       <c r="AP12" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B13" t="s">
         <v>88</v>
@@ -58365,11 +59784,14 @@
       </c>
       <c r="AP13" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -58493,11 +59915,14 @@
       </c>
       <c r="AP14" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B15" t="s">
         <v>91</v>
@@ -58621,11 +60046,14 @@
       </c>
       <c r="AP15" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -58748,12 +60176,15 @@
         <v>86</v>
       </c>
       <c r="AP16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -58877,11 +60308,14 @@
       </c>
       <c r="AP17" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B18" t="s">
         <v>91</v>
@@ -59004,12 +60438,15 @@
         <v>84</v>
       </c>
       <c r="AP18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B19" t="s">
         <v>88</v>
@@ -59133,11 +60570,14 @@
       </c>
       <c r="AP19" t="s">
         <v>88</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B20" t="s">
         <v>85</v>
@@ -59260,12 +60700,15 @@
         <v>84</v>
       </c>
       <c r="AP20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B21" t="s">
         <v>88</v>
@@ -59388,12 +60831,15 @@
         <v>85</v>
       </c>
       <c r="AP21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ21" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s">
         <v>86</v>
@@ -59516,12 +60962,15 @@
         <v>85</v>
       </c>
       <c r="AP22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B23" t="s">
         <v>86</v>
@@ -59645,11 +61094,14 @@
       </c>
       <c r="AP23" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B24" t="s">
         <v>87</v>
@@ -59772,12 +61224,15 @@
         <v>84</v>
       </c>
       <c r="AP24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B25" t="s">
         <v>91</v>
@@ -59901,6 +61356,9 @@
       </c>
       <c r="AP25" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -59925,13 +61383,13 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -59940,7 +61398,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -59949,13 +61407,13 @@
         <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M1" t="s">
         <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="O1" t="s">
         <v>28</v>
@@ -59967,37 +61425,37 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="S1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="T1" t="s">
         <v>35</v>
       </c>
       <c r="U1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="V1" t="s">
         <v>38</v>
       </c>
       <c r="W1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="X1" t="s">
         <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Z1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AC1" t="s">
         <v>49</v>
@@ -60006,10 +61464,10 @@
         <v>50</v>
       </c>
       <c r="AE1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AF1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AG1" t="s">
         <v>56</v>
@@ -60021,15 +61479,21 @@
         <v>64</v>
       </c>
       <c r="AJ1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AK1" t="s">
-        <v>141</v>
+        <v>144</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B2" t="s">
         <v>90</v>
@@ -60138,11 +61602,17 @@
       </c>
       <c r="AK2" t="s">
         <v>85</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B3" t="s">
         <v>91</v>
@@ -60251,11 +61721,17 @@
       </c>
       <c r="AK3" t="s">
         <v>86</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -60363,12 +61839,18 @@
         <v>84</v>
       </c>
       <c r="AK4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -60477,11 +61959,17 @@
       </c>
       <c r="AK5" t="s">
         <v>86</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B6" t="s">
         <v>91</v>
@@ -60590,11 +62078,17 @@
       </c>
       <c r="AK6" t="s">
         <v>85</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B7" t="s">
         <v>91</v>
@@ -60703,11 +62197,17 @@
       </c>
       <c r="AK7" t="s">
         <v>86</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -60816,11 +62316,17 @@
       </c>
       <c r="AK8" t="s">
         <v>91</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B9" t="s">
         <v>88</v>
@@ -60929,11 +62435,17 @@
       </c>
       <c r="AK9" t="s">
         <v>86</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -61041,12 +62553,18 @@
         <v>84</v>
       </c>
       <c r="AK10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B11" t="s">
         <v>91</v>
@@ -61155,11 +62673,17 @@
       </c>
       <c r="AK11" t="s">
         <v>91</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B12" t="s">
         <v>86</v>
@@ -61267,12 +62791,18 @@
         <v>84</v>
       </c>
       <c r="AK12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -61380,12 +62910,18 @@
         <v>84</v>
       </c>
       <c r="AK13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -61493,12 +63029,18 @@
         <v>84</v>
       </c>
       <c r="AK14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM14" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B15" t="s">
         <v>87</v>
@@ -61607,11 +63149,17 @@
       </c>
       <c r="AK15" t="s">
         <v>88</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B16" t="s">
         <v>88</v>
@@ -61720,11 +63268,17 @@
       </c>
       <c r="AK16" t="s">
         <v>87</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -61832,12 +63386,18 @@
         <v>84</v>
       </c>
       <c r="AK17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -61945,12 +63505,18 @@
         <v>84</v>
       </c>
       <c r="AK18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B19" t="s">
         <v>86</v>
@@ -62059,11 +63625,17 @@
       </c>
       <c r="AK19" t="s">
         <v>84</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B20" t="s">
         <v>91</v>
@@ -62172,11 +63744,17 @@
       </c>
       <c r="AK20" t="s">
         <v>85</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B21" t="s">
         <v>87</v>
@@ -62285,11 +63863,17 @@
       </c>
       <c r="AK21" t="s">
         <v>86</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B22" t="s">
         <v>91</v>
@@ -62398,11 +63982,17 @@
       </c>
       <c r="AK22" t="s">
         <v>86</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B23" t="s">
         <v>88</v>
@@ -62511,11 +64101,17 @@
       </c>
       <c r="AK23" t="s">
         <v>85</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B24" t="s">
         <v>88</v>
@@ -62624,11 +64220,17 @@
       </c>
       <c r="AK24" t="s">
         <v>84</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B25" t="s">
         <v>85</v>
@@ -62737,6 +64339,12 @@
       </c>
       <c r="AK25" t="s">
         <v>86</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -62761,61 +64369,61 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K1" t="s">
         <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M1" t="s">
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="O1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="P1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
       </c>
       <c r="T1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="U1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="V1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="W1" t="s">
         <v>46</v>
@@ -62824,19 +64432,19 @@
         <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Z1" t="s">
         <v>50</v>
       </c>
       <c r="AA1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AB1" t="s">
         <v>53</v>
       </c>
       <c r="AC1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AD1" t="s">
         <v>56</v>
@@ -62848,21 +64456,24 @@
         <v>64</v>
       </c>
       <c r="AG1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AH1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AI1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AJ1" t="s">
-        <v>143</v>
+        <v>146</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -62968,11 +64579,14 @@
       </c>
       <c r="AJ2" t="s">
         <v>84</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -63078,11 +64692,14 @@
       </c>
       <c r="AJ3" t="s">
         <v>84</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -63188,11 +64805,14 @@
       </c>
       <c r="AJ4" t="s">
         <v>84</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B5" t="s">
         <v>91</v>
@@ -63297,12 +64917,15 @@
         <v>86</v>
       </c>
       <c r="AJ5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -63408,11 +65031,14 @@
       </c>
       <c r="AJ6" t="s">
         <v>84</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B7" t="s">
         <v>89</v>
@@ -63517,12 +65143,15 @@
         <v>84</v>
       </c>
       <c r="AJ7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B8" t="s">
         <v>88</v>
@@ -63628,11 +65257,14 @@
       </c>
       <c r="AJ8" t="s">
         <v>84</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -63737,12 +65369,15 @@
         <v>85</v>
       </c>
       <c r="AJ9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -63848,11 +65483,14 @@
       </c>
       <c r="AJ10" t="s">
         <v>84</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -63958,11 +65596,14 @@
       </c>
       <c r="AJ11" t="s">
         <v>85</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B12" t="s">
         <v>86</v>
@@ -64068,11 +65709,14 @@
       </c>
       <c r="AJ12" t="s">
         <v>91</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -64177,12 +65821,15 @@
         <v>84</v>
       </c>
       <c r="AJ13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B14" t="s">
         <v>91</v>
@@ -64288,11 +65935,14 @@
       </c>
       <c r="AJ14" t="s">
         <v>84</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B15" t="s">
         <v>85</v>
@@ -64397,12 +66047,15 @@
         <v>88</v>
       </c>
       <c r="AJ15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B16" t="s">
         <v>91</v>
@@ -64508,11 +66161,14 @@
       </c>
       <c r="AJ16" t="s">
         <v>84</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -64618,11 +66274,14 @@
       </c>
       <c r="AJ17" t="s">
         <v>84</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -64727,12 +66386,15 @@
         <v>84</v>
       </c>
       <c r="AJ18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B19" t="s">
         <v>89</v>
@@ -64838,11 +66500,14 @@
       </c>
       <c r="AJ19" t="s">
         <v>84</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B20" t="s">
         <v>86</v>
@@ -64947,12 +66612,15 @@
         <v>84</v>
       </c>
       <c r="AJ20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B21" t="s">
         <v>86</v>
@@ -65058,11 +66726,14 @@
       </c>
       <c r="AJ21" t="s">
         <v>84</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B22" t="s">
         <v>85</v>
@@ -65167,12 +66838,15 @@
         <v>89</v>
       </c>
       <c r="AJ22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B23" t="s">
         <v>86</v>
@@ -65277,12 +66951,15 @@
         <v>88</v>
       </c>
       <c r="AJ23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK23" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B24" t="s">
         <v>84</v>
@@ -65387,6 +67064,9 @@
         <v>91</v>
       </c>
       <c r="AJ24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK24" t="s">
         <v>84</v>
       </c>
     </row>
@@ -65496,7 +67176,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -65535,7 +67215,7 @@
         <v>51</v>
       </c>
       <c r="AS1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AT1" t="s">
         <v>53</v>
@@ -65553,12 +67233,21 @@
         <v>57</v>
       </c>
       <c r="AY1" t="s">
-        <v>290</v>
+        <v>294</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -65709,11 +67398,20 @@
       </c>
       <c r="AY2" t="s">
         <v>86</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -65864,11 +67562,20 @@
       </c>
       <c r="AY3" t="s">
         <v>86</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -66019,11 +67726,20 @@
       </c>
       <c r="AY4" t="s">
         <v>86</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -66174,11 +67890,20 @@
       </c>
       <c r="AY5" t="s">
         <v>84</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -66329,11 +68054,20 @@
       </c>
       <c r="AY6" t="s">
         <v>85</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -66484,11 +68218,20 @@
       </c>
       <c r="AY7" t="s">
         <v>88</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -66639,11 +68382,20 @@
       </c>
       <c r="AY8" t="s">
         <v>86</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -66793,12 +68545,21 @@
         <v>90</v>
       </c>
       <c r="AY9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -66949,11 +68710,20 @@
       </c>
       <c r="AY10" t="s">
         <v>87</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -67104,11 +68874,20 @@
       </c>
       <c r="AY11" t="s">
         <v>88</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B12" t="s">
         <v>91</v>
@@ -67258,12 +69037,21 @@
         <v>87</v>
       </c>
       <c r="AY12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -67414,11 +69202,20 @@
       </c>
       <c r="AY13" t="s">
         <v>86</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B14" t="s">
         <v>91</v>
@@ -67568,12 +69365,21 @@
         <v>84</v>
       </c>
       <c r="AY14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB14" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -67724,11 +69530,20 @@
       </c>
       <c r="AY15" t="s">
         <v>91</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -67879,11 +69694,20 @@
       </c>
       <c r="AY16" t="s">
         <v>88</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -68034,11 +69858,20 @@
       </c>
       <c r="AY17" t="s">
         <v>87</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -68189,11 +70022,20 @@
       </c>
       <c r="AY18" t="s">
         <v>86</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -68344,11 +70186,20 @@
       </c>
       <c r="AY19" t="s">
         <v>86</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -68499,11 +70350,20 @@
       </c>
       <c r="AY20" t="s">
         <v>84</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -68654,6 +70514,15 @@
       </c>
       <c r="AY21" t="s">
         <v>87</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
